--- a/Demo.xlsx
+++ b/Demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH171300-1522\PycharmProjects\wifi_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65B9451-D0B9-4D5D-8793-A2C08F84A943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41FA15F-5BA6-4D4F-B0BC-BEF3CECC9325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coffey RVR" sheetId="36" r:id="rId1"/>
@@ -734,7 +734,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -762,12 +762,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,7 +1012,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1118,16 +1112,10 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1136,73 +1124,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1212,19 +1161,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1232,7 +1220,7 @@
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
-  <dxfs count="121">
+  <dxfs count="120">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2164,16 +2152,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2379,8 +2357,86 @@
             <c:numRef>
               <c:f>'Coffey RVR'!$E$7:$E$32</c:f>
               <c:numCache>
-                <c:formatCode>0_ </c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>155.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>119.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>148.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>148.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>166.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>158.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>121.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>152.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>134.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>194.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>121.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>147.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>147.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>103.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>167.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>146.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>143.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>181.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>193.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>120.3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3002,7 +3058,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0_ " sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3047,6 +3103,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9764,6 +9836,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -25229,7 +25317,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D32"/>
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -25259,196 +25347,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
     </row>
     <row r="3" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
     </row>
     <row r="4" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
     </row>
     <row r="5" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="43" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="32"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
       <c r="O5" s="32"/>
       <c r="P5" s="32"/>
       <c r="Q5" s="32"/>
       <c r="R5" s="32"/>
-      <c r="S5" s="44" t="s">
+      <c r="S5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="43" t="s">
+      <c r="T5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="U5" s="44" t="s">
+      <c r="U5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="V5" s="37" t="s">
+      <c r="V5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="W5" s="37" t="s">
+      <c r="W5" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="27" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
       <c r="L6" s="32"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
       <c r="O6" s="32"/>
       <c r="P6" s="32"/>
       <c r="Q6" s="32"/>
       <c r="R6" s="32"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
       <c r="V6" s="27" t="s">
         <v>31</v>
       </c>
@@ -25457,7 +25545,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="39" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="31">
@@ -25466,17 +25554,19 @@
       <c r="C7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="73">
+      <c r="D7" s="37">
         <v>133</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="41" t="s">
+      <c r="E7" s="37">
+        <v>133</v>
+      </c>
+      <c r="F7" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="39" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="31" t="str">
@@ -25498,7 +25588,7 @@
       <c r="P7" s="32"/>
       <c r="Q7" s="32"/>
       <c r="R7" s="32"/>
-      <c r="S7" s="41" t="s">
+      <c r="S7" s="39" t="s">
         <v>35</v>
       </c>
       <c r="T7" s="31">
@@ -25507,24 +25597,26 @@
       <c r="U7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V7" s="34"/>
-      <c r="W7" s="35"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="34"/>
     </row>
     <row r="8" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="42"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="31">
         <v>3</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="37">
         <v>155.30000000000001</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
+      <c r="E8" s="37">
+        <v>155.30000000000001</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
       <c r="I8" s="31" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
@@ -25544,31 +25636,33 @@
       <c r="P8" s="32"/>
       <c r="Q8" s="32"/>
       <c r="R8" s="32"/>
-      <c r="S8" s="42"/>
+      <c r="S8" s="40"/>
       <c r="T8" s="31">
         <v>3</v>
       </c>
       <c r="U8" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V8" s="34"/>
-      <c r="W8" s="35"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="34"/>
     </row>
     <row r="9" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="42"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="31">
         <v>6</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="37">
         <v>119.4</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
+      <c r="E9" s="37">
+        <v>119.4</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="31" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
@@ -25588,31 +25682,33 @@
       <c r="P9" s="32"/>
       <c r="Q9" s="32"/>
       <c r="R9" s="32"/>
-      <c r="S9" s="42"/>
+      <c r="S9" s="40"/>
       <c r="T9" s="31">
         <v>6</v>
       </c>
       <c r="U9" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="34"/>
-      <c r="W9" s="35"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="34"/>
     </row>
     <row r="10" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="42"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="31">
         <v>9</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="37">
         <v>148.6</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+      <c r="E10" s="37">
+        <v>148.6</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="31" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
@@ -25632,31 +25728,33 @@
       <c r="P10" s="32"/>
       <c r="Q10" s="32"/>
       <c r="R10" s="32"/>
-      <c r="S10" s="42"/>
+      <c r="S10" s="40"/>
       <c r="T10" s="31">
         <v>9</v>
       </c>
       <c r="U10" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V10" s="34"/>
-      <c r="W10" s="35"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="34"/>
     </row>
     <row r="11" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="42"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="31">
         <v>12</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="73">
+      <c r="D11" s="37">
         <v>148.9</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
+      <c r="E11" s="37">
+        <v>148.9</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="31" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
@@ -25676,31 +25774,33 @@
       <c r="P11" s="32"/>
       <c r="Q11" s="32"/>
       <c r="R11" s="32"/>
-      <c r="S11" s="42"/>
+      <c r="S11" s="40"/>
       <c r="T11" s="31">
         <v>12</v>
       </c>
       <c r="U11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V11" s="34"/>
-      <c r="W11" s="35"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="34"/>
     </row>
     <row r="12" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="42"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="31">
         <v>15</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="37">
         <v>160.9</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
+      <c r="E12" s="37">
+        <v>160.9</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="31" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
@@ -25720,33 +25820,35 @@
       <c r="P12" s="32"/>
       <c r="Q12" s="32"/>
       <c r="R12" s="32"/>
-      <c r="S12" s="42"/>
+      <c r="S12" s="40"/>
       <c r="T12" s="31">
         <v>15</v>
       </c>
       <c r="U12" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V12" s="34"/>
-      <c r="W12" s="35"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="34"/>
     </row>
     <row r="13" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="42"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="31">
         <v>18</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="74">
+      <c r="D13" s="38">
         <v>166.4</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41" t="s">
+      <c r="E13" s="38">
+        <v>166.4</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I13" s="31" t="s">
@@ -25767,31 +25869,33 @@
       <c r="P13" s="32"/>
       <c r="Q13" s="32"/>
       <c r="R13" s="32"/>
-      <c r="S13" s="42"/>
+      <c r="S13" s="40"/>
       <c r="T13" s="31">
         <v>18</v>
       </c>
       <c r="U13" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V13" s="34"/>
-      <c r="W13" s="35"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="34"/>
     </row>
     <row r="14" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="42"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="31">
         <v>21</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="74">
+      <c r="D14" s="38">
         <v>158.9</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="E14" s="38">
+        <v>158.9</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
       <c r="I14" s="31" t="s">
         <v>20</v>
       </c>
@@ -25810,31 +25914,33 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="32"/>
       <c r="R14" s="32"/>
-      <c r="S14" s="42"/>
+      <c r="S14" s="40"/>
       <c r="T14" s="31">
         <v>21</v>
       </c>
       <c r="U14" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V14" s="34"/>
-      <c r="W14" s="35"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="34"/>
     </row>
     <row r="15" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="42"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="31">
         <v>24</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="74">
+      <c r="D15" s="38">
         <v>120.9</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="E15" s="38">
+        <v>120.9</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
       <c r="I15" s="31" t="s">
         <v>20</v>
       </c>
@@ -25844,7 +25950,7 @@
       </c>
       <c r="K15" s="31" t="str">
         <f t="shared" ref="K15:K22" si="2">IF(AND(MIN(D15:D15)&gt;100,MIN(E15:E15)&gt;80),"Pass","Fail")</f>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
       <c r="L15" s="32"/>
       <c r="M15" s="32"/>
@@ -25853,31 +25959,33 @@
       <c r="P15" s="32"/>
       <c r="Q15" s="32"/>
       <c r="R15" s="32"/>
-      <c r="S15" s="42"/>
+      <c r="S15" s="40"/>
       <c r="T15" s="31">
         <v>24</v>
       </c>
       <c r="U15" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V15" s="34"/>
-      <c r="W15" s="35"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="34"/>
     </row>
     <row r="16" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="42"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="31">
         <v>27</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="74">
+      <c r="D16" s="38">
         <v>121.6</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="E16" s="38">
+        <v>121.6</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
       <c r="I16" s="31" t="s">
         <v>20</v>
       </c>
@@ -25887,7 +25995,7 @@
       </c>
       <c r="K16" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
       <c r="L16" s="32"/>
       <c r="M16" s="32"/>
@@ -25896,33 +26004,35 @@
       <c r="P16" s="32"/>
       <c r="Q16" s="32"/>
       <c r="R16" s="32"/>
-      <c r="S16" s="42"/>
+      <c r="S16" s="40"/>
       <c r="T16" s="31">
         <v>27</v>
       </c>
       <c r="U16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V16" s="34"/>
-      <c r="W16" s="35"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="34"/>
     </row>
     <row r="17" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="42"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="31">
         <v>30</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="74">
+      <c r="D17" s="38">
         <v>152.6</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41" t="s">
+      <c r="E17" s="38">
+        <v>152.6</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="39" t="s">
         <v>42</v>
       </c>
       <c r="I17" s="31" t="s">
@@ -25930,11 +26040,11 @@
       </c>
       <c r="J17" s="31" t="str">
         <f t="shared" ref="J17:J22" si="3">IF(AND(MIN(D17:D17)&gt;100,MIN(E17:E17)&gt;80),"Pass","Fail")</f>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
       <c r="K17" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
@@ -25943,41 +26053,43 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="32"/>
       <c r="R17" s="32"/>
-      <c r="S17" s="42"/>
+      <c r="S17" s="40"/>
       <c r="T17" s="31">
         <v>30</v>
       </c>
       <c r="U17" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V17" s="34"/>
-      <c r="W17" s="35"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="34"/>
     </row>
     <row r="18" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="42"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="31">
         <v>33</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="74">
+      <c r="D18" s="38">
         <v>182</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
+      <c r="E18" s="38">
+        <v>182</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
       <c r="I18" s="31" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
       <c r="K18" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
       <c r="L18" s="32"/>
       <c r="M18" s="32"/>
@@ -25986,41 +26098,43 @@
       <c r="P18" s="32"/>
       <c r="Q18" s="32"/>
       <c r="R18" s="32"/>
-      <c r="S18" s="42"/>
+      <c r="S18" s="40"/>
       <c r="T18" s="31">
         <v>33</v>
       </c>
       <c r="U18" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V18" s="34"/>
-      <c r="W18" s="35"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="34"/>
     </row>
     <row r="19" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="42"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="31">
         <v>36</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="74">
+      <c r="D19" s="38">
         <v>134.19999999999999</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
+      <c r="E19" s="38">
+        <v>134.19999999999999</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
       <c r="I19" s="31" t="s">
         <v>20</v>
       </c>
       <c r="J19" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
       <c r="K19" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
@@ -26029,44 +26143,46 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="32"/>
       <c r="R19" s="32"/>
-      <c r="S19" s="42"/>
+      <c r="S19" s="40"/>
       <c r="T19" s="31">
         <v>36</v>
       </c>
       <c r="U19" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V19" s="34"/>
-      <c r="W19" s="35"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="34"/>
     </row>
     <row r="20" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="42"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="31">
         <v>39</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="74">
+      <c r="D20" s="38">
         <v>194.5</v>
       </c>
-      <c r="E20" s="33"/>
+      <c r="E20" s="38">
+        <v>194.5</v>
+      </c>
       <c r="F20" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
       <c r="I20" s="31" t="str">
         <f>IF(AND(MIN(D20:D20)&gt;0,MIN(E20:E20)&gt;0),"Pass","Fail")</f>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
       <c r="J20" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
       <c r="K20" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
@@ -26075,43 +26191,45 @@
       <c r="P20" s="32"/>
       <c r="Q20" s="32"/>
       <c r="R20" s="32"/>
-      <c r="S20" s="42"/>
+      <c r="S20" s="40"/>
       <c r="T20" s="31">
         <v>39</v>
       </c>
       <c r="U20" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V20" s="34"/>
-      <c r="W20" s="35"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="34"/>
     </row>
     <row r="21" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="42"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="31">
         <v>42</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="74">
+      <c r="D21" s="38">
         <v>121.4</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="41" t="s">
+      <c r="E21" s="38">
+        <v>121.4</v>
+      </c>
+      <c r="F21" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
       <c r="I21" s="31" t="s">
         <v>20</v>
       </c>
       <c r="J21" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
       <c r="K21" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
@@ -26120,41 +26238,43 @@
       <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
       <c r="R21" s="32"/>
-      <c r="S21" s="42"/>
+      <c r="S21" s="40"/>
       <c r="T21" s="31">
         <v>42</v>
       </c>
       <c r="U21" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V21" s="34"/>
-      <c r="W21" s="35"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="34"/>
     </row>
     <row r="22" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="42"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="31">
         <v>45</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="74">
+      <c r="D22" s="38">
         <v>147.1</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
+      <c r="E22" s="38">
+        <v>147.1</v>
+      </c>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="31" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
       <c r="K22" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
@@ -26163,33 +26283,35 @@
       <c r="P22" s="32"/>
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
-      <c r="S22" s="42"/>
+      <c r="S22" s="40"/>
       <c r="T22" s="31">
         <v>45</v>
       </c>
       <c r="U22" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V22" s="34"/>
-      <c r="W22" s="35"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="34"/>
     </row>
     <row r="23" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="42"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="31">
         <v>48</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="74">
+      <c r="D23" s="38">
         <v>147.30000000000001</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41" t="s">
+      <c r="E23" s="38">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="41" t="s">
+      <c r="H23" s="39" t="s">
         <v>22</v>
       </c>
       <c r="I23" s="31" t="s">
@@ -26208,31 +26330,33 @@
       <c r="P23" s="32"/>
       <c r="Q23" s="32"/>
       <c r="R23" s="32"/>
-      <c r="S23" s="42"/>
+      <c r="S23" s="40"/>
       <c r="T23" s="31">
         <v>48</v>
       </c>
       <c r="U23" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V23" s="34"/>
-      <c r="W23" s="35"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="34"/>
     </row>
     <row r="24" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="42"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="31">
         <v>51</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="74">
+      <c r="D24" s="38">
         <v>103.7</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
+      <c r="E24" s="38">
+        <v>103.7</v>
+      </c>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="31" t="s">
         <v>20</v>
       </c>
@@ -26249,31 +26373,33 @@
       <c r="P24" s="32"/>
       <c r="Q24" s="32"/>
       <c r="R24" s="32"/>
-      <c r="S24" s="42"/>
+      <c r="S24" s="40"/>
       <c r="T24" s="31">
         <v>51</v>
       </c>
       <c r="U24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V24" s="34"/>
-      <c r="W24" s="35"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="34"/>
     </row>
     <row r="25" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="42"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="31">
         <v>54</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="74">
+      <c r="D25" s="38">
         <v>167.5</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
+      <c r="E25" s="38">
+        <v>167.5</v>
+      </c>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="31" t="s">
         <v>20</v>
       </c>
@@ -26290,31 +26416,33 @@
       <c r="P25" s="32"/>
       <c r="Q25" s="32"/>
       <c r="R25" s="32"/>
-      <c r="S25" s="42"/>
+      <c r="S25" s="40"/>
       <c r="T25" s="31">
         <v>54</v>
       </c>
       <c r="U25" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V25" s="34"/>
-      <c r="W25" s="35"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="34"/>
     </row>
     <row r="26" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="42"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="31">
         <v>57</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="74">
+      <c r="D26" s="38">
         <v>146.9</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
+      <c r="E26" s="38">
+        <v>146.9</v>
+      </c>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="31" t="s">
         <v>20</v>
       </c>
@@ -26331,31 +26459,33 @@
       <c r="P26" s="32"/>
       <c r="Q26" s="32"/>
       <c r="R26" s="32"/>
-      <c r="S26" s="42"/>
+      <c r="S26" s="40"/>
       <c r="T26" s="31">
         <v>57</v>
       </c>
       <c r="U26" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V26" s="34"/>
-      <c r="W26" s="35"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="34"/>
     </row>
     <row r="27" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="42"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="31">
         <v>60</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="74">
+      <c r="D27" s="38">
         <v>104</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
+      <c r="E27" s="38">
+        <v>104</v>
+      </c>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
       <c r="I27" s="31" t="s">
         <v>20</v>
       </c>
@@ -26372,31 +26502,33 @@
       <c r="P27" s="32"/>
       <c r="Q27" s="32"/>
       <c r="R27" s="32"/>
-      <c r="S27" s="42"/>
+      <c r="S27" s="40"/>
       <c r="T27" s="31">
         <v>60</v>
       </c>
       <c r="U27" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V27" s="34"/>
-      <c r="W27" s="35"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="34"/>
     </row>
     <row r="28" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="42"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="31">
         <v>63</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="74">
+      <c r="D28" s="38">
         <v>127.5</v>
       </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
+      <c r="E28" s="38">
+        <v>127.5</v>
+      </c>
+      <c r="F28" s="39"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
       <c r="I28" s="31" t="s">
         <v>20</v>
       </c>
@@ -26413,31 +26545,33 @@
       <c r="P28" s="32"/>
       <c r="Q28" s="32"/>
       <c r="R28" s="32"/>
-      <c r="S28" s="42"/>
+      <c r="S28" s="40"/>
       <c r="T28" s="31">
         <v>63</v>
       </c>
       <c r="U28" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V28" s="34"/>
-      <c r="W28" s="35"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="34"/>
     </row>
     <row r="29" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="42"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="31">
         <v>66</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="74">
+      <c r="D29" s="38">
         <v>143.19999999999999</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
+      <c r="E29" s="38">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="F29" s="39"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
       <c r="I29" s="31" t="s">
         <v>20</v>
       </c>
@@ -26454,31 +26588,33 @@
       <c r="P29" s="32"/>
       <c r="Q29" s="32"/>
       <c r="R29" s="32"/>
-      <c r="S29" s="42"/>
+      <c r="S29" s="40"/>
       <c r="T29" s="31">
         <v>66</v>
       </c>
       <c r="U29" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V29" s="34"/>
-      <c r="W29" s="35"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="34"/>
     </row>
     <row r="30" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="42"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="31">
         <v>69</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="74">
+      <c r="D30" s="38">
         <v>181.7</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
+      <c r="E30" s="38">
+        <v>181.7</v>
+      </c>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
       <c r="I30" s="31" t="s">
         <v>20</v>
       </c>
@@ -26495,31 +26631,33 @@
       <c r="P30" s="32"/>
       <c r="Q30" s="32"/>
       <c r="R30" s="32"/>
-      <c r="S30" s="42"/>
+      <c r="S30" s="40"/>
       <c r="T30" s="31">
         <v>69</v>
       </c>
       <c r="U30" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V30" s="34"/>
-      <c r="W30" s="35"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="34"/>
     </row>
     <row r="31" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="42"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="31">
         <v>72</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="74">
+      <c r="D31" s="38">
         <v>193.2</v>
       </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
+      <c r="E31" s="38">
+        <v>193.2</v>
+      </c>
+      <c r="F31" s="39"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="31" t="s">
         <v>20</v>
       </c>
@@ -26536,31 +26674,33 @@
       <c r="P31" s="32"/>
       <c r="Q31" s="32"/>
       <c r="R31" s="32"/>
-      <c r="S31" s="42"/>
+      <c r="S31" s="40"/>
       <c r="T31" s="31">
         <v>72</v>
       </c>
       <c r="U31" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V31" s="34"/>
-      <c r="W31" s="35"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="34"/>
     </row>
     <row r="32" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="42"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="31">
         <v>75</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="74">
+      <c r="D32" s="38">
         <v>120.3</v>
       </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
+      <c r="E32" s="38">
+        <v>120.3</v>
+      </c>
+      <c r="F32" s="39"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
       <c r="I32" s="31" t="s">
         <v>20</v>
       </c>
@@ -26577,31 +26717,18 @@
       <c r="P32" s="32"/>
       <c r="Q32" s="32"/>
       <c r="R32" s="32"/>
-      <c r="S32" s="42"/>
+      <c r="S32" s="40"/>
       <c r="T32" s="31">
         <v>75</v>
       </c>
       <c r="U32" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V32" s="34"/>
-      <c r="W32" s="35"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A7:A32"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A4:W4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="F21:F32"/>
-    <mergeCell ref="H23:H32"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G12"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="G17:G22"/>
-    <mergeCell ref="G23:G32"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:W2"/>
     <mergeCell ref="S7:S32"/>
@@ -26618,18 +26745,21 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F7:F12"/>
     <mergeCell ref="F13:F19"/>
+    <mergeCell ref="A7:A32"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="F21:F32"/>
+    <mergeCell ref="H23:H32"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="G17:G22"/>
+    <mergeCell ref="G23:G32"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="E7:E12">
-    <cfRule type="cellIs" dxfId="119" priority="8" operator="lessThan">
-      <formula>499</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="118" priority="6" operator="lessThan">
-      <formula>91.2</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I5:K32">
     <cfRule type="containsText" dxfId="117" priority="15" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I5)))</formula>
@@ -26672,213 +26802,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
     </row>
     <row r="2" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="68"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="49"/>
     </row>
     <row r="3" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="68"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="49"/>
     </row>
     <row r="4" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="67"/>
-      <c r="AE4" s="68"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="49"/>
     </row>
     <row r="5" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="53" t="s">
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="53" t="s">
+      <c r="M5" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="53" t="s">
+      <c r="N5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="53" t="s">
+      <c r="O5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="53" t="s">
+      <c r="P5" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="56" t="s">
+      <c r="Q5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="56" t="s">
+      <c r="R5" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="56" t="s">
+      <c r="S5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="U5" s="56" t="s">
+      <c r="U5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="53" t="s">
+      <c r="V5" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="W5" s="50" t="s">
+      <c r="W5" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="X5" s="53" t="s">
+      <c r="X5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="69"/>
-      <c r="AB5" s="69"/>
-      <c r="AC5" s="69"/>
-      <c r="AD5" s="69"/>
-      <c r="AE5" s="70"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="53"/>
     </row>
     <row r="6" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
@@ -26903,17 +27033,17 @@
       <c r="K6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
       <c r="X6" s="4" t="s">
         <v>19</v>
       </c>
@@ -26940,10 +27070,10 @@
       </c>
     </row>
     <row r="7" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="65" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -26965,13 +27095,13 @@
         <f t="shared" ref="M7:M18" si="1">MIN(D7:K7)/L7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N7" s="57" t="s">
+      <c r="N7" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="57" t="s">
+      <c r="O7" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="57" t="s">
+      <c r="P7" s="62" t="s">
         <v>61</v>
       </c>
       <c r="Q7" s="19" t="e">
@@ -26986,10 +27116,10 @@
         <f>IF(AND(L7&gt;=85.5,M7&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U7" s="47" t="s">
+      <c r="U7" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="V7" s="47" t="s">
+      <c r="V7" s="65" t="s">
         <v>15</v>
       </c>
       <c r="W7" s="5" t="s">
@@ -27005,8 +27135,8 @@
       <c r="AE7" s="20"/>
     </row>
     <row r="8" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="63"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="5" t="s">
         <v>63</v>
       </c>
@@ -27026,9 +27156,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
       <c r="Q8" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -27041,8 +27171,8 @@
         <f>IF(AND(L8&gt;=66.5,M8&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
       <c r="W8" s="5" t="s">
         <v>63</v>
       </c>
@@ -27056,8 +27186,8 @@
       <c r="AE8" s="20"/>
     </row>
     <row r="9" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="63"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="7" t="s">
         <v>64</v>
       </c>
@@ -27077,9 +27207,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
       <c r="Q9" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -27092,8 +27222,8 @@
         <f>IF(AND(L9&gt;=30),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
       <c r="W9" s="7" t="s">
         <v>64</v>
       </c>
@@ -27107,8 +27237,8 @@
       <c r="AE9" s="20"/>
     </row>
     <row r="10" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="63"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="7" t="s">
         <v>65</v>
       </c>
@@ -27128,9 +27258,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
       <c r="Q10" s="19" t="str">
         <f>IF(AND(MIN(D10:K10)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -27143,8 +27273,8 @@
         <f>IF(AND(MIN(D10:K10)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U10" s="48"/>
-      <c r="V10" s="46"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="60"/>
       <c r="W10" s="7" t="s">
         <v>65</v>
       </c>
@@ -27158,8 +27288,8 @@
       <c r="AE10" s="20"/>
     </row>
     <row r="11" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="63"/>
-      <c r="B11" s="47" t="s">
+      <c r="A11" s="69"/>
+      <c r="B11" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -27181,9 +27311,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
       <c r="Q11" s="19" t="e">
         <f t="shared" ref="Q11:Q13" si="3">IF(AND(L11&gt;=20,M11&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -27196,8 +27326,8 @@
         <f>IF(AND(L11&gt;=85.5,M11&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U11" s="48"/>
-      <c r="V11" s="47" t="s">
+      <c r="U11" s="63"/>
+      <c r="V11" s="65" t="s">
         <v>16</v>
       </c>
       <c r="W11" s="5" t="s">
@@ -27213,8 +27343,8 @@
       <c r="AE11" s="20"/>
     </row>
     <row r="12" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="63"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="5" t="s">
         <v>63</v>
       </c>
@@ -27234,9 +27364,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
       <c r="Q12" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -27249,8 +27379,8 @@
         <f>IF(AND(L12&gt;=66.5,M12&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
       <c r="W12" s="5" t="s">
         <v>63</v>
       </c>
@@ -27264,8 +27394,8 @@
       <c r="AE12" s="20"/>
     </row>
     <row r="13" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="63"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="7" t="s">
         <v>64</v>
       </c>
@@ -27285,9 +27415,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
       <c r="Q13" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -27300,8 +27430,8 @@
         <f>IF(AND(L13&gt;=30),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
       <c r="W13" s="7" t="s">
         <v>64</v>
       </c>
@@ -27315,8 +27445,8 @@
       <c r="AE13" s="20"/>
     </row>
     <row r="14" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="63"/>
-      <c r="B14" s="46"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="7" t="s">
         <v>65</v>
       </c>
@@ -27336,9 +27466,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
       <c r="Q14" s="19" t="str">
         <f>IF(AND(MIN(D14:K14)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -27351,8 +27481,8 @@
         <f>IF(AND(MIN(D14:K14)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U14" s="48"/>
-      <c r="V14" s="46"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="60"/>
       <c r="W14" s="7" t="s">
         <v>65</v>
       </c>
@@ -27366,8 +27496,8 @@
       <c r="AE14" s="20"/>
     </row>
     <row r="15" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="63"/>
-      <c r="B15" s="47" t="s">
+      <c r="A15" s="69"/>
+      <c r="B15" s="65" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -27389,9 +27519,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
       <c r="Q15" s="19" t="e">
         <f t="shared" ref="Q15:Q17" si="4">IF(AND(L15&gt;=20,M15&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -27404,8 +27534,8 @@
         <f>IF(AND(L15&gt;=85.5,M15&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U15" s="48"/>
-      <c r="V15" s="47" t="s">
+      <c r="U15" s="63"/>
+      <c r="V15" s="65" t="s">
         <v>17</v>
       </c>
       <c r="W15" s="5" t="s">
@@ -27421,8 +27551,8 @@
       <c r="AE15" s="20"/>
     </row>
     <row r="16" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="63"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="5" t="s">
         <v>63</v>
       </c>
@@ -27442,9 +27572,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
       <c r="Q16" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -27457,8 +27587,8 @@
         <f>IF(AND(L16&gt;=66.5,M16&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
       <c r="W16" s="5" t="s">
         <v>63</v>
       </c>
@@ -27472,8 +27602,8 @@
       <c r="AE16" s="20"/>
     </row>
     <row r="17" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="63"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="7" t="s">
         <v>64</v>
       </c>
@@ -27493,9 +27623,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
       <c r="Q17" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -27508,8 +27638,8 @@
         <f>IF(AND(L17&gt;=30),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
       <c r="W17" s="7" t="s">
         <v>64</v>
       </c>
@@ -27523,8 +27653,8 @@
       <c r="AE17" s="20"/>
     </row>
     <row r="18" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="63"/>
-      <c r="B18" s="46"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="7" t="s">
         <v>65</v>
       </c>
@@ -27544,9 +27674,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
       <c r="Q18" s="19" t="str">
         <f>IF(AND(MIN(D18:K18)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -27559,8 +27689,8 @@
         <f>IF(AND(MIN(D18:K18)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
       <c r="W18" s="7" t="s">
         <v>65</v>
       </c>
@@ -27574,7 +27704,7 @@
       <c r="AE18" s="20"/>
     </row>
     <row r="19" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="63"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -27595,7 +27725,7 @@
       <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="63"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="11"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -27620,7 +27750,7 @@
       <c r="X20" s="23"/>
     </row>
     <row r="21" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="63"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="11"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -27645,7 +27775,7 @@
       <c r="X21" s="23"/>
     </row>
     <row r="22" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="63"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="11"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -27670,7 +27800,7 @@
       <c r="X22" s="23"/>
     </row>
     <row r="23" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="63"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="11"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -27695,7 +27825,7 @@
       <c r="X23" s="23"/>
     </row>
     <row r="24" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="63"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="11"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -27720,7 +27850,7 @@
       <c r="X24" s="23"/>
     </row>
     <row r="25" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="63"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="11"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -27745,7 +27875,7 @@
       <c r="X25" s="23"/>
     </row>
     <row r="26" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="63"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="11"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -27770,7 +27900,7 @@
       <c r="X26" s="23"/>
     </row>
     <row r="27" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="63"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -27795,71 +27925,71 @@
       <c r="X27" s="23"/>
     </row>
     <row r="28" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="63"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="69"/>
+      <c r="B28" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="58" t="s">
+      <c r="D28" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="45" t="s">
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="M28" s="45" t="s">
+      <c r="M28" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="N28" s="53" t="s">
+      <c r="N28" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="O28" s="53" t="s">
+      <c r="O28" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="P28" s="53" t="s">
+      <c r="P28" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="Q28" s="56" t="s">
+      <c r="Q28" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="R28" s="56" t="s">
+      <c r="R28" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="S28" s="56" t="s">
+      <c r="S28" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="U28" s="49" t="s">
+      <c r="U28" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="V28" s="45" t="s">
+      <c r="V28" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="W28" s="51" t="s">
+      <c r="W28" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="X28" s="45" t="s">
+      <c r="X28" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="64"/>
-      <c r="AB28" s="64"/>
-      <c r="AC28" s="64"/>
-      <c r="AD28" s="64"/>
-      <c r="AE28" s="65"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="57"/>
+      <c r="AC28" s="57"/>
+      <c r="AD28" s="57"/>
+      <c r="AE28" s="58"/>
     </row>
     <row r="29" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="63"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="4" t="s">
         <v>19</v>
       </c>
@@ -27884,17 +28014,17 @@
       <c r="K29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
       <c r="X29" s="4" t="s">
         <v>19</v>
       </c>
@@ -27921,8 +28051,8 @@
       </c>
     </row>
     <row r="30" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="63"/>
-      <c r="B30" s="47" t="s">
+      <c r="A30" s="69"/>
+      <c r="B30" s="65" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -27944,13 +28074,13 @@
         <f t="shared" ref="M30:M41" si="6">MIN(D30:K30)/L30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N30" s="57" t="s">
+      <c r="N30" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="O30" s="57" t="s">
+      <c r="O30" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="P30" s="57" t="s">
+      <c r="P30" s="62" t="s">
         <v>68</v>
       </c>
       <c r="Q30" s="19" t="e">
@@ -27965,10 +28095,10 @@
         <f>IF(AND(L30&gt;=85.5,M30&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U30" s="47" t="s">
+      <c r="U30" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="V30" s="47" t="s">
+      <c r="V30" s="65" t="s">
         <v>15</v>
       </c>
       <c r="W30" s="5" t="s">
@@ -27984,8 +28114,8 @@
       <c r="AE30" s="25"/>
     </row>
     <row r="31" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="63"/>
-      <c r="B31" s="48"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="5" t="s">
         <v>63</v>
       </c>
@@ -28005,9 +28135,9 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
       <c r="Q31" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
@@ -28020,8 +28150,8 @@
         <f>IF(AND(L31&gt;=66.5,M31&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
+      <c r="U31" s="63"/>
+      <c r="V31" s="63"/>
       <c r="W31" s="5" t="s">
         <v>63</v>
       </c>
@@ -28035,8 +28165,8 @@
       <c r="AE31" s="25"/>
     </row>
     <row r="32" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="63"/>
-      <c r="B32" s="48"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="7" t="s">
         <v>64</v>
       </c>
@@ -28056,9 +28186,9 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
       <c r="Q32" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
@@ -28071,8 +28201,8 @@
         <f>IF(AND(L32&gt;=20),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
+      <c r="U32" s="63"/>
+      <c r="V32" s="63"/>
       <c r="W32" s="7" t="s">
         <v>64</v>
       </c>
@@ -28086,8 +28216,8 @@
       <c r="AE32" s="25"/>
     </row>
     <row r="33" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="63"/>
-      <c r="B33" s="46"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="7" t="s">
         <v>65</v>
       </c>
@@ -28107,9 +28237,9 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
       <c r="Q33" s="19" t="str">
         <f>IF(AND(MIN(D33:K33)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -28122,8 +28252,8 @@
         <f>IF(AND(MIN(D33:K33)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U33" s="48"/>
-      <c r="V33" s="46"/>
+      <c r="U33" s="63"/>
+      <c r="V33" s="60"/>
       <c r="W33" s="7" t="s">
         <v>65</v>
       </c>
@@ -28137,8 +28267,8 @@
       <c r="AE33" s="25"/>
     </row>
     <row r="34" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="63"/>
-      <c r="B34" s="47" t="s">
+      <c r="A34" s="69"/>
+      <c r="B34" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -28160,9 +28290,9 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
       <c r="Q34" s="19" t="e">
         <f t="shared" ref="Q34:Q36" si="8">IF(AND(L34&gt;=20,M34&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -28175,8 +28305,8 @@
         <f>IF(AND(L34&gt;=85.5,M34&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U34" s="48"/>
-      <c r="V34" s="47" t="s">
+      <c r="U34" s="63"/>
+      <c r="V34" s="65" t="s">
         <v>16</v>
       </c>
       <c r="W34" s="5" t="s">
@@ -28192,8 +28322,8 @@
       <c r="AE34" s="25"/>
     </row>
     <row r="35" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="63"/>
-      <c r="B35" s="48"/>
+      <c r="A35" s="69"/>
+      <c r="B35" s="63"/>
       <c r="C35" s="5" t="s">
         <v>63</v>
       </c>
@@ -28213,9 +28343,9 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
       <c r="Q35" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -28228,8 +28358,8 @@
         <f>IF(AND(L35&gt;=66.5,M35&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U35" s="48"/>
-      <c r="V35" s="48"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="63"/>
       <c r="W35" s="5" t="s">
         <v>63</v>
       </c>
@@ -28243,8 +28373,8 @@
       <c r="AE35" s="25"/>
     </row>
     <row r="36" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="63"/>
-      <c r="B36" s="48"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="63"/>
       <c r="C36" s="7" t="s">
         <v>64</v>
       </c>
@@ -28264,9 +28394,9 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
       <c r="Q36" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -28279,8 +28409,8 @@
         <f>IF(AND(L36&gt;=20),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U36" s="48"/>
-      <c r="V36" s="48"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="63"/>
       <c r="W36" s="7" t="s">
         <v>64</v>
       </c>
@@ -28294,8 +28424,8 @@
       <c r="AE36" s="25"/>
     </row>
     <row r="37" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="63"/>
-      <c r="B37" s="46"/>
+      <c r="A37" s="69"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="7" t="s">
         <v>65</v>
       </c>
@@ -28315,9 +28445,9 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
       <c r="Q37" s="19" t="str">
         <f>IF(AND(MIN(D37:K37)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -28330,8 +28460,8 @@
         <f>IF(AND(MIN(D37:K37)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U37" s="48"/>
-      <c r="V37" s="46"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="60"/>
       <c r="W37" s="7" t="s">
         <v>65</v>
       </c>
@@ -28345,8 +28475,8 @@
       <c r="AE37" s="25"/>
     </row>
     <row r="38" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="63"/>
-      <c r="B38" s="47" t="s">
+      <c r="A38" s="69"/>
+      <c r="B38" s="65" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -28368,9 +28498,9 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
       <c r="Q38" s="19" t="e">
         <f t="shared" ref="Q38:Q40" si="9">IF(AND(L38&gt;=20,M38&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -28383,8 +28513,8 @@
         <f>IF(AND(L38&gt;=85.5,M38&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U38" s="48"/>
-      <c r="V38" s="47" t="s">
+      <c r="U38" s="63"/>
+      <c r="V38" s="65" t="s">
         <v>17</v>
       </c>
       <c r="W38" s="5" t="s">
@@ -28400,8 +28530,8 @@
       <c r="AE38" s="25"/>
     </row>
     <row r="39" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="63"/>
-      <c r="B39" s="48"/>
+      <c r="A39" s="69"/>
+      <c r="B39" s="63"/>
       <c r="C39" s="5" t="s">
         <v>63</v>
       </c>
@@ -28421,9 +28551,9 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
       <c r="Q39" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -28436,8 +28566,8 @@
         <f>IF(AND(L39&gt;=66.5,M39&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U39" s="48"/>
-      <c r="V39" s="48"/>
+      <c r="U39" s="63"/>
+      <c r="V39" s="63"/>
       <c r="W39" s="5" t="s">
         <v>63</v>
       </c>
@@ -28451,8 +28581,8 @@
       <c r="AE39" s="25"/>
     </row>
     <row r="40" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="63"/>
-      <c r="B40" s="48"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="63"/>
       <c r="C40" s="7" t="s">
         <v>64</v>
       </c>
@@ -28472,9 +28602,9 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
       <c r="Q40" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -28487,8 +28617,8 @@
         <f>IF(AND(L40&gt;=20),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U40" s="48"/>
-      <c r="V40" s="48"/>
+      <c r="U40" s="63"/>
+      <c r="V40" s="63"/>
       <c r="W40" s="7" t="s">
         <v>64</v>
       </c>
@@ -28502,8 +28632,8 @@
       <c r="AE40" s="25"/>
     </row>
     <row r="41" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="63"/>
-      <c r="B41" s="46"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="7" t="s">
         <v>65</v>
       </c>
@@ -28523,9 +28653,9 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N41" s="46"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="46"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="60"/>
       <c r="Q41" s="19" t="str">
         <f>IF(AND(MIN(D41:K41)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -28538,8 +28668,8 @@
         <f>IF(AND(MIN(D41:K41)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U41" s="46"/>
-      <c r="V41" s="46"/>
+      <c r="U41" s="60"/>
+      <c r="V41" s="60"/>
       <c r="W41" s="7" t="s">
         <v>65</v>
       </c>
@@ -28553,7 +28683,7 @@
       <c r="AE41" s="25"/>
     </row>
     <row r="42" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="63"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="15"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -28578,7 +28708,7 @@
       <c r="X42" s="23"/>
     </row>
     <row r="43" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="63"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="11"/>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -28603,7 +28733,7 @@
       <c r="X43" s="23"/>
     </row>
     <row r="44" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="63"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="11"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
@@ -28628,7 +28758,7 @@
       <c r="X44" s="23"/>
     </row>
     <row r="45" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="63"/>
+      <c r="A45" s="69"/>
       <c r="B45" s="11"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -28653,7 +28783,7 @@
       <c r="X45" s="23"/>
     </row>
     <row r="46" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="63"/>
+      <c r="A46" s="69"/>
       <c r="B46" s="11"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
@@ -28678,7 +28808,7 @@
       <c r="X46" s="23"/>
     </row>
     <row r="47" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="63"/>
+      <c r="A47" s="69"/>
       <c r="B47" s="11"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -28703,7 +28833,7 @@
       <c r="X47" s="23"/>
     </row>
     <row r="48" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="63"/>
+      <c r="A48" s="69"/>
       <c r="B48" s="11"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -28728,7 +28858,7 @@
       <c r="X48" s="23"/>
     </row>
     <row r="49" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="63"/>
+      <c r="A49" s="69"/>
       <c r="B49" s="11"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
@@ -28753,7 +28883,7 @@
       <c r="X49" s="23"/>
     </row>
     <row r="50" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="63"/>
+      <c r="A50" s="69"/>
       <c r="B50" s="11"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
@@ -28774,108 +28904,108 @@
       <c r="S50" s="22"/>
     </row>
     <row r="51" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="66" t="s">
+      <c r="A51" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="67"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="67"/>
-      <c r="P51" s="67"/>
-      <c r="Q51" s="67"/>
-      <c r="R51" s="67"/>
-      <c r="S51" s="67"/>
-      <c r="T51" s="67"/>
-      <c r="U51" s="67"/>
-      <c r="V51" s="67"/>
-      <c r="W51" s="67"/>
-      <c r="X51" s="67"/>
-      <c r="Y51" s="67"/>
-      <c r="Z51" s="67"/>
-      <c r="AA51" s="67"/>
-      <c r="AB51" s="67"/>
-      <c r="AC51" s="67"/>
-      <c r="AD51" s="67"/>
-      <c r="AE51" s="68"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="48"/>
+      <c r="T51" s="48"/>
+      <c r="U51" s="48"/>
+      <c r="V51" s="48"/>
+      <c r="W51" s="48"/>
+      <c r="X51" s="48"/>
+      <c r="Y51" s="48"/>
+      <c r="Z51" s="48"/>
+      <c r="AA51" s="48"/>
+      <c r="AB51" s="48"/>
+      <c r="AC51" s="48"/>
+      <c r="AD51" s="48"/>
+      <c r="AE51" s="49"/>
     </row>
     <row r="52" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="56" t="s">
+      <c r="A52" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="C52" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="60" t="s">
+      <c r="D52" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="53" t="s">
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="M52" s="53" t="s">
+      <c r="M52" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="N52" s="53" t="s">
+      <c r="N52" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="O52" s="53" t="s">
+      <c r="O52" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="53" t="s">
+      <c r="P52" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="Q52" s="56" t="s">
+      <c r="Q52" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="R52" s="56" t="s">
+      <c r="R52" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="S52" s="56" t="s">
+      <c r="S52" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="U52" s="55" t="s">
+      <c r="U52" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="V52" s="54" t="s">
+      <c r="V52" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="W52" s="52" t="s">
+      <c r="W52" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="X52" s="54" t="s">
+      <c r="X52" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="Y52" s="69"/>
-      <c r="Z52" s="69"/>
-      <c r="AA52" s="69"/>
-      <c r="AB52" s="69"/>
-      <c r="AC52" s="69"/>
-      <c r="AD52" s="69"/>
-      <c r="AE52" s="70"/>
+      <c r="Y52" s="52"/>
+      <c r="Z52" s="52"/>
+      <c r="AA52" s="52"/>
+      <c r="AB52" s="52"/>
+      <c r="AC52" s="52"/>
+      <c r="AD52" s="52"/>
+      <c r="AE52" s="53"/>
     </row>
     <row r="53" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="46"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="46"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
       <c r="D53" s="4" t="s">
         <v>19</v>
       </c>
@@ -28900,17 +29030,17 @@
       <c r="K53" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L53" s="46"/>
-      <c r="M53" s="46"/>
-      <c r="N53" s="46"/>
-      <c r="O53" s="46"/>
-      <c r="P53" s="46"/>
-      <c r="Q53" s="46"/>
-      <c r="R53" s="46"/>
-      <c r="S53" s="46"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="60"/>
+      <c r="R53" s="60"/>
+      <c r="S53" s="60"/>
+      <c r="U53" s="60"/>
+      <c r="V53" s="60"/>
+      <c r="W53" s="60"/>
       <c r="X53" s="26" t="s">
         <v>19</v>
       </c>
@@ -28937,10 +29067,10 @@
       </c>
     </row>
     <row r="54" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="62" t="s">
+      <c r="A54" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="65" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="5" t="s">
@@ -28962,13 +29092,13 @@
         <f t="shared" ref="M54:M65" si="11">MIN(D54:K54)/L54</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N54" s="57" t="s">
+      <c r="N54" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="O54" s="57" t="s">
+      <c r="O54" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="P54" s="57" t="s">
+      <c r="P54" s="62" t="s">
         <v>70</v>
       </c>
       <c r="Q54" s="19" t="e">
@@ -28983,10 +29113,10 @@
         <f>IF(AND(L54&gt;=162.5,M54&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U54" s="47" t="s">
+      <c r="U54" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="V54" s="47" t="s">
+      <c r="V54" s="65" t="s">
         <v>15</v>
       </c>
       <c r="W54" s="5" t="s">
@@ -29002,8 +29132,8 @@
       <c r="AE54" s="20"/>
     </row>
     <row r="55" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="63"/>
-      <c r="B55" s="48"/>
+      <c r="A55" s="69"/>
+      <c r="B55" s="63"/>
       <c r="C55" s="5" t="s">
         <v>63</v>
       </c>
@@ -29023,9 +29153,9 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N55" s="48"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="48"/>
+      <c r="N55" s="63"/>
+      <c r="O55" s="63"/>
+      <c r="P55" s="63"/>
       <c r="Q55" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -29038,8 +29168,8 @@
         <f>IF(AND(L55&gt;=135.5,M55&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U55" s="48"/>
-      <c r="V55" s="48"/>
+      <c r="U55" s="63"/>
+      <c r="V55" s="63"/>
       <c r="W55" s="5" t="s">
         <v>63</v>
       </c>
@@ -29053,8 +29183,8 @@
       <c r="AE55" s="20"/>
     </row>
     <row r="56" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="63"/>
-      <c r="B56" s="48"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="63"/>
       <c r="C56" s="7" t="s">
         <v>64</v>
       </c>
@@ -29074,9 +29204,9 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N56" s="48"/>
-      <c r="O56" s="48"/>
-      <c r="P56" s="48"/>
+      <c r="N56" s="63"/>
+      <c r="O56" s="63"/>
+      <c r="P56" s="63"/>
       <c r="Q56" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -29089,8 +29219,8 @@
         <f>IF(AND(L56&gt;=30),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U56" s="48"/>
-      <c r="V56" s="48"/>
+      <c r="U56" s="63"/>
+      <c r="V56" s="63"/>
       <c r="W56" s="7" t="s">
         <v>64</v>
       </c>
@@ -29104,8 +29234,8 @@
       <c r="AE56" s="20"/>
     </row>
     <row r="57" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="63"/>
-      <c r="B57" s="46"/>
+      <c r="A57" s="69"/>
+      <c r="B57" s="60"/>
       <c r="C57" s="7" t="s">
         <v>65</v>
       </c>
@@ -29125,9 +29255,9 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N57" s="48"/>
-      <c r="O57" s="48"/>
-      <c r="P57" s="48"/>
+      <c r="N57" s="63"/>
+      <c r="O57" s="63"/>
+      <c r="P57" s="63"/>
       <c r="Q57" s="19" t="str">
         <f>IF(AND(MIN(D57:K57)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -29140,8 +29270,8 @@
         <f>IF(AND(MIN(D57:K57)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U57" s="48"/>
-      <c r="V57" s="46"/>
+      <c r="U57" s="63"/>
+      <c r="V57" s="60"/>
       <c r="W57" s="7" t="s">
         <v>65</v>
       </c>
@@ -29155,8 +29285,8 @@
       <c r="AE57" s="20"/>
     </row>
     <row r="58" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="63"/>
-      <c r="B58" s="47" t="s">
+      <c r="A58" s="69"/>
+      <c r="B58" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="5" t="s">
@@ -29178,9 +29308,9 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N58" s="48"/>
-      <c r="O58" s="48"/>
-      <c r="P58" s="48"/>
+      <c r="N58" s="63"/>
+      <c r="O58" s="63"/>
+      <c r="P58" s="63"/>
       <c r="Q58" s="19" t="e">
         <f t="shared" ref="Q58:Q60" si="13">IF(AND(L58&gt;=20,M58&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -29193,8 +29323,8 @@
         <f>IF(AND(L58&gt;=162.5,M58&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U58" s="48"/>
-      <c r="V58" s="47" t="s">
+      <c r="U58" s="63"/>
+      <c r="V58" s="65" t="s">
         <v>16</v>
       </c>
       <c r="W58" s="5" t="s">
@@ -29210,8 +29340,8 @@
       <c r="AE58" s="20"/>
     </row>
     <row r="59" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="63"/>
-      <c r="B59" s="48"/>
+      <c r="A59" s="69"/>
+      <c r="B59" s="63"/>
       <c r="C59" s="5" t="s">
         <v>63</v>
       </c>
@@ -29231,9 +29361,9 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N59" s="48"/>
-      <c r="O59" s="48"/>
-      <c r="P59" s="48"/>
+      <c r="N59" s="63"/>
+      <c r="O59" s="63"/>
+      <c r="P59" s="63"/>
       <c r="Q59" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -29246,8 +29376,8 @@
         <f>IF(AND(L59&gt;=135.5,M59&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U59" s="48"/>
-      <c r="V59" s="48"/>
+      <c r="U59" s="63"/>
+      <c r="V59" s="63"/>
       <c r="W59" s="5" t="s">
         <v>63</v>
       </c>
@@ -29261,8 +29391,8 @@
       <c r="AE59" s="20"/>
     </row>
     <row r="60" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="63"/>
-      <c r="B60" s="48"/>
+      <c r="A60" s="69"/>
+      <c r="B60" s="63"/>
       <c r="C60" s="7" t="s">
         <v>64</v>
       </c>
@@ -29282,9 +29412,9 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N60" s="48"/>
-      <c r="O60" s="48"/>
-      <c r="P60" s="48"/>
+      <c r="N60" s="63"/>
+      <c r="O60" s="63"/>
+      <c r="P60" s="63"/>
       <c r="Q60" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -29297,8 +29427,8 @@
         <f>IF(AND(L60&gt;=30),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U60" s="48"/>
-      <c r="V60" s="48"/>
+      <c r="U60" s="63"/>
+      <c r="V60" s="63"/>
       <c r="W60" s="7" t="s">
         <v>64</v>
       </c>
@@ -29312,8 +29442,8 @@
       <c r="AE60" s="20"/>
     </row>
     <row r="61" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="63"/>
-      <c r="B61" s="46"/>
+      <c r="A61" s="69"/>
+      <c r="B61" s="60"/>
       <c r="C61" s="7" t="s">
         <v>65</v>
       </c>
@@ -29333,9 +29463,9 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N61" s="48"/>
-      <c r="O61" s="48"/>
-      <c r="P61" s="48"/>
+      <c r="N61" s="63"/>
+      <c r="O61" s="63"/>
+      <c r="P61" s="63"/>
       <c r="Q61" s="19" t="str">
         <f>IF(AND(MIN(D61:K61)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -29348,8 +29478,8 @@
         <f>IF(AND(MIN(D61:K61)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U61" s="48"/>
-      <c r="V61" s="46"/>
+      <c r="U61" s="63"/>
+      <c r="V61" s="60"/>
       <c r="W61" s="7" t="s">
         <v>65</v>
       </c>
@@ -29363,8 +29493,8 @@
       <c r="AE61" s="20"/>
     </row>
     <row r="62" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="63"/>
-      <c r="B62" s="47" t="s">
+      <c r="A62" s="69"/>
+      <c r="B62" s="65" t="s">
         <v>17</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -29386,9 +29516,9 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N62" s="48"/>
-      <c r="O62" s="48"/>
-      <c r="P62" s="48"/>
+      <c r="N62" s="63"/>
+      <c r="O62" s="63"/>
+      <c r="P62" s="63"/>
       <c r="Q62" s="19" t="e">
         <f t="shared" ref="Q62:Q64" si="14">IF(AND(L62&gt;=20,M62&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -29401,8 +29531,8 @@
         <f>IF(AND(L62&gt;=162.5,M62&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U62" s="48"/>
-      <c r="V62" s="47" t="s">
+      <c r="U62" s="63"/>
+      <c r="V62" s="65" t="s">
         <v>17</v>
       </c>
       <c r="W62" s="5" t="s">
@@ -29418,8 +29548,8 @@
       <c r="AE62" s="20"/>
     </row>
     <row r="63" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="63"/>
-      <c r="B63" s="48"/>
+      <c r="A63" s="69"/>
+      <c r="B63" s="63"/>
       <c r="C63" s="5" t="s">
         <v>63</v>
       </c>
@@ -29439,9 +29569,9 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N63" s="48"/>
-      <c r="O63" s="48"/>
-      <c r="P63" s="48"/>
+      <c r="N63" s="63"/>
+      <c r="O63" s="63"/>
+      <c r="P63" s="63"/>
       <c r="Q63" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -29454,8 +29584,8 @@
         <f>IF(AND(L63&gt;=135.5,M63&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U63" s="48"/>
-      <c r="V63" s="48"/>
+      <c r="U63" s="63"/>
+      <c r="V63" s="63"/>
       <c r="W63" s="5" t="s">
         <v>63</v>
       </c>
@@ -29469,8 +29599,8 @@
       <c r="AE63" s="20"/>
     </row>
     <row r="64" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="63"/>
-      <c r="B64" s="48"/>
+      <c r="A64" s="69"/>
+      <c r="B64" s="63"/>
       <c r="C64" s="7" t="s">
         <v>64</v>
       </c>
@@ -29490,9 +29620,9 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N64" s="48"/>
-      <c r="O64" s="48"/>
-      <c r="P64" s="48"/>
+      <c r="N64" s="63"/>
+      <c r="O64" s="63"/>
+      <c r="P64" s="63"/>
       <c r="Q64" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -29505,8 +29635,8 @@
         <f>IF(AND(L64&gt;=30),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U64" s="48"/>
-      <c r="V64" s="48"/>
+      <c r="U64" s="63"/>
+      <c r="V64" s="63"/>
       <c r="W64" s="7" t="s">
         <v>64</v>
       </c>
@@ -29520,8 +29650,8 @@
       <c r="AE64" s="20"/>
     </row>
     <row r="65" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="63"/>
-      <c r="B65" s="46"/>
+      <c r="A65" s="69"/>
+      <c r="B65" s="60"/>
       <c r="C65" s="7" t="s">
         <v>65</v>
       </c>
@@ -29541,9 +29671,9 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N65" s="46"/>
-      <c r="O65" s="46"/>
-      <c r="P65" s="46"/>
+      <c r="N65" s="60"/>
+      <c r="O65" s="60"/>
+      <c r="P65" s="60"/>
       <c r="Q65" s="19" t="str">
         <f>IF(AND(MIN(D65:K65)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -29556,8 +29686,8 @@
         <f>IF(AND(MIN(D65:K65)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U65" s="46"/>
-      <c r="V65" s="46"/>
+      <c r="U65" s="60"/>
+      <c r="V65" s="60"/>
       <c r="W65" s="7" t="s">
         <v>65</v>
       </c>
@@ -29571,7 +29701,7 @@
       <c r="AE65" s="20"/>
     </row>
     <row r="66" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="63"/>
+      <c r="A66" s="69"/>
       <c r="B66" s="9"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -29596,7 +29726,7 @@
       <c r="X66" s="23"/>
     </row>
     <row r="67" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="63"/>
+      <c r="A67" s="69"/>
       <c r="B67" s="11"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -29621,7 +29751,7 @@
       <c r="X67" s="23"/>
     </row>
     <row r="68" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="63"/>
+      <c r="A68" s="69"/>
       <c r="B68" s="11"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -29646,7 +29776,7 @@
       <c r="X68" s="23"/>
     </row>
     <row r="69" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="63"/>
+      <c r="A69" s="69"/>
       <c r="B69" s="11"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -29671,7 +29801,7 @@
       <c r="X69" s="23"/>
     </row>
     <row r="70" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="63"/>
+      <c r="A70" s="69"/>
       <c r="B70" s="11"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -29696,7 +29826,7 @@
       <c r="X70" s="23"/>
     </row>
     <row r="71" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="63"/>
+      <c r="A71" s="69"/>
       <c r="B71" s="11"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -29721,7 +29851,7 @@
       <c r="X71" s="23"/>
     </row>
     <row r="72" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="63"/>
+      <c r="A72" s="69"/>
       <c r="B72" s="11"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -29746,7 +29876,7 @@
       <c r="X72" s="23"/>
     </row>
     <row r="73" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="63"/>
+      <c r="A73" s="69"/>
       <c r="B73" s="11"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -29771,7 +29901,7 @@
       <c r="X73" s="23"/>
     </row>
     <row r="74" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="63"/>
+      <c r="A74" s="69"/>
       <c r="B74" s="12"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
@@ -29792,72 +29922,72 @@
       <c r="S74" s="24"/>
     </row>
     <row r="75" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="63"/>
-      <c r="B75" s="45" t="s">
+      <c r="A75" s="69"/>
+      <c r="B75" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C75" s="51" t="s">
+      <c r="C75" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="D75" s="58" t="s">
+      <c r="D75" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="59"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="59"/>
-      <c r="K75" s="59"/>
-      <c r="L75" s="45" t="s">
+      <c r="E75" s="55"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="55"/>
+      <c r="I75" s="55"/>
+      <c r="J75" s="55"/>
+      <c r="K75" s="55"/>
+      <c r="L75" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="M75" s="45" t="s">
+      <c r="M75" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="N75" s="53" t="s">
+      <c r="N75" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="O75" s="53" t="s">
+      <c r="O75" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="P75" s="53" t="s">
+      <c r="P75" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="Q75" s="56" t="s">
+      <c r="Q75" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="R75" s="56" t="s">
+      <c r="R75" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="S75" s="56" t="s">
+      <c r="S75" s="64" t="s">
         <v>12</v>
       </c>
       <c r="T75" s="28"/>
-      <c r="U75" s="49" t="s">
+      <c r="U75" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="V75" s="45" t="s">
+      <c r="V75" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="W75" s="51" t="s">
+      <c r="W75" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="X75" s="45" t="s">
+      <c r="X75" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="Y75" s="64"/>
-      <c r="Z75" s="64"/>
-      <c r="AA75" s="64"/>
-      <c r="AB75" s="64"/>
-      <c r="AC75" s="64"/>
-      <c r="AD75" s="64"/>
-      <c r="AE75" s="65"/>
+      <c r="Y75" s="57"/>
+      <c r="Z75" s="57"/>
+      <c r="AA75" s="57"/>
+      <c r="AB75" s="57"/>
+      <c r="AC75" s="57"/>
+      <c r="AD75" s="57"/>
+      <c r="AE75" s="58"/>
     </row>
     <row r="76" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="63"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="46"/>
+      <c r="A76" s="69"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="60"/>
       <c r="D76" s="27" t="s">
         <v>19</v>
       </c>
@@ -29882,18 +30012,18 @@
       <c r="K76" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="L76" s="46"/>
-      <c r="M76" s="46"/>
-      <c r="N76" s="46"/>
-      <c r="O76" s="46"/>
-      <c r="P76" s="46"/>
-      <c r="Q76" s="46"/>
-      <c r="R76" s="46"/>
-      <c r="S76" s="46"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="60"/>
+      <c r="N76" s="60"/>
+      <c r="O76" s="60"/>
+      <c r="P76" s="60"/>
+      <c r="Q76" s="60"/>
+      <c r="R76" s="60"/>
+      <c r="S76" s="60"/>
       <c r="T76" s="28"/>
-      <c r="U76" s="46"/>
-      <c r="V76" s="46"/>
-      <c r="W76" s="46"/>
+      <c r="U76" s="60"/>
+      <c r="V76" s="60"/>
+      <c r="W76" s="60"/>
       <c r="X76" s="4" t="s">
         <v>19</v>
       </c>
@@ -29920,8 +30050,8 @@
       </c>
     </row>
     <row r="77" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="63"/>
-      <c r="B77" s="47" t="s">
+      <c r="A77" s="69"/>
+      <c r="B77" s="65" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -29943,13 +30073,13 @@
         <f t="shared" ref="M77:M88" si="16">MIN(D77:K77)/L77</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N77" s="57" t="s">
+      <c r="N77" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="O77" s="57" t="s">
+      <c r="O77" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="P77" s="57" t="s">
+      <c r="P77" s="62" t="s">
         <v>70</v>
       </c>
       <c r="Q77" s="19" t="e">
@@ -29964,10 +30094,10 @@
         <f>IF(AND(L77&gt;=162.5,M77&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U77" s="47" t="s">
+      <c r="U77" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="V77" s="47" t="s">
+      <c r="V77" s="65" t="s">
         <v>15</v>
       </c>
       <c r="W77" s="5" t="s">
@@ -29983,8 +30113,8 @@
       <c r="AE77" s="25"/>
     </row>
     <row r="78" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="63"/>
-      <c r="B78" s="48"/>
+      <c r="A78" s="69"/>
+      <c r="B78" s="63"/>
       <c r="C78" s="5" t="s">
         <v>63</v>
       </c>
@@ -30004,9 +30134,9 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N78" s="48"/>
-      <c r="O78" s="48"/>
-      <c r="P78" s="48"/>
+      <c r="N78" s="63"/>
+      <c r="O78" s="63"/>
+      <c r="P78" s="63"/>
       <c r="Q78" s="19" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
@@ -30019,8 +30149,8 @@
         <f>IF(AND(L78&gt;=135.5,M78&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U78" s="48"/>
-      <c r="V78" s="48"/>
+      <c r="U78" s="63"/>
+      <c r="V78" s="63"/>
       <c r="W78" s="5" t="s">
         <v>63</v>
       </c>
@@ -30034,8 +30164,8 @@
       <c r="AE78" s="25"/>
     </row>
     <row r="79" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="63"/>
-      <c r="B79" s="48"/>
+      <c r="A79" s="69"/>
+      <c r="B79" s="63"/>
       <c r="C79" s="7" t="s">
         <v>64</v>
       </c>
@@ -30055,9 +30185,9 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N79" s="48"/>
-      <c r="O79" s="48"/>
-      <c r="P79" s="48"/>
+      <c r="N79" s="63"/>
+      <c r="O79" s="63"/>
+      <c r="P79" s="63"/>
       <c r="Q79" s="19" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
@@ -30070,8 +30200,8 @@
         <f>IF(AND(L79&gt;=20),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U79" s="48"/>
-      <c r="V79" s="48"/>
+      <c r="U79" s="63"/>
+      <c r="V79" s="63"/>
       <c r="W79" s="7" t="s">
         <v>64</v>
       </c>
@@ -30085,8 +30215,8 @@
       <c r="AE79" s="25"/>
     </row>
     <row r="80" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="63"/>
-      <c r="B80" s="46"/>
+      <c r="A80" s="69"/>
+      <c r="B80" s="60"/>
       <c r="C80" s="7" t="s">
         <v>65</v>
       </c>
@@ -30106,9 +30236,9 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N80" s="48"/>
-      <c r="O80" s="48"/>
-      <c r="P80" s="48"/>
+      <c r="N80" s="63"/>
+      <c r="O80" s="63"/>
+      <c r="P80" s="63"/>
       <c r="Q80" s="19" t="str">
         <f>IF(AND(MIN(D80:K80)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -30121,8 +30251,8 @@
         <f>IF(AND(MIN(D80:K80)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U80" s="48"/>
-      <c r="V80" s="46"/>
+      <c r="U80" s="63"/>
+      <c r="V80" s="60"/>
       <c r="W80" s="7" t="s">
         <v>65</v>
       </c>
@@ -30136,8 +30266,8 @@
       <c r="AE80" s="25"/>
     </row>
     <row r="81" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="63"/>
-      <c r="B81" s="47" t="s">
+      <c r="A81" s="69"/>
+      <c r="B81" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C81" s="5" t="s">
@@ -30159,9 +30289,9 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N81" s="48"/>
-      <c r="O81" s="48"/>
-      <c r="P81" s="48"/>
+      <c r="N81" s="63"/>
+      <c r="O81" s="63"/>
+      <c r="P81" s="63"/>
       <c r="Q81" s="19" t="e">
         <f t="shared" ref="Q81:Q83" si="18">IF(AND(L81&gt;=20,M81&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -30174,8 +30304,8 @@
         <f>IF(AND(L81&gt;=162.5,M81&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U81" s="48"/>
-      <c r="V81" s="47" t="s">
+      <c r="U81" s="63"/>
+      <c r="V81" s="65" t="s">
         <v>16</v>
       </c>
       <c r="W81" s="5" t="s">
@@ -30191,8 +30321,8 @@
       <c r="AE81" s="25"/>
     </row>
     <row r="82" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="63"/>
-      <c r="B82" s="48"/>
+      <c r="A82" s="69"/>
+      <c r="B82" s="63"/>
       <c r="C82" s="5" t="s">
         <v>63</v>
       </c>
@@ -30212,9 +30342,9 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N82" s="48"/>
-      <c r="O82" s="48"/>
-      <c r="P82" s="48"/>
+      <c r="N82" s="63"/>
+      <c r="O82" s="63"/>
+      <c r="P82" s="63"/>
       <c r="Q82" s="19" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
@@ -30227,8 +30357,8 @@
         <f>IF(AND(L82&gt;=135.5,M82&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U82" s="48"/>
-      <c r="V82" s="48"/>
+      <c r="U82" s="63"/>
+      <c r="V82" s="63"/>
       <c r="W82" s="5" t="s">
         <v>63</v>
       </c>
@@ -30242,8 +30372,8 @@
       <c r="AE82" s="25"/>
     </row>
     <row r="83" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="63"/>
-      <c r="B83" s="48"/>
+      <c r="A83" s="69"/>
+      <c r="B83" s="63"/>
       <c r="C83" s="7" t="s">
         <v>64</v>
       </c>
@@ -30263,9 +30393,9 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N83" s="48"/>
-      <c r="O83" s="48"/>
-      <c r="P83" s="48"/>
+      <c r="N83" s="63"/>
+      <c r="O83" s="63"/>
+      <c r="P83" s="63"/>
       <c r="Q83" s="19" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
@@ -30278,8 +30408,8 @@
         <f>IF(AND(L83&gt;=20),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U83" s="48"/>
-      <c r="V83" s="48"/>
+      <c r="U83" s="63"/>
+      <c r="V83" s="63"/>
       <c r="W83" s="7" t="s">
         <v>64</v>
       </c>
@@ -30293,8 +30423,8 @@
       <c r="AE83" s="25"/>
     </row>
     <row r="84" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="63"/>
-      <c r="B84" s="46"/>
+      <c r="A84" s="69"/>
+      <c r="B84" s="60"/>
       <c r="C84" s="7" t="s">
         <v>65</v>
       </c>
@@ -30314,9 +30444,9 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N84" s="48"/>
-      <c r="O84" s="48"/>
-      <c r="P84" s="48"/>
+      <c r="N84" s="63"/>
+      <c r="O84" s="63"/>
+      <c r="P84" s="63"/>
       <c r="Q84" s="19" t="str">
         <f>IF(AND(MIN(D84:K84)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -30329,8 +30459,8 @@
         <f>IF(AND(MIN(D84:K84)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U84" s="48"/>
-      <c r="V84" s="46"/>
+      <c r="U84" s="63"/>
+      <c r="V84" s="60"/>
       <c r="W84" s="7" t="s">
         <v>65</v>
       </c>
@@ -30344,8 +30474,8 @@
       <c r="AE84" s="25"/>
     </row>
     <row r="85" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="63"/>
-      <c r="B85" s="47" t="s">
+      <c r="A85" s="69"/>
+      <c r="B85" s="65" t="s">
         <v>17</v>
       </c>
       <c r="C85" s="5" t="s">
@@ -30367,9 +30497,9 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N85" s="48"/>
-      <c r="O85" s="48"/>
-      <c r="P85" s="48"/>
+      <c r="N85" s="63"/>
+      <c r="O85" s="63"/>
+      <c r="P85" s="63"/>
       <c r="Q85" s="19" t="e">
         <f t="shared" ref="Q85:Q87" si="19">IF(AND(L85&gt;=20,M85&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -30382,8 +30512,8 @@
         <f>IF(AND(L85&gt;=162.5,M85&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U85" s="48"/>
-      <c r="V85" s="47" t="s">
+      <c r="U85" s="63"/>
+      <c r="V85" s="65" t="s">
         <v>17</v>
       </c>
       <c r="W85" s="5" t="s">
@@ -30399,8 +30529,8 @@
       <c r="AE85" s="25"/>
     </row>
     <row r="86" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="63"/>
-      <c r="B86" s="48"/>
+      <c r="A86" s="69"/>
+      <c r="B86" s="63"/>
       <c r="C86" s="5" t="s">
         <v>63</v>
       </c>
@@ -30420,9 +30550,9 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N86" s="48"/>
-      <c r="O86" s="48"/>
-      <c r="P86" s="48"/>
+      <c r="N86" s="63"/>
+      <c r="O86" s="63"/>
+      <c r="P86" s="63"/>
       <c r="Q86" s="19" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
@@ -30435,8 +30565,8 @@
         <f>IF(AND(L86&gt;=135.5,M86&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U86" s="48"/>
-      <c r="V86" s="48"/>
+      <c r="U86" s="63"/>
+      <c r="V86" s="63"/>
       <c r="W86" s="5" t="s">
         <v>63</v>
       </c>
@@ -30450,8 +30580,8 @@
       <c r="AE86" s="25"/>
     </row>
     <row r="87" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="63"/>
-      <c r="B87" s="48"/>
+      <c r="A87" s="69"/>
+      <c r="B87" s="63"/>
       <c r="C87" s="7" t="s">
         <v>64</v>
       </c>
@@ -30471,9 +30601,9 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N87" s="48"/>
-      <c r="O87" s="48"/>
-      <c r="P87" s="48"/>
+      <c r="N87" s="63"/>
+      <c r="O87" s="63"/>
+      <c r="P87" s="63"/>
       <c r="Q87" s="19" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
@@ -30486,8 +30616,8 @@
         <f>IF(AND(L87&gt;=20),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U87" s="48"/>
-      <c r="V87" s="48"/>
+      <c r="U87" s="63"/>
+      <c r="V87" s="63"/>
       <c r="W87" s="7" t="s">
         <v>64</v>
       </c>
@@ -30501,8 +30631,8 @@
       <c r="AE87" s="25"/>
     </row>
     <row r="88" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="63"/>
-      <c r="B88" s="46"/>
+      <c r="A88" s="69"/>
+      <c r="B88" s="60"/>
       <c r="C88" s="7" t="s">
         <v>65</v>
       </c>
@@ -30522,9 +30652,9 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N88" s="46"/>
-      <c r="O88" s="46"/>
-      <c r="P88" s="46"/>
+      <c r="N88" s="60"/>
+      <c r="O88" s="60"/>
+      <c r="P88" s="60"/>
       <c r="Q88" s="19" t="str">
         <f>IF(AND(MIN(D88:K88)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -30537,8 +30667,8 @@
         <f>IF(AND(MIN(D88:K88)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U88" s="46"/>
-      <c r="V88" s="46"/>
+      <c r="U88" s="60"/>
+      <c r="V88" s="60"/>
       <c r="W88" s="7" t="s">
         <v>65</v>
       </c>
@@ -30552,7 +30682,7 @@
       <c r="AE88" s="25"/>
     </row>
     <row r="89" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="63"/>
+      <c r="A89" s="69"/>
       <c r="B89" s="15"/>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
@@ -30577,7 +30707,7 @@
       <c r="W89" s="23"/>
     </row>
     <row r="90" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="63"/>
+      <c r="A90" s="69"/>
       <c r="B90" s="11"/>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
@@ -30602,7 +30732,7 @@
       <c r="W90" s="23"/>
     </row>
     <row r="91" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="63"/>
+      <c r="A91" s="69"/>
       <c r="B91" s="11"/>
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
@@ -30627,7 +30757,7 @@
       <c r="W91" s="23"/>
     </row>
     <row r="92" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="63"/>
+      <c r="A92" s="69"/>
       <c r="B92" s="11"/>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
@@ -30652,7 +30782,7 @@
       <c r="W92" s="23"/>
     </row>
     <row r="93" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="63"/>
+      <c r="A93" s="69"/>
       <c r="B93" s="11"/>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
@@ -30677,7 +30807,7 @@
       <c r="W93" s="23"/>
     </row>
     <row r="94" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="63"/>
+      <c r="A94" s="69"/>
       <c r="B94" s="11"/>
       <c r="C94" s="15"/>
       <c r="D94" s="15"/>
@@ -30702,7 +30832,7 @@
       <c r="W94" s="23"/>
     </row>
     <row r="95" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="63"/>
+      <c r="A95" s="69"/>
       <c r="B95" s="11"/>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
@@ -30727,7 +30857,7 @@
       <c r="W95" s="23"/>
     </row>
     <row r="96" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="63"/>
+      <c r="A96" s="69"/>
       <c r="B96" s="11"/>
       <c r="C96" s="15"/>
       <c r="D96" s="15"/>
@@ -30752,7 +30882,7 @@
       <c r="W96" s="23"/>
     </row>
     <row r="97" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="63"/>
+      <c r="A97" s="69"/>
       <c r="B97" s="11"/>
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
@@ -30773,109 +30903,109 @@
       <c r="S97" s="22"/>
     </row>
     <row r="98" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="66" t="s">
+      <c r="A98" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B98" s="67"/>
-      <c r="C98" s="67"/>
-      <c r="D98" s="67"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="67"/>
-      <c r="I98" s="67"/>
-      <c r="J98" s="67"/>
-      <c r="K98" s="67"/>
-      <c r="L98" s="67"/>
-      <c r="M98" s="67"/>
-      <c r="N98" s="67"/>
-      <c r="O98" s="67"/>
-      <c r="P98" s="67"/>
-      <c r="Q98" s="67"/>
-      <c r="R98" s="67"/>
-      <c r="S98" s="67"/>
-      <c r="T98" s="67"/>
-      <c r="U98" s="67"/>
-      <c r="V98" s="67"/>
-      <c r="W98" s="67"/>
-      <c r="X98" s="67"/>
-      <c r="Y98" s="67"/>
-      <c r="Z98" s="67"/>
-      <c r="AA98" s="67"/>
-      <c r="AB98" s="67"/>
-      <c r="AC98" s="67"/>
-      <c r="AD98" s="67"/>
-      <c r="AE98" s="68"/>
+      <c r="B98" s="48"/>
+      <c r="C98" s="48"/>
+      <c r="D98" s="48"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="48"/>
+      <c r="I98" s="48"/>
+      <c r="J98" s="48"/>
+      <c r="K98" s="48"/>
+      <c r="L98" s="48"/>
+      <c r="M98" s="48"/>
+      <c r="N98" s="48"/>
+      <c r="O98" s="48"/>
+      <c r="P98" s="48"/>
+      <c r="Q98" s="48"/>
+      <c r="R98" s="48"/>
+      <c r="S98" s="48"/>
+      <c r="T98" s="48"/>
+      <c r="U98" s="48"/>
+      <c r="V98" s="48"/>
+      <c r="W98" s="48"/>
+      <c r="X98" s="48"/>
+      <c r="Y98" s="48"/>
+      <c r="Z98" s="48"/>
+      <c r="AA98" s="48"/>
+      <c r="AB98" s="48"/>
+      <c r="AC98" s="48"/>
+      <c r="AD98" s="48"/>
+      <c r="AE98" s="49"/>
     </row>
     <row r="99" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="56" t="s">
+      <c r="A99" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B99" s="53" t="s">
+      <c r="B99" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C99" s="50" t="s">
+      <c r="C99" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="D99" s="60" t="s">
+      <c r="D99" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="E99" s="60"/>
-      <c r="F99" s="60"/>
-      <c r="G99" s="60"/>
-      <c r="H99" s="60"/>
-      <c r="I99" s="60"/>
-      <c r="J99" s="60"/>
-      <c r="K99" s="60"/>
-      <c r="L99" s="53" t="s">
+      <c r="E99" s="50"/>
+      <c r="F99" s="50"/>
+      <c r="G99" s="50"/>
+      <c r="H99" s="50"/>
+      <c r="I99" s="50"/>
+      <c r="J99" s="50"/>
+      <c r="K99" s="50"/>
+      <c r="L99" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="M99" s="53" t="s">
+      <c r="M99" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="N99" s="53" t="s">
+      <c r="N99" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="O99" s="53" t="s">
+      <c r="O99" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="P99" s="53" t="s">
+      <c r="P99" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="Q99" s="56" t="s">
+      <c r="Q99" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="R99" s="56" t="s">
+      <c r="R99" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="S99" s="56" t="s">
+      <c r="S99" s="64" t="s">
         <v>12</v>
       </c>
       <c r="T99" s="28"/>
-      <c r="U99" s="56" t="s">
+      <c r="U99" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="V99" s="53" t="s">
+      <c r="V99" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="W99" s="50" t="s">
+      <c r="W99" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="X99" s="53" t="s">
+      <c r="X99" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="Y99" s="69"/>
-      <c r="Z99" s="69"/>
-      <c r="AA99" s="69"/>
-      <c r="AB99" s="69"/>
-      <c r="AC99" s="69"/>
-      <c r="AD99" s="69"/>
-      <c r="AE99" s="70"/>
+      <c r="Y99" s="52"/>
+      <c r="Z99" s="52"/>
+      <c r="AA99" s="52"/>
+      <c r="AB99" s="52"/>
+      <c r="AC99" s="52"/>
+      <c r="AD99" s="52"/>
+      <c r="AE99" s="53"/>
     </row>
     <row r="100" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="46"/>
-      <c r="B100" s="46"/>
-      <c r="C100" s="46"/>
+      <c r="A100" s="60"/>
+      <c r="B100" s="60"/>
+      <c r="C100" s="60"/>
       <c r="D100" s="4" t="s">
         <v>19</v>
       </c>
@@ -30900,18 +31030,18 @@
       <c r="K100" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L100" s="46"/>
-      <c r="M100" s="46"/>
-      <c r="N100" s="46"/>
-      <c r="O100" s="46"/>
-      <c r="P100" s="46"/>
-      <c r="Q100" s="46"/>
-      <c r="R100" s="46"/>
-      <c r="S100" s="46"/>
+      <c r="L100" s="60"/>
+      <c r="M100" s="60"/>
+      <c r="N100" s="60"/>
+      <c r="O100" s="60"/>
+      <c r="P100" s="60"/>
+      <c r="Q100" s="60"/>
+      <c r="R100" s="60"/>
+      <c r="S100" s="60"/>
       <c r="T100" s="28"/>
-      <c r="U100" s="46"/>
-      <c r="V100" s="46"/>
-      <c r="W100" s="46"/>
+      <c r="U100" s="60"/>
+      <c r="V100" s="60"/>
+      <c r="W100" s="60"/>
       <c r="X100" s="4" t="s">
         <v>19</v>
       </c>
@@ -30938,10 +31068,10 @@
       </c>
     </row>
     <row r="101" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="62" t="s">
+      <c r="A101" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B101" s="47" t="s">
+      <c r="B101" s="65" t="s">
         <v>15</v>
       </c>
       <c r="C101" s="5" t="s">
@@ -30963,13 +31093,13 @@
         <f t="shared" ref="M101:M112" si="21">MIN(D101:K101)/L101</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N101" s="57" t="s">
+      <c r="N101" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="O101" s="57" t="s">
+      <c r="O101" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="P101" s="57" t="s">
+      <c r="P101" s="62" t="s">
         <v>70</v>
       </c>
       <c r="Q101" s="19" t="e">
@@ -30984,10 +31114,10 @@
         <f>IF(AND(L101&gt;=162.5,M101&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U101" s="47" t="s">
+      <c r="U101" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="V101" s="47" t="s">
+      <c r="V101" s="65" t="s">
         <v>15</v>
       </c>
       <c r="W101" s="5" t="s">
@@ -31003,8 +31133,8 @@
       <c r="AE101" s="20"/>
     </row>
     <row r="102" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="63"/>
-      <c r="B102" s="48"/>
+      <c r="A102" s="69"/>
+      <c r="B102" s="63"/>
       <c r="C102" s="5" t="s">
         <v>63</v>
       </c>
@@ -31024,9 +31154,9 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N102" s="48"/>
-      <c r="O102" s="48"/>
-      <c r="P102" s="48"/>
+      <c r="N102" s="63"/>
+      <c r="O102" s="63"/>
+      <c r="P102" s="63"/>
       <c r="Q102" s="19" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
@@ -31039,8 +31169,8 @@
         <f>IF(AND(L102&gt;=135.5,M102&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U102" s="48"/>
-      <c r="V102" s="48"/>
+      <c r="U102" s="63"/>
+      <c r="V102" s="63"/>
       <c r="W102" s="5" t="s">
         <v>63</v>
       </c>
@@ -31054,8 +31184,8 @@
       <c r="AE102" s="20"/>
     </row>
     <row r="103" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="63"/>
-      <c r="B103" s="48"/>
+      <c r="A103" s="69"/>
+      <c r="B103" s="63"/>
       <c r="C103" s="7" t="s">
         <v>64</v>
       </c>
@@ -31075,9 +31205,9 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N103" s="48"/>
-      <c r="O103" s="48"/>
-      <c r="P103" s="48"/>
+      <c r="N103" s="63"/>
+      <c r="O103" s="63"/>
+      <c r="P103" s="63"/>
       <c r="Q103" s="19" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
@@ -31090,8 +31220,8 @@
         <f>IF(AND(L103&gt;=30),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U103" s="48"/>
-      <c r="V103" s="48"/>
+      <c r="U103" s="63"/>
+      <c r="V103" s="63"/>
       <c r="W103" s="7" t="s">
         <v>64</v>
       </c>
@@ -31105,8 +31235,8 @@
       <c r="AE103" s="20"/>
     </row>
     <row r="104" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="63"/>
-      <c r="B104" s="46"/>
+      <c r="A104" s="69"/>
+      <c r="B104" s="60"/>
       <c r="C104" s="7" t="s">
         <v>65</v>
       </c>
@@ -31126,9 +31256,9 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N104" s="48"/>
-      <c r="O104" s="48"/>
-      <c r="P104" s="48"/>
+      <c r="N104" s="63"/>
+      <c r="O104" s="63"/>
+      <c r="P104" s="63"/>
       <c r="Q104" s="19" t="str">
         <f>IF(AND(MIN(D104:K104)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -31141,8 +31271,8 @@
         <f>IF(AND(MIN(D104:K104)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U104" s="48"/>
-      <c r="V104" s="46"/>
+      <c r="U104" s="63"/>
+      <c r="V104" s="60"/>
       <c r="W104" s="7" t="s">
         <v>65</v>
       </c>
@@ -31156,8 +31286,8 @@
       <c r="AE104" s="20"/>
     </row>
     <row r="105" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="63"/>
-      <c r="B105" s="47" t="s">
+      <c r="A105" s="69"/>
+      <c r="B105" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C105" s="5" t="s">
@@ -31179,9 +31309,9 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N105" s="48"/>
-      <c r="O105" s="48"/>
-      <c r="P105" s="48"/>
+      <c r="N105" s="63"/>
+      <c r="O105" s="63"/>
+      <c r="P105" s="63"/>
       <c r="Q105" s="19" t="e">
         <f t="shared" ref="Q105:Q107" si="23">IF(AND(L105&gt;=20,M105&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -31194,8 +31324,8 @@
         <f>IF(AND(L105&gt;=162.5,M105&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U105" s="48"/>
-      <c r="V105" s="47" t="s">
+      <c r="U105" s="63"/>
+      <c r="V105" s="65" t="s">
         <v>16</v>
       </c>
       <c r="W105" s="5" t="s">
@@ -31211,8 +31341,8 @@
       <c r="AE105" s="20"/>
     </row>
     <row r="106" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="63"/>
-      <c r="B106" s="48"/>
+      <c r="A106" s="69"/>
+      <c r="B106" s="63"/>
       <c r="C106" s="5" t="s">
         <v>63</v>
       </c>
@@ -31232,9 +31362,9 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N106" s="48"/>
-      <c r="O106" s="48"/>
-      <c r="P106" s="48"/>
+      <c r="N106" s="63"/>
+      <c r="O106" s="63"/>
+      <c r="P106" s="63"/>
       <c r="Q106" s="19" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
@@ -31247,8 +31377,8 @@
         <f>IF(AND(L106&gt;=135.5,M106&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U106" s="48"/>
-      <c r="V106" s="48"/>
+      <c r="U106" s="63"/>
+      <c r="V106" s="63"/>
       <c r="W106" s="5" t="s">
         <v>63</v>
       </c>
@@ -31262,8 +31392,8 @@
       <c r="AE106" s="20"/>
     </row>
     <row r="107" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="63"/>
-      <c r="B107" s="48"/>
+      <c r="A107" s="69"/>
+      <c r="B107" s="63"/>
       <c r="C107" s="7" t="s">
         <v>64</v>
       </c>
@@ -31283,9 +31413,9 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N107" s="48"/>
-      <c r="O107" s="48"/>
-      <c r="P107" s="48"/>
+      <c r="N107" s="63"/>
+      <c r="O107" s="63"/>
+      <c r="P107" s="63"/>
       <c r="Q107" s="19" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
@@ -31298,8 +31428,8 @@
         <f>IF(AND(L107&gt;=30),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U107" s="48"/>
-      <c r="V107" s="48"/>
+      <c r="U107" s="63"/>
+      <c r="V107" s="63"/>
       <c r="W107" s="7" t="s">
         <v>64</v>
       </c>
@@ -31313,8 +31443,8 @@
       <c r="AE107" s="20"/>
     </row>
     <row r="108" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="63"/>
-      <c r="B108" s="46"/>
+      <c r="A108" s="69"/>
+      <c r="B108" s="60"/>
       <c r="C108" s="7" t="s">
         <v>65</v>
       </c>
@@ -31334,9 +31464,9 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N108" s="48"/>
-      <c r="O108" s="48"/>
-      <c r="P108" s="48"/>
+      <c r="N108" s="63"/>
+      <c r="O108" s="63"/>
+      <c r="P108" s="63"/>
       <c r="Q108" s="19" t="str">
         <f>IF(AND(MIN(D108:K108)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -31349,8 +31479,8 @@
         <f>IF(AND(MIN(D108:K108)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U108" s="48"/>
-      <c r="V108" s="46"/>
+      <c r="U108" s="63"/>
+      <c r="V108" s="60"/>
       <c r="W108" s="7" t="s">
         <v>65</v>
       </c>
@@ -31364,8 +31494,8 @@
       <c r="AE108" s="20"/>
     </row>
     <row r="109" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="63"/>
-      <c r="B109" s="47" t="s">
+      <c r="A109" s="69"/>
+      <c r="B109" s="65" t="s">
         <v>17</v>
       </c>
       <c r="C109" s="5" t="s">
@@ -31387,9 +31517,9 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N109" s="48"/>
-      <c r="O109" s="48"/>
-      <c r="P109" s="48"/>
+      <c r="N109" s="63"/>
+      <c r="O109" s="63"/>
+      <c r="P109" s="63"/>
       <c r="Q109" s="19" t="e">
         <f t="shared" ref="Q109:Q111" si="24">IF(AND(L109&gt;=20,M109&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -31402,8 +31532,8 @@
         <f>IF(AND(L109&gt;=162.5,M109&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U109" s="48"/>
-      <c r="V109" s="47" t="s">
+      <c r="U109" s="63"/>
+      <c r="V109" s="65" t="s">
         <v>17</v>
       </c>
       <c r="W109" s="5" t="s">
@@ -31419,8 +31549,8 @@
       <c r="AE109" s="20"/>
     </row>
     <row r="110" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="63"/>
-      <c r="B110" s="48"/>
+      <c r="A110" s="69"/>
+      <c r="B110" s="63"/>
       <c r="C110" s="5" t="s">
         <v>63</v>
       </c>
@@ -31440,9 +31570,9 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N110" s="48"/>
-      <c r="O110" s="48"/>
-      <c r="P110" s="48"/>
+      <c r="N110" s="63"/>
+      <c r="O110" s="63"/>
+      <c r="P110" s="63"/>
       <c r="Q110" s="19" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
@@ -31455,8 +31585,8 @@
         <f>IF(AND(L110&gt;=135.5,M110&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U110" s="48"/>
-      <c r="V110" s="48"/>
+      <c r="U110" s="63"/>
+      <c r="V110" s="63"/>
       <c r="W110" s="5" t="s">
         <v>63</v>
       </c>
@@ -31470,8 +31600,8 @@
       <c r="AE110" s="20"/>
     </row>
     <row r="111" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="63"/>
-      <c r="B111" s="48"/>
+      <c r="A111" s="69"/>
+      <c r="B111" s="63"/>
       <c r="C111" s="7" t="s">
         <v>64</v>
       </c>
@@ -31491,9 +31621,9 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N111" s="48"/>
-      <c r="O111" s="48"/>
-      <c r="P111" s="48"/>
+      <c r="N111" s="63"/>
+      <c r="O111" s="63"/>
+      <c r="P111" s="63"/>
       <c r="Q111" s="19" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
@@ -31506,8 +31636,8 @@
         <f>IF(AND(L111&gt;=30),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U111" s="48"/>
-      <c r="V111" s="48"/>
+      <c r="U111" s="63"/>
+      <c r="V111" s="63"/>
       <c r="W111" s="7" t="s">
         <v>64</v>
       </c>
@@ -31521,8 +31651,8 @@
       <c r="AE111" s="20"/>
     </row>
     <row r="112" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="63"/>
-      <c r="B112" s="46"/>
+      <c r="A112" s="69"/>
+      <c r="B112" s="60"/>
       <c r="C112" s="7" t="s">
         <v>65</v>
       </c>
@@ -31542,9 +31672,9 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N112" s="46"/>
-      <c r="O112" s="46"/>
-      <c r="P112" s="46"/>
+      <c r="N112" s="60"/>
+      <c r="O112" s="60"/>
+      <c r="P112" s="60"/>
       <c r="Q112" s="19" t="str">
         <f>IF(AND(MIN(D112:K112)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -31557,8 +31687,8 @@
         <f>IF(AND(MIN(D112:K112)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U112" s="46"/>
-      <c r="V112" s="46"/>
+      <c r="U112" s="60"/>
+      <c r="V112" s="60"/>
       <c r="W112" s="7" t="s">
         <v>65</v>
       </c>
@@ -31572,7 +31702,7 @@
       <c r="AE112" s="20"/>
     </row>
     <row r="113" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="63"/>
+      <c r="A113" s="69"/>
       <c r="B113" s="9"/>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
@@ -31597,7 +31727,7 @@
       <c r="X113" s="23"/>
     </row>
     <row r="114" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="63"/>
+      <c r="A114" s="69"/>
       <c r="B114" s="11"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -31622,7 +31752,7 @@
       <c r="X114" s="23"/>
     </row>
     <row r="115" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="63"/>
+      <c r="A115" s="69"/>
       <c r="B115" s="11"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
@@ -31647,7 +31777,7 @@
       <c r="X115" s="23"/>
     </row>
     <row r="116" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="63"/>
+      <c r="A116" s="69"/>
       <c r="B116" s="11"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
@@ -31672,7 +31802,7 @@
       <c r="X116" s="23"/>
     </row>
     <row r="117" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="63"/>
+      <c r="A117" s="69"/>
       <c r="B117" s="11"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -31697,7 +31827,7 @@
       <c r="X117" s="23"/>
     </row>
     <row r="118" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="63"/>
+      <c r="A118" s="69"/>
       <c r="B118" s="11"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -31722,7 +31852,7 @@
       <c r="X118" s="23"/>
     </row>
     <row r="119" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="63"/>
+      <c r="A119" s="69"/>
       <c r="B119" s="11"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -31747,7 +31877,7 @@
       <c r="X119" s="23"/>
     </row>
     <row r="120" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="63"/>
+      <c r="A120" s="69"/>
       <c r="B120" s="11"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
@@ -31772,7 +31902,7 @@
       <c r="X120" s="23"/>
     </row>
     <row r="121" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="63"/>
+      <c r="A121" s="69"/>
       <c r="B121" s="12"/>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
@@ -31793,71 +31923,71 @@
       <c r="S121" s="24"/>
     </row>
     <row r="122" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="63"/>
-      <c r="B122" s="45" t="s">
+      <c r="A122" s="69"/>
+      <c r="B122" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C122" s="51" t="s">
+      <c r="C122" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="D122" s="58" t="s">
+      <c r="D122" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="E122" s="59"/>
-      <c r="F122" s="59"/>
-      <c r="G122" s="59"/>
-      <c r="H122" s="59"/>
-      <c r="I122" s="59"/>
-      <c r="J122" s="59"/>
-      <c r="K122" s="59"/>
-      <c r="L122" s="45" t="s">
+      <c r="E122" s="55"/>
+      <c r="F122" s="55"/>
+      <c r="G122" s="55"/>
+      <c r="H122" s="55"/>
+      <c r="I122" s="55"/>
+      <c r="J122" s="55"/>
+      <c r="K122" s="55"/>
+      <c r="L122" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="M122" s="45" t="s">
+      <c r="M122" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="N122" s="53" t="s">
+      <c r="N122" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="O122" s="53" t="s">
+      <c r="O122" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="P122" s="53" t="s">
+      <c r="P122" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="Q122" s="56" t="s">
+      <c r="Q122" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="R122" s="56" t="s">
+      <c r="R122" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="S122" s="56" t="s">
+      <c r="S122" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="U122" s="49" t="s">
+      <c r="U122" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="V122" s="45" t="s">
+      <c r="V122" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="W122" s="51" t="s">
+      <c r="W122" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="X122" s="45" t="s">
+      <c r="X122" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="Y122" s="64"/>
-      <c r="Z122" s="64"/>
-      <c r="AA122" s="64"/>
-      <c r="AB122" s="64"/>
-      <c r="AC122" s="64"/>
-      <c r="AD122" s="64"/>
-      <c r="AE122" s="65"/>
+      <c r="Y122" s="57"/>
+      <c r="Z122" s="57"/>
+      <c r="AA122" s="57"/>
+      <c r="AB122" s="57"/>
+      <c r="AC122" s="57"/>
+      <c r="AD122" s="57"/>
+      <c r="AE122" s="58"/>
     </row>
     <row r="123" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="63"/>
-      <c r="B123" s="46"/>
-      <c r="C123" s="46"/>
+      <c r="A123" s="69"/>
+      <c r="B123" s="60"/>
+      <c r="C123" s="60"/>
       <c r="D123" s="4" t="s">
         <v>19</v>
       </c>
@@ -31882,17 +32012,17 @@
       <c r="K123" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L123" s="46"/>
-      <c r="M123" s="46"/>
-      <c r="N123" s="46"/>
-      <c r="O123" s="46"/>
-      <c r="P123" s="46"/>
-      <c r="Q123" s="46"/>
-      <c r="R123" s="46"/>
-      <c r="S123" s="46"/>
-      <c r="U123" s="46"/>
-      <c r="V123" s="46"/>
-      <c r="W123" s="46"/>
+      <c r="L123" s="60"/>
+      <c r="M123" s="60"/>
+      <c r="N123" s="60"/>
+      <c r="O123" s="60"/>
+      <c r="P123" s="60"/>
+      <c r="Q123" s="60"/>
+      <c r="R123" s="60"/>
+      <c r="S123" s="60"/>
+      <c r="U123" s="60"/>
+      <c r="V123" s="60"/>
+      <c r="W123" s="60"/>
       <c r="X123" s="4" t="s">
         <v>19</v>
       </c>
@@ -31919,8 +32049,8 @@
       </c>
     </row>
     <row r="124" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="63"/>
-      <c r="B124" s="47" t="s">
+      <c r="A124" s="69"/>
+      <c r="B124" s="65" t="s">
         <v>15</v>
       </c>
       <c r="C124" s="5" t="s">
@@ -31942,13 +32072,13 @@
         <f t="shared" ref="M124:M135" si="26">MIN(D124:K124)/L124</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N124" s="57" t="s">
+      <c r="N124" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="O124" s="57" t="s">
+      <c r="O124" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="P124" s="57" t="s">
+      <c r="P124" s="62" t="s">
         <v>70</v>
       </c>
       <c r="Q124" s="19" t="e">
@@ -31964,10 +32094,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T124" s="29"/>
-      <c r="U124" s="47" t="s">
+      <c r="U124" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="V124" s="47" t="s">
+      <c r="V124" s="65" t="s">
         <v>15</v>
       </c>
       <c r="W124" s="5" t="s">
@@ -31983,8 +32113,8 @@
       <c r="AE124" s="25"/>
     </row>
     <row r="125" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="63"/>
-      <c r="B125" s="48"/>
+      <c r="A125" s="69"/>
+      <c r="B125" s="63"/>
       <c r="C125" s="5" t="s">
         <v>63</v>
       </c>
@@ -32004,9 +32134,9 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N125" s="48"/>
-      <c r="O125" s="48"/>
-      <c r="P125" s="48"/>
+      <c r="N125" s="63"/>
+      <c r="O125" s="63"/>
+      <c r="P125" s="63"/>
       <c r="Q125" s="19" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
@@ -32020,8 +32150,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T125" s="29"/>
-      <c r="U125" s="48"/>
-      <c r="V125" s="48"/>
+      <c r="U125" s="63"/>
+      <c r="V125" s="63"/>
       <c r="W125" s="5" t="s">
         <v>63</v>
       </c>
@@ -32035,8 +32165,8 @@
       <c r="AE125" s="25"/>
     </row>
     <row r="126" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="63"/>
-      <c r="B126" s="48"/>
+      <c r="A126" s="69"/>
+      <c r="B126" s="63"/>
       <c r="C126" s="7" t="s">
         <v>64</v>
       </c>
@@ -32056,9 +32186,9 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N126" s="48"/>
-      <c r="O126" s="48"/>
-      <c r="P126" s="48"/>
+      <c r="N126" s="63"/>
+      <c r="O126" s="63"/>
+      <c r="P126" s="63"/>
       <c r="Q126" s="19" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
@@ -32072,8 +32202,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T126" s="29"/>
-      <c r="U126" s="48"/>
-      <c r="V126" s="48"/>
+      <c r="U126" s="63"/>
+      <c r="V126" s="63"/>
       <c r="W126" s="7" t="s">
         <v>64</v>
       </c>
@@ -32087,8 +32217,8 @@
       <c r="AE126" s="25"/>
     </row>
     <row r="127" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="63"/>
-      <c r="B127" s="46"/>
+      <c r="A127" s="69"/>
+      <c r="B127" s="60"/>
       <c r="C127" s="7" t="s">
         <v>65</v>
       </c>
@@ -32108,9 +32238,9 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N127" s="48"/>
-      <c r="O127" s="48"/>
-      <c r="P127" s="48"/>
+      <c r="N127" s="63"/>
+      <c r="O127" s="63"/>
+      <c r="P127" s="63"/>
       <c r="Q127" s="19" t="str">
         <f>IF(AND(MIN(D127:K127)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -32124,8 +32254,8 @@
         <v>Pass</v>
       </c>
       <c r="T127" s="29"/>
-      <c r="U127" s="48"/>
-      <c r="V127" s="46"/>
+      <c r="U127" s="63"/>
+      <c r="V127" s="60"/>
       <c r="W127" s="7" t="s">
         <v>65</v>
       </c>
@@ -32139,8 +32269,8 @@
       <c r="AE127" s="25"/>
     </row>
     <row r="128" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="63"/>
-      <c r="B128" s="47" t="s">
+      <c r="A128" s="69"/>
+      <c r="B128" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C128" s="5" t="s">
@@ -32162,9 +32292,9 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N128" s="48"/>
-      <c r="O128" s="48"/>
-      <c r="P128" s="48"/>
+      <c r="N128" s="63"/>
+      <c r="O128" s="63"/>
+      <c r="P128" s="63"/>
       <c r="Q128" s="19" t="e">
         <f t="shared" ref="Q128:Q130" si="28">IF(AND(L128&gt;=20,M128&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -32178,8 +32308,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T128" s="29"/>
-      <c r="U128" s="48"/>
-      <c r="V128" s="47" t="s">
+      <c r="U128" s="63"/>
+      <c r="V128" s="65" t="s">
         <v>16</v>
       </c>
       <c r="W128" s="5" t="s">
@@ -32195,8 +32325,8 @@
       <c r="AE128" s="25"/>
     </row>
     <row r="129" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="63"/>
-      <c r="B129" s="48"/>
+      <c r="A129" s="69"/>
+      <c r="B129" s="63"/>
       <c r="C129" s="5" t="s">
         <v>63</v>
       </c>
@@ -32216,9 +32346,9 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N129" s="48"/>
-      <c r="O129" s="48"/>
-      <c r="P129" s="48"/>
+      <c r="N129" s="63"/>
+      <c r="O129" s="63"/>
+      <c r="P129" s="63"/>
       <c r="Q129" s="19" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
@@ -32232,8 +32362,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T129" s="29"/>
-      <c r="U129" s="48"/>
-      <c r="V129" s="48"/>
+      <c r="U129" s="63"/>
+      <c r="V129" s="63"/>
       <c r="W129" s="5" t="s">
         <v>63</v>
       </c>
@@ -32247,8 +32377,8 @@
       <c r="AE129" s="25"/>
     </row>
     <row r="130" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="63"/>
-      <c r="B130" s="48"/>
+      <c r="A130" s="69"/>
+      <c r="B130" s="63"/>
       <c r="C130" s="7" t="s">
         <v>64</v>
       </c>
@@ -32268,9 +32398,9 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N130" s="48"/>
-      <c r="O130" s="48"/>
-      <c r="P130" s="48"/>
+      <c r="N130" s="63"/>
+      <c r="O130" s="63"/>
+      <c r="P130" s="63"/>
       <c r="Q130" s="19" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
@@ -32284,8 +32414,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T130" s="29"/>
-      <c r="U130" s="48"/>
-      <c r="V130" s="48"/>
+      <c r="U130" s="63"/>
+      <c r="V130" s="63"/>
       <c r="W130" s="7" t="s">
         <v>64</v>
       </c>
@@ -32299,8 +32429,8 @@
       <c r="AE130" s="25"/>
     </row>
     <row r="131" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="63"/>
-      <c r="B131" s="46"/>
+      <c r="A131" s="69"/>
+      <c r="B131" s="60"/>
       <c r="C131" s="7" t="s">
         <v>65</v>
       </c>
@@ -32320,9 +32450,9 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N131" s="48"/>
-      <c r="O131" s="48"/>
-      <c r="P131" s="48"/>
+      <c r="N131" s="63"/>
+      <c r="O131" s="63"/>
+      <c r="P131" s="63"/>
       <c r="Q131" s="19" t="str">
         <f>IF(AND(MIN(D131:K131)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -32336,8 +32466,8 @@
         <v>Pass</v>
       </c>
       <c r="T131" s="29"/>
-      <c r="U131" s="48"/>
-      <c r="V131" s="46"/>
+      <c r="U131" s="63"/>
+      <c r="V131" s="60"/>
       <c r="W131" s="7" t="s">
         <v>65</v>
       </c>
@@ -32351,8 +32481,8 @@
       <c r="AE131" s="25"/>
     </row>
     <row r="132" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="63"/>
-      <c r="B132" s="47" t="s">
+      <c r="A132" s="69"/>
+      <c r="B132" s="65" t="s">
         <v>17</v>
       </c>
       <c r="C132" s="5" t="s">
@@ -32374,9 +32504,9 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N132" s="48"/>
-      <c r="O132" s="48"/>
-      <c r="P132" s="48"/>
+      <c r="N132" s="63"/>
+      <c r="O132" s="63"/>
+      <c r="P132" s="63"/>
       <c r="Q132" s="19" t="e">
         <f t="shared" ref="Q132:Q134" si="29">IF(AND(L132&gt;=20,M132&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -32390,8 +32520,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T132" s="29"/>
-      <c r="U132" s="48"/>
-      <c r="V132" s="47" t="s">
+      <c r="U132" s="63"/>
+      <c r="V132" s="65" t="s">
         <v>17</v>
       </c>
       <c r="W132" s="5" t="s">
@@ -32407,8 +32537,8 @@
       <c r="AE132" s="25"/>
     </row>
     <row r="133" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="63"/>
-      <c r="B133" s="48"/>
+      <c r="A133" s="69"/>
+      <c r="B133" s="63"/>
       <c r="C133" s="5" t="s">
         <v>63</v>
       </c>
@@ -32428,9 +32558,9 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N133" s="48"/>
-      <c r="O133" s="48"/>
-      <c r="P133" s="48"/>
+      <c r="N133" s="63"/>
+      <c r="O133" s="63"/>
+      <c r="P133" s="63"/>
       <c r="Q133" s="19" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
@@ -32444,8 +32574,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T133" s="29"/>
-      <c r="U133" s="48"/>
-      <c r="V133" s="48"/>
+      <c r="U133" s="63"/>
+      <c r="V133" s="63"/>
       <c r="W133" s="5" t="s">
         <v>63</v>
       </c>
@@ -32459,8 +32589,8 @@
       <c r="AE133" s="25"/>
     </row>
     <row r="134" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="63"/>
-      <c r="B134" s="48"/>
+      <c r="A134" s="69"/>
+      <c r="B134" s="63"/>
       <c r="C134" s="7" t="s">
         <v>64</v>
       </c>
@@ -32480,9 +32610,9 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N134" s="48"/>
-      <c r="O134" s="48"/>
-      <c r="P134" s="48"/>
+      <c r="N134" s="63"/>
+      <c r="O134" s="63"/>
+      <c r="P134" s="63"/>
       <c r="Q134" s="19" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
@@ -32496,8 +32626,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T134" s="29"/>
-      <c r="U134" s="48"/>
-      <c r="V134" s="48"/>
+      <c r="U134" s="63"/>
+      <c r="V134" s="63"/>
       <c r="W134" s="7" t="s">
         <v>64</v>
       </c>
@@ -32511,8 +32641,8 @@
       <c r="AE134" s="25"/>
     </row>
     <row r="135" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="63"/>
-      <c r="B135" s="46"/>
+      <c r="A135" s="69"/>
+      <c r="B135" s="60"/>
       <c r="C135" s="7" t="s">
         <v>65</v>
       </c>
@@ -32532,9 +32662,9 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N135" s="46"/>
-      <c r="O135" s="46"/>
-      <c r="P135" s="46"/>
+      <c r="N135" s="60"/>
+      <c r="O135" s="60"/>
+      <c r="P135" s="60"/>
       <c r="Q135" s="19" t="str">
         <f>IF(AND(MIN(D135:K135)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -32548,8 +32678,8 @@
         <v>Pass</v>
       </c>
       <c r="T135" s="29"/>
-      <c r="U135" s="46"/>
-      <c r="V135" s="46"/>
+      <c r="U135" s="60"/>
+      <c r="V135" s="60"/>
       <c r="W135" s="7" t="s">
         <v>65</v>
       </c>
@@ -32563,7 +32693,7 @@
       <c r="AE135" s="25"/>
     </row>
     <row r="136" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="63"/>
+      <c r="A136" s="69"/>
       <c r="B136" s="15"/>
       <c r="C136" s="10"/>
       <c r="D136" s="10"/>
@@ -32588,7 +32718,7 @@
       <c r="X136" s="23"/>
     </row>
     <row r="137" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="63"/>
+      <c r="A137" s="69"/>
       <c r="B137" s="11"/>
       <c r="C137" s="15"/>
       <c r="D137" s="15"/>
@@ -32613,7 +32743,7 @@
       <c r="X137" s="23"/>
     </row>
     <row r="138" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="63"/>
+      <c r="A138" s="69"/>
       <c r="B138" s="11"/>
       <c r="C138" s="15"/>
       <c r="D138" s="15"/>
@@ -32638,7 +32768,7 @@
       <c r="X138" s="23"/>
     </row>
     <row r="139" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="63"/>
+      <c r="A139" s="69"/>
       <c r="B139" s="11"/>
       <c r="C139" s="15"/>
       <c r="D139" s="15"/>
@@ -32663,7 +32793,7 @@
       <c r="X139" s="23"/>
     </row>
     <row r="140" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="63"/>
+      <c r="A140" s="69"/>
       <c r="B140" s="11"/>
       <c r="C140" s="15"/>
       <c r="D140" s="15"/>
@@ -32688,7 +32818,7 @@
       <c r="X140" s="23"/>
     </row>
     <row r="141" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="63"/>
+      <c r="A141" s="69"/>
       <c r="B141" s="11"/>
       <c r="C141" s="15"/>
       <c r="D141" s="15"/>
@@ -32713,7 +32843,7 @@
       <c r="X141" s="23"/>
     </row>
     <row r="142" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="63"/>
+      <c r="A142" s="69"/>
       <c r="B142" s="11"/>
       <c r="C142" s="15"/>
       <c r="D142" s="15"/>
@@ -32738,7 +32868,7 @@
       <c r="X142" s="23"/>
     </row>
     <row r="143" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="63"/>
+      <c r="A143" s="69"/>
       <c r="B143" s="11"/>
       <c r="C143" s="15"/>
       <c r="D143" s="15"/>
@@ -32763,7 +32893,7 @@
       <c r="X143" s="23"/>
     </row>
     <row r="144" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="63"/>
+      <c r="A144" s="69"/>
       <c r="B144" s="11"/>
       <c r="C144" s="15"/>
       <c r="D144" s="15"/>
@@ -32784,108 +32914,108 @@
       <c r="S144" s="22"/>
     </row>
     <row r="145" spans="1:31" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="66" t="s">
+      <c r="A145" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B145" s="67"/>
-      <c r="C145" s="67"/>
-      <c r="D145" s="67"/>
-      <c r="E145" s="67"/>
-      <c r="F145" s="67"/>
-      <c r="G145" s="67"/>
-      <c r="H145" s="67"/>
-      <c r="I145" s="67"/>
-      <c r="J145" s="67"/>
-      <c r="K145" s="67"/>
-      <c r="L145" s="67"/>
-      <c r="M145" s="67"/>
-      <c r="N145" s="67"/>
-      <c r="O145" s="67"/>
-      <c r="P145" s="67"/>
-      <c r="Q145" s="67"/>
-      <c r="R145" s="67"/>
-      <c r="S145" s="67"/>
-      <c r="T145" s="67"/>
-      <c r="U145" s="67"/>
-      <c r="V145" s="67"/>
-      <c r="W145" s="67"/>
-      <c r="X145" s="67"/>
-      <c r="Y145" s="67"/>
-      <c r="Z145" s="67"/>
-      <c r="AA145" s="67"/>
-      <c r="AB145" s="67"/>
-      <c r="AC145" s="67"/>
-      <c r="AD145" s="67"/>
-      <c r="AE145" s="68"/>
+      <c r="B145" s="48"/>
+      <c r="C145" s="48"/>
+      <c r="D145" s="48"/>
+      <c r="E145" s="48"/>
+      <c r="F145" s="48"/>
+      <c r="G145" s="48"/>
+      <c r="H145" s="48"/>
+      <c r="I145" s="48"/>
+      <c r="J145" s="48"/>
+      <c r="K145" s="48"/>
+      <c r="L145" s="48"/>
+      <c r="M145" s="48"/>
+      <c r="N145" s="48"/>
+      <c r="O145" s="48"/>
+      <c r="P145" s="48"/>
+      <c r="Q145" s="48"/>
+      <c r="R145" s="48"/>
+      <c r="S145" s="48"/>
+      <c r="T145" s="48"/>
+      <c r="U145" s="48"/>
+      <c r="V145" s="48"/>
+      <c r="W145" s="48"/>
+      <c r="X145" s="48"/>
+      <c r="Y145" s="48"/>
+      <c r="Z145" s="48"/>
+      <c r="AA145" s="48"/>
+      <c r="AB145" s="48"/>
+      <c r="AC145" s="48"/>
+      <c r="AD145" s="48"/>
+      <c r="AE145" s="49"/>
     </row>
     <row r="146" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="56" t="s">
+      <c r="A146" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B146" s="53" t="s">
+      <c r="B146" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C146" s="50" t="s">
+      <c r="C146" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="D146" s="60" t="s">
+      <c r="D146" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="E146" s="60"/>
-      <c r="F146" s="60"/>
-      <c r="G146" s="60"/>
-      <c r="H146" s="60"/>
-      <c r="I146" s="60"/>
-      <c r="J146" s="60"/>
-      <c r="K146" s="60"/>
-      <c r="L146" s="53" t="s">
+      <c r="E146" s="50"/>
+      <c r="F146" s="50"/>
+      <c r="G146" s="50"/>
+      <c r="H146" s="50"/>
+      <c r="I146" s="50"/>
+      <c r="J146" s="50"/>
+      <c r="K146" s="50"/>
+      <c r="L146" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="M146" s="53" t="s">
+      <c r="M146" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="N146" s="53" t="s">
+      <c r="N146" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="O146" s="53" t="s">
+      <c r="O146" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="P146" s="53" t="s">
+      <c r="P146" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="Q146" s="56" t="s">
+      <c r="Q146" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="R146" s="56" t="s">
+      <c r="R146" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="S146" s="56" t="s">
+      <c r="S146" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="U146" s="55" t="s">
+      <c r="U146" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="V146" s="54" t="s">
+      <c r="V146" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="W146" s="52" t="s">
+      <c r="W146" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="X146" s="54" t="s">
+      <c r="X146" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="Y146" s="69"/>
-      <c r="Z146" s="69"/>
-      <c r="AA146" s="69"/>
-      <c r="AB146" s="69"/>
-      <c r="AC146" s="69"/>
-      <c r="AD146" s="69"/>
-      <c r="AE146" s="70"/>
+      <c r="Y146" s="52"/>
+      <c r="Z146" s="52"/>
+      <c r="AA146" s="52"/>
+      <c r="AB146" s="52"/>
+      <c r="AC146" s="52"/>
+      <c r="AD146" s="52"/>
+      <c r="AE146" s="53"/>
     </row>
     <row r="147" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="46"/>
-      <c r="B147" s="46"/>
-      <c r="C147" s="46"/>
+      <c r="A147" s="60"/>
+      <c r="B147" s="60"/>
+      <c r="C147" s="60"/>
       <c r="D147" s="4" t="s">
         <v>19</v>
       </c>
@@ -32910,17 +33040,17 @@
       <c r="K147" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L147" s="46"/>
-      <c r="M147" s="46"/>
-      <c r="N147" s="46"/>
-      <c r="O147" s="46"/>
-      <c r="P147" s="46"/>
-      <c r="Q147" s="46"/>
-      <c r="R147" s="46"/>
-      <c r="S147" s="46"/>
-      <c r="U147" s="46"/>
-      <c r="V147" s="46"/>
-      <c r="W147" s="46"/>
+      <c r="L147" s="60"/>
+      <c r="M147" s="60"/>
+      <c r="N147" s="60"/>
+      <c r="O147" s="60"/>
+      <c r="P147" s="60"/>
+      <c r="Q147" s="60"/>
+      <c r="R147" s="60"/>
+      <c r="S147" s="60"/>
+      <c r="U147" s="60"/>
+      <c r="V147" s="60"/>
+      <c r="W147" s="60"/>
       <c r="X147" s="26" t="s">
         <v>19</v>
       </c>
@@ -32947,10 +33077,10 @@
       </c>
     </row>
     <row r="148" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="62" t="s">
+      <c r="A148" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B148" s="47" t="s">
+      <c r="B148" s="65" t="s">
         <v>15</v>
       </c>
       <c r="C148" s="5" t="s">
@@ -32972,13 +33102,13 @@
         <f t="shared" ref="M148:M159" si="31">MIN(D148:K148)/L148</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N148" s="57" t="s">
+      <c r="N148" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="O148" s="57" t="s">
+      <c r="O148" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="P148" s="57" t="s">
+      <c r="P148" s="62" t="s">
         <v>76</v>
       </c>
       <c r="Q148" s="19" t="e">
@@ -32993,10 +33123,10 @@
         <f>IF(AND(L148&gt;=325,M148&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U148" s="47" t="s">
+      <c r="U148" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="V148" s="47" t="s">
+      <c r="V148" s="65" t="s">
         <v>15</v>
       </c>
       <c r="W148" s="5" t="s">
@@ -33012,8 +33142,8 @@
       <c r="AE148" s="20"/>
     </row>
     <row r="149" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="63"/>
-      <c r="B149" s="48"/>
+      <c r="A149" s="69"/>
+      <c r="B149" s="63"/>
       <c r="C149" s="5" t="s">
         <v>63</v>
       </c>
@@ -33033,9 +33163,9 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N149" s="48"/>
-      <c r="O149" s="48"/>
-      <c r="P149" s="48"/>
+      <c r="N149" s="63"/>
+      <c r="O149" s="63"/>
+      <c r="P149" s="63"/>
       <c r="Q149" s="19" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
@@ -33048,8 +33178,8 @@
         <f>IF(AND(L149&gt;=222.8,M149&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U149" s="48"/>
-      <c r="V149" s="48"/>
+      <c r="U149" s="63"/>
+      <c r="V149" s="63"/>
       <c r="W149" s="5" t="s">
         <v>63</v>
       </c>
@@ -33063,8 +33193,8 @@
       <c r="AE149" s="20"/>
     </row>
     <row r="150" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="63"/>
-      <c r="B150" s="48"/>
+      <c r="A150" s="69"/>
+      <c r="B150" s="63"/>
       <c r="C150" s="7" t="s">
         <v>64</v>
       </c>
@@ -33084,9 +33214,9 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N150" s="48"/>
-      <c r="O150" s="48"/>
-      <c r="P150" s="48"/>
+      <c r="N150" s="63"/>
+      <c r="O150" s="63"/>
+      <c r="P150" s="63"/>
       <c r="Q150" s="19" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
@@ -33099,8 +33229,8 @@
         <f>IF(AND(L150&gt;=30),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U150" s="48"/>
-      <c r="V150" s="48"/>
+      <c r="U150" s="63"/>
+      <c r="V150" s="63"/>
       <c r="W150" s="7" t="s">
         <v>64</v>
       </c>
@@ -33114,8 +33244,8 @@
       <c r="AE150" s="20"/>
     </row>
     <row r="151" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="63"/>
-      <c r="B151" s="46"/>
+      <c r="A151" s="69"/>
+      <c r="B151" s="60"/>
       <c r="C151" s="7" t="s">
         <v>65</v>
       </c>
@@ -33135,9 +33265,9 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N151" s="48"/>
-      <c r="O151" s="48"/>
-      <c r="P151" s="48"/>
+      <c r="N151" s="63"/>
+      <c r="O151" s="63"/>
+      <c r="P151" s="63"/>
       <c r="Q151" s="19" t="str">
         <f>IF(AND(MIN(D151:K151)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -33150,8 +33280,8 @@
         <f>IF(AND(MIN(D151:K151)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U151" s="48"/>
-      <c r="V151" s="46"/>
+      <c r="U151" s="63"/>
+      <c r="V151" s="60"/>
       <c r="W151" s="7" t="s">
         <v>65</v>
       </c>
@@ -33165,8 +33295,8 @@
       <c r="AE151" s="20"/>
     </row>
     <row r="152" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="63"/>
-      <c r="B152" s="47" t="s">
+      <c r="A152" s="69"/>
+      <c r="B152" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C152" s="5" t="s">
@@ -33188,9 +33318,9 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N152" s="48"/>
-      <c r="O152" s="48"/>
-      <c r="P152" s="48"/>
+      <c r="N152" s="63"/>
+      <c r="O152" s="63"/>
+      <c r="P152" s="63"/>
       <c r="Q152" s="19" t="e">
         <f t="shared" ref="Q152:Q154" si="33">IF(AND(L152&gt;=20,M152&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -33203,8 +33333,8 @@
         <f>IF(AND(L152&gt;=325,M152&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U152" s="48"/>
-      <c r="V152" s="47" t="s">
+      <c r="U152" s="63"/>
+      <c r="V152" s="65" t="s">
         <v>16</v>
       </c>
       <c r="W152" s="5" t="s">
@@ -33220,8 +33350,8 @@
       <c r="AE152" s="20"/>
     </row>
     <row r="153" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="63"/>
-      <c r="B153" s="48"/>
+      <c r="A153" s="69"/>
+      <c r="B153" s="63"/>
       <c r="C153" s="5" t="s">
         <v>63</v>
       </c>
@@ -33241,9 +33371,9 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N153" s="48"/>
-      <c r="O153" s="48"/>
-      <c r="P153" s="48"/>
+      <c r="N153" s="63"/>
+      <c r="O153" s="63"/>
+      <c r="P153" s="63"/>
       <c r="Q153" s="19" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
@@ -33256,8 +33386,8 @@
         <f>IF(AND(L153&gt;=222.8,M153&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U153" s="48"/>
-      <c r="V153" s="48"/>
+      <c r="U153" s="63"/>
+      <c r="V153" s="63"/>
       <c r="W153" s="5" t="s">
         <v>63</v>
       </c>
@@ -33271,8 +33401,8 @@
       <c r="AE153" s="20"/>
     </row>
     <row r="154" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="63"/>
-      <c r="B154" s="48"/>
+      <c r="A154" s="69"/>
+      <c r="B154" s="63"/>
       <c r="C154" s="7" t="s">
         <v>64</v>
       </c>
@@ -33292,9 +33422,9 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N154" s="48"/>
-      <c r="O154" s="48"/>
-      <c r="P154" s="48"/>
+      <c r="N154" s="63"/>
+      <c r="O154" s="63"/>
+      <c r="P154" s="63"/>
       <c r="Q154" s="19" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
@@ -33307,8 +33437,8 @@
         <f>IF(AND(L154&gt;=30),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U154" s="48"/>
-      <c r="V154" s="48"/>
+      <c r="U154" s="63"/>
+      <c r="V154" s="63"/>
       <c r="W154" s="7" t="s">
         <v>64</v>
       </c>
@@ -33322,8 +33452,8 @@
       <c r="AE154" s="20"/>
     </row>
     <row r="155" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="63"/>
-      <c r="B155" s="46"/>
+      <c r="A155" s="69"/>
+      <c r="B155" s="60"/>
       <c r="C155" s="7" t="s">
         <v>65</v>
       </c>
@@ -33343,9 +33473,9 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N155" s="48"/>
-      <c r="O155" s="48"/>
-      <c r="P155" s="48"/>
+      <c r="N155" s="63"/>
+      <c r="O155" s="63"/>
+      <c r="P155" s="63"/>
       <c r="Q155" s="19" t="str">
         <f>IF(AND(MIN(D155:K155)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -33358,8 +33488,8 @@
         <f>IF(AND(MIN(D155:K155)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U155" s="48"/>
-      <c r="V155" s="46"/>
+      <c r="U155" s="63"/>
+      <c r="V155" s="60"/>
       <c r="W155" s="7" t="s">
         <v>65</v>
       </c>
@@ -33373,8 +33503,8 @@
       <c r="AE155" s="20"/>
     </row>
     <row r="156" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="63"/>
-      <c r="B156" s="47" t="s">
+      <c r="A156" s="69"/>
+      <c r="B156" s="65" t="s">
         <v>17</v>
       </c>
       <c r="C156" s="5" t="s">
@@ -33396,9 +33526,9 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N156" s="48"/>
-      <c r="O156" s="48"/>
-      <c r="P156" s="48"/>
+      <c r="N156" s="63"/>
+      <c r="O156" s="63"/>
+      <c r="P156" s="63"/>
       <c r="Q156" s="19" t="e">
         <f t="shared" ref="Q156:Q158" si="34">IF(AND(L156&gt;=20,M156&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -33411,8 +33541,8 @@
         <f>IF(AND(L156&gt;=325,M156&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U156" s="48"/>
-      <c r="V156" s="47" t="s">
+      <c r="U156" s="63"/>
+      <c r="V156" s="65" t="s">
         <v>17</v>
       </c>
       <c r="W156" s="5" t="s">
@@ -33428,8 +33558,8 @@
       <c r="AE156" s="20"/>
     </row>
     <row r="157" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="63"/>
-      <c r="B157" s="48"/>
+      <c r="A157" s="69"/>
+      <c r="B157" s="63"/>
       <c r="C157" s="5" t="s">
         <v>63</v>
       </c>
@@ -33449,9 +33579,9 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N157" s="48"/>
-      <c r="O157" s="48"/>
-      <c r="P157" s="48"/>
+      <c r="N157" s="63"/>
+      <c r="O157" s="63"/>
+      <c r="P157" s="63"/>
       <c r="Q157" s="19" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
@@ -33464,8 +33594,8 @@
         <f>IF(AND(L157&gt;=222.8,M157&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U157" s="48"/>
-      <c r="V157" s="48"/>
+      <c r="U157" s="63"/>
+      <c r="V157" s="63"/>
       <c r="W157" s="5" t="s">
         <v>63</v>
       </c>
@@ -33479,8 +33609,8 @@
       <c r="AE157" s="20"/>
     </row>
     <row r="158" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="63"/>
-      <c r="B158" s="48"/>
+      <c r="A158" s="69"/>
+      <c r="B158" s="63"/>
       <c r="C158" s="7" t="s">
         <v>64</v>
       </c>
@@ -33500,9 +33630,9 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N158" s="48"/>
-      <c r="O158" s="48"/>
-      <c r="P158" s="48"/>
+      <c r="N158" s="63"/>
+      <c r="O158" s="63"/>
+      <c r="P158" s="63"/>
       <c r="Q158" s="19" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
@@ -33515,8 +33645,8 @@
         <f>IF(AND(L158&gt;=30),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U158" s="48"/>
-      <c r="V158" s="48"/>
+      <c r="U158" s="63"/>
+      <c r="V158" s="63"/>
       <c r="W158" s="7" t="s">
         <v>64</v>
       </c>
@@ -33530,8 +33660,8 @@
       <c r="AE158" s="20"/>
     </row>
     <row r="159" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="63"/>
-      <c r="B159" s="46"/>
+      <c r="A159" s="69"/>
+      <c r="B159" s="60"/>
       <c r="C159" s="7" t="s">
         <v>65</v>
       </c>
@@ -33551,9 +33681,9 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N159" s="46"/>
-      <c r="O159" s="46"/>
-      <c r="P159" s="46"/>
+      <c r="N159" s="60"/>
+      <c r="O159" s="60"/>
+      <c r="P159" s="60"/>
       <c r="Q159" s="19" t="str">
         <f>IF(AND(MIN(D159:K159)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -33566,8 +33696,8 @@
         <f>IF(AND(MIN(D159:K159)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U159" s="46"/>
-      <c r="V159" s="46"/>
+      <c r="U159" s="60"/>
+      <c r="V159" s="60"/>
       <c r="W159" s="7" t="s">
         <v>65</v>
       </c>
@@ -33581,7 +33711,7 @@
       <c r="AE159" s="20"/>
     </row>
     <row r="160" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="63"/>
+      <c r="A160" s="69"/>
       <c r="B160" s="9"/>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
@@ -33606,7 +33736,7 @@
       <c r="X160" s="23"/>
     </row>
     <row r="161" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="63"/>
+      <c r="A161" s="69"/>
       <c r="B161" s="11"/>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
@@ -33631,7 +33761,7 @@
       <c r="X161" s="23"/>
     </row>
     <row r="162" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="63"/>
+      <c r="A162" s="69"/>
       <c r="B162" s="11"/>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
@@ -33656,7 +33786,7 @@
       <c r="X162" s="23"/>
     </row>
     <row r="163" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="63"/>
+      <c r="A163" s="69"/>
       <c r="B163" s="11"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
@@ -33681,7 +33811,7 @@
       <c r="X163" s="23"/>
     </row>
     <row r="164" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="63"/>
+      <c r="A164" s="69"/>
       <c r="B164" s="11"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
@@ -33706,7 +33836,7 @@
       <c r="X164" s="23"/>
     </row>
     <row r="165" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="63"/>
+      <c r="A165" s="69"/>
       <c r="B165" s="11"/>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
@@ -33731,7 +33861,7 @@
       <c r="X165" s="23"/>
     </row>
     <row r="166" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="63"/>
+      <c r="A166" s="69"/>
       <c r="B166" s="11"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
@@ -33756,7 +33886,7 @@
       <c r="X166" s="23"/>
     </row>
     <row r="167" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="63"/>
+      <c r="A167" s="69"/>
       <c r="B167" s="11"/>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
@@ -33781,7 +33911,7 @@
       <c r="X167" s="23"/>
     </row>
     <row r="168" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="63"/>
+      <c r="A168" s="69"/>
       <c r="B168" s="12"/>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
@@ -33802,72 +33932,72 @@
       <c r="S168" s="24"/>
     </row>
     <row r="169" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="63"/>
-      <c r="B169" s="45" t="s">
+      <c r="A169" s="69"/>
+      <c r="B169" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C169" s="51" t="s">
+      <c r="C169" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="D169" s="58" t="s">
+      <c r="D169" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="E169" s="59"/>
-      <c r="F169" s="59"/>
-      <c r="G169" s="59"/>
-      <c r="H169" s="59"/>
-      <c r="I169" s="59"/>
-      <c r="J169" s="59"/>
-      <c r="K169" s="59"/>
-      <c r="L169" s="45" t="s">
+      <c r="E169" s="55"/>
+      <c r="F169" s="55"/>
+      <c r="G169" s="55"/>
+      <c r="H169" s="55"/>
+      <c r="I169" s="55"/>
+      <c r="J169" s="55"/>
+      <c r="K169" s="55"/>
+      <c r="L169" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="M169" s="45" t="s">
+      <c r="M169" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="N169" s="53" t="s">
+      <c r="N169" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="O169" s="53" t="s">
+      <c r="O169" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="P169" s="53" t="s">
+      <c r="P169" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="Q169" s="56" t="s">
+      <c r="Q169" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="R169" s="56" t="s">
+      <c r="R169" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="S169" s="56" t="s">
+      <c r="S169" s="64" t="s">
         <v>12</v>
       </c>
       <c r="T169" s="28"/>
-      <c r="U169" s="49" t="s">
+      <c r="U169" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="V169" s="45" t="s">
+      <c r="V169" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="W169" s="51" t="s">
+      <c r="W169" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="X169" s="45" t="s">
+      <c r="X169" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="Y169" s="64"/>
-      <c r="Z169" s="64"/>
-      <c r="AA169" s="64"/>
-      <c r="AB169" s="64"/>
-      <c r="AC169" s="64"/>
-      <c r="AD169" s="64"/>
-      <c r="AE169" s="65"/>
+      <c r="Y169" s="57"/>
+      <c r="Z169" s="57"/>
+      <c r="AA169" s="57"/>
+      <c r="AB169" s="57"/>
+      <c r="AC169" s="57"/>
+      <c r="AD169" s="57"/>
+      <c r="AE169" s="58"/>
     </row>
     <row r="170" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="63"/>
-      <c r="B170" s="46"/>
-      <c r="C170" s="46"/>
+      <c r="A170" s="69"/>
+      <c r="B170" s="60"/>
+      <c r="C170" s="60"/>
       <c r="D170" s="4" t="s">
         <v>19</v>
       </c>
@@ -33892,18 +34022,18 @@
       <c r="K170" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L170" s="46"/>
-      <c r="M170" s="46"/>
-      <c r="N170" s="46"/>
-      <c r="O170" s="46"/>
-      <c r="P170" s="46"/>
-      <c r="Q170" s="46"/>
-      <c r="R170" s="46"/>
-      <c r="S170" s="46"/>
+      <c r="L170" s="60"/>
+      <c r="M170" s="60"/>
+      <c r="N170" s="60"/>
+      <c r="O170" s="60"/>
+      <c r="P170" s="60"/>
+      <c r="Q170" s="60"/>
+      <c r="R170" s="60"/>
+      <c r="S170" s="60"/>
       <c r="T170" s="28"/>
-      <c r="U170" s="46"/>
-      <c r="V170" s="46"/>
-      <c r="W170" s="46"/>
+      <c r="U170" s="60"/>
+      <c r="V170" s="60"/>
+      <c r="W170" s="60"/>
       <c r="X170" s="4" t="s">
         <v>19</v>
       </c>
@@ -33930,8 +34060,8 @@
       </c>
     </row>
     <row r="171" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="63"/>
-      <c r="B171" s="47" t="s">
+      <c r="A171" s="69"/>
+      <c r="B171" s="65" t="s">
         <v>15</v>
       </c>
       <c r="C171" s="5" t="s">
@@ -33953,13 +34083,13 @@
         <f t="shared" ref="M171:M182" si="36">MIN(D171:K171)/L171</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N171" s="57" t="s">
+      <c r="N171" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="O171" s="57" t="s">
+      <c r="O171" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="P171" s="57" t="s">
+      <c r="P171" s="62" t="s">
         <v>79</v>
       </c>
       <c r="Q171" s="19" t="e">
@@ -33974,10 +34104,10 @@
         <f>IF(AND(L171&gt;=325,M171&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U171" s="47" t="s">
+      <c r="U171" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="V171" s="47" t="s">
+      <c r="V171" s="65" t="s">
         <v>15</v>
       </c>
       <c r="W171" s="5" t="s">
@@ -33993,8 +34123,8 @@
       <c r="AE171" s="25"/>
     </row>
     <row r="172" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="63"/>
-      <c r="B172" s="48"/>
+      <c r="A172" s="69"/>
+      <c r="B172" s="63"/>
       <c r="C172" s="5" t="s">
         <v>63</v>
       </c>
@@ -34014,9 +34144,9 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N172" s="48"/>
-      <c r="O172" s="48"/>
-      <c r="P172" s="48"/>
+      <c r="N172" s="63"/>
+      <c r="O172" s="63"/>
+      <c r="P172" s="63"/>
       <c r="Q172" s="19" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
@@ -34029,8 +34159,8 @@
         <f>IF(AND(L172&gt;=222.8,M172&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U172" s="48"/>
-      <c r="V172" s="48"/>
+      <c r="U172" s="63"/>
+      <c r="V172" s="63"/>
       <c r="W172" s="5" t="s">
         <v>63</v>
       </c>
@@ -34044,8 +34174,8 @@
       <c r="AE172" s="25"/>
     </row>
     <row r="173" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="63"/>
-      <c r="B173" s="48"/>
+      <c r="A173" s="69"/>
+      <c r="B173" s="63"/>
       <c r="C173" s="7" t="s">
         <v>64</v>
       </c>
@@ -34065,9 +34195,9 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N173" s="48"/>
-      <c r="O173" s="48"/>
-      <c r="P173" s="48"/>
+      <c r="N173" s="63"/>
+      <c r="O173" s="63"/>
+      <c r="P173" s="63"/>
       <c r="Q173" s="19" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
@@ -34080,8 +34210,8 @@
         <f>IF(AND(L173&gt;=20),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U173" s="48"/>
-      <c r="V173" s="48"/>
+      <c r="U173" s="63"/>
+      <c r="V173" s="63"/>
       <c r="W173" s="7" t="s">
         <v>64</v>
       </c>
@@ -34095,8 +34225,8 @@
       <c r="AE173" s="25"/>
     </row>
     <row r="174" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="63"/>
-      <c r="B174" s="46"/>
+      <c r="A174" s="69"/>
+      <c r="B174" s="60"/>
       <c r="C174" s="7" t="s">
         <v>65</v>
       </c>
@@ -34116,9 +34246,9 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N174" s="48"/>
-      <c r="O174" s="48"/>
-      <c r="P174" s="48"/>
+      <c r="N174" s="63"/>
+      <c r="O174" s="63"/>
+      <c r="P174" s="63"/>
       <c r="Q174" s="19" t="str">
         <f>IF(AND(MIN(D174:K174)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -34131,8 +34261,8 @@
         <f>IF(AND(MIN(D174:K174)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U174" s="48"/>
-      <c r="V174" s="46"/>
+      <c r="U174" s="63"/>
+      <c r="V174" s="60"/>
       <c r="W174" s="7" t="s">
         <v>65</v>
       </c>
@@ -34146,8 +34276,8 @@
       <c r="AE174" s="25"/>
     </row>
     <row r="175" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="63"/>
-      <c r="B175" s="47" t="s">
+      <c r="A175" s="69"/>
+      <c r="B175" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C175" s="5" t="s">
@@ -34169,9 +34299,9 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N175" s="48"/>
-      <c r="O175" s="48"/>
-      <c r="P175" s="48"/>
+      <c r="N175" s="63"/>
+      <c r="O175" s="63"/>
+      <c r="P175" s="63"/>
       <c r="Q175" s="19" t="e">
         <f t="shared" ref="Q175:Q177" si="38">IF(AND(L175&gt;=20,M175&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -34184,8 +34314,8 @@
         <f>IF(AND(L175&gt;=325,M175&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U175" s="48"/>
-      <c r="V175" s="47" t="s">
+      <c r="U175" s="63"/>
+      <c r="V175" s="65" t="s">
         <v>16</v>
       </c>
       <c r="W175" s="5" t="s">
@@ -34201,8 +34331,8 @@
       <c r="AE175" s="25"/>
     </row>
     <row r="176" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="63"/>
-      <c r="B176" s="48"/>
+      <c r="A176" s="69"/>
+      <c r="B176" s="63"/>
       <c r="C176" s="5" t="s">
         <v>63</v>
       </c>
@@ -34222,9 +34352,9 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N176" s="48"/>
-      <c r="O176" s="48"/>
-      <c r="P176" s="48"/>
+      <c r="N176" s="63"/>
+      <c r="O176" s="63"/>
+      <c r="P176" s="63"/>
       <c r="Q176" s="19" t="e">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
@@ -34237,8 +34367,8 @@
         <f>IF(AND(L176&gt;=222.8,M176&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U176" s="48"/>
-      <c r="V176" s="48"/>
+      <c r="U176" s="63"/>
+      <c r="V176" s="63"/>
       <c r="W176" s="5" t="s">
         <v>63</v>
       </c>
@@ -34252,8 +34382,8 @@
       <c r="AE176" s="25"/>
     </row>
     <row r="177" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="63"/>
-      <c r="B177" s="48"/>
+      <c r="A177" s="69"/>
+      <c r="B177" s="63"/>
       <c r="C177" s="7" t="s">
         <v>64</v>
       </c>
@@ -34273,9 +34403,9 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N177" s="48"/>
-      <c r="O177" s="48"/>
-      <c r="P177" s="48"/>
+      <c r="N177" s="63"/>
+      <c r="O177" s="63"/>
+      <c r="P177" s="63"/>
       <c r="Q177" s="19" t="e">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
@@ -34288,8 +34418,8 @@
         <f>IF(AND(L177&gt;=20),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U177" s="48"/>
-      <c r="V177" s="48"/>
+      <c r="U177" s="63"/>
+      <c r="V177" s="63"/>
       <c r="W177" s="7" t="s">
         <v>64</v>
       </c>
@@ -34303,8 +34433,8 @@
       <c r="AE177" s="25"/>
     </row>
     <row r="178" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="63"/>
-      <c r="B178" s="46"/>
+      <c r="A178" s="69"/>
+      <c r="B178" s="60"/>
       <c r="C178" s="7" t="s">
         <v>65</v>
       </c>
@@ -34324,9 +34454,9 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N178" s="48"/>
-      <c r="O178" s="48"/>
-      <c r="P178" s="48"/>
+      <c r="N178" s="63"/>
+      <c r="O178" s="63"/>
+      <c r="P178" s="63"/>
       <c r="Q178" s="19" t="str">
         <f>IF(AND(MIN(D178:K178)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -34339,8 +34469,8 @@
         <f>IF(AND(MIN(D178:K178)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U178" s="48"/>
-      <c r="V178" s="46"/>
+      <c r="U178" s="63"/>
+      <c r="V178" s="60"/>
       <c r="W178" s="7" t="s">
         <v>65</v>
       </c>
@@ -34354,8 +34484,8 @@
       <c r="AE178" s="25"/>
     </row>
     <row r="179" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="63"/>
-      <c r="B179" s="47" t="s">
+      <c r="A179" s="69"/>
+      <c r="B179" s="65" t="s">
         <v>17</v>
       </c>
       <c r="C179" s="5" t="s">
@@ -34377,9 +34507,9 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N179" s="48"/>
-      <c r="O179" s="48"/>
-      <c r="P179" s="48"/>
+      <c r="N179" s="63"/>
+      <c r="O179" s="63"/>
+      <c r="P179" s="63"/>
       <c r="Q179" s="19" t="e">
         <f t="shared" ref="Q179:Q181" si="39">IF(AND(L179&gt;=20,M179&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -34392,8 +34522,8 @@
         <f>IF(AND(L179&gt;=325,M179&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U179" s="48"/>
-      <c r="V179" s="47" t="s">
+      <c r="U179" s="63"/>
+      <c r="V179" s="65" t="s">
         <v>17</v>
       </c>
       <c r="W179" s="5" t="s">
@@ -34409,8 +34539,8 @@
       <c r="AE179" s="25"/>
     </row>
     <row r="180" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="63"/>
-      <c r="B180" s="48"/>
+      <c r="A180" s="69"/>
+      <c r="B180" s="63"/>
       <c r="C180" s="5" t="s">
         <v>63</v>
       </c>
@@ -34430,9 +34560,9 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N180" s="48"/>
-      <c r="O180" s="48"/>
-      <c r="P180" s="48"/>
+      <c r="N180" s="63"/>
+      <c r="O180" s="63"/>
+      <c r="P180" s="63"/>
       <c r="Q180" s="19" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
@@ -34445,8 +34575,8 @@
         <f>IF(AND(L180&gt;=222.8,M180&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U180" s="48"/>
-      <c r="V180" s="48"/>
+      <c r="U180" s="63"/>
+      <c r="V180" s="63"/>
       <c r="W180" s="5" t="s">
         <v>63</v>
       </c>
@@ -34460,8 +34590,8 @@
       <c r="AE180" s="25"/>
     </row>
     <row r="181" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="63"/>
-      <c r="B181" s="48"/>
+      <c r="A181" s="69"/>
+      <c r="B181" s="63"/>
       <c r="C181" s="7" t="s">
         <v>64</v>
       </c>
@@ -34481,9 +34611,9 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N181" s="48"/>
-      <c r="O181" s="48"/>
-      <c r="P181" s="48"/>
+      <c r="N181" s="63"/>
+      <c r="O181" s="63"/>
+      <c r="P181" s="63"/>
       <c r="Q181" s="19" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
@@ -34496,8 +34626,8 @@
         <f>IF(AND(L181&gt;=20),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U181" s="48"/>
-      <c r="V181" s="48"/>
+      <c r="U181" s="63"/>
+      <c r="V181" s="63"/>
       <c r="W181" s="7" t="s">
         <v>64</v>
       </c>
@@ -34511,8 +34641,8 @@
       <c r="AE181" s="25"/>
     </row>
     <row r="182" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="63"/>
-      <c r="B182" s="46"/>
+      <c r="A182" s="69"/>
+      <c r="B182" s="60"/>
       <c r="C182" s="7" t="s">
         <v>65</v>
       </c>
@@ -34532,9 +34662,9 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N182" s="46"/>
-      <c r="O182" s="46"/>
-      <c r="P182" s="46"/>
+      <c r="N182" s="60"/>
+      <c r="O182" s="60"/>
+      <c r="P182" s="60"/>
       <c r="Q182" s="19" t="str">
         <f>IF(AND(MIN(D182:K182)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -34547,8 +34677,8 @@
         <f>IF(AND(MIN(D182:K182)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U182" s="46"/>
-      <c r="V182" s="46"/>
+      <c r="U182" s="60"/>
+      <c r="V182" s="60"/>
       <c r="W182" s="7" t="s">
         <v>65</v>
       </c>
@@ -34562,7 +34692,7 @@
       <c r="AE182" s="25"/>
     </row>
     <row r="183" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="63"/>
+      <c r="A183" s="69"/>
       <c r="B183" s="15"/>
       <c r="C183" s="10"/>
       <c r="D183" s="10"/>
@@ -34583,7 +34713,7 @@
       <c r="S183" s="21"/>
     </row>
     <row r="184" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="63"/>
+      <c r="A184" s="69"/>
       <c r="B184" s="11"/>
       <c r="C184" s="15"/>
       <c r="D184" s="15"/>
@@ -34608,7 +34738,7 @@
       <c r="X184" s="23"/>
     </row>
     <row r="185" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="63"/>
+      <c r="A185" s="69"/>
       <c r="B185" s="11"/>
       <c r="C185" s="15"/>
       <c r="D185" s="15"/>
@@ -34633,7 +34763,7 @@
       <c r="X185" s="23"/>
     </row>
     <row r="186" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="63"/>
+      <c r="A186" s="69"/>
       <c r="B186" s="11"/>
       <c r="C186" s="15"/>
       <c r="D186" s="15"/>
@@ -34658,7 +34788,7 @@
       <c r="X186" s="23"/>
     </row>
     <row r="187" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="63"/>
+      <c r="A187" s="69"/>
       <c r="B187" s="11"/>
       <c r="C187" s="15"/>
       <c r="D187" s="15"/>
@@ -34683,7 +34813,7 @@
       <c r="X187" s="23"/>
     </row>
     <row r="188" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="63"/>
+      <c r="A188" s="69"/>
       <c r="B188" s="11"/>
       <c r="C188" s="15"/>
       <c r="D188" s="15"/>
@@ -34708,7 +34838,7 @@
       <c r="X188" s="23"/>
     </row>
     <row r="189" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="63"/>
+      <c r="A189" s="69"/>
       <c r="B189" s="11"/>
       <c r="C189" s="15"/>
       <c r="D189" s="15"/>
@@ -34733,7 +34863,7 @@
       <c r="X189" s="23"/>
     </row>
     <row r="190" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="63"/>
+      <c r="A190" s="69"/>
       <c r="B190" s="11"/>
       <c r="C190" s="15"/>
       <c r="D190" s="15"/>
@@ -34758,7 +34888,7 @@
       <c r="X190" s="23"/>
     </row>
     <row r="191" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="63"/>
+      <c r="A191" s="69"/>
       <c r="B191" s="11"/>
       <c r="C191" s="15"/>
       <c r="D191" s="15"/>
@@ -34783,144 +34913,144 @@
       <c r="X191" s="23"/>
     </row>
     <row r="192" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="66" t="s">
+      <c r="A192" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B192" s="67"/>
-      <c r="C192" s="67"/>
-      <c r="D192" s="67"/>
-      <c r="E192" s="67"/>
-      <c r="F192" s="67"/>
-      <c r="G192" s="67"/>
-      <c r="H192" s="67"/>
-      <c r="I192" s="67"/>
-      <c r="J192" s="67"/>
-      <c r="K192" s="67"/>
-      <c r="L192" s="67"/>
-      <c r="M192" s="67"/>
-      <c r="N192" s="67"/>
-      <c r="O192" s="67"/>
-      <c r="P192" s="67"/>
-      <c r="Q192" s="67"/>
-      <c r="R192" s="67"/>
-      <c r="S192" s="67"/>
-      <c r="T192" s="67"/>
-      <c r="U192" s="67"/>
-      <c r="V192" s="67"/>
-      <c r="W192" s="67"/>
-      <c r="X192" s="67"/>
-      <c r="Y192" s="67"/>
-      <c r="Z192" s="67"/>
-      <c r="AA192" s="67"/>
-      <c r="AB192" s="67"/>
-      <c r="AC192" s="67"/>
-      <c r="AD192" s="67"/>
-      <c r="AE192" s="68"/>
+      <c r="B192" s="48"/>
+      <c r="C192" s="48"/>
+      <c r="D192" s="48"/>
+      <c r="E192" s="48"/>
+      <c r="F192" s="48"/>
+      <c r="G192" s="48"/>
+      <c r="H192" s="48"/>
+      <c r="I192" s="48"/>
+      <c r="J192" s="48"/>
+      <c r="K192" s="48"/>
+      <c r="L192" s="48"/>
+      <c r="M192" s="48"/>
+      <c r="N192" s="48"/>
+      <c r="O192" s="48"/>
+      <c r="P192" s="48"/>
+      <c r="Q192" s="48"/>
+      <c r="R192" s="48"/>
+      <c r="S192" s="48"/>
+      <c r="T192" s="48"/>
+      <c r="U192" s="48"/>
+      <c r="V192" s="48"/>
+      <c r="W192" s="48"/>
+      <c r="X192" s="48"/>
+      <c r="Y192" s="48"/>
+      <c r="Z192" s="48"/>
+      <c r="AA192" s="48"/>
+      <c r="AB192" s="48"/>
+      <c r="AC192" s="48"/>
+      <c r="AD192" s="48"/>
+      <c r="AE192" s="49"/>
     </row>
     <row r="193" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="66" t="s">
+      <c r="A193" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B193" s="67"/>
-      <c r="C193" s="67"/>
-      <c r="D193" s="67"/>
-      <c r="E193" s="67"/>
-      <c r="F193" s="67"/>
-      <c r="G193" s="67"/>
-      <c r="H193" s="67"/>
-      <c r="I193" s="67"/>
-      <c r="J193" s="67"/>
-      <c r="K193" s="67"/>
-      <c r="L193" s="67"/>
-      <c r="M193" s="67"/>
-      <c r="N193" s="67"/>
-      <c r="O193" s="67"/>
-      <c r="P193" s="67"/>
-      <c r="Q193" s="67"/>
-      <c r="R193" s="67"/>
-      <c r="S193" s="67"/>
-      <c r="T193" s="67"/>
-      <c r="U193" s="67"/>
-      <c r="V193" s="67"/>
-      <c r="W193" s="67"/>
-      <c r="X193" s="67"/>
-      <c r="Y193" s="67"/>
-      <c r="Z193" s="67"/>
-      <c r="AA193" s="67"/>
-      <c r="AB193" s="67"/>
-      <c r="AC193" s="67"/>
-      <c r="AD193" s="67"/>
-      <c r="AE193" s="68"/>
+      <c r="B193" s="48"/>
+      <c r="C193" s="48"/>
+      <c r="D193" s="48"/>
+      <c r="E193" s="48"/>
+      <c r="F193" s="48"/>
+      <c r="G193" s="48"/>
+      <c r="H193" s="48"/>
+      <c r="I193" s="48"/>
+      <c r="J193" s="48"/>
+      <c r="K193" s="48"/>
+      <c r="L193" s="48"/>
+      <c r="M193" s="48"/>
+      <c r="N193" s="48"/>
+      <c r="O193" s="48"/>
+      <c r="P193" s="48"/>
+      <c r="Q193" s="48"/>
+      <c r="R193" s="48"/>
+      <c r="S193" s="48"/>
+      <c r="T193" s="48"/>
+      <c r="U193" s="48"/>
+      <c r="V193" s="48"/>
+      <c r="W193" s="48"/>
+      <c r="X193" s="48"/>
+      <c r="Y193" s="48"/>
+      <c r="Z193" s="48"/>
+      <c r="AA193" s="48"/>
+      <c r="AB193" s="48"/>
+      <c r="AC193" s="48"/>
+      <c r="AD193" s="48"/>
+      <c r="AE193" s="49"/>
     </row>
     <row r="194" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="56" t="s">
+      <c r="A194" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B194" s="53" t="s">
+      <c r="B194" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C194" s="50" t="s">
+      <c r="C194" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="D194" s="60" t="s">
+      <c r="D194" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="E194" s="60"/>
-      <c r="F194" s="60"/>
-      <c r="G194" s="60"/>
-      <c r="H194" s="60"/>
-      <c r="I194" s="60"/>
-      <c r="J194" s="60"/>
-      <c r="K194" s="60"/>
-      <c r="L194" s="53" t="s">
+      <c r="E194" s="50"/>
+      <c r="F194" s="50"/>
+      <c r="G194" s="50"/>
+      <c r="H194" s="50"/>
+      <c r="I194" s="50"/>
+      <c r="J194" s="50"/>
+      <c r="K194" s="50"/>
+      <c r="L194" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="M194" s="53" t="s">
+      <c r="M194" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="N194" s="53" t="s">
+      <c r="N194" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="O194" s="53" t="s">
+      <c r="O194" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="P194" s="53" t="s">
+      <c r="P194" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="Q194" s="56" t="s">
+      <c r="Q194" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="R194" s="56" t="s">
+      <c r="R194" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="S194" s="56" t="s">
+      <c r="S194" s="64" t="s">
         <v>12</v>
       </c>
       <c r="T194" s="28"/>
-      <c r="U194" s="56" t="s">
+      <c r="U194" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="V194" s="53" t="s">
+      <c r="V194" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="W194" s="50" t="s">
+      <c r="W194" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="X194" s="53" t="s">
+      <c r="X194" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="Y194" s="69"/>
-      <c r="Z194" s="69"/>
-      <c r="AA194" s="69"/>
-      <c r="AB194" s="69"/>
-      <c r="AC194" s="69"/>
-      <c r="AD194" s="69"/>
-      <c r="AE194" s="70"/>
+      <c r="Y194" s="52"/>
+      <c r="Z194" s="52"/>
+      <c r="AA194" s="52"/>
+      <c r="AB194" s="52"/>
+      <c r="AC194" s="52"/>
+      <c r="AD194" s="52"/>
+      <c r="AE194" s="53"/>
     </row>
     <row r="195" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="46"/>
-      <c r="B195" s="46"/>
-      <c r="C195" s="46"/>
+      <c r="A195" s="60"/>
+      <c r="B195" s="60"/>
+      <c r="C195" s="60"/>
       <c r="D195" s="4" t="s">
         <v>19</v>
       </c>
@@ -34945,18 +35075,18 @@
       <c r="K195" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L195" s="46"/>
-      <c r="M195" s="46"/>
-      <c r="N195" s="46"/>
-      <c r="O195" s="46"/>
-      <c r="P195" s="46"/>
-      <c r="Q195" s="46"/>
-      <c r="R195" s="46"/>
-      <c r="S195" s="46"/>
+      <c r="L195" s="60"/>
+      <c r="M195" s="60"/>
+      <c r="N195" s="60"/>
+      <c r="O195" s="60"/>
+      <c r="P195" s="60"/>
+      <c r="Q195" s="60"/>
+      <c r="R195" s="60"/>
+      <c r="S195" s="60"/>
       <c r="T195" s="28"/>
-      <c r="U195" s="46"/>
-      <c r="V195" s="46"/>
-      <c r="W195" s="46"/>
+      <c r="U195" s="60"/>
+      <c r="V195" s="60"/>
+      <c r="W195" s="60"/>
       <c r="X195" s="4" t="s">
         <v>19</v>
       </c>
@@ -34983,10 +35113,10 @@
       </c>
     </row>
     <row r="196" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="47" t="s">
+      <c r="A196" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B196" s="61" t="s">
+      <c r="B196" s="70" t="s">
         <v>31</v>
       </c>
       <c r="C196" s="5" t="s">
@@ -35008,13 +35138,13 @@
         <f t="shared" ref="M196:M211" si="41">MIN(D196:K196)/L196</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N196" s="57" t="s">
+      <c r="N196" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="O196" s="57" t="s">
+      <c r="O196" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="P196" s="57" t="s">
+      <c r="P196" s="62" t="s">
         <v>83</v>
       </c>
       <c r="Q196" s="19" t="e">
@@ -35029,10 +35159,10 @@
         <f>IF(AND(L196&gt;=503.5,M196&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U196" s="47" t="s">
+      <c r="U196" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="V196" s="47" t="s">
+      <c r="V196" s="65" t="s">
         <v>31</v>
       </c>
       <c r="W196" s="5" t="s">
@@ -35048,8 +35178,8 @@
       <c r="AE196" s="20"/>
     </row>
     <row r="197" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="48"/>
-      <c r="B197" s="48"/>
+      <c r="A197" s="63"/>
+      <c r="B197" s="63"/>
       <c r="C197" s="5" t="s">
         <v>85</v>
       </c>
@@ -35069,9 +35199,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N197" s="48"/>
-      <c r="O197" s="48"/>
-      <c r="P197" s="48"/>
+      <c r="N197" s="63"/>
+      <c r="O197" s="63"/>
+      <c r="P197" s="63"/>
       <c r="Q197" s="19" t="e">
         <f t="shared" si="42"/>
         <v>#DIV/0!</v>
@@ -35084,8 +35214,8 @@
         <f>IF(AND(L197&gt;=320,M197&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U197" s="48"/>
-      <c r="V197" s="48"/>
+      <c r="U197" s="63"/>
+      <c r="V197" s="63"/>
       <c r="W197" s="5" t="s">
         <v>85</v>
       </c>
@@ -35099,8 +35229,8 @@
       <c r="AE197" s="20"/>
     </row>
     <row r="198" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="48"/>
-      <c r="B198" s="48"/>
+      <c r="A198" s="63"/>
+      <c r="B198" s="63"/>
       <c r="C198" s="7" t="s">
         <v>86</v>
       </c>
@@ -35120,9 +35250,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N198" s="48"/>
-      <c r="O198" s="48"/>
-      <c r="P198" s="48"/>
+      <c r="N198" s="63"/>
+      <c r="O198" s="63"/>
+      <c r="P198" s="63"/>
       <c r="Q198" s="19" t="e">
         <f t="shared" si="42"/>
         <v>#DIV/0!</v>
@@ -35135,8 +35265,8 @@
         <f>IF(AND(L198&gt;=100),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U198" s="48"/>
-      <c r="V198" s="48"/>
+      <c r="U198" s="63"/>
+      <c r="V198" s="63"/>
       <c r="W198" s="7" t="s">
         <v>86</v>
       </c>
@@ -35150,8 +35280,8 @@
       <c r="AE198" s="20"/>
     </row>
     <row r="199" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="48"/>
-      <c r="B199" s="48"/>
+      <c r="A199" s="63"/>
+      <c r="B199" s="63"/>
       <c r="C199" s="7" t="s">
         <v>87</v>
       </c>
@@ -35171,9 +35301,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N199" s="48"/>
-      <c r="O199" s="48"/>
-      <c r="P199" s="48"/>
+      <c r="N199" s="63"/>
+      <c r="O199" s="63"/>
+      <c r="P199" s="63"/>
       <c r="Q199" s="19" t="str">
         <f>IF(AND(MIN(D199:K199)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -35186,8 +35316,8 @@
         <f>IF(AND(MIN(D199:K199)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U199" s="48"/>
-      <c r="V199" s="46"/>
+      <c r="U199" s="63"/>
+      <c r="V199" s="60"/>
       <c r="W199" s="7" t="s">
         <v>87</v>
       </c>
@@ -35201,8 +35331,8 @@
       <c r="AE199" s="20"/>
     </row>
     <row r="200" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="48"/>
-      <c r="B200" s="61" t="s">
+      <c r="A200" s="63"/>
+      <c r="B200" s="70" t="s">
         <v>32</v>
       </c>
       <c r="C200" s="5" t="s">
@@ -35224,9 +35354,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N200" s="48"/>
-      <c r="O200" s="48"/>
-      <c r="P200" s="48"/>
+      <c r="N200" s="63"/>
+      <c r="O200" s="63"/>
+      <c r="P200" s="63"/>
       <c r="Q200" s="19" t="e">
         <f t="shared" ref="Q200:Q202" si="43">IF(AND(L200&gt;=20,M200&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -35239,8 +35369,8 @@
         <f>IF(AND(L200&gt;=503.5,M200&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U200" s="48"/>
-      <c r="V200" s="47" t="s">
+      <c r="U200" s="63"/>
+      <c r="V200" s="65" t="s">
         <v>32</v>
       </c>
       <c r="W200" s="5" t="s">
@@ -35256,8 +35386,8 @@
       <c r="AE200" s="20"/>
     </row>
     <row r="201" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="48"/>
-      <c r="B201" s="48"/>
+      <c r="A201" s="63"/>
+      <c r="B201" s="63"/>
       <c r="C201" s="5" t="s">
         <v>85</v>
       </c>
@@ -35277,9 +35407,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N201" s="48"/>
-      <c r="O201" s="48"/>
-      <c r="P201" s="48"/>
+      <c r="N201" s="63"/>
+      <c r="O201" s="63"/>
+      <c r="P201" s="63"/>
       <c r="Q201" s="19" t="e">
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
@@ -35292,8 +35422,8 @@
         <f>IF(AND(L201&gt;=320,M201&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U201" s="48"/>
-      <c r="V201" s="48"/>
+      <c r="U201" s="63"/>
+      <c r="V201" s="63"/>
       <c r="W201" s="5" t="s">
         <v>85</v>
       </c>
@@ -35307,8 +35437,8 @@
       <c r="AE201" s="20"/>
     </row>
     <row r="202" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="48"/>
-      <c r="B202" s="48"/>
+      <c r="A202" s="63"/>
+      <c r="B202" s="63"/>
       <c r="C202" s="7" t="s">
         <v>86</v>
       </c>
@@ -35328,9 +35458,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N202" s="48"/>
-      <c r="O202" s="48"/>
-      <c r="P202" s="48"/>
+      <c r="N202" s="63"/>
+      <c r="O202" s="63"/>
+      <c r="P202" s="63"/>
       <c r="Q202" s="19" t="e">
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
@@ -35343,8 +35473,8 @@
         <f>IF(AND(L202&gt;=100),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U202" s="48"/>
-      <c r="V202" s="48"/>
+      <c r="U202" s="63"/>
+      <c r="V202" s="63"/>
       <c r="W202" s="7" t="s">
         <v>86</v>
       </c>
@@ -35358,8 +35488,8 @@
       <c r="AE202" s="20"/>
     </row>
     <row r="203" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="48"/>
-      <c r="B203" s="48"/>
+      <c r="A203" s="63"/>
+      <c r="B203" s="63"/>
       <c r="C203" s="7" t="s">
         <v>87</v>
       </c>
@@ -35379,9 +35509,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N203" s="48"/>
-      <c r="O203" s="48"/>
-      <c r="P203" s="48"/>
+      <c r="N203" s="63"/>
+      <c r="O203" s="63"/>
+      <c r="P203" s="63"/>
       <c r="Q203" s="19" t="str">
         <f>IF(AND(MIN(D203:K203)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -35394,8 +35524,8 @@
         <f>IF(AND(MIN(D203:K203)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U203" s="48"/>
-      <c r="V203" s="46"/>
+      <c r="U203" s="63"/>
+      <c r="V203" s="60"/>
       <c r="W203" s="7" t="s">
         <v>87</v>
       </c>
@@ -35409,8 +35539,8 @@
       <c r="AE203" s="20"/>
     </row>
     <row r="204" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="48"/>
-      <c r="B204" s="61" t="s">
+      <c r="A204" s="63"/>
+      <c r="B204" s="70" t="s">
         <v>33</v>
       </c>
       <c r="C204" s="5" t="s">
@@ -35432,9 +35562,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N204" s="48"/>
-      <c r="O204" s="48"/>
-      <c r="P204" s="48"/>
+      <c r="N204" s="63"/>
+      <c r="O204" s="63"/>
+      <c r="P204" s="63"/>
       <c r="Q204" s="19" t="e">
         <f t="shared" ref="Q204:Q206" si="44">IF(AND(L204&gt;=20,M204&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -35447,8 +35577,8 @@
         <f>IF(AND(L204&gt;=503.5,M204&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U204" s="48"/>
-      <c r="V204" s="47" t="s">
+      <c r="U204" s="63"/>
+      <c r="V204" s="65" t="s">
         <v>33</v>
       </c>
       <c r="W204" s="5" t="s">
@@ -35464,8 +35594,8 @@
       <c r="AE204" s="20"/>
     </row>
     <row r="205" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="48"/>
-      <c r="B205" s="48"/>
+      <c r="A205" s="63"/>
+      <c r="B205" s="63"/>
       <c r="C205" s="5" t="s">
         <v>85</v>
       </c>
@@ -35485,9 +35615,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N205" s="48"/>
-      <c r="O205" s="48"/>
-      <c r="P205" s="48"/>
+      <c r="N205" s="63"/>
+      <c r="O205" s="63"/>
+      <c r="P205" s="63"/>
       <c r="Q205" s="19" t="e">
         <f t="shared" si="44"/>
         <v>#DIV/0!</v>
@@ -35500,8 +35630,8 @@
         <f>IF(AND(L205&gt;=320,M205&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U205" s="48"/>
-      <c r="V205" s="48"/>
+      <c r="U205" s="63"/>
+      <c r="V205" s="63"/>
       <c r="W205" s="5" t="s">
         <v>85</v>
       </c>
@@ -35515,8 +35645,8 @@
       <c r="AE205" s="20"/>
     </row>
     <row r="206" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="48"/>
-      <c r="B206" s="48"/>
+      <c r="A206" s="63"/>
+      <c r="B206" s="63"/>
       <c r="C206" s="7" t="s">
         <v>86</v>
       </c>
@@ -35536,9 +35666,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N206" s="48"/>
-      <c r="O206" s="48"/>
-      <c r="P206" s="48"/>
+      <c r="N206" s="63"/>
+      <c r="O206" s="63"/>
+      <c r="P206" s="63"/>
       <c r="Q206" s="19" t="e">
         <f t="shared" si="44"/>
         <v>#DIV/0!</v>
@@ -35551,8 +35681,8 @@
         <f>IF(AND(L206&gt;=100),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U206" s="48"/>
-      <c r="V206" s="48"/>
+      <c r="U206" s="63"/>
+      <c r="V206" s="63"/>
       <c r="W206" s="7" t="s">
         <v>86</v>
       </c>
@@ -35566,8 +35696,8 @@
       <c r="AE206" s="20"/>
     </row>
     <row r="207" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="48"/>
-      <c r="B207" s="48"/>
+      <c r="A207" s="63"/>
+      <c r="B207" s="63"/>
       <c r="C207" s="7" t="s">
         <v>87</v>
       </c>
@@ -35587,9 +35717,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N207" s="48"/>
-      <c r="O207" s="48"/>
-      <c r="P207" s="48"/>
+      <c r="N207" s="63"/>
+      <c r="O207" s="63"/>
+      <c r="P207" s="63"/>
       <c r="Q207" s="19" t="str">
         <f>IF(AND(MIN(D207:K207)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -35602,8 +35732,8 @@
         <f>IF(AND(MIN(D207:K207)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U207" s="48"/>
-      <c r="V207" s="46"/>
+      <c r="U207" s="63"/>
+      <c r="V207" s="60"/>
       <c r="W207" s="7" t="s">
         <v>87</v>
       </c>
@@ -35617,8 +35747,8 @@
       <c r="AE207" s="20"/>
     </row>
     <row r="208" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="48"/>
-      <c r="B208" s="62" t="s">
+      <c r="A208" s="63"/>
+      <c r="B208" s="68" t="s">
         <v>34</v>
       </c>
       <c r="C208" s="5" t="s">
@@ -35640,9 +35770,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N208" s="48"/>
-      <c r="O208" s="48"/>
-      <c r="P208" s="48"/>
+      <c r="N208" s="63"/>
+      <c r="O208" s="63"/>
+      <c r="P208" s="63"/>
       <c r="Q208" s="19" t="e">
         <f t="shared" ref="Q208:Q210" si="45">IF(AND(L208&gt;=20,M208&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -35655,8 +35785,8 @@
         <f>IF(AND(L208&gt;=503.5,M208&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U208" s="48"/>
-      <c r="V208" s="47" t="s">
+      <c r="U208" s="63"/>
+      <c r="V208" s="65" t="s">
         <v>34</v>
       </c>
       <c r="W208" s="5" t="s">
@@ -35672,8 +35802,8 @@
       <c r="AE208" s="20"/>
     </row>
     <row r="209" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="48"/>
-      <c r="B209" s="63"/>
+      <c r="A209" s="63"/>
+      <c r="B209" s="69"/>
       <c r="C209" s="5" t="s">
         <v>85</v>
       </c>
@@ -35693,9 +35823,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N209" s="48"/>
-      <c r="O209" s="48"/>
-      <c r="P209" s="48"/>
+      <c r="N209" s="63"/>
+      <c r="O209" s="63"/>
+      <c r="P209" s="63"/>
       <c r="Q209" s="19" t="e">
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
@@ -35708,8 +35838,8 @@
         <f>IF(AND(L209&gt;=320,M209&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U209" s="48"/>
-      <c r="V209" s="48"/>
+      <c r="U209" s="63"/>
+      <c r="V209" s="63"/>
       <c r="W209" s="5" t="s">
         <v>85</v>
       </c>
@@ -35723,8 +35853,8 @@
       <c r="AE209" s="20"/>
     </row>
     <row r="210" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="48"/>
-      <c r="B210" s="63"/>
+      <c r="A210" s="63"/>
+      <c r="B210" s="69"/>
       <c r="C210" s="7" t="s">
         <v>86</v>
       </c>
@@ -35744,9 +35874,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N210" s="48"/>
-      <c r="O210" s="48"/>
-      <c r="P210" s="48"/>
+      <c r="N210" s="63"/>
+      <c r="O210" s="63"/>
+      <c r="P210" s="63"/>
       <c r="Q210" s="19" t="e">
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
@@ -35759,8 +35889,8 @@
         <f>IF(AND(L210&gt;=100),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U210" s="48"/>
-      <c r="V210" s="48"/>
+      <c r="U210" s="63"/>
+      <c r="V210" s="63"/>
       <c r="W210" s="7" t="s">
         <v>86</v>
       </c>
@@ -35774,8 +35904,8 @@
       <c r="AE210" s="20"/>
     </row>
     <row r="211" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="48"/>
-      <c r="B211" s="63"/>
+      <c r="A211" s="63"/>
+      <c r="B211" s="69"/>
       <c r="C211" s="7" t="s">
         <v>87</v>
       </c>
@@ -35795,9 +35925,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N211" s="46"/>
-      <c r="O211" s="46"/>
-      <c r="P211" s="46"/>
+      <c r="N211" s="60"/>
+      <c r="O211" s="60"/>
+      <c r="P211" s="60"/>
       <c r="Q211" s="19" t="str">
         <f>IF(AND(MIN(D211:K211)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -35810,8 +35940,8 @@
         <f>IF(AND(MIN(D211:K211)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U211" s="46"/>
-      <c r="V211" s="46"/>
+      <c r="U211" s="60"/>
+      <c r="V211" s="60"/>
       <c r="W211" s="7" t="s">
         <v>87</v>
       </c>
@@ -35825,7 +35955,7 @@
       <c r="AE211" s="20"/>
     </row>
     <row r="212" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="48"/>
+      <c r="A212" s="63"/>
       <c r="B212" s="9"/>
       <c r="C212" s="10"/>
       <c r="D212" s="10"/>
@@ -35846,7 +35976,7 @@
       <c r="S212" s="21"/>
     </row>
     <row r="213" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="48"/>
+      <c r="A213" s="63"/>
       <c r="B213" s="11"/>
       <c r="C213" s="9"/>
       <c r="D213" s="9"/>
@@ -35871,7 +36001,7 @@
       <c r="X213" s="23"/>
     </row>
     <row r="214" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="48"/>
+      <c r="A214" s="63"/>
       <c r="B214" s="11"/>
       <c r="C214" s="9"/>
       <c r="D214" s="9"/>
@@ -35896,7 +36026,7 @@
       <c r="X214" s="23"/>
     </row>
     <row r="215" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="48"/>
+      <c r="A215" s="63"/>
       <c r="B215" s="11"/>
       <c r="C215" s="9"/>
       <c r="D215" s="9"/>
@@ -35921,7 +36051,7 @@
       <c r="X215" s="23"/>
     </row>
     <row r="216" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="48"/>
+      <c r="A216" s="63"/>
       <c r="B216" s="11"/>
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
@@ -35946,7 +36076,7 @@
       <c r="X216" s="23"/>
     </row>
     <row r="217" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="48"/>
+      <c r="A217" s="63"/>
       <c r="B217" s="11"/>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
@@ -35971,7 +36101,7 @@
       <c r="X217" s="23"/>
     </row>
     <row r="218" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="48"/>
+      <c r="A218" s="63"/>
       <c r="B218" s="11"/>
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
@@ -35996,7 +36126,7 @@
       <c r="X218" s="23"/>
     </row>
     <row r="219" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="48"/>
+      <c r="A219" s="63"/>
       <c r="B219" s="11"/>
       <c r="C219" s="9"/>
       <c r="D219" s="9"/>
@@ -36021,7 +36151,7 @@
       <c r="X219" s="23"/>
     </row>
     <row r="220" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="48"/>
+      <c r="A220" s="63"/>
       <c r="B220" s="12"/>
       <c r="C220" s="13"/>
       <c r="D220" s="13"/>
@@ -36046,72 +36176,72 @@
       <c r="X220" s="23"/>
     </row>
     <row r="221" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="48"/>
-      <c r="B221" s="45" t="s">
+      <c r="A221" s="63"/>
+      <c r="B221" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C221" s="51" t="s">
+      <c r="C221" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="D221" s="58" t="s">
+      <c r="D221" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="E221" s="59"/>
-      <c r="F221" s="59"/>
-      <c r="G221" s="59"/>
-      <c r="H221" s="59"/>
-      <c r="I221" s="59"/>
-      <c r="J221" s="59"/>
-      <c r="K221" s="59"/>
-      <c r="L221" s="45" t="s">
+      <c r="E221" s="55"/>
+      <c r="F221" s="55"/>
+      <c r="G221" s="55"/>
+      <c r="H221" s="55"/>
+      <c r="I221" s="55"/>
+      <c r="J221" s="55"/>
+      <c r="K221" s="55"/>
+      <c r="L221" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="M221" s="45" t="s">
+      <c r="M221" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="N221" s="53" t="s">
+      <c r="N221" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="O221" s="53" t="s">
+      <c r="O221" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="P221" s="53" t="s">
+      <c r="P221" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="Q221" s="56" t="s">
+      <c r="Q221" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="R221" s="56" t="s">
+      <c r="R221" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="S221" s="56" t="s">
+      <c r="S221" s="64" t="s">
         <v>12</v>
       </c>
       <c r="T221" s="28"/>
-      <c r="U221" s="49" t="s">
+      <c r="U221" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="V221" s="45" t="s">
+      <c r="V221" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="W221" s="51" t="s">
+      <c r="W221" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="X221" s="45" t="s">
+      <c r="X221" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="Y221" s="64"/>
-      <c r="Z221" s="64"/>
-      <c r="AA221" s="64"/>
-      <c r="AB221" s="64"/>
-      <c r="AC221" s="64"/>
-      <c r="AD221" s="64"/>
-      <c r="AE221" s="65"/>
+      <c r="Y221" s="57"/>
+      <c r="Z221" s="57"/>
+      <c r="AA221" s="57"/>
+      <c r="AB221" s="57"/>
+      <c r="AC221" s="57"/>
+      <c r="AD221" s="57"/>
+      <c r="AE221" s="58"/>
     </row>
     <row r="222" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A222" s="48"/>
-      <c r="B222" s="46"/>
-      <c r="C222" s="46"/>
+      <c r="A222" s="63"/>
+      <c r="B222" s="60"/>
+      <c r="C222" s="60"/>
       <c r="D222" s="4" t="s">
         <v>19</v>
       </c>
@@ -36136,18 +36266,18 @@
       <c r="K222" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L222" s="46"/>
-      <c r="M222" s="46"/>
-      <c r="N222" s="46"/>
-      <c r="O222" s="46"/>
-      <c r="P222" s="46"/>
-      <c r="Q222" s="46"/>
-      <c r="R222" s="46"/>
-      <c r="S222" s="46"/>
+      <c r="L222" s="60"/>
+      <c r="M222" s="60"/>
+      <c r="N222" s="60"/>
+      <c r="O222" s="60"/>
+      <c r="P222" s="60"/>
+      <c r="Q222" s="60"/>
+      <c r="R222" s="60"/>
+      <c r="S222" s="60"/>
       <c r="T222" s="28"/>
-      <c r="U222" s="46"/>
-      <c r="V222" s="46"/>
-      <c r="W222" s="46"/>
+      <c r="U222" s="60"/>
+      <c r="V222" s="60"/>
+      <c r="W222" s="60"/>
       <c r="X222" s="4" t="s">
         <v>19</v>
       </c>
@@ -36174,8 +36304,8 @@
       </c>
     </row>
     <row r="223" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A223" s="48"/>
-      <c r="B223" s="61" t="s">
+      <c r="A223" s="63"/>
+      <c r="B223" s="70" t="s">
         <v>31</v>
       </c>
       <c r="C223" s="5" t="s">
@@ -36197,13 +36327,13 @@
         <f t="shared" ref="M223:M238" si="47">MIN(D223:K223)/L223</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N223" s="57" t="s">
+      <c r="N223" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="O223" s="57" t="s">
+      <c r="O223" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="P223" s="57" t="s">
+      <c r="P223" s="62" t="s">
         <v>83</v>
       </c>
       <c r="Q223" s="19" t="e">
@@ -36218,10 +36348,10 @@
         <f>IF(AND(L223&gt;=475,M223&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U223" s="47" t="s">
+      <c r="U223" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="V223" s="47" t="s">
+      <c r="V223" s="65" t="s">
         <v>31</v>
       </c>
       <c r="W223" s="5" t="s">
@@ -36237,8 +36367,8 @@
       <c r="AE223" s="25"/>
     </row>
     <row r="224" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A224" s="48"/>
-      <c r="B224" s="48"/>
+      <c r="A224" s="63"/>
+      <c r="B224" s="63"/>
       <c r="C224" s="5" t="s">
         <v>85</v>
       </c>
@@ -36258,9 +36388,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N224" s="48"/>
-      <c r="O224" s="48"/>
-      <c r="P224" s="48"/>
+      <c r="N224" s="63"/>
+      <c r="O224" s="63"/>
+      <c r="P224" s="63"/>
       <c r="Q224" s="19" t="e">
         <f t="shared" si="48"/>
         <v>#DIV/0!</v>
@@ -36273,8 +36403,8 @@
         <f>IF(AND(L224&gt;=300,M224&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U224" s="48"/>
-      <c r="V224" s="48"/>
+      <c r="U224" s="63"/>
+      <c r="V224" s="63"/>
       <c r="W224" s="5" t="s">
         <v>85</v>
       </c>
@@ -36288,8 +36418,8 @@
       <c r="AE224" s="25"/>
     </row>
     <row r="225" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A225" s="48"/>
-      <c r="B225" s="48"/>
+      <c r="A225" s="63"/>
+      <c r="B225" s="63"/>
       <c r="C225" s="7" t="s">
         <v>86</v>
       </c>
@@ -36309,9 +36439,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N225" s="48"/>
-      <c r="O225" s="48"/>
-      <c r="P225" s="48"/>
+      <c r="N225" s="63"/>
+      <c r="O225" s="63"/>
+      <c r="P225" s="63"/>
       <c r="Q225" s="19" t="e">
         <f t="shared" si="48"/>
         <v>#DIV/0!</v>
@@ -36324,8 +36454,8 @@
         <f>IF(AND(L225&gt;=95),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U225" s="48"/>
-      <c r="V225" s="48"/>
+      <c r="U225" s="63"/>
+      <c r="V225" s="63"/>
       <c r="W225" s="7" t="s">
         <v>86</v>
       </c>
@@ -36339,8 +36469,8 @@
       <c r="AE225" s="25"/>
     </row>
     <row r="226" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="48"/>
-      <c r="B226" s="48"/>
+      <c r="A226" s="63"/>
+      <c r="B226" s="63"/>
       <c r="C226" s="7" t="s">
         <v>87</v>
       </c>
@@ -36360,9 +36490,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N226" s="48"/>
-      <c r="O226" s="48"/>
-      <c r="P226" s="48"/>
+      <c r="N226" s="63"/>
+      <c r="O226" s="63"/>
+      <c r="P226" s="63"/>
       <c r="Q226" s="19" t="str">
         <f>IF(AND(MIN(D226:K226)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -36375,8 +36505,8 @@
         <f>IF(AND(MIN(D226:K226)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U226" s="48"/>
-      <c r="V226" s="46"/>
+      <c r="U226" s="63"/>
+      <c r="V226" s="60"/>
       <c r="W226" s="7" t="s">
         <v>87</v>
       </c>
@@ -36390,8 +36520,8 @@
       <c r="AE226" s="25"/>
     </row>
     <row r="227" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="48"/>
-      <c r="B227" s="61" t="s">
+      <c r="A227" s="63"/>
+      <c r="B227" s="70" t="s">
         <v>32</v>
       </c>
       <c r="C227" s="5" t="s">
@@ -36413,9 +36543,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N227" s="48"/>
-      <c r="O227" s="48"/>
-      <c r="P227" s="48"/>
+      <c r="N227" s="63"/>
+      <c r="O227" s="63"/>
+      <c r="P227" s="63"/>
       <c r="Q227" s="19" t="e">
         <f t="shared" ref="Q227:Q229" si="49">IF(AND(L227&gt;=20,M227&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -36428,8 +36558,8 @@
         <f>IF(AND(L227&gt;=475,M227&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U227" s="48"/>
-      <c r="V227" s="47" t="s">
+      <c r="U227" s="63"/>
+      <c r="V227" s="65" t="s">
         <v>32</v>
       </c>
       <c r="W227" s="5" t="s">
@@ -36445,8 +36575,8 @@
       <c r="AE227" s="25"/>
     </row>
     <row r="228" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A228" s="48"/>
-      <c r="B228" s="48"/>
+      <c r="A228" s="63"/>
+      <c r="B228" s="63"/>
       <c r="C228" s="5" t="s">
         <v>85</v>
       </c>
@@ -36466,9 +36596,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N228" s="48"/>
-      <c r="O228" s="48"/>
-      <c r="P228" s="48"/>
+      <c r="N228" s="63"/>
+      <c r="O228" s="63"/>
+      <c r="P228" s="63"/>
       <c r="Q228" s="19" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
@@ -36481,8 +36611,8 @@
         <f>IF(AND(L228&gt;=300,M228&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U228" s="48"/>
-      <c r="V228" s="48"/>
+      <c r="U228" s="63"/>
+      <c r="V228" s="63"/>
       <c r="W228" s="5" t="s">
         <v>85</v>
       </c>
@@ -36496,8 +36626,8 @@
       <c r="AE228" s="25"/>
     </row>
     <row r="229" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="48"/>
-      <c r="B229" s="48"/>
+      <c r="A229" s="63"/>
+      <c r="B229" s="63"/>
       <c r="C229" s="7" t="s">
         <v>86</v>
       </c>
@@ -36517,9 +36647,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N229" s="48"/>
-      <c r="O229" s="48"/>
-      <c r="P229" s="48"/>
+      <c r="N229" s="63"/>
+      <c r="O229" s="63"/>
+      <c r="P229" s="63"/>
       <c r="Q229" s="19" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
@@ -36532,8 +36662,8 @@
         <f>IF(AND(L229&gt;=95),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U229" s="48"/>
-      <c r="V229" s="48"/>
+      <c r="U229" s="63"/>
+      <c r="V229" s="63"/>
       <c r="W229" s="7" t="s">
         <v>86</v>
       </c>
@@ -36547,8 +36677,8 @@
       <c r="AE229" s="25"/>
     </row>
     <row r="230" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A230" s="48"/>
-      <c r="B230" s="48"/>
+      <c r="A230" s="63"/>
+      <c r="B230" s="63"/>
       <c r="C230" s="7" t="s">
         <v>87</v>
       </c>
@@ -36568,9 +36698,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N230" s="48"/>
-      <c r="O230" s="48"/>
-      <c r="P230" s="48"/>
+      <c r="N230" s="63"/>
+      <c r="O230" s="63"/>
+      <c r="P230" s="63"/>
       <c r="Q230" s="19" t="str">
         <f>IF(AND(MIN(D230:K230)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -36583,8 +36713,8 @@
         <f>IF(AND(MIN(D230:K230)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U230" s="48"/>
-      <c r="V230" s="46"/>
+      <c r="U230" s="63"/>
+      <c r="V230" s="60"/>
       <c r="W230" s="7" t="s">
         <v>87</v>
       </c>
@@ -36598,8 +36728,8 @@
       <c r="AE230" s="25"/>
     </row>
     <row r="231" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="48"/>
-      <c r="B231" s="61" t="s">
+      <c r="A231" s="63"/>
+      <c r="B231" s="70" t="s">
         <v>33</v>
       </c>
       <c r="C231" s="5" t="s">
@@ -36621,9 +36751,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N231" s="48"/>
-      <c r="O231" s="48"/>
-      <c r="P231" s="48"/>
+      <c r="N231" s="63"/>
+      <c r="O231" s="63"/>
+      <c r="P231" s="63"/>
       <c r="Q231" s="19" t="e">
         <f t="shared" ref="Q231:Q233" si="50">IF(AND(L231&gt;=20,M231&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -36636,8 +36766,8 @@
         <f>IF(AND(L231&gt;=475,M231&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U231" s="48"/>
-      <c r="V231" s="47" t="s">
+      <c r="U231" s="63"/>
+      <c r="V231" s="65" t="s">
         <v>33</v>
       </c>
       <c r="W231" s="5" t="s">
@@ -36653,8 +36783,8 @@
       <c r="AE231" s="25"/>
     </row>
     <row r="232" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="48"/>
-      <c r="B232" s="48"/>
+      <c r="A232" s="63"/>
+      <c r="B232" s="63"/>
       <c r="C232" s="5" t="s">
         <v>85</v>
       </c>
@@ -36674,9 +36804,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N232" s="48"/>
-      <c r="O232" s="48"/>
-      <c r="P232" s="48"/>
+      <c r="N232" s="63"/>
+      <c r="O232" s="63"/>
+      <c r="P232" s="63"/>
       <c r="Q232" s="19" t="e">
         <f t="shared" si="50"/>
         <v>#DIV/0!</v>
@@ -36689,8 +36819,8 @@
         <f>IF(AND(L232&gt;=300,M232&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U232" s="48"/>
-      <c r="V232" s="48"/>
+      <c r="U232" s="63"/>
+      <c r="V232" s="63"/>
       <c r="W232" s="5" t="s">
         <v>85</v>
       </c>
@@ -36704,8 +36834,8 @@
       <c r="AE232" s="25"/>
     </row>
     <row r="233" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="48"/>
-      <c r="B233" s="48"/>
+      <c r="A233" s="63"/>
+      <c r="B233" s="63"/>
       <c r="C233" s="7" t="s">
         <v>86</v>
       </c>
@@ -36725,9 +36855,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N233" s="48"/>
-      <c r="O233" s="48"/>
-      <c r="P233" s="48"/>
+      <c r="N233" s="63"/>
+      <c r="O233" s="63"/>
+      <c r="P233" s="63"/>
       <c r="Q233" s="19" t="e">
         <f t="shared" si="50"/>
         <v>#DIV/0!</v>
@@ -36740,8 +36870,8 @@
         <f>IF(AND(L233&gt;=95),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U233" s="48"/>
-      <c r="V233" s="48"/>
+      <c r="U233" s="63"/>
+      <c r="V233" s="63"/>
       <c r="W233" s="7" t="s">
         <v>86</v>
       </c>
@@ -36755,8 +36885,8 @@
       <c r="AE233" s="25"/>
     </row>
     <row r="234" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A234" s="48"/>
-      <c r="B234" s="48"/>
+      <c r="A234" s="63"/>
+      <c r="B234" s="63"/>
       <c r="C234" s="7" t="s">
         <v>87</v>
       </c>
@@ -36776,9 +36906,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N234" s="48"/>
-      <c r="O234" s="48"/>
-      <c r="P234" s="48"/>
+      <c r="N234" s="63"/>
+      <c r="O234" s="63"/>
+      <c r="P234" s="63"/>
       <c r="Q234" s="19" t="str">
         <f>IF(AND(MIN(D234:K234)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -36791,8 +36921,8 @@
         <f>IF(AND(MIN(D234:K234)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U234" s="48"/>
-      <c r="V234" s="46"/>
+      <c r="U234" s="63"/>
+      <c r="V234" s="60"/>
       <c r="W234" s="7" t="s">
         <v>87</v>
       </c>
@@ -36806,8 +36936,8 @@
       <c r="AE234" s="25"/>
     </row>
     <row r="235" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A235" s="48"/>
-      <c r="B235" s="62" t="s">
+      <c r="A235" s="63"/>
+      <c r="B235" s="68" t="s">
         <v>34</v>
       </c>
       <c r="C235" s="5" t="s">
@@ -36829,9 +36959,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N235" s="48"/>
-      <c r="O235" s="48"/>
-      <c r="P235" s="48"/>
+      <c r="N235" s="63"/>
+      <c r="O235" s="63"/>
+      <c r="P235" s="63"/>
       <c r="Q235" s="19" t="e">
         <f t="shared" ref="Q235:Q237" si="51">IF(AND(L235&gt;=20,M235&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -36844,8 +36974,8 @@
         <f>IF(AND(L235&gt;=475,M235&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U235" s="48"/>
-      <c r="V235" s="47" t="s">
+      <c r="U235" s="63"/>
+      <c r="V235" s="65" t="s">
         <v>34</v>
       </c>
       <c r="W235" s="5" t="s">
@@ -36861,8 +36991,8 @@
       <c r="AE235" s="25"/>
     </row>
     <row r="236" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A236" s="48"/>
-      <c r="B236" s="63"/>
+      <c r="A236" s="63"/>
+      <c r="B236" s="69"/>
       <c r="C236" s="5" t="s">
         <v>85</v>
       </c>
@@ -36882,9 +37012,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N236" s="48"/>
-      <c r="O236" s="48"/>
-      <c r="P236" s="48"/>
+      <c r="N236" s="63"/>
+      <c r="O236" s="63"/>
+      <c r="P236" s="63"/>
       <c r="Q236" s="19" t="e">
         <f t="shared" si="51"/>
         <v>#DIV/0!</v>
@@ -36897,8 +37027,8 @@
         <f>IF(AND(L236&gt;=300,M236&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U236" s="48"/>
-      <c r="V236" s="48"/>
+      <c r="U236" s="63"/>
+      <c r="V236" s="63"/>
       <c r="W236" s="5" t="s">
         <v>85</v>
       </c>
@@ -36912,8 +37042,8 @@
       <c r="AE236" s="25"/>
     </row>
     <row r="237" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A237" s="48"/>
-      <c r="B237" s="63"/>
+      <c r="A237" s="63"/>
+      <c r="B237" s="69"/>
       <c r="C237" s="7" t="s">
         <v>86</v>
       </c>
@@ -36933,9 +37063,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N237" s="48"/>
-      <c r="O237" s="48"/>
-      <c r="P237" s="48"/>
+      <c r="N237" s="63"/>
+      <c r="O237" s="63"/>
+      <c r="P237" s="63"/>
       <c r="Q237" s="19" t="e">
         <f t="shared" si="51"/>
         <v>#DIV/0!</v>
@@ -36948,8 +37078,8 @@
         <f>IF(AND(L237&gt;=95),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U237" s="48"/>
-      <c r="V237" s="48"/>
+      <c r="U237" s="63"/>
+      <c r="V237" s="63"/>
       <c r="W237" s="7" t="s">
         <v>86</v>
       </c>
@@ -36963,8 +37093,8 @@
       <c r="AE237" s="25"/>
     </row>
     <row r="238" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A238" s="48"/>
-      <c r="B238" s="63"/>
+      <c r="A238" s="63"/>
+      <c r="B238" s="69"/>
       <c r="C238" s="7" t="s">
         <v>87</v>
       </c>
@@ -36984,9 +37114,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N238" s="46"/>
-      <c r="O238" s="46"/>
-      <c r="P238" s="46"/>
+      <c r="N238" s="60"/>
+      <c r="O238" s="60"/>
+      <c r="P238" s="60"/>
       <c r="Q238" s="19" t="str">
         <f>IF(AND(MIN(D238:K238)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -36999,8 +37129,8 @@
         <f>IF(AND(MIN(D238:K238)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U238" s="46"/>
-      <c r="V238" s="46"/>
+      <c r="U238" s="60"/>
+      <c r="V238" s="60"/>
       <c r="W238" s="7" t="s">
         <v>87</v>
       </c>
@@ -37014,7 +37144,7 @@
       <c r="AE238" s="25"/>
     </row>
     <row r="239" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A239" s="48"/>
+      <c r="A239" s="63"/>
       <c r="B239" s="9"/>
       <c r="C239" s="10"/>
       <c r="D239" s="10"/>
@@ -37035,7 +37165,7 @@
       <c r="S239" s="21"/>
     </row>
     <row r="240" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A240" s="48"/>
+      <c r="A240" s="63"/>
       <c r="B240" s="11"/>
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
@@ -37056,7 +37186,7 @@
       <c r="S240" s="22"/>
     </row>
     <row r="241" spans="1:24" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="48"/>
+      <c r="A241" s="63"/>
       <c r="B241" s="11"/>
       <c r="C241" s="9"/>
       <c r="D241" s="9"/>
@@ -37077,7 +37207,7 @@
       <c r="S241" s="22"/>
     </row>
     <row r="242" spans="1:24" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A242" s="48"/>
+      <c r="A242" s="63"/>
       <c r="B242" s="11"/>
       <c r="C242" s="9"/>
       <c r="D242" s="9"/>
@@ -37102,7 +37232,7 @@
       <c r="X242" s="23"/>
     </row>
     <row r="243" spans="1:24" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A243" s="48"/>
+      <c r="A243" s="63"/>
       <c r="B243" s="11"/>
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
@@ -37127,7 +37257,7 @@
       <c r="X243" s="23"/>
     </row>
     <row r="244" spans="1:24" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A244" s="48"/>
+      <c r="A244" s="63"/>
       <c r="B244" s="11"/>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
@@ -37152,7 +37282,7 @@
       <c r="X244" s="23"/>
     </row>
     <row r="245" spans="1:24" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="48"/>
+      <c r="A245" s="63"/>
       <c r="B245" s="11"/>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
@@ -37177,7 +37307,7 @@
       <c r="X245" s="23"/>
     </row>
     <row r="246" spans="1:24" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A246" s="48"/>
+      <c r="A246" s="63"/>
       <c r="B246" s="11"/>
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
@@ -37202,7 +37332,7 @@
       <c r="X246" s="23"/>
     </row>
     <row r="247" spans="1:24" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="46"/>
+      <c r="A247" s="60"/>
       <c r="B247" s="12"/>
       <c r="C247" s="13"/>
       <c r="D247" s="13"/>
@@ -37310,6 +37440,255 @@
     </row>
   </sheetData>
   <mergeCells count="273">
+    <mergeCell ref="V221:V222"/>
+    <mergeCell ref="V223:V226"/>
+    <mergeCell ref="V227:V230"/>
+    <mergeCell ref="V124:V127"/>
+    <mergeCell ref="V128:V131"/>
+    <mergeCell ref="V132:V135"/>
+    <mergeCell ref="V156:V159"/>
+    <mergeCell ref="V169:V170"/>
+    <mergeCell ref="V171:V174"/>
+    <mergeCell ref="U196:U211"/>
+    <mergeCell ref="U221:U222"/>
+    <mergeCell ref="U223:U238"/>
+    <mergeCell ref="V231:V234"/>
+    <mergeCell ref="V235:V238"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="W75:W76"/>
+    <mergeCell ref="W99:W100"/>
+    <mergeCell ref="W122:W123"/>
+    <mergeCell ref="W146:W147"/>
+    <mergeCell ref="W169:W170"/>
+    <mergeCell ref="W194:W195"/>
+    <mergeCell ref="W221:W222"/>
+    <mergeCell ref="V179:V182"/>
+    <mergeCell ref="V194:V195"/>
+    <mergeCell ref="V196:V199"/>
+    <mergeCell ref="V200:V203"/>
+    <mergeCell ref="V204:V207"/>
+    <mergeCell ref="V208:V211"/>
+    <mergeCell ref="V7:V10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="V30:V33"/>
+    <mergeCell ref="V34:V37"/>
+    <mergeCell ref="V38:V41"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="V146:V147"/>
+    <mergeCell ref="V105:V108"/>
+    <mergeCell ref="V109:V112"/>
+    <mergeCell ref="V122:V123"/>
+    <mergeCell ref="V54:V57"/>
+    <mergeCell ref="V58:V61"/>
+    <mergeCell ref="V62:V65"/>
+    <mergeCell ref="V75:V76"/>
+    <mergeCell ref="V77:V80"/>
+    <mergeCell ref="V81:V84"/>
+    <mergeCell ref="V85:V88"/>
+    <mergeCell ref="V99:V100"/>
+    <mergeCell ref="V101:V104"/>
+    <mergeCell ref="U124:U135"/>
+    <mergeCell ref="U146:U147"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="R75:R76"/>
+    <mergeCell ref="R99:R100"/>
+    <mergeCell ref="R122:R123"/>
+    <mergeCell ref="R146:R147"/>
+    <mergeCell ref="R169:R170"/>
+    <mergeCell ref="R194:R195"/>
+    <mergeCell ref="U52:U53"/>
+    <mergeCell ref="U54:U65"/>
+    <mergeCell ref="U75:U76"/>
+    <mergeCell ref="U77:U88"/>
+    <mergeCell ref="U99:U100"/>
+    <mergeCell ref="U101:U112"/>
+    <mergeCell ref="U122:U123"/>
+    <mergeCell ref="R221:R222"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="S75:S76"/>
+    <mergeCell ref="S99:S100"/>
+    <mergeCell ref="S122:S123"/>
+    <mergeCell ref="S146:S147"/>
+    <mergeCell ref="S169:S170"/>
+    <mergeCell ref="S194:S195"/>
+    <mergeCell ref="S221:S222"/>
+    <mergeCell ref="P196:P211"/>
+    <mergeCell ref="P221:P222"/>
+    <mergeCell ref="P223:P238"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="Q75:Q76"/>
+    <mergeCell ref="Q99:Q100"/>
+    <mergeCell ref="Q122:Q123"/>
+    <mergeCell ref="Q146:Q147"/>
+    <mergeCell ref="Q169:Q170"/>
+    <mergeCell ref="Q194:Q195"/>
+    <mergeCell ref="Q221:Q222"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="P54:P65"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="P77:P88"/>
+    <mergeCell ref="P99:P100"/>
+    <mergeCell ref="P101:P112"/>
+    <mergeCell ref="P122:P123"/>
+    <mergeCell ref="P124:P135"/>
+    <mergeCell ref="P146:P147"/>
+    <mergeCell ref="N223:N238"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="O7:O18"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="O30:O41"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="O54:O65"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="O77:O88"/>
+    <mergeCell ref="O99:O100"/>
+    <mergeCell ref="O101:O112"/>
+    <mergeCell ref="O122:O123"/>
+    <mergeCell ref="O124:O135"/>
+    <mergeCell ref="O146:O147"/>
+    <mergeCell ref="O148:O159"/>
+    <mergeCell ref="O169:O170"/>
+    <mergeCell ref="O171:O182"/>
+    <mergeCell ref="O194:O195"/>
+    <mergeCell ref="O196:O211"/>
+    <mergeCell ref="O221:O222"/>
+    <mergeCell ref="O223:O238"/>
+    <mergeCell ref="M122:M123"/>
+    <mergeCell ref="M146:M147"/>
+    <mergeCell ref="M169:M170"/>
+    <mergeCell ref="M194:M195"/>
+    <mergeCell ref="M221:M222"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N18"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="N30:N41"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="N54:N65"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="N77:N88"/>
+    <mergeCell ref="N99:N100"/>
+    <mergeCell ref="N101:N112"/>
+    <mergeCell ref="N122:N123"/>
+    <mergeCell ref="N124:N135"/>
+    <mergeCell ref="N146:N147"/>
+    <mergeCell ref="N148:N159"/>
+    <mergeCell ref="N169:N170"/>
+    <mergeCell ref="N171:N182"/>
+    <mergeCell ref="N194:N195"/>
+    <mergeCell ref="N196:N211"/>
+    <mergeCell ref="N221:N222"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="L122:L123"/>
+    <mergeCell ref="L146:L147"/>
+    <mergeCell ref="L169:L170"/>
+    <mergeCell ref="L194:L195"/>
+    <mergeCell ref="L221:L222"/>
+    <mergeCell ref="D221:K221"/>
+    <mergeCell ref="D146:K146"/>
+    <mergeCell ref="D52:K52"/>
+    <mergeCell ref="B196:B199"/>
+    <mergeCell ref="B200:B203"/>
+    <mergeCell ref="B204:B207"/>
+    <mergeCell ref="B208:B211"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="B223:B226"/>
+    <mergeCell ref="B227:B230"/>
+    <mergeCell ref="B231:B234"/>
+    <mergeCell ref="B235:B238"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="B128:B131"/>
+    <mergeCell ref="B132:B135"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="B152:B155"/>
+    <mergeCell ref="B156:B159"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="B171:B174"/>
+    <mergeCell ref="X221:AE221"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A97"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A101:A144"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A148:A191"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="A196:A247"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A145:AE145"/>
+    <mergeCell ref="X146:AE146"/>
+    <mergeCell ref="D169:K169"/>
+    <mergeCell ref="X169:AE169"/>
+    <mergeCell ref="A192:AE192"/>
+    <mergeCell ref="A193:AE193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="X194:AE194"/>
+    <mergeCell ref="B175:B178"/>
+    <mergeCell ref="B179:B182"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="P148:P159"/>
+    <mergeCell ref="P169:P170"/>
+    <mergeCell ref="P171:P182"/>
+    <mergeCell ref="P194:P195"/>
+    <mergeCell ref="U148:U159"/>
+    <mergeCell ref="U169:U170"/>
+    <mergeCell ref="U171:U182"/>
+    <mergeCell ref="U194:U195"/>
+    <mergeCell ref="V175:V178"/>
+    <mergeCell ref="V148:V151"/>
+    <mergeCell ref="V152:V155"/>
+    <mergeCell ref="X52:AE52"/>
+    <mergeCell ref="D75:K75"/>
+    <mergeCell ref="X75:AE75"/>
+    <mergeCell ref="A98:AE98"/>
+    <mergeCell ref="D99:K99"/>
+    <mergeCell ref="X99:AE99"/>
+    <mergeCell ref="D122:K122"/>
+    <mergeCell ref="X122:AE122"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="M99:M100"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:AE2"/>
     <mergeCell ref="A3:AE3"/>
@@ -37334,255 +37713,6 @@
     <mergeCell ref="U28:U29"/>
     <mergeCell ref="U30:U41"/>
     <mergeCell ref="V5:V6"/>
-    <mergeCell ref="X52:AE52"/>
-    <mergeCell ref="D75:K75"/>
-    <mergeCell ref="X75:AE75"/>
-    <mergeCell ref="A98:AE98"/>
-    <mergeCell ref="D99:K99"/>
-    <mergeCell ref="X99:AE99"/>
-    <mergeCell ref="D122:K122"/>
-    <mergeCell ref="X122:AE122"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="M99:M100"/>
-    <mergeCell ref="X146:AE146"/>
-    <mergeCell ref="D169:K169"/>
-    <mergeCell ref="X169:AE169"/>
-    <mergeCell ref="A192:AE192"/>
-    <mergeCell ref="A193:AE193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="X194:AE194"/>
-    <mergeCell ref="B175:B178"/>
-    <mergeCell ref="B179:B182"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="P148:P159"/>
-    <mergeCell ref="P169:P170"/>
-    <mergeCell ref="P171:P182"/>
-    <mergeCell ref="P194:P195"/>
-    <mergeCell ref="U148:U159"/>
-    <mergeCell ref="U169:U170"/>
-    <mergeCell ref="U171:U182"/>
-    <mergeCell ref="U194:U195"/>
-    <mergeCell ref="V175:V178"/>
-    <mergeCell ref="V148:V151"/>
-    <mergeCell ref="V152:V155"/>
-    <mergeCell ref="X221:AE221"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A50"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A97"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A101:A144"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A148:A191"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="A196:A247"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A145:AE145"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="B128:B131"/>
-    <mergeCell ref="B132:B135"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="B152:B155"/>
-    <mergeCell ref="B156:B159"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="B171:B174"/>
-    <mergeCell ref="B196:B199"/>
-    <mergeCell ref="B200:B203"/>
-    <mergeCell ref="B204:B207"/>
-    <mergeCell ref="B208:B211"/>
-    <mergeCell ref="B221:B222"/>
-    <mergeCell ref="B223:B226"/>
-    <mergeCell ref="B227:B230"/>
-    <mergeCell ref="B231:B234"/>
-    <mergeCell ref="B235:B238"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="L99:L100"/>
-    <mergeCell ref="L122:L123"/>
-    <mergeCell ref="L146:L147"/>
-    <mergeCell ref="L169:L170"/>
-    <mergeCell ref="L194:L195"/>
-    <mergeCell ref="L221:L222"/>
-    <mergeCell ref="D221:K221"/>
-    <mergeCell ref="D146:K146"/>
-    <mergeCell ref="D52:K52"/>
-    <mergeCell ref="M122:M123"/>
-    <mergeCell ref="M146:M147"/>
-    <mergeCell ref="M169:M170"/>
-    <mergeCell ref="M194:M195"/>
-    <mergeCell ref="M221:M222"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N7:N18"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="N30:N41"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="N54:N65"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="N77:N88"/>
-    <mergeCell ref="N99:N100"/>
-    <mergeCell ref="N101:N112"/>
-    <mergeCell ref="N122:N123"/>
-    <mergeCell ref="N124:N135"/>
-    <mergeCell ref="N146:N147"/>
-    <mergeCell ref="N148:N159"/>
-    <mergeCell ref="N169:N170"/>
-    <mergeCell ref="N171:N182"/>
-    <mergeCell ref="N194:N195"/>
-    <mergeCell ref="N196:N211"/>
-    <mergeCell ref="N221:N222"/>
-    <mergeCell ref="N223:N238"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="O7:O18"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="O30:O41"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="O54:O65"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="O77:O88"/>
-    <mergeCell ref="O99:O100"/>
-    <mergeCell ref="O101:O112"/>
-    <mergeCell ref="O122:O123"/>
-    <mergeCell ref="O124:O135"/>
-    <mergeCell ref="O146:O147"/>
-    <mergeCell ref="O148:O159"/>
-    <mergeCell ref="O169:O170"/>
-    <mergeCell ref="O171:O182"/>
-    <mergeCell ref="O194:O195"/>
-    <mergeCell ref="O196:O211"/>
-    <mergeCell ref="O221:O222"/>
-    <mergeCell ref="O223:O238"/>
-    <mergeCell ref="P196:P211"/>
-    <mergeCell ref="P221:P222"/>
-    <mergeCell ref="P223:P238"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="Q75:Q76"/>
-    <mergeCell ref="Q99:Q100"/>
-    <mergeCell ref="Q122:Q123"/>
-    <mergeCell ref="Q146:Q147"/>
-    <mergeCell ref="Q169:Q170"/>
-    <mergeCell ref="Q194:Q195"/>
-    <mergeCell ref="Q221:Q222"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="P54:P65"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="P77:P88"/>
-    <mergeCell ref="P99:P100"/>
-    <mergeCell ref="P101:P112"/>
-    <mergeCell ref="P122:P123"/>
-    <mergeCell ref="P124:P135"/>
-    <mergeCell ref="P146:P147"/>
-    <mergeCell ref="R221:R222"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="S52:S53"/>
-    <mergeCell ref="S75:S76"/>
-    <mergeCell ref="S99:S100"/>
-    <mergeCell ref="S122:S123"/>
-    <mergeCell ref="S146:S147"/>
-    <mergeCell ref="S169:S170"/>
-    <mergeCell ref="S194:S195"/>
-    <mergeCell ref="S221:S222"/>
-    <mergeCell ref="U124:U135"/>
-    <mergeCell ref="U146:U147"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="R75:R76"/>
-    <mergeCell ref="R99:R100"/>
-    <mergeCell ref="R122:R123"/>
-    <mergeCell ref="R146:R147"/>
-    <mergeCell ref="R169:R170"/>
-    <mergeCell ref="R194:R195"/>
-    <mergeCell ref="U52:U53"/>
-    <mergeCell ref="U54:U65"/>
-    <mergeCell ref="U75:U76"/>
-    <mergeCell ref="U77:U88"/>
-    <mergeCell ref="U99:U100"/>
-    <mergeCell ref="U101:U112"/>
-    <mergeCell ref="U122:U123"/>
-    <mergeCell ref="V54:V57"/>
-    <mergeCell ref="V58:V61"/>
-    <mergeCell ref="V62:V65"/>
-    <mergeCell ref="V75:V76"/>
-    <mergeCell ref="V77:V80"/>
-    <mergeCell ref="V81:V84"/>
-    <mergeCell ref="V85:V88"/>
-    <mergeCell ref="V99:V100"/>
-    <mergeCell ref="V101:V104"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="V30:V33"/>
-    <mergeCell ref="V34:V37"/>
-    <mergeCell ref="V38:V41"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="V146:V147"/>
-    <mergeCell ref="V105:V108"/>
-    <mergeCell ref="V109:V112"/>
-    <mergeCell ref="V122:V123"/>
-    <mergeCell ref="U196:U211"/>
-    <mergeCell ref="U221:U222"/>
-    <mergeCell ref="U223:U238"/>
-    <mergeCell ref="V231:V234"/>
-    <mergeCell ref="V235:V238"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="W75:W76"/>
-    <mergeCell ref="W99:W100"/>
-    <mergeCell ref="W122:W123"/>
-    <mergeCell ref="W146:W147"/>
-    <mergeCell ref="W169:W170"/>
-    <mergeCell ref="W194:W195"/>
-    <mergeCell ref="W221:W222"/>
-    <mergeCell ref="V179:V182"/>
-    <mergeCell ref="V194:V195"/>
-    <mergeCell ref="V196:V199"/>
-    <mergeCell ref="V200:V203"/>
-    <mergeCell ref="V204:V207"/>
-    <mergeCell ref="V208:V211"/>
-    <mergeCell ref="V7:V10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="V221:V222"/>
-    <mergeCell ref="V223:V226"/>
-    <mergeCell ref="V227:V230"/>
-    <mergeCell ref="V124:V127"/>
-    <mergeCell ref="V128:V131"/>
-    <mergeCell ref="V132:V135"/>
-    <mergeCell ref="V156:V159"/>
-    <mergeCell ref="V169:V170"/>
-    <mergeCell ref="V171:V174"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="D7:L9">

--- a/Demo.xlsx
+++ b/Demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH171300-1522\PycharmProjects\wifi_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41FA15F-5BA6-4D4F-B0BC-BEF3CECC9325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645BF533-91F5-44D1-8938-83A0AB7F7A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="3195" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coffey RVR" sheetId="36" r:id="rId1"/>
@@ -1130,28 +1130,73 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1161,58 +1206,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1220,7 +1220,7 @@
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
-  <dxfs count="120">
+  <dxfs count="118">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2130,27 +2130,6 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -25317,7 +25296,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -25347,121 +25326,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
     </row>
     <row r="2" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
     </row>
     <row r="4" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
     </row>
     <row r="5" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="35" t="s">
@@ -25470,22 +25449,22 @@
       <c r="E5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="32"/>
@@ -25495,13 +25474,13 @@
       <c r="P5" s="32"/>
       <c r="Q5" s="32"/>
       <c r="R5" s="32"/>
-      <c r="S5" s="43" t="s">
+      <c r="S5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="42" t="s">
+      <c r="T5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="U5" s="43" t="s">
+      <c r="U5" s="44" t="s">
         <v>4</v>
       </c>
       <c r="V5" s="35" t="s">
@@ -25512,21 +25491,21 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="27" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
       <c r="L6" s="32"/>
       <c r="M6" s="36"/>
       <c r="N6" s="36"/>
@@ -25534,9 +25513,9 @@
       <c r="P6" s="32"/>
       <c r="Q6" s="32"/>
       <c r="R6" s="32"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
       <c r="V6" s="27" t="s">
         <v>31</v>
       </c>
@@ -25545,7 +25524,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="41" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="31">
@@ -25560,13 +25539,13 @@
       <c r="E7" s="37">
         <v>133</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="41" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="31" t="str">
@@ -25588,7 +25567,7 @@
       <c r="P7" s="32"/>
       <c r="Q7" s="32"/>
       <c r="R7" s="32"/>
-      <c r="S7" s="39" t="s">
+      <c r="S7" s="41" t="s">
         <v>35</v>
       </c>
       <c r="T7" s="31">
@@ -25601,7 +25580,7 @@
       <c r="W7" s="34"/>
     </row>
     <row r="8" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="40"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="31">
         <v>3</v>
       </c>
@@ -25614,9 +25593,9 @@
       <c r="E8" s="37">
         <v>155.30000000000001</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
       <c r="I8" s="31" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
@@ -25636,7 +25615,7 @@
       <c r="P8" s="32"/>
       <c r="Q8" s="32"/>
       <c r="R8" s="32"/>
-      <c r="S8" s="40"/>
+      <c r="S8" s="42"/>
       <c r="T8" s="31">
         <v>3</v>
       </c>
@@ -25647,7 +25626,7 @@
       <c r="W8" s="34"/>
     </row>
     <row r="9" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="40"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="31">
         <v>6</v>
       </c>
@@ -25660,9 +25639,9 @@
       <c r="E9" s="37">
         <v>119.4</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
       <c r="I9" s="31" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
@@ -25682,7 +25661,7 @@
       <c r="P9" s="32"/>
       <c r="Q9" s="32"/>
       <c r="R9" s="32"/>
-      <c r="S9" s="40"/>
+      <c r="S9" s="42"/>
       <c r="T9" s="31">
         <v>6</v>
       </c>
@@ -25693,7 +25672,7 @@
       <c r="W9" s="34"/>
     </row>
     <row r="10" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="40"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="31">
         <v>9</v>
       </c>
@@ -25706,9 +25685,9 @@
       <c r="E10" s="37">
         <v>148.6</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
       <c r="I10" s="31" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
@@ -25728,7 +25707,7 @@
       <c r="P10" s="32"/>
       <c r="Q10" s="32"/>
       <c r="R10" s="32"/>
-      <c r="S10" s="40"/>
+      <c r="S10" s="42"/>
       <c r="T10" s="31">
         <v>9</v>
       </c>
@@ -25739,7 +25718,7 @@
       <c r="W10" s="34"/>
     </row>
     <row r="11" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="40"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="31">
         <v>12</v>
       </c>
@@ -25752,9 +25731,9 @@
       <c r="E11" s="37">
         <v>148.9</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
       <c r="I11" s="31" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
@@ -25774,7 +25753,7 @@
       <c r="P11" s="32"/>
       <c r="Q11" s="32"/>
       <c r="R11" s="32"/>
-      <c r="S11" s="40"/>
+      <c r="S11" s="42"/>
       <c r="T11" s="31">
         <v>12</v>
       </c>
@@ -25785,7 +25764,7 @@
       <c r="W11" s="34"/>
     </row>
     <row r="12" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="40"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="31">
         <v>15</v>
       </c>
@@ -25798,9 +25777,9 @@
       <c r="E12" s="37">
         <v>160.9</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
       <c r="I12" s="31" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
@@ -25820,7 +25799,7 @@
       <c r="P12" s="32"/>
       <c r="Q12" s="32"/>
       <c r="R12" s="32"/>
-      <c r="S12" s="40"/>
+      <c r="S12" s="42"/>
       <c r="T12" s="31">
         <v>15</v>
       </c>
@@ -25831,7 +25810,7 @@
       <c r="W12" s="34"/>
     </row>
     <row r="13" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="40"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="31">
         <v>18</v>
       </c>
@@ -25844,11 +25823,11 @@
       <c r="E13" s="38">
         <v>166.4</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39" t="s">
+      <c r="F13" s="41"/>
+      <c r="G13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="39" t="s">
+      <c r="H13" s="41" t="s">
         <v>40</v>
       </c>
       <c r="I13" s="31" t="s">
@@ -25869,7 +25848,7 @@
       <c r="P13" s="32"/>
       <c r="Q13" s="32"/>
       <c r="R13" s="32"/>
-      <c r="S13" s="40"/>
+      <c r="S13" s="42"/>
       <c r="T13" s="31">
         <v>18</v>
       </c>
@@ -25880,7 +25859,7 @@
       <c r="W13" s="34"/>
     </row>
     <row r="14" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="40"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="31">
         <v>21</v>
       </c>
@@ -25893,9 +25872,9 @@
       <c r="E14" s="38">
         <v>158.9</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
       <c r="I14" s="31" t="s">
         <v>20</v>
       </c>
@@ -25914,7 +25893,7 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="32"/>
       <c r="R14" s="32"/>
-      <c r="S14" s="40"/>
+      <c r="S14" s="42"/>
       <c r="T14" s="31">
         <v>21</v>
       </c>
@@ -25925,7 +25904,7 @@
       <c r="W14" s="34"/>
     </row>
     <row r="15" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="40"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="31">
         <v>24</v>
       </c>
@@ -25938,9 +25917,9 @@
       <c r="E15" s="38">
         <v>120.9</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="31" t="s">
         <v>20</v>
       </c>
@@ -25959,7 +25938,7 @@
       <c r="P15" s="32"/>
       <c r="Q15" s="32"/>
       <c r="R15" s="32"/>
-      <c r="S15" s="40"/>
+      <c r="S15" s="42"/>
       <c r="T15" s="31">
         <v>24</v>
       </c>
@@ -25970,7 +25949,7 @@
       <c r="W15" s="34"/>
     </row>
     <row r="16" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="40"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="31">
         <v>27</v>
       </c>
@@ -25983,9 +25962,9 @@
       <c r="E16" s="38">
         <v>121.6</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="31" t="s">
         <v>20</v>
       </c>
@@ -26004,7 +25983,7 @@
       <c r="P16" s="32"/>
       <c r="Q16" s="32"/>
       <c r="R16" s="32"/>
-      <c r="S16" s="40"/>
+      <c r="S16" s="42"/>
       <c r="T16" s="31">
         <v>27</v>
       </c>
@@ -26015,7 +25994,7 @@
       <c r="W16" s="34"/>
     </row>
     <row r="17" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="40"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="31">
         <v>30</v>
       </c>
@@ -26028,11 +26007,11 @@
       <c r="E17" s="38">
         <v>152.6</v>
       </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39" t="s">
+      <c r="F17" s="41"/>
+      <c r="G17" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="H17" s="41" t="s">
         <v>42</v>
       </c>
       <c r="I17" s="31" t="s">
@@ -26053,7 +26032,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="32"/>
       <c r="R17" s="32"/>
-      <c r="S17" s="40"/>
+      <c r="S17" s="42"/>
       <c r="T17" s="31">
         <v>30</v>
       </c>
@@ -26064,7 +26043,7 @@
       <c r="W17" s="34"/>
     </row>
     <row r="18" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="40"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="31">
         <v>33</v>
       </c>
@@ -26077,9 +26056,9 @@
       <c r="E18" s="38">
         <v>182</v>
       </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
       <c r="I18" s="31" t="s">
         <v>20</v>
       </c>
@@ -26098,7 +26077,7 @@
       <c r="P18" s="32"/>
       <c r="Q18" s="32"/>
       <c r="R18" s="32"/>
-      <c r="S18" s="40"/>
+      <c r="S18" s="42"/>
       <c r="T18" s="31">
         <v>33</v>
       </c>
@@ -26109,7 +26088,7 @@
       <c r="W18" s="34"/>
     </row>
     <row r="19" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="40"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="31">
         <v>36</v>
       </c>
@@ -26122,9 +26101,9 @@
       <c r="E19" s="38">
         <v>134.19999999999999</v>
       </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
       <c r="I19" s="31" t="s">
         <v>20</v>
       </c>
@@ -26143,7 +26122,7 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="32"/>
       <c r="R19" s="32"/>
-      <c r="S19" s="40"/>
+      <c r="S19" s="42"/>
       <c r="T19" s="31">
         <v>36</v>
       </c>
@@ -26154,7 +26133,7 @@
       <c r="W19" s="34"/>
     </row>
     <row r="20" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="40"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="31">
         <v>39</v>
       </c>
@@ -26170,8 +26149,8 @@
       <c r="F20" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
       <c r="I20" s="31" t="str">
         <f>IF(AND(MIN(D20:D20)&gt;0,MIN(E20:E20)&gt;0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -26191,7 +26170,7 @@
       <c r="P20" s="32"/>
       <c r="Q20" s="32"/>
       <c r="R20" s="32"/>
-      <c r="S20" s="40"/>
+      <c r="S20" s="42"/>
       <c r="T20" s="31">
         <v>39</v>
       </c>
@@ -26202,7 +26181,7 @@
       <c r="W20" s="34"/>
     </row>
     <row r="21" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="40"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="31">
         <v>42</v>
       </c>
@@ -26215,11 +26194,11 @@
       <c r="E21" s="38">
         <v>121.4</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
       <c r="I21" s="31" t="s">
         <v>20</v>
       </c>
@@ -26238,7 +26217,7 @@
       <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
       <c r="R21" s="32"/>
-      <c r="S21" s="40"/>
+      <c r="S21" s="42"/>
       <c r="T21" s="31">
         <v>42</v>
       </c>
@@ -26249,7 +26228,7 @@
       <c r="W21" s="34"/>
     </row>
     <row r="22" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="40"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="31">
         <v>45</v>
       </c>
@@ -26262,9 +26241,9 @@
       <c r="E22" s="38">
         <v>147.1</v>
       </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
       <c r="I22" s="31" t="s">
         <v>20</v>
       </c>
@@ -26283,7 +26262,7 @@
       <c r="P22" s="32"/>
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
-      <c r="S22" s="40"/>
+      <c r="S22" s="42"/>
       <c r="T22" s="31">
         <v>45</v>
       </c>
@@ -26294,7 +26273,7 @@
       <c r="W22" s="34"/>
     </row>
     <row r="23" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="40"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="31">
         <v>48</v>
       </c>
@@ -26307,11 +26286,11 @@
       <c r="E23" s="38">
         <v>147.30000000000001</v>
       </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39" t="s">
+      <c r="F23" s="41"/>
+      <c r="G23" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="39" t="s">
+      <c r="H23" s="41" t="s">
         <v>22</v>
       </c>
       <c r="I23" s="31" t="s">
@@ -26330,7 +26309,7 @@
       <c r="P23" s="32"/>
       <c r="Q23" s="32"/>
       <c r="R23" s="32"/>
-      <c r="S23" s="40"/>
+      <c r="S23" s="42"/>
       <c r="T23" s="31">
         <v>48</v>
       </c>
@@ -26341,7 +26320,7 @@
       <c r="W23" s="34"/>
     </row>
     <row r="24" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="40"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="31">
         <v>51</v>
       </c>
@@ -26354,9 +26333,9 @@
       <c r="E24" s="38">
         <v>103.7</v>
       </c>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
       <c r="I24" s="31" t="s">
         <v>20</v>
       </c>
@@ -26373,7 +26352,7 @@
       <c r="P24" s="32"/>
       <c r="Q24" s="32"/>
       <c r="R24" s="32"/>
-      <c r="S24" s="40"/>
+      <c r="S24" s="42"/>
       <c r="T24" s="31">
         <v>51</v>
       </c>
@@ -26384,7 +26363,7 @@
       <c r="W24" s="34"/>
     </row>
     <row r="25" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="40"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="31">
         <v>54</v>
       </c>
@@ -26397,9 +26376,9 @@
       <c r="E25" s="38">
         <v>167.5</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
       <c r="I25" s="31" t="s">
         <v>20</v>
       </c>
@@ -26416,7 +26395,7 @@
       <c r="P25" s="32"/>
       <c r="Q25" s="32"/>
       <c r="R25" s="32"/>
-      <c r="S25" s="40"/>
+      <c r="S25" s="42"/>
       <c r="T25" s="31">
         <v>54</v>
       </c>
@@ -26427,7 +26406,7 @@
       <c r="W25" s="34"/>
     </row>
     <row r="26" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="40"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="31">
         <v>57</v>
       </c>
@@ -26440,9 +26419,9 @@
       <c r="E26" s="38">
         <v>146.9</v>
       </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
       <c r="I26" s="31" t="s">
         <v>20</v>
       </c>
@@ -26459,7 +26438,7 @@
       <c r="P26" s="32"/>
       <c r="Q26" s="32"/>
       <c r="R26" s="32"/>
-      <c r="S26" s="40"/>
+      <c r="S26" s="42"/>
       <c r="T26" s="31">
         <v>57</v>
       </c>
@@ -26470,7 +26449,7 @@
       <c r="W26" s="34"/>
     </row>
     <row r="27" spans="1:23" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="40"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="31">
         <v>60</v>
       </c>
@@ -26483,9 +26462,9 @@
       <c r="E27" s="38">
         <v>104</v>
       </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
       <c r="I27" s="31" t="s">
         <v>20</v>
       </c>
@@ -26502,7 +26481,7 @@
       <c r="P27" s="32"/>
       <c r="Q27" s="32"/>
       <c r="R27" s="32"/>
-      <c r="S27" s="40"/>
+      <c r="S27" s="42"/>
       <c r="T27" s="31">
         <v>60</v>
       </c>
@@ -26513,7 +26492,7 @@
       <c r="W27" s="34"/>
     </row>
     <row r="28" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="40"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="31">
         <v>63</v>
       </c>
@@ -26526,9 +26505,9 @@
       <c r="E28" s="38">
         <v>127.5</v>
       </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="31" t="s">
         <v>20</v>
       </c>
@@ -26545,7 +26524,7 @@
       <c r="P28" s="32"/>
       <c r="Q28" s="32"/>
       <c r="R28" s="32"/>
-      <c r="S28" s="40"/>
+      <c r="S28" s="42"/>
       <c r="T28" s="31">
         <v>63</v>
       </c>
@@ -26556,7 +26535,7 @@
       <c r="W28" s="34"/>
     </row>
     <row r="29" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="40"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="31">
         <v>66</v>
       </c>
@@ -26569,9 +26548,9 @@
       <c r="E29" s="38">
         <v>143.19999999999999</v>
       </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
       <c r="I29" s="31" t="s">
         <v>20</v>
       </c>
@@ -26588,7 +26567,7 @@
       <c r="P29" s="32"/>
       <c r="Q29" s="32"/>
       <c r="R29" s="32"/>
-      <c r="S29" s="40"/>
+      <c r="S29" s="42"/>
       <c r="T29" s="31">
         <v>66</v>
       </c>
@@ -26599,7 +26578,7 @@
       <c r="W29" s="34"/>
     </row>
     <row r="30" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="40"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="31">
         <v>69</v>
       </c>
@@ -26612,9 +26591,9 @@
       <c r="E30" s="38">
         <v>181.7</v>
       </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
       <c r="I30" s="31" t="s">
         <v>20</v>
       </c>
@@ -26631,7 +26610,7 @@
       <c r="P30" s="32"/>
       <c r="Q30" s="32"/>
       <c r="R30" s="32"/>
-      <c r="S30" s="40"/>
+      <c r="S30" s="42"/>
       <c r="T30" s="31">
         <v>69</v>
       </c>
@@ -26642,7 +26621,7 @@
       <c r="W30" s="34"/>
     </row>
     <row r="31" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="40"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="31">
         <v>72</v>
       </c>
@@ -26655,9 +26634,9 @@
       <c r="E31" s="38">
         <v>193.2</v>
       </c>
-      <c r="F31" s="39"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
       <c r="I31" s="31" t="s">
         <v>20</v>
       </c>
@@ -26674,7 +26653,7 @@
       <c r="P31" s="32"/>
       <c r="Q31" s="32"/>
       <c r="R31" s="32"/>
-      <c r="S31" s="40"/>
+      <c r="S31" s="42"/>
       <c r="T31" s="31">
         <v>72</v>
       </c>
@@ -26685,7 +26664,7 @@
       <c r="W31" s="34"/>
     </row>
     <row r="32" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="40"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="31">
         <v>75</v>
       </c>
@@ -26698,9 +26677,9 @@
       <c r="E32" s="38">
         <v>120.3</v>
       </c>
-      <c r="F32" s="39"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
       <c r="I32" s="31" t="s">
         <v>20</v>
       </c>
@@ -26717,7 +26696,7 @@
       <c r="P32" s="32"/>
       <c r="Q32" s="32"/>
       <c r="R32" s="32"/>
-      <c r="S32" s="40"/>
+      <c r="S32" s="42"/>
       <c r="T32" s="31">
         <v>75</v>
       </c>
@@ -26729,6 +26708,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A7:A32"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="F21:F32"/>
+    <mergeCell ref="H23:H32"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="G17:G22"/>
+    <mergeCell ref="G23:G32"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:W2"/>
     <mergeCell ref="S7:S32"/>
@@ -26745,19 +26737,6 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F7:F12"/>
     <mergeCell ref="F13:F19"/>
-    <mergeCell ref="A7:A32"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A4:W4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="F21:F32"/>
-    <mergeCell ref="H23:H32"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G12"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="G17:G22"/>
-    <mergeCell ref="G23:G32"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="I5:K32">
@@ -26802,213 +26781,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
     </row>
     <row r="2" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="49"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="68"/>
     </row>
     <row r="3" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="49"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="68"/>
     </row>
     <row r="4" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="49"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="67"/>
+      <c r="AE4" s="68"/>
     </row>
     <row r="5" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="51" t="s">
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="51" t="s">
+      <c r="M5" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="51" t="s">
+      <c r="N5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="51" t="s">
+      <c r="O5" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="51" t="s">
+      <c r="P5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="64" t="s">
+      <c r="Q5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="64" t="s">
+      <c r="R5" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="64" t="s">
+      <c r="S5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="U5" s="64" t="s">
+      <c r="U5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="51" t="s">
+      <c r="V5" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="W5" s="59" t="s">
+      <c r="W5" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="X5" s="51" t="s">
+      <c r="X5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="53"/>
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="69"/>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69"/>
+      <c r="AC5" s="69"/>
+      <c r="AD5" s="69"/>
+      <c r="AE5" s="70"/>
     </row>
     <row r="6" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
@@ -27033,17 +27012,17 @@
       <c r="K6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
       <c r="X6" s="4" t="s">
         <v>19</v>
       </c>
@@ -27070,10 +27049,10 @@
       </c>
     </row>
     <row r="7" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="47" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -27095,13 +27074,13 @@
         <f t="shared" ref="M7:M18" si="1">MIN(D7:K7)/L7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N7" s="62" t="s">
+      <c r="N7" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="62" t="s">
+      <c r="O7" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="62" t="s">
+      <c r="P7" s="57" t="s">
         <v>61</v>
       </c>
       <c r="Q7" s="19" t="e">
@@ -27116,10 +27095,10 @@
         <f>IF(AND(L7&gt;=85.5,M7&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U7" s="65" t="s">
+      <c r="U7" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="V7" s="65" t="s">
+      <c r="V7" s="47" t="s">
         <v>15</v>
       </c>
       <c r="W7" s="5" t="s">
@@ -27135,8 +27114,8 @@
       <c r="AE7" s="20"/>
     </row>
     <row r="8" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="69"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="5" t="s">
         <v>63</v>
       </c>
@@ -27156,9 +27135,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
       <c r="Q8" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -27171,8 +27150,8 @@
         <f>IF(AND(L8&gt;=66.5,M8&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
       <c r="W8" s="5" t="s">
         <v>63</v>
       </c>
@@ -27186,8 +27165,8 @@
       <c r="AE8" s="20"/>
     </row>
     <row r="9" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="69"/>
-      <c r="B9" s="63"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="7" t="s">
         <v>64</v>
       </c>
@@ -27207,9 +27186,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
       <c r="Q9" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -27222,8 +27201,8 @@
         <f>IF(AND(L9&gt;=30),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U9" s="63"/>
-      <c r="V9" s="63"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
       <c r="W9" s="7" t="s">
         <v>64</v>
       </c>
@@ -27237,8 +27216,8 @@
       <c r="AE9" s="20"/>
     </row>
     <row r="10" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="69"/>
-      <c r="B10" s="60"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="7" t="s">
         <v>65</v>
       </c>
@@ -27258,9 +27237,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
       <c r="Q10" s="19" t="str">
         <f>IF(AND(MIN(D10:K10)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -27273,8 +27252,8 @@
         <f>IF(AND(MIN(D10:K10)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U10" s="63"/>
-      <c r="V10" s="60"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="46"/>
       <c r="W10" s="7" t="s">
         <v>65</v>
       </c>
@@ -27288,8 +27267,8 @@
       <c r="AE10" s="20"/>
     </row>
     <row r="11" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="69"/>
-      <c r="B11" s="65" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="47" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -27311,9 +27290,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
       <c r="Q11" s="19" t="e">
         <f t="shared" ref="Q11:Q13" si="3">IF(AND(L11&gt;=20,M11&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -27326,8 +27305,8 @@
         <f>IF(AND(L11&gt;=85.5,M11&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U11" s="63"/>
-      <c r="V11" s="65" t="s">
+      <c r="U11" s="48"/>
+      <c r="V11" s="47" t="s">
         <v>16</v>
       </c>
       <c r="W11" s="5" t="s">
@@ -27343,8 +27322,8 @@
       <c r="AE11" s="20"/>
     </row>
     <row r="12" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="69"/>
-      <c r="B12" s="63"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="5" t="s">
         <v>63</v>
       </c>
@@ -27364,9 +27343,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
       <c r="Q12" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -27379,8 +27358,8 @@
         <f>IF(AND(L12&gt;=66.5,M12&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U12" s="63"/>
-      <c r="V12" s="63"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
       <c r="W12" s="5" t="s">
         <v>63</v>
       </c>
@@ -27394,8 +27373,8 @@
       <c r="AE12" s="20"/>
     </row>
     <row r="13" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="69"/>
-      <c r="B13" s="63"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="7" t="s">
         <v>64</v>
       </c>
@@ -27415,9 +27394,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
       <c r="Q13" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -27430,8 +27409,8 @@
         <f>IF(AND(L13&gt;=30),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U13" s="63"/>
-      <c r="V13" s="63"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
       <c r="W13" s="7" t="s">
         <v>64</v>
       </c>
@@ -27445,8 +27424,8 @@
       <c r="AE13" s="20"/>
     </row>
     <row r="14" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="69"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="7" t="s">
         <v>65</v>
       </c>
@@ -27466,9 +27445,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
       <c r="Q14" s="19" t="str">
         <f>IF(AND(MIN(D14:K14)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -27481,8 +27460,8 @@
         <f>IF(AND(MIN(D14:K14)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U14" s="63"/>
-      <c r="V14" s="60"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="46"/>
       <c r="W14" s="7" t="s">
         <v>65</v>
       </c>
@@ -27496,8 +27475,8 @@
       <c r="AE14" s="20"/>
     </row>
     <row r="15" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="69"/>
-      <c r="B15" s="65" t="s">
+      <c r="A15" s="63"/>
+      <c r="B15" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -27519,9 +27498,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
       <c r="Q15" s="19" t="e">
         <f t="shared" ref="Q15:Q17" si="4">IF(AND(L15&gt;=20,M15&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -27534,8 +27513,8 @@
         <f>IF(AND(L15&gt;=85.5,M15&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U15" s="63"/>
-      <c r="V15" s="65" t="s">
+      <c r="U15" s="48"/>
+      <c r="V15" s="47" t="s">
         <v>17</v>
       </c>
       <c r="W15" s="5" t="s">
@@ -27551,8 +27530,8 @@
       <c r="AE15" s="20"/>
     </row>
     <row r="16" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="69"/>
-      <c r="B16" s="63"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="5" t="s">
         <v>63</v>
       </c>
@@ -27572,9 +27551,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
       <c r="Q16" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -27587,8 +27566,8 @@
         <f>IF(AND(L16&gt;=66.5,M16&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
       <c r="W16" s="5" t="s">
         <v>63</v>
       </c>
@@ -27602,8 +27581,8 @@
       <c r="AE16" s="20"/>
     </row>
     <row r="17" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="69"/>
-      <c r="B17" s="63"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="7" t="s">
         <v>64</v>
       </c>
@@ -27623,9 +27602,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
       <c r="Q17" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -27638,8 +27617,8 @@
         <f>IF(AND(L17&gt;=30),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U17" s="63"/>
-      <c r="V17" s="63"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
       <c r="W17" s="7" t="s">
         <v>64</v>
       </c>
@@ -27653,8 +27632,8 @@
       <c r="AE17" s="20"/>
     </row>
     <row r="18" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="69"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="7" t="s">
         <v>65</v>
       </c>
@@ -27674,9 +27653,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
       <c r="Q18" s="19" t="str">
         <f>IF(AND(MIN(D18:K18)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -27689,8 +27668,8 @@
         <f>IF(AND(MIN(D18:K18)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U18" s="60"/>
-      <c r="V18" s="60"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
       <c r="W18" s="7" t="s">
         <v>65</v>
       </c>
@@ -27704,7 +27683,7 @@
       <c r="AE18" s="20"/>
     </row>
     <row r="19" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="69"/>
+      <c r="A19" s="63"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -27725,7 +27704,7 @@
       <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="69"/>
+      <c r="A20" s="63"/>
       <c r="B20" s="11"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -27750,7 +27729,7 @@
       <c r="X20" s="23"/>
     </row>
     <row r="21" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="69"/>
+      <c r="A21" s="63"/>
       <c r="B21" s="11"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -27775,7 +27754,7 @@
       <c r="X21" s="23"/>
     </row>
     <row r="22" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="69"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="11"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -27800,7 +27779,7 @@
       <c r="X22" s="23"/>
     </row>
     <row r="23" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="69"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="11"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -27825,7 +27804,7 @@
       <c r="X23" s="23"/>
     </row>
     <row r="24" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="69"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="11"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -27850,7 +27829,7 @@
       <c r="X24" s="23"/>
     </row>
     <row r="25" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="69"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="11"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -27875,7 +27854,7 @@
       <c r="X25" s="23"/>
     </row>
     <row r="26" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="69"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="11"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -27900,7 +27879,7 @@
       <c r="X26" s="23"/>
     </row>
     <row r="27" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="69"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -27925,71 +27904,71 @@
       <c r="X27" s="23"/>
     </row>
     <row r="28" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="69"/>
-      <c r="B28" s="56" t="s">
+      <c r="A28" s="63"/>
+      <c r="B28" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="56" t="s">
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="M28" s="56" t="s">
+      <c r="M28" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="N28" s="51" t="s">
+      <c r="N28" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="O28" s="51" t="s">
+      <c r="O28" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="P28" s="51" t="s">
+      <c r="P28" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Q28" s="64" t="s">
+      <c r="Q28" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="R28" s="64" t="s">
+      <c r="R28" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="S28" s="64" t="s">
+      <c r="S28" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="U28" s="66" t="s">
+      <c r="U28" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="V28" s="56" t="s">
+      <c r="V28" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="W28" s="61" t="s">
+      <c r="W28" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="X28" s="56" t="s">
+      <c r="X28" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="57"/>
-      <c r="AC28" s="57"/>
-      <c r="AD28" s="57"/>
-      <c r="AE28" s="58"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="64"/>
+      <c r="AC28" s="64"/>
+      <c r="AD28" s="64"/>
+      <c r="AE28" s="65"/>
     </row>
     <row r="29" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="69"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="4" t="s">
         <v>19</v>
       </c>
@@ -28014,17 +27993,17 @@
       <c r="K29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
       <c r="X29" s="4" t="s">
         <v>19</v>
       </c>
@@ -28051,8 +28030,8 @@
       </c>
     </row>
     <row r="30" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="69"/>
-      <c r="B30" s="65" t="s">
+      <c r="A30" s="63"/>
+      <c r="B30" s="47" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -28074,13 +28053,13 @@
         <f t="shared" ref="M30:M41" si="6">MIN(D30:K30)/L30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N30" s="62" t="s">
+      <c r="N30" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="O30" s="62" t="s">
+      <c r="O30" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="P30" s="62" t="s">
+      <c r="P30" s="57" t="s">
         <v>68</v>
       </c>
       <c r="Q30" s="19" t="e">
@@ -28095,10 +28074,10 @@
         <f>IF(AND(L30&gt;=85.5,M30&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U30" s="65" t="s">
+      <c r="U30" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="V30" s="65" t="s">
+      <c r="V30" s="47" t="s">
         <v>15</v>
       </c>
       <c r="W30" s="5" t="s">
@@ -28114,8 +28093,8 @@
       <c r="AE30" s="25"/>
     </row>
     <row r="31" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="69"/>
-      <c r="B31" s="63"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="5" t="s">
         <v>63</v>
       </c>
@@ -28135,9 +28114,9 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="63"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
       <c r="Q31" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
@@ -28150,8 +28129,8 @@
         <f>IF(AND(L31&gt;=66.5,M31&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U31" s="63"/>
-      <c r="V31" s="63"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
       <c r="W31" s="5" t="s">
         <v>63</v>
       </c>
@@ -28165,8 +28144,8 @@
       <c r="AE31" s="25"/>
     </row>
     <row r="32" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="69"/>
-      <c r="B32" s="63"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="7" t="s">
         <v>64</v>
       </c>
@@ -28186,9 +28165,9 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="63"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
       <c r="Q32" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
@@ -28201,8 +28180,8 @@
         <f>IF(AND(L32&gt;=20),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U32" s="63"/>
-      <c r="V32" s="63"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
       <c r="W32" s="7" t="s">
         <v>64</v>
       </c>
@@ -28216,8 +28195,8 @@
       <c r="AE32" s="25"/>
     </row>
     <row r="33" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="69"/>
-      <c r="B33" s="60"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="7" t="s">
         <v>65</v>
       </c>
@@ -28237,9 +28216,9 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N33" s="63"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="63"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
       <c r="Q33" s="19" t="str">
         <f>IF(AND(MIN(D33:K33)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -28252,8 +28231,8 @@
         <f>IF(AND(MIN(D33:K33)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U33" s="63"/>
-      <c r="V33" s="60"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="46"/>
       <c r="W33" s="7" t="s">
         <v>65</v>
       </c>
@@ -28267,8 +28246,8 @@
       <c r="AE33" s="25"/>
     </row>
     <row r="34" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="69"/>
-      <c r="B34" s="65" t="s">
+      <c r="A34" s="63"/>
+      <c r="B34" s="47" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -28290,9 +28269,9 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N34" s="63"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="63"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
       <c r="Q34" s="19" t="e">
         <f t="shared" ref="Q34:Q36" si="8">IF(AND(L34&gt;=20,M34&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -28305,8 +28284,8 @@
         <f>IF(AND(L34&gt;=85.5,M34&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U34" s="63"/>
-      <c r="V34" s="65" t="s">
+      <c r="U34" s="48"/>
+      <c r="V34" s="47" t="s">
         <v>16</v>
       </c>
       <c r="W34" s="5" t="s">
@@ -28322,8 +28301,8 @@
       <c r="AE34" s="25"/>
     </row>
     <row r="35" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="69"/>
-      <c r="B35" s="63"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="5" t="s">
         <v>63</v>
       </c>
@@ -28343,9 +28322,9 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N35" s="63"/>
-      <c r="O35" s="63"/>
-      <c r="P35" s="63"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
       <c r="Q35" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -28358,8 +28337,8 @@
         <f>IF(AND(L35&gt;=66.5,M35&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U35" s="63"/>
-      <c r="V35" s="63"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
       <c r="W35" s="5" t="s">
         <v>63</v>
       </c>
@@ -28373,8 +28352,8 @@
       <c r="AE35" s="25"/>
     </row>
     <row r="36" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="69"/>
-      <c r="B36" s="63"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="7" t="s">
         <v>64</v>
       </c>
@@ -28394,9 +28373,9 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="63"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
       <c r="Q36" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -28409,8 +28388,8 @@
         <f>IF(AND(L36&gt;=20),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U36" s="63"/>
-      <c r="V36" s="63"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="48"/>
       <c r="W36" s="7" t="s">
         <v>64</v>
       </c>
@@ -28424,8 +28403,8 @@
       <c r="AE36" s="25"/>
     </row>
     <row r="37" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="69"/>
-      <c r="B37" s="60"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="7" t="s">
         <v>65</v>
       </c>
@@ -28445,9 +28424,9 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N37" s="63"/>
-      <c r="O37" s="63"/>
-      <c r="P37" s="63"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
       <c r="Q37" s="19" t="str">
         <f>IF(AND(MIN(D37:K37)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -28460,8 +28439,8 @@
         <f>IF(AND(MIN(D37:K37)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U37" s="63"/>
-      <c r="V37" s="60"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="46"/>
       <c r="W37" s="7" t="s">
         <v>65</v>
       </c>
@@ -28475,8 +28454,8 @@
       <c r="AE37" s="25"/>
     </row>
     <row r="38" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="69"/>
-      <c r="B38" s="65" t="s">
+      <c r="A38" s="63"/>
+      <c r="B38" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -28498,9 +28477,9 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N38" s="63"/>
-      <c r="O38" s="63"/>
-      <c r="P38" s="63"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
       <c r="Q38" s="19" t="e">
         <f t="shared" ref="Q38:Q40" si="9">IF(AND(L38&gt;=20,M38&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -28513,8 +28492,8 @@
         <f>IF(AND(L38&gt;=85.5,M38&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U38" s="63"/>
-      <c r="V38" s="65" t="s">
+      <c r="U38" s="48"/>
+      <c r="V38" s="47" t="s">
         <v>17</v>
       </c>
       <c r="W38" s="5" t="s">
@@ -28530,8 +28509,8 @@
       <c r="AE38" s="25"/>
     </row>
     <row r="39" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="69"/>
-      <c r="B39" s="63"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="5" t="s">
         <v>63</v>
       </c>
@@ -28551,9 +28530,9 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N39" s="63"/>
-      <c r="O39" s="63"/>
-      <c r="P39" s="63"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
       <c r="Q39" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -28566,8 +28545,8 @@
         <f>IF(AND(L39&gt;=66.5,M39&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U39" s="63"/>
-      <c r="V39" s="63"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="48"/>
       <c r="W39" s="5" t="s">
         <v>63</v>
       </c>
@@ -28581,8 +28560,8 @@
       <c r="AE39" s="25"/>
     </row>
     <row r="40" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="69"/>
-      <c r="B40" s="63"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="7" t="s">
         <v>64</v>
       </c>
@@ -28602,9 +28581,9 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N40" s="63"/>
-      <c r="O40" s="63"/>
-      <c r="P40" s="63"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
       <c r="Q40" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -28617,8 +28596,8 @@
         <f>IF(AND(L40&gt;=20),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U40" s="63"/>
-      <c r="V40" s="63"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="48"/>
       <c r="W40" s="7" t="s">
         <v>64</v>
       </c>
@@ -28632,8 +28611,8 @@
       <c r="AE40" s="25"/>
     </row>
     <row r="41" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="69"/>
-      <c r="B41" s="60"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="46"/>
       <c r="C41" s="7" t="s">
         <v>65</v>
       </c>
@@ -28653,9 +28632,9 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N41" s="60"/>
-      <c r="O41" s="60"/>
-      <c r="P41" s="60"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
       <c r="Q41" s="19" t="str">
         <f>IF(AND(MIN(D41:K41)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -28668,8 +28647,8 @@
         <f>IF(AND(MIN(D41:K41)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U41" s="60"/>
-      <c r="V41" s="60"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="46"/>
       <c r="W41" s="7" t="s">
         <v>65</v>
       </c>
@@ -28683,7 +28662,7 @@
       <c r="AE41" s="25"/>
     </row>
     <row r="42" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="69"/>
+      <c r="A42" s="63"/>
       <c r="B42" s="15"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -28708,7 +28687,7 @@
       <c r="X42" s="23"/>
     </row>
     <row r="43" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="69"/>
+      <c r="A43" s="63"/>
       <c r="B43" s="11"/>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -28733,7 +28712,7 @@
       <c r="X43" s="23"/>
     </row>
     <row r="44" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="69"/>
+      <c r="A44" s="63"/>
       <c r="B44" s="11"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
@@ -28758,7 +28737,7 @@
       <c r="X44" s="23"/>
     </row>
     <row r="45" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="69"/>
+      <c r="A45" s="63"/>
       <c r="B45" s="11"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -28783,7 +28762,7 @@
       <c r="X45" s="23"/>
     </row>
     <row r="46" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="69"/>
+      <c r="A46" s="63"/>
       <c r="B46" s="11"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
@@ -28808,7 +28787,7 @@
       <c r="X46" s="23"/>
     </row>
     <row r="47" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="69"/>
+      <c r="A47" s="63"/>
       <c r="B47" s="11"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -28833,7 +28812,7 @@
       <c r="X47" s="23"/>
     </row>
     <row r="48" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="69"/>
+      <c r="A48" s="63"/>
       <c r="B48" s="11"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -28858,7 +28837,7 @@
       <c r="X48" s="23"/>
     </row>
     <row r="49" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="69"/>
+      <c r="A49" s="63"/>
       <c r="B49" s="11"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
@@ -28883,7 +28862,7 @@
       <c r="X49" s="23"/>
     </row>
     <row r="50" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="69"/>
+      <c r="A50" s="63"/>
       <c r="B50" s="11"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
@@ -28904,108 +28883,108 @@
       <c r="S50" s="22"/>
     </row>
     <row r="51" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="48"/>
-      <c r="M51" s="48"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="48"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="48"/>
-      <c r="S51" s="48"/>
-      <c r="T51" s="48"/>
-      <c r="U51" s="48"/>
-      <c r="V51" s="48"/>
-      <c r="W51" s="48"/>
-      <c r="X51" s="48"/>
-      <c r="Y51" s="48"/>
-      <c r="Z51" s="48"/>
-      <c r="AA51" s="48"/>
-      <c r="AB51" s="48"/>
-      <c r="AC51" s="48"/>
-      <c r="AD51" s="48"/>
-      <c r="AE51" s="49"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="67"/>
+      <c r="Q51" s="67"/>
+      <c r="R51" s="67"/>
+      <c r="S51" s="67"/>
+      <c r="T51" s="67"/>
+      <c r="U51" s="67"/>
+      <c r="V51" s="67"/>
+      <c r="W51" s="67"/>
+      <c r="X51" s="67"/>
+      <c r="Y51" s="67"/>
+      <c r="Z51" s="67"/>
+      <c r="AA51" s="67"/>
+      <c r="AB51" s="67"/>
+      <c r="AC51" s="67"/>
+      <c r="AD51" s="67"/>
+      <c r="AE51" s="68"/>
     </row>
     <row r="52" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="64" t="s">
+      <c r="A52" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="59" t="s">
+      <c r="C52" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="50" t="s">
+      <c r="D52" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="51" t="s">
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="M52" s="51" t="s">
+      <c r="M52" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="N52" s="51" t="s">
+      <c r="N52" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="O52" s="51" t="s">
+      <c r="O52" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="51" t="s">
+      <c r="P52" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Q52" s="64" t="s">
+      <c r="Q52" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="R52" s="64" t="s">
+      <c r="R52" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="S52" s="64" t="s">
+      <c r="S52" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="U52" s="71" t="s">
+      <c r="U52" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="V52" s="67" t="s">
+      <c r="V52" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="W52" s="72" t="s">
+      <c r="W52" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="X52" s="67" t="s">
+      <c r="X52" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="Y52" s="52"/>
-      <c r="Z52" s="52"/>
-      <c r="AA52" s="52"/>
-      <c r="AB52" s="52"/>
-      <c r="AC52" s="52"/>
-      <c r="AD52" s="52"/>
-      <c r="AE52" s="53"/>
+      <c r="Y52" s="69"/>
+      <c r="Z52" s="69"/>
+      <c r="AA52" s="69"/>
+      <c r="AB52" s="69"/>
+      <c r="AC52" s="69"/>
+      <c r="AD52" s="69"/>
+      <c r="AE52" s="70"/>
     </row>
     <row r="53" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="60"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
       <c r="D53" s="4" t="s">
         <v>19</v>
       </c>
@@ -29030,17 +29009,17 @@
       <c r="K53" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L53" s="60"/>
-      <c r="M53" s="60"/>
-      <c r="N53" s="60"/>
-      <c r="O53" s="60"/>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="60"/>
-      <c r="R53" s="60"/>
-      <c r="S53" s="60"/>
-      <c r="U53" s="60"/>
-      <c r="V53" s="60"/>
-      <c r="W53" s="60"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="46"/>
+      <c r="R53" s="46"/>
+      <c r="S53" s="46"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
       <c r="X53" s="26" t="s">
         <v>19</v>
       </c>
@@ -29067,10 +29046,10 @@
       </c>
     </row>
     <row r="54" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="68" t="s">
+      <c r="A54" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="65" t="s">
+      <c r="B54" s="47" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="5" t="s">
@@ -29092,13 +29071,13 @@
         <f t="shared" ref="M54:M65" si="11">MIN(D54:K54)/L54</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N54" s="62" t="s">
+      <c r="N54" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="O54" s="62" t="s">
+      <c r="O54" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="P54" s="62" t="s">
+      <c r="P54" s="57" t="s">
         <v>70</v>
       </c>
       <c r="Q54" s="19" t="e">
@@ -29113,10 +29092,10 @@
         <f>IF(AND(L54&gt;=162.5,M54&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U54" s="65" t="s">
+      <c r="U54" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="V54" s="65" t="s">
+      <c r="V54" s="47" t="s">
         <v>15</v>
       </c>
       <c r="W54" s="5" t="s">
@@ -29132,8 +29111,8 @@
       <c r="AE54" s="20"/>
     </row>
     <row r="55" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="69"/>
-      <c r="B55" s="63"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="48"/>
       <c r="C55" s="5" t="s">
         <v>63</v>
       </c>
@@ -29153,9 +29132,9 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N55" s="63"/>
-      <c r="O55" s="63"/>
-      <c r="P55" s="63"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="48"/>
       <c r="Q55" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -29168,8 +29147,8 @@
         <f>IF(AND(L55&gt;=135.5,M55&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U55" s="63"/>
-      <c r="V55" s="63"/>
+      <c r="U55" s="48"/>
+      <c r="V55" s="48"/>
       <c r="W55" s="5" t="s">
         <v>63</v>
       </c>
@@ -29183,8 +29162,8 @@
       <c r="AE55" s="20"/>
     </row>
     <row r="56" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="69"/>
-      <c r="B56" s="63"/>
+      <c r="A56" s="63"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="7" t="s">
         <v>64</v>
       </c>
@@ -29204,9 +29183,9 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N56" s="63"/>
-      <c r="O56" s="63"/>
-      <c r="P56" s="63"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="48"/>
+      <c r="P56" s="48"/>
       <c r="Q56" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -29219,8 +29198,8 @@
         <f>IF(AND(L56&gt;=30),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U56" s="63"/>
-      <c r="V56" s="63"/>
+      <c r="U56" s="48"/>
+      <c r="V56" s="48"/>
       <c r="W56" s="7" t="s">
         <v>64</v>
       </c>
@@ -29234,8 +29213,8 @@
       <c r="AE56" s="20"/>
     </row>
     <row r="57" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="69"/>
-      <c r="B57" s="60"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="46"/>
       <c r="C57" s="7" t="s">
         <v>65</v>
       </c>
@@ -29255,9 +29234,9 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N57" s="63"/>
-      <c r="O57" s="63"/>
-      <c r="P57" s="63"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="48"/>
       <c r="Q57" s="19" t="str">
         <f>IF(AND(MIN(D57:K57)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -29270,8 +29249,8 @@
         <f>IF(AND(MIN(D57:K57)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U57" s="63"/>
-      <c r="V57" s="60"/>
+      <c r="U57" s="48"/>
+      <c r="V57" s="46"/>
       <c r="W57" s="7" t="s">
         <v>65</v>
       </c>
@@ -29285,8 +29264,8 @@
       <c r="AE57" s="20"/>
     </row>
     <row r="58" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="69"/>
-      <c r="B58" s="65" t="s">
+      <c r="A58" s="63"/>
+      <c r="B58" s="47" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="5" t="s">
@@ -29308,9 +29287,9 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N58" s="63"/>
-      <c r="O58" s="63"/>
-      <c r="P58" s="63"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="48"/>
+      <c r="P58" s="48"/>
       <c r="Q58" s="19" t="e">
         <f t="shared" ref="Q58:Q60" si="13">IF(AND(L58&gt;=20,M58&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -29323,8 +29302,8 @@
         <f>IF(AND(L58&gt;=162.5,M58&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U58" s="63"/>
-      <c r="V58" s="65" t="s">
+      <c r="U58" s="48"/>
+      <c r="V58" s="47" t="s">
         <v>16</v>
       </c>
       <c r="W58" s="5" t="s">
@@ -29340,8 +29319,8 @@
       <c r="AE58" s="20"/>
     </row>
     <row r="59" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="69"/>
-      <c r="B59" s="63"/>
+      <c r="A59" s="63"/>
+      <c r="B59" s="48"/>
       <c r="C59" s="5" t="s">
         <v>63</v>
       </c>
@@ -29361,9 +29340,9 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N59" s="63"/>
-      <c r="O59" s="63"/>
-      <c r="P59" s="63"/>
+      <c r="N59" s="48"/>
+      <c r="O59" s="48"/>
+      <c r="P59" s="48"/>
       <c r="Q59" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -29376,8 +29355,8 @@
         <f>IF(AND(L59&gt;=135.5,M59&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U59" s="63"/>
-      <c r="V59" s="63"/>
+      <c r="U59" s="48"/>
+      <c r="V59" s="48"/>
       <c r="W59" s="5" t="s">
         <v>63</v>
       </c>
@@ -29391,8 +29370,8 @@
       <c r="AE59" s="20"/>
     </row>
     <row r="60" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="69"/>
-      <c r="B60" s="63"/>
+      <c r="A60" s="63"/>
+      <c r="B60" s="48"/>
       <c r="C60" s="7" t="s">
         <v>64</v>
       </c>
@@ -29412,9 +29391,9 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N60" s="63"/>
-      <c r="O60" s="63"/>
-      <c r="P60" s="63"/>
+      <c r="N60" s="48"/>
+      <c r="O60" s="48"/>
+      <c r="P60" s="48"/>
       <c r="Q60" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -29427,8 +29406,8 @@
         <f>IF(AND(L60&gt;=30),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U60" s="63"/>
-      <c r="V60" s="63"/>
+      <c r="U60" s="48"/>
+      <c r="V60" s="48"/>
       <c r="W60" s="7" t="s">
         <v>64</v>
       </c>
@@ -29442,8 +29421,8 @@
       <c r="AE60" s="20"/>
     </row>
     <row r="61" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="69"/>
-      <c r="B61" s="60"/>
+      <c r="A61" s="63"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="7" t="s">
         <v>65</v>
       </c>
@@ -29463,9 +29442,9 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N61" s="63"/>
-      <c r="O61" s="63"/>
-      <c r="P61" s="63"/>
+      <c r="N61" s="48"/>
+      <c r="O61" s="48"/>
+      <c r="P61" s="48"/>
       <c r="Q61" s="19" t="str">
         <f>IF(AND(MIN(D61:K61)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -29478,8 +29457,8 @@
         <f>IF(AND(MIN(D61:K61)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U61" s="63"/>
-      <c r="V61" s="60"/>
+      <c r="U61" s="48"/>
+      <c r="V61" s="46"/>
       <c r="W61" s="7" t="s">
         <v>65</v>
       </c>
@@ -29493,8 +29472,8 @@
       <c r="AE61" s="20"/>
     </row>
     <row r="62" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="69"/>
-      <c r="B62" s="65" t="s">
+      <c r="A62" s="63"/>
+      <c r="B62" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -29516,9 +29495,9 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N62" s="63"/>
-      <c r="O62" s="63"/>
-      <c r="P62" s="63"/>
+      <c r="N62" s="48"/>
+      <c r="O62" s="48"/>
+      <c r="P62" s="48"/>
       <c r="Q62" s="19" t="e">
         <f t="shared" ref="Q62:Q64" si="14">IF(AND(L62&gt;=20,M62&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -29531,8 +29510,8 @@
         <f>IF(AND(L62&gt;=162.5,M62&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U62" s="63"/>
-      <c r="V62" s="65" t="s">
+      <c r="U62" s="48"/>
+      <c r="V62" s="47" t="s">
         <v>17</v>
       </c>
       <c r="W62" s="5" t="s">
@@ -29548,8 +29527,8 @@
       <c r="AE62" s="20"/>
     </row>
     <row r="63" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="69"/>
-      <c r="B63" s="63"/>
+      <c r="A63" s="63"/>
+      <c r="B63" s="48"/>
       <c r="C63" s="5" t="s">
         <v>63</v>
       </c>
@@ -29569,9 +29548,9 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N63" s="63"/>
-      <c r="O63" s="63"/>
-      <c r="P63" s="63"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="48"/>
+      <c r="P63" s="48"/>
       <c r="Q63" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -29584,8 +29563,8 @@
         <f>IF(AND(L63&gt;=135.5,M63&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U63" s="63"/>
-      <c r="V63" s="63"/>
+      <c r="U63" s="48"/>
+      <c r="V63" s="48"/>
       <c r="W63" s="5" t="s">
         <v>63</v>
       </c>
@@ -29599,8 +29578,8 @@
       <c r="AE63" s="20"/>
     </row>
     <row r="64" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="69"/>
-      <c r="B64" s="63"/>
+      <c r="A64" s="63"/>
+      <c r="B64" s="48"/>
       <c r="C64" s="7" t="s">
         <v>64</v>
       </c>
@@ -29620,9 +29599,9 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N64" s="63"/>
-      <c r="O64" s="63"/>
-      <c r="P64" s="63"/>
+      <c r="N64" s="48"/>
+      <c r="O64" s="48"/>
+      <c r="P64" s="48"/>
       <c r="Q64" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
@@ -29635,8 +29614,8 @@
         <f>IF(AND(L64&gt;=30),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U64" s="63"/>
-      <c r="V64" s="63"/>
+      <c r="U64" s="48"/>
+      <c r="V64" s="48"/>
       <c r="W64" s="7" t="s">
         <v>64</v>
       </c>
@@ -29650,8 +29629,8 @@
       <c r="AE64" s="20"/>
     </row>
     <row r="65" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="69"/>
-      <c r="B65" s="60"/>
+      <c r="A65" s="63"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="7" t="s">
         <v>65</v>
       </c>
@@ -29671,9 +29650,9 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N65" s="60"/>
-      <c r="O65" s="60"/>
-      <c r="P65" s="60"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="46"/>
+      <c r="P65" s="46"/>
       <c r="Q65" s="19" t="str">
         <f>IF(AND(MIN(D65:K65)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -29686,8 +29665,8 @@
         <f>IF(AND(MIN(D65:K65)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U65" s="60"/>
-      <c r="V65" s="60"/>
+      <c r="U65" s="46"/>
+      <c r="V65" s="46"/>
       <c r="W65" s="7" t="s">
         <v>65</v>
       </c>
@@ -29701,7 +29680,7 @@
       <c r="AE65" s="20"/>
     </row>
     <row r="66" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="69"/>
+      <c r="A66" s="63"/>
       <c r="B66" s="9"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -29726,7 +29705,7 @@
       <c r="X66" s="23"/>
     </row>
     <row r="67" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="69"/>
+      <c r="A67" s="63"/>
       <c r="B67" s="11"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -29751,7 +29730,7 @@
       <c r="X67" s="23"/>
     </row>
     <row r="68" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="69"/>
+      <c r="A68" s="63"/>
       <c r="B68" s="11"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -29776,7 +29755,7 @@
       <c r="X68" s="23"/>
     </row>
     <row r="69" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="69"/>
+      <c r="A69" s="63"/>
       <c r="B69" s="11"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -29801,7 +29780,7 @@
       <c r="X69" s="23"/>
     </row>
     <row r="70" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="69"/>
+      <c r="A70" s="63"/>
       <c r="B70" s="11"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -29826,7 +29805,7 @@
       <c r="X70" s="23"/>
     </row>
     <row r="71" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="69"/>
+      <c r="A71" s="63"/>
       <c r="B71" s="11"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -29851,7 +29830,7 @@
       <c r="X71" s="23"/>
     </row>
     <row r="72" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="69"/>
+      <c r="A72" s="63"/>
       <c r="B72" s="11"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -29876,7 +29855,7 @@
       <c r="X72" s="23"/>
     </row>
     <row r="73" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="69"/>
+      <c r="A73" s="63"/>
       <c r="B73" s="11"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -29901,7 +29880,7 @@
       <c r="X73" s="23"/>
     </row>
     <row r="74" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="69"/>
+      <c r="A74" s="63"/>
       <c r="B74" s="12"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
@@ -29922,72 +29901,72 @@
       <c r="S74" s="24"/>
     </row>
     <row r="75" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="69"/>
-      <c r="B75" s="56" t="s">
+      <c r="A75" s="63"/>
+      <c r="B75" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C75" s="61" t="s">
+      <c r="C75" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D75" s="54" t="s">
+      <c r="D75" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="55"/>
-      <c r="J75" s="55"/>
-      <c r="K75" s="55"/>
-      <c r="L75" s="56" t="s">
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="59"/>
+      <c r="K75" s="59"/>
+      <c r="L75" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="M75" s="56" t="s">
+      <c r="M75" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="N75" s="51" t="s">
+      <c r="N75" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="O75" s="51" t="s">
+      <c r="O75" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="P75" s="51" t="s">
+      <c r="P75" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Q75" s="64" t="s">
+      <c r="Q75" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="R75" s="64" t="s">
+      <c r="R75" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="S75" s="64" t="s">
+      <c r="S75" s="56" t="s">
         <v>12</v>
       </c>
       <c r="T75" s="28"/>
-      <c r="U75" s="66" t="s">
+      <c r="U75" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="V75" s="56" t="s">
+      <c r="V75" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="W75" s="61" t="s">
+      <c r="W75" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="X75" s="56" t="s">
+      <c r="X75" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="Y75" s="57"/>
-      <c r="Z75" s="57"/>
-      <c r="AA75" s="57"/>
-      <c r="AB75" s="57"/>
-      <c r="AC75" s="57"/>
-      <c r="AD75" s="57"/>
-      <c r="AE75" s="58"/>
+      <c r="Y75" s="64"/>
+      <c r="Z75" s="64"/>
+      <c r="AA75" s="64"/>
+      <c r="AB75" s="64"/>
+      <c r="AC75" s="64"/>
+      <c r="AD75" s="64"/>
+      <c r="AE75" s="65"/>
     </row>
     <row r="76" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="69"/>
-      <c r="B76" s="60"/>
-      <c r="C76" s="60"/>
+      <c r="A76" s="63"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="46"/>
       <c r="D76" s="27" t="s">
         <v>19</v>
       </c>
@@ -30012,18 +29991,18 @@
       <c r="K76" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="L76" s="60"/>
-      <c r="M76" s="60"/>
-      <c r="N76" s="60"/>
-      <c r="O76" s="60"/>
-      <c r="P76" s="60"/>
-      <c r="Q76" s="60"/>
-      <c r="R76" s="60"/>
-      <c r="S76" s="60"/>
+      <c r="L76" s="46"/>
+      <c r="M76" s="46"/>
+      <c r="N76" s="46"/>
+      <c r="O76" s="46"/>
+      <c r="P76" s="46"/>
+      <c r="Q76" s="46"/>
+      <c r="R76" s="46"/>
+      <c r="S76" s="46"/>
       <c r="T76" s="28"/>
-      <c r="U76" s="60"/>
-      <c r="V76" s="60"/>
-      <c r="W76" s="60"/>
+      <c r="U76" s="46"/>
+      <c r="V76" s="46"/>
+      <c r="W76" s="46"/>
       <c r="X76" s="4" t="s">
         <v>19</v>
       </c>
@@ -30050,8 +30029,8 @@
       </c>
     </row>
     <row r="77" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="69"/>
-      <c r="B77" s="65" t="s">
+      <c r="A77" s="63"/>
+      <c r="B77" s="47" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -30073,13 +30052,13 @@
         <f t="shared" ref="M77:M88" si="16">MIN(D77:K77)/L77</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N77" s="62" t="s">
+      <c r="N77" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="O77" s="62" t="s">
+      <c r="O77" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="P77" s="62" t="s">
+      <c r="P77" s="57" t="s">
         <v>70</v>
       </c>
       <c r="Q77" s="19" t="e">
@@ -30094,10 +30073,10 @@
         <f>IF(AND(L77&gt;=162.5,M77&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U77" s="65" t="s">
+      <c r="U77" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="V77" s="65" t="s">
+      <c r="V77" s="47" t="s">
         <v>15</v>
       </c>
       <c r="W77" s="5" t="s">
@@ -30113,8 +30092,8 @@
       <c r="AE77" s="25"/>
     </row>
     <row r="78" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="69"/>
-      <c r="B78" s="63"/>
+      <c r="A78" s="63"/>
+      <c r="B78" s="48"/>
       <c r="C78" s="5" t="s">
         <v>63</v>
       </c>
@@ -30134,9 +30113,9 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N78" s="63"/>
-      <c r="O78" s="63"/>
-      <c r="P78" s="63"/>
+      <c r="N78" s="48"/>
+      <c r="O78" s="48"/>
+      <c r="P78" s="48"/>
       <c r="Q78" s="19" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
@@ -30149,8 +30128,8 @@
         <f>IF(AND(L78&gt;=135.5,M78&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U78" s="63"/>
-      <c r="V78" s="63"/>
+      <c r="U78" s="48"/>
+      <c r="V78" s="48"/>
       <c r="W78" s="5" t="s">
         <v>63</v>
       </c>
@@ -30164,8 +30143,8 @@
       <c r="AE78" s="25"/>
     </row>
     <row r="79" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="69"/>
-      <c r="B79" s="63"/>
+      <c r="A79" s="63"/>
+      <c r="B79" s="48"/>
       <c r="C79" s="7" t="s">
         <v>64</v>
       </c>
@@ -30185,9 +30164,9 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N79" s="63"/>
-      <c r="O79" s="63"/>
-      <c r="P79" s="63"/>
+      <c r="N79" s="48"/>
+      <c r="O79" s="48"/>
+      <c r="P79" s="48"/>
       <c r="Q79" s="19" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
@@ -30200,8 +30179,8 @@
         <f>IF(AND(L79&gt;=20),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U79" s="63"/>
-      <c r="V79" s="63"/>
+      <c r="U79" s="48"/>
+      <c r="V79" s="48"/>
       <c r="W79" s="7" t="s">
         <v>64</v>
       </c>
@@ -30215,8 +30194,8 @@
       <c r="AE79" s="25"/>
     </row>
     <row r="80" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="69"/>
-      <c r="B80" s="60"/>
+      <c r="A80" s="63"/>
+      <c r="B80" s="46"/>
       <c r="C80" s="7" t="s">
         <v>65</v>
       </c>
@@ -30236,9 +30215,9 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N80" s="63"/>
-      <c r="O80" s="63"/>
-      <c r="P80" s="63"/>
+      <c r="N80" s="48"/>
+      <c r="O80" s="48"/>
+      <c r="P80" s="48"/>
       <c r="Q80" s="19" t="str">
         <f>IF(AND(MIN(D80:K80)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -30251,8 +30230,8 @@
         <f>IF(AND(MIN(D80:K80)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U80" s="63"/>
-      <c r="V80" s="60"/>
+      <c r="U80" s="48"/>
+      <c r="V80" s="46"/>
       <c r="W80" s="7" t="s">
         <v>65</v>
       </c>
@@ -30266,8 +30245,8 @@
       <c r="AE80" s="25"/>
     </row>
     <row r="81" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="69"/>
-      <c r="B81" s="65" t="s">
+      <c r="A81" s="63"/>
+      <c r="B81" s="47" t="s">
         <v>16</v>
       </c>
       <c r="C81" s="5" t="s">
@@ -30289,9 +30268,9 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N81" s="63"/>
-      <c r="O81" s="63"/>
-      <c r="P81" s="63"/>
+      <c r="N81" s="48"/>
+      <c r="O81" s="48"/>
+      <c r="P81" s="48"/>
       <c r="Q81" s="19" t="e">
         <f t="shared" ref="Q81:Q83" si="18">IF(AND(L81&gt;=20,M81&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -30304,8 +30283,8 @@
         <f>IF(AND(L81&gt;=162.5,M81&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U81" s="63"/>
-      <c r="V81" s="65" t="s">
+      <c r="U81" s="48"/>
+      <c r="V81" s="47" t="s">
         <v>16</v>
       </c>
       <c r="W81" s="5" t="s">
@@ -30321,8 +30300,8 @@
       <c r="AE81" s="25"/>
     </row>
     <row r="82" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="69"/>
-      <c r="B82" s="63"/>
+      <c r="A82" s="63"/>
+      <c r="B82" s="48"/>
       <c r="C82" s="5" t="s">
         <v>63</v>
       </c>
@@ -30342,9 +30321,9 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N82" s="63"/>
-      <c r="O82" s="63"/>
-      <c r="P82" s="63"/>
+      <c r="N82" s="48"/>
+      <c r="O82" s="48"/>
+      <c r="P82" s="48"/>
       <c r="Q82" s="19" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
@@ -30357,8 +30336,8 @@
         <f>IF(AND(L82&gt;=135.5,M82&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U82" s="63"/>
-      <c r="V82" s="63"/>
+      <c r="U82" s="48"/>
+      <c r="V82" s="48"/>
       <c r="W82" s="5" t="s">
         <v>63</v>
       </c>
@@ -30372,8 +30351,8 @@
       <c r="AE82" s="25"/>
     </row>
     <row r="83" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="69"/>
-      <c r="B83" s="63"/>
+      <c r="A83" s="63"/>
+      <c r="B83" s="48"/>
       <c r="C83" s="7" t="s">
         <v>64</v>
       </c>
@@ -30393,9 +30372,9 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N83" s="63"/>
-      <c r="O83" s="63"/>
-      <c r="P83" s="63"/>
+      <c r="N83" s="48"/>
+      <c r="O83" s="48"/>
+      <c r="P83" s="48"/>
       <c r="Q83" s="19" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
@@ -30408,8 +30387,8 @@
         <f>IF(AND(L83&gt;=20),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U83" s="63"/>
-      <c r="V83" s="63"/>
+      <c r="U83" s="48"/>
+      <c r="V83" s="48"/>
       <c r="W83" s="7" t="s">
         <v>64</v>
       </c>
@@ -30423,8 +30402,8 @@
       <c r="AE83" s="25"/>
     </row>
     <row r="84" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="69"/>
-      <c r="B84" s="60"/>
+      <c r="A84" s="63"/>
+      <c r="B84" s="46"/>
       <c r="C84" s="7" t="s">
         <v>65</v>
       </c>
@@ -30444,9 +30423,9 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N84" s="63"/>
-      <c r="O84" s="63"/>
-      <c r="P84" s="63"/>
+      <c r="N84" s="48"/>
+      <c r="O84" s="48"/>
+      <c r="P84" s="48"/>
       <c r="Q84" s="19" t="str">
         <f>IF(AND(MIN(D84:K84)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -30459,8 +30438,8 @@
         <f>IF(AND(MIN(D84:K84)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U84" s="63"/>
-      <c r="V84" s="60"/>
+      <c r="U84" s="48"/>
+      <c r="V84" s="46"/>
       <c r="W84" s="7" t="s">
         <v>65</v>
       </c>
@@ -30474,8 +30453,8 @@
       <c r="AE84" s="25"/>
     </row>
     <row r="85" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="69"/>
-      <c r="B85" s="65" t="s">
+      <c r="A85" s="63"/>
+      <c r="B85" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C85" s="5" t="s">
@@ -30497,9 +30476,9 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N85" s="63"/>
-      <c r="O85" s="63"/>
-      <c r="P85" s="63"/>
+      <c r="N85" s="48"/>
+      <c r="O85" s="48"/>
+      <c r="P85" s="48"/>
       <c r="Q85" s="19" t="e">
         <f t="shared" ref="Q85:Q87" si="19">IF(AND(L85&gt;=20,M85&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -30512,8 +30491,8 @@
         <f>IF(AND(L85&gt;=162.5,M85&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U85" s="63"/>
-      <c r="V85" s="65" t="s">
+      <c r="U85" s="48"/>
+      <c r="V85" s="47" t="s">
         <v>17</v>
       </c>
       <c r="W85" s="5" t="s">
@@ -30529,8 +30508,8 @@
       <c r="AE85" s="25"/>
     </row>
     <row r="86" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="69"/>
-      <c r="B86" s="63"/>
+      <c r="A86" s="63"/>
+      <c r="B86" s="48"/>
       <c r="C86" s="5" t="s">
         <v>63</v>
       </c>
@@ -30550,9 +30529,9 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N86" s="63"/>
-      <c r="O86" s="63"/>
-      <c r="P86" s="63"/>
+      <c r="N86" s="48"/>
+      <c r="O86" s="48"/>
+      <c r="P86" s="48"/>
       <c r="Q86" s="19" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
@@ -30565,8 +30544,8 @@
         <f>IF(AND(L86&gt;=135.5,M86&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U86" s="63"/>
-      <c r="V86" s="63"/>
+      <c r="U86" s="48"/>
+      <c r="V86" s="48"/>
       <c r="W86" s="5" t="s">
         <v>63</v>
       </c>
@@ -30580,8 +30559,8 @@
       <c r="AE86" s="25"/>
     </row>
     <row r="87" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="69"/>
-      <c r="B87" s="63"/>
+      <c r="A87" s="63"/>
+      <c r="B87" s="48"/>
       <c r="C87" s="7" t="s">
         <v>64</v>
       </c>
@@ -30601,9 +30580,9 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N87" s="63"/>
-      <c r="O87" s="63"/>
-      <c r="P87" s="63"/>
+      <c r="N87" s="48"/>
+      <c r="O87" s="48"/>
+      <c r="P87" s="48"/>
       <c r="Q87" s="19" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
@@ -30616,8 +30595,8 @@
         <f>IF(AND(L87&gt;=20),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U87" s="63"/>
-      <c r="V87" s="63"/>
+      <c r="U87" s="48"/>
+      <c r="V87" s="48"/>
       <c r="W87" s="7" t="s">
         <v>64</v>
       </c>
@@ -30631,8 +30610,8 @@
       <c r="AE87" s="25"/>
     </row>
     <row r="88" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="69"/>
-      <c r="B88" s="60"/>
+      <c r="A88" s="63"/>
+      <c r="B88" s="46"/>
       <c r="C88" s="7" t="s">
         <v>65</v>
       </c>
@@ -30652,9 +30631,9 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N88" s="60"/>
-      <c r="O88" s="60"/>
-      <c r="P88" s="60"/>
+      <c r="N88" s="46"/>
+      <c r="O88" s="46"/>
+      <c r="P88" s="46"/>
       <c r="Q88" s="19" t="str">
         <f>IF(AND(MIN(D88:K88)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -30667,8 +30646,8 @@
         <f>IF(AND(MIN(D88:K88)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U88" s="60"/>
-      <c r="V88" s="60"/>
+      <c r="U88" s="46"/>
+      <c r="V88" s="46"/>
       <c r="W88" s="7" t="s">
         <v>65</v>
       </c>
@@ -30682,7 +30661,7 @@
       <c r="AE88" s="25"/>
     </row>
     <row r="89" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="69"/>
+      <c r="A89" s="63"/>
       <c r="B89" s="15"/>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
@@ -30707,7 +30686,7 @@
       <c r="W89" s="23"/>
     </row>
     <row r="90" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="69"/>
+      <c r="A90" s="63"/>
       <c r="B90" s="11"/>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
@@ -30732,7 +30711,7 @@
       <c r="W90" s="23"/>
     </row>
     <row r="91" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="69"/>
+      <c r="A91" s="63"/>
       <c r="B91" s="11"/>
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
@@ -30757,7 +30736,7 @@
       <c r="W91" s="23"/>
     </row>
     <row r="92" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="69"/>
+      <c r="A92" s="63"/>
       <c r="B92" s="11"/>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
@@ -30782,7 +30761,7 @@
       <c r="W92" s="23"/>
     </row>
     <row r="93" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="69"/>
+      <c r="A93" s="63"/>
       <c r="B93" s="11"/>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
@@ -30807,7 +30786,7 @@
       <c r="W93" s="23"/>
     </row>
     <row r="94" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="69"/>
+      <c r="A94" s="63"/>
       <c r="B94" s="11"/>
       <c r="C94" s="15"/>
       <c r="D94" s="15"/>
@@ -30832,7 +30811,7 @@
       <c r="W94" s="23"/>
     </row>
     <row r="95" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="69"/>
+      <c r="A95" s="63"/>
       <c r="B95" s="11"/>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
@@ -30857,7 +30836,7 @@
       <c r="W95" s="23"/>
     </row>
     <row r="96" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="69"/>
+      <c r="A96" s="63"/>
       <c r="B96" s="11"/>
       <c r="C96" s="15"/>
       <c r="D96" s="15"/>
@@ -30882,7 +30861,7 @@
       <c r="W96" s="23"/>
     </row>
     <row r="97" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="69"/>
+      <c r="A97" s="63"/>
       <c r="B97" s="11"/>
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
@@ -30903,109 +30882,109 @@
       <c r="S97" s="22"/>
     </row>
     <row r="98" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="47" t="s">
+      <c r="A98" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B98" s="48"/>
-      <c r="C98" s="48"/>
-      <c r="D98" s="48"/>
-      <c r="E98" s="48"/>
-      <c r="F98" s="48"/>
-      <c r="G98" s="48"/>
-      <c r="H98" s="48"/>
-      <c r="I98" s="48"/>
-      <c r="J98" s="48"/>
-      <c r="K98" s="48"/>
-      <c r="L98" s="48"/>
-      <c r="M98" s="48"/>
-      <c r="N98" s="48"/>
-      <c r="O98" s="48"/>
-      <c r="P98" s="48"/>
-      <c r="Q98" s="48"/>
-      <c r="R98" s="48"/>
-      <c r="S98" s="48"/>
-      <c r="T98" s="48"/>
-      <c r="U98" s="48"/>
-      <c r="V98" s="48"/>
-      <c r="W98" s="48"/>
-      <c r="X98" s="48"/>
-      <c r="Y98" s="48"/>
-      <c r="Z98" s="48"/>
-      <c r="AA98" s="48"/>
-      <c r="AB98" s="48"/>
-      <c r="AC98" s="48"/>
-      <c r="AD98" s="48"/>
-      <c r="AE98" s="49"/>
+      <c r="B98" s="67"/>
+      <c r="C98" s="67"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="67"/>
+      <c r="J98" s="67"/>
+      <c r="K98" s="67"/>
+      <c r="L98" s="67"/>
+      <c r="M98" s="67"/>
+      <c r="N98" s="67"/>
+      <c r="O98" s="67"/>
+      <c r="P98" s="67"/>
+      <c r="Q98" s="67"/>
+      <c r="R98" s="67"/>
+      <c r="S98" s="67"/>
+      <c r="T98" s="67"/>
+      <c r="U98" s="67"/>
+      <c r="V98" s="67"/>
+      <c r="W98" s="67"/>
+      <c r="X98" s="67"/>
+      <c r="Y98" s="67"/>
+      <c r="Z98" s="67"/>
+      <c r="AA98" s="67"/>
+      <c r="AB98" s="67"/>
+      <c r="AC98" s="67"/>
+      <c r="AD98" s="67"/>
+      <c r="AE98" s="68"/>
     </row>
     <row r="99" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="64" t="s">
+      <c r="A99" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B99" s="51" t="s">
+      <c r="B99" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C99" s="59" t="s">
+      <c r="C99" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D99" s="50" t="s">
+      <c r="D99" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="E99" s="50"/>
-      <c r="F99" s="50"/>
-      <c r="G99" s="50"/>
-      <c r="H99" s="50"/>
-      <c r="I99" s="50"/>
-      <c r="J99" s="50"/>
-      <c r="K99" s="50"/>
-      <c r="L99" s="51" t="s">
+      <c r="E99" s="60"/>
+      <c r="F99" s="60"/>
+      <c r="G99" s="60"/>
+      <c r="H99" s="60"/>
+      <c r="I99" s="60"/>
+      <c r="J99" s="60"/>
+      <c r="K99" s="60"/>
+      <c r="L99" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="M99" s="51" t="s">
+      <c r="M99" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="N99" s="51" t="s">
+      <c r="N99" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="O99" s="51" t="s">
+      <c r="O99" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="P99" s="51" t="s">
+      <c r="P99" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Q99" s="64" t="s">
+      <c r="Q99" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="R99" s="64" t="s">
+      <c r="R99" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="S99" s="64" t="s">
+      <c r="S99" s="56" t="s">
         <v>12</v>
       </c>
       <c r="T99" s="28"/>
-      <c r="U99" s="64" t="s">
+      <c r="U99" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="V99" s="51" t="s">
+      <c r="V99" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="W99" s="59" t="s">
+      <c r="W99" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="X99" s="51" t="s">
+      <c r="X99" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="Y99" s="52"/>
-      <c r="Z99" s="52"/>
-      <c r="AA99" s="52"/>
-      <c r="AB99" s="52"/>
-      <c r="AC99" s="52"/>
-      <c r="AD99" s="52"/>
-      <c r="AE99" s="53"/>
+      <c r="Y99" s="69"/>
+      <c r="Z99" s="69"/>
+      <c r="AA99" s="69"/>
+      <c r="AB99" s="69"/>
+      <c r="AC99" s="69"/>
+      <c r="AD99" s="69"/>
+      <c r="AE99" s="70"/>
     </row>
     <row r="100" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="60"/>
-      <c r="B100" s="60"/>
-      <c r="C100" s="60"/>
+      <c r="A100" s="46"/>
+      <c r="B100" s="46"/>
+      <c r="C100" s="46"/>
       <c r="D100" s="4" t="s">
         <v>19</v>
       </c>
@@ -31030,18 +31009,18 @@
       <c r="K100" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L100" s="60"/>
-      <c r="M100" s="60"/>
-      <c r="N100" s="60"/>
-      <c r="O100" s="60"/>
-      <c r="P100" s="60"/>
-      <c r="Q100" s="60"/>
-      <c r="R100" s="60"/>
-      <c r="S100" s="60"/>
+      <c r="L100" s="46"/>
+      <c r="M100" s="46"/>
+      <c r="N100" s="46"/>
+      <c r="O100" s="46"/>
+      <c r="P100" s="46"/>
+      <c r="Q100" s="46"/>
+      <c r="R100" s="46"/>
+      <c r="S100" s="46"/>
       <c r="T100" s="28"/>
-      <c r="U100" s="60"/>
-      <c r="V100" s="60"/>
-      <c r="W100" s="60"/>
+      <c r="U100" s="46"/>
+      <c r="V100" s="46"/>
+      <c r="W100" s="46"/>
       <c r="X100" s="4" t="s">
         <v>19</v>
       </c>
@@ -31068,10 +31047,10 @@
       </c>
     </row>
     <row r="101" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="68" t="s">
+      <c r="A101" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B101" s="65" t="s">
+      <c r="B101" s="47" t="s">
         <v>15</v>
       </c>
       <c r="C101" s="5" t="s">
@@ -31093,13 +31072,13 @@
         <f t="shared" ref="M101:M112" si="21">MIN(D101:K101)/L101</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N101" s="62" t="s">
+      <c r="N101" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="O101" s="62" t="s">
+      <c r="O101" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="P101" s="62" t="s">
+      <c r="P101" s="57" t="s">
         <v>70</v>
       </c>
       <c r="Q101" s="19" t="e">
@@ -31114,10 +31093,10 @@
         <f>IF(AND(L101&gt;=162.5,M101&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U101" s="65" t="s">
+      <c r="U101" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="V101" s="65" t="s">
+      <c r="V101" s="47" t="s">
         <v>15</v>
       </c>
       <c r="W101" s="5" t="s">
@@ -31133,8 +31112,8 @@
       <c r="AE101" s="20"/>
     </row>
     <row r="102" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="69"/>
-      <c r="B102" s="63"/>
+      <c r="A102" s="63"/>
+      <c r="B102" s="48"/>
       <c r="C102" s="5" t="s">
         <v>63</v>
       </c>
@@ -31154,9 +31133,9 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N102" s="63"/>
-      <c r="O102" s="63"/>
-      <c r="P102" s="63"/>
+      <c r="N102" s="48"/>
+      <c r="O102" s="48"/>
+      <c r="P102" s="48"/>
       <c r="Q102" s="19" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
@@ -31169,8 +31148,8 @@
         <f>IF(AND(L102&gt;=135.5,M102&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U102" s="63"/>
-      <c r="V102" s="63"/>
+      <c r="U102" s="48"/>
+      <c r="V102" s="48"/>
       <c r="W102" s="5" t="s">
         <v>63</v>
       </c>
@@ -31184,8 +31163,8 @@
       <c r="AE102" s="20"/>
     </row>
     <row r="103" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="69"/>
-      <c r="B103" s="63"/>
+      <c r="A103" s="63"/>
+      <c r="B103" s="48"/>
       <c r="C103" s="7" t="s">
         <v>64</v>
       </c>
@@ -31205,9 +31184,9 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N103" s="63"/>
-      <c r="O103" s="63"/>
-      <c r="P103" s="63"/>
+      <c r="N103" s="48"/>
+      <c r="O103" s="48"/>
+      <c r="P103" s="48"/>
       <c r="Q103" s="19" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
@@ -31220,8 +31199,8 @@
         <f>IF(AND(L103&gt;=30),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U103" s="63"/>
-      <c r="V103" s="63"/>
+      <c r="U103" s="48"/>
+      <c r="V103" s="48"/>
       <c r="W103" s="7" t="s">
         <v>64</v>
       </c>
@@ -31235,8 +31214,8 @@
       <c r="AE103" s="20"/>
     </row>
     <row r="104" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="69"/>
-      <c r="B104" s="60"/>
+      <c r="A104" s="63"/>
+      <c r="B104" s="46"/>
       <c r="C104" s="7" t="s">
         <v>65</v>
       </c>
@@ -31256,9 +31235,9 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N104" s="63"/>
-      <c r="O104" s="63"/>
-      <c r="P104" s="63"/>
+      <c r="N104" s="48"/>
+      <c r="O104" s="48"/>
+      <c r="P104" s="48"/>
       <c r="Q104" s="19" t="str">
         <f>IF(AND(MIN(D104:K104)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -31271,8 +31250,8 @@
         <f>IF(AND(MIN(D104:K104)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U104" s="63"/>
-      <c r="V104" s="60"/>
+      <c r="U104" s="48"/>
+      <c r="V104" s="46"/>
       <c r="W104" s="7" t="s">
         <v>65</v>
       </c>
@@ -31286,8 +31265,8 @@
       <c r="AE104" s="20"/>
     </row>
     <row r="105" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="69"/>
-      <c r="B105" s="65" t="s">
+      <c r="A105" s="63"/>
+      <c r="B105" s="47" t="s">
         <v>16</v>
       </c>
       <c r="C105" s="5" t="s">
@@ -31309,9 +31288,9 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N105" s="63"/>
-      <c r="O105" s="63"/>
-      <c r="P105" s="63"/>
+      <c r="N105" s="48"/>
+      <c r="O105" s="48"/>
+      <c r="P105" s="48"/>
       <c r="Q105" s="19" t="e">
         <f t="shared" ref="Q105:Q107" si="23">IF(AND(L105&gt;=20,M105&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -31324,8 +31303,8 @@
         <f>IF(AND(L105&gt;=162.5,M105&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U105" s="63"/>
-      <c r="V105" s="65" t="s">
+      <c r="U105" s="48"/>
+      <c r="V105" s="47" t="s">
         <v>16</v>
       </c>
       <c r="W105" s="5" t="s">
@@ -31341,8 +31320,8 @@
       <c r="AE105" s="20"/>
     </row>
     <row r="106" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="69"/>
-      <c r="B106" s="63"/>
+      <c r="A106" s="63"/>
+      <c r="B106" s="48"/>
       <c r="C106" s="5" t="s">
         <v>63</v>
       </c>
@@ -31362,9 +31341,9 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N106" s="63"/>
-      <c r="O106" s="63"/>
-      <c r="P106" s="63"/>
+      <c r="N106" s="48"/>
+      <c r="O106" s="48"/>
+      <c r="P106" s="48"/>
       <c r="Q106" s="19" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
@@ -31377,8 +31356,8 @@
         <f>IF(AND(L106&gt;=135.5,M106&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U106" s="63"/>
-      <c r="V106" s="63"/>
+      <c r="U106" s="48"/>
+      <c r="V106" s="48"/>
       <c r="W106" s="5" t="s">
         <v>63</v>
       </c>
@@ -31392,8 +31371,8 @@
       <c r="AE106" s="20"/>
     </row>
     <row r="107" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="69"/>
-      <c r="B107" s="63"/>
+      <c r="A107" s="63"/>
+      <c r="B107" s="48"/>
       <c r="C107" s="7" t="s">
         <v>64</v>
       </c>
@@ -31413,9 +31392,9 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N107" s="63"/>
-      <c r="O107" s="63"/>
-      <c r="P107" s="63"/>
+      <c r="N107" s="48"/>
+      <c r="O107" s="48"/>
+      <c r="P107" s="48"/>
       <c r="Q107" s="19" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
@@ -31428,8 +31407,8 @@
         <f>IF(AND(L107&gt;=30),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U107" s="63"/>
-      <c r="V107" s="63"/>
+      <c r="U107" s="48"/>
+      <c r="V107" s="48"/>
       <c r="W107" s="7" t="s">
         <v>64</v>
       </c>
@@ -31443,8 +31422,8 @@
       <c r="AE107" s="20"/>
     </row>
     <row r="108" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="69"/>
-      <c r="B108" s="60"/>
+      <c r="A108" s="63"/>
+      <c r="B108" s="46"/>
       <c r="C108" s="7" t="s">
         <v>65</v>
       </c>
@@ -31464,9 +31443,9 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N108" s="63"/>
-      <c r="O108" s="63"/>
-      <c r="P108" s="63"/>
+      <c r="N108" s="48"/>
+      <c r="O108" s="48"/>
+      <c r="P108" s="48"/>
       <c r="Q108" s="19" t="str">
         <f>IF(AND(MIN(D108:K108)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -31479,8 +31458,8 @@
         <f>IF(AND(MIN(D108:K108)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U108" s="63"/>
-      <c r="V108" s="60"/>
+      <c r="U108" s="48"/>
+      <c r="V108" s="46"/>
       <c r="W108" s="7" t="s">
         <v>65</v>
       </c>
@@ -31494,8 +31473,8 @@
       <c r="AE108" s="20"/>
     </row>
     <row r="109" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="69"/>
-      <c r="B109" s="65" t="s">
+      <c r="A109" s="63"/>
+      <c r="B109" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C109" s="5" t="s">
@@ -31517,9 +31496,9 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N109" s="63"/>
-      <c r="O109" s="63"/>
-      <c r="P109" s="63"/>
+      <c r="N109" s="48"/>
+      <c r="O109" s="48"/>
+      <c r="P109" s="48"/>
       <c r="Q109" s="19" t="e">
         <f t="shared" ref="Q109:Q111" si="24">IF(AND(L109&gt;=20,M109&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -31532,8 +31511,8 @@
         <f>IF(AND(L109&gt;=162.5,M109&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U109" s="63"/>
-      <c r="V109" s="65" t="s">
+      <c r="U109" s="48"/>
+      <c r="V109" s="47" t="s">
         <v>17</v>
       </c>
       <c r="W109" s="5" t="s">
@@ -31549,8 +31528,8 @@
       <c r="AE109" s="20"/>
     </row>
     <row r="110" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="69"/>
-      <c r="B110" s="63"/>
+      <c r="A110" s="63"/>
+      <c r="B110" s="48"/>
       <c r="C110" s="5" t="s">
         <v>63</v>
       </c>
@@ -31570,9 +31549,9 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N110" s="63"/>
-      <c r="O110" s="63"/>
-      <c r="P110" s="63"/>
+      <c r="N110" s="48"/>
+      <c r="O110" s="48"/>
+      <c r="P110" s="48"/>
       <c r="Q110" s="19" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
@@ -31585,8 +31564,8 @@
         <f>IF(AND(L110&gt;=135.5,M110&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U110" s="63"/>
-      <c r="V110" s="63"/>
+      <c r="U110" s="48"/>
+      <c r="V110" s="48"/>
       <c r="W110" s="5" t="s">
         <v>63</v>
       </c>
@@ -31600,8 +31579,8 @@
       <c r="AE110" s="20"/>
     </row>
     <row r="111" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="69"/>
-      <c r="B111" s="63"/>
+      <c r="A111" s="63"/>
+      <c r="B111" s="48"/>
       <c r="C111" s="7" t="s">
         <v>64</v>
       </c>
@@ -31621,9 +31600,9 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N111" s="63"/>
-      <c r="O111" s="63"/>
-      <c r="P111" s="63"/>
+      <c r="N111" s="48"/>
+      <c r="O111" s="48"/>
+      <c r="P111" s="48"/>
       <c r="Q111" s="19" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
@@ -31636,8 +31615,8 @@
         <f>IF(AND(L111&gt;=30),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U111" s="63"/>
-      <c r="V111" s="63"/>
+      <c r="U111" s="48"/>
+      <c r="V111" s="48"/>
       <c r="W111" s="7" t="s">
         <v>64</v>
       </c>
@@ -31651,8 +31630,8 @@
       <c r="AE111" s="20"/>
     </row>
     <row r="112" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="69"/>
-      <c r="B112" s="60"/>
+      <c r="A112" s="63"/>
+      <c r="B112" s="46"/>
       <c r="C112" s="7" t="s">
         <v>65</v>
       </c>
@@ -31672,9 +31651,9 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N112" s="60"/>
-      <c r="O112" s="60"/>
-      <c r="P112" s="60"/>
+      <c r="N112" s="46"/>
+      <c r="O112" s="46"/>
+      <c r="P112" s="46"/>
       <c r="Q112" s="19" t="str">
         <f>IF(AND(MIN(D112:K112)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -31687,8 +31666,8 @@
         <f>IF(AND(MIN(D112:K112)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U112" s="60"/>
-      <c r="V112" s="60"/>
+      <c r="U112" s="46"/>
+      <c r="V112" s="46"/>
       <c r="W112" s="7" t="s">
         <v>65</v>
       </c>
@@ -31702,7 +31681,7 @@
       <c r="AE112" s="20"/>
     </row>
     <row r="113" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="69"/>
+      <c r="A113" s="63"/>
       <c r="B113" s="9"/>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
@@ -31727,7 +31706,7 @@
       <c r="X113" s="23"/>
     </row>
     <row r="114" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="69"/>
+      <c r="A114" s="63"/>
       <c r="B114" s="11"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -31752,7 +31731,7 @@
       <c r="X114" s="23"/>
     </row>
     <row r="115" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="69"/>
+      <c r="A115" s="63"/>
       <c r="B115" s="11"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
@@ -31777,7 +31756,7 @@
       <c r="X115" s="23"/>
     </row>
     <row r="116" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="69"/>
+      <c r="A116" s="63"/>
       <c r="B116" s="11"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
@@ -31802,7 +31781,7 @@
       <c r="X116" s="23"/>
     </row>
     <row r="117" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="69"/>
+      <c r="A117" s="63"/>
       <c r="B117" s="11"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -31827,7 +31806,7 @@
       <c r="X117" s="23"/>
     </row>
     <row r="118" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="69"/>
+      <c r="A118" s="63"/>
       <c r="B118" s="11"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -31852,7 +31831,7 @@
       <c r="X118" s="23"/>
     </row>
     <row r="119" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="69"/>
+      <c r="A119" s="63"/>
       <c r="B119" s="11"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -31877,7 +31856,7 @@
       <c r="X119" s="23"/>
     </row>
     <row r="120" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="69"/>
+      <c r="A120" s="63"/>
       <c r="B120" s="11"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
@@ -31902,7 +31881,7 @@
       <c r="X120" s="23"/>
     </row>
     <row r="121" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="69"/>
+      <c r="A121" s="63"/>
       <c r="B121" s="12"/>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
@@ -31923,71 +31902,71 @@
       <c r="S121" s="24"/>
     </row>
     <row r="122" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="69"/>
-      <c r="B122" s="56" t="s">
+      <c r="A122" s="63"/>
+      <c r="B122" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C122" s="61" t="s">
+      <c r="C122" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D122" s="54" t="s">
+      <c r="D122" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="E122" s="55"/>
-      <c r="F122" s="55"/>
-      <c r="G122" s="55"/>
-      <c r="H122" s="55"/>
-      <c r="I122" s="55"/>
-      <c r="J122" s="55"/>
-      <c r="K122" s="55"/>
-      <c r="L122" s="56" t="s">
+      <c r="E122" s="59"/>
+      <c r="F122" s="59"/>
+      <c r="G122" s="59"/>
+      <c r="H122" s="59"/>
+      <c r="I122" s="59"/>
+      <c r="J122" s="59"/>
+      <c r="K122" s="59"/>
+      <c r="L122" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="M122" s="56" t="s">
+      <c r="M122" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="N122" s="51" t="s">
+      <c r="N122" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="O122" s="51" t="s">
+      <c r="O122" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="P122" s="51" t="s">
+      <c r="P122" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Q122" s="64" t="s">
+      <c r="Q122" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="R122" s="64" t="s">
+      <c r="R122" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="S122" s="64" t="s">
+      <c r="S122" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="U122" s="66" t="s">
+      <c r="U122" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="V122" s="56" t="s">
+      <c r="V122" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="W122" s="61" t="s">
+      <c r="W122" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="X122" s="56" t="s">
+      <c r="X122" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="Y122" s="57"/>
-      <c r="Z122" s="57"/>
-      <c r="AA122" s="57"/>
-      <c r="AB122" s="57"/>
-      <c r="AC122" s="57"/>
-      <c r="AD122" s="57"/>
-      <c r="AE122" s="58"/>
+      <c r="Y122" s="64"/>
+      <c r="Z122" s="64"/>
+      <c r="AA122" s="64"/>
+      <c r="AB122" s="64"/>
+      <c r="AC122" s="64"/>
+      <c r="AD122" s="64"/>
+      <c r="AE122" s="65"/>
     </row>
     <row r="123" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="69"/>
-      <c r="B123" s="60"/>
-      <c r="C123" s="60"/>
+      <c r="A123" s="63"/>
+      <c r="B123" s="46"/>
+      <c r="C123" s="46"/>
       <c r="D123" s="4" t="s">
         <v>19</v>
       </c>
@@ -32012,17 +31991,17 @@
       <c r="K123" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L123" s="60"/>
-      <c r="M123" s="60"/>
-      <c r="N123" s="60"/>
-      <c r="O123" s="60"/>
-      <c r="P123" s="60"/>
-      <c r="Q123" s="60"/>
-      <c r="R123" s="60"/>
-      <c r="S123" s="60"/>
-      <c r="U123" s="60"/>
-      <c r="V123" s="60"/>
-      <c r="W123" s="60"/>
+      <c r="L123" s="46"/>
+      <c r="M123" s="46"/>
+      <c r="N123" s="46"/>
+      <c r="O123" s="46"/>
+      <c r="P123" s="46"/>
+      <c r="Q123" s="46"/>
+      <c r="R123" s="46"/>
+      <c r="S123" s="46"/>
+      <c r="U123" s="46"/>
+      <c r="V123" s="46"/>
+      <c r="W123" s="46"/>
       <c r="X123" s="4" t="s">
         <v>19</v>
       </c>
@@ -32049,8 +32028,8 @@
       </c>
     </row>
     <row r="124" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="69"/>
-      <c r="B124" s="65" t="s">
+      <c r="A124" s="63"/>
+      <c r="B124" s="47" t="s">
         <v>15</v>
       </c>
       <c r="C124" s="5" t="s">
@@ -32072,13 +32051,13 @@
         <f t="shared" ref="M124:M135" si="26">MIN(D124:K124)/L124</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N124" s="62" t="s">
+      <c r="N124" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="O124" s="62" t="s">
+      <c r="O124" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="P124" s="62" t="s">
+      <c r="P124" s="57" t="s">
         <v>70</v>
       </c>
       <c r="Q124" s="19" t="e">
@@ -32094,10 +32073,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T124" s="29"/>
-      <c r="U124" s="65" t="s">
+      <c r="U124" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="V124" s="65" t="s">
+      <c r="V124" s="47" t="s">
         <v>15</v>
       </c>
       <c r="W124" s="5" t="s">
@@ -32113,8 +32092,8 @@
       <c r="AE124" s="25"/>
     </row>
     <row r="125" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="69"/>
-      <c r="B125" s="63"/>
+      <c r="A125" s="63"/>
+      <c r="B125" s="48"/>
       <c r="C125" s="5" t="s">
         <v>63</v>
       </c>
@@ -32134,9 +32113,9 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N125" s="63"/>
-      <c r="O125" s="63"/>
-      <c r="P125" s="63"/>
+      <c r="N125" s="48"/>
+      <c r="O125" s="48"/>
+      <c r="P125" s="48"/>
       <c r="Q125" s="19" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
@@ -32150,8 +32129,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T125" s="29"/>
-      <c r="U125" s="63"/>
-      <c r="V125" s="63"/>
+      <c r="U125" s="48"/>
+      <c r="V125" s="48"/>
       <c r="W125" s="5" t="s">
         <v>63</v>
       </c>
@@ -32165,8 +32144,8 @@
       <c r="AE125" s="25"/>
     </row>
     <row r="126" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="69"/>
-      <c r="B126" s="63"/>
+      <c r="A126" s="63"/>
+      <c r="B126" s="48"/>
       <c r="C126" s="7" t="s">
         <v>64</v>
       </c>
@@ -32186,9 +32165,9 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N126" s="63"/>
-      <c r="O126" s="63"/>
-      <c r="P126" s="63"/>
+      <c r="N126" s="48"/>
+      <c r="O126" s="48"/>
+      <c r="P126" s="48"/>
       <c r="Q126" s="19" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
@@ -32202,8 +32181,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T126" s="29"/>
-      <c r="U126" s="63"/>
-      <c r="V126" s="63"/>
+      <c r="U126" s="48"/>
+      <c r="V126" s="48"/>
       <c r="W126" s="7" t="s">
         <v>64</v>
       </c>
@@ -32217,8 +32196,8 @@
       <c r="AE126" s="25"/>
     </row>
     <row r="127" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="69"/>
-      <c r="B127" s="60"/>
+      <c r="A127" s="63"/>
+      <c r="B127" s="46"/>
       <c r="C127" s="7" t="s">
         <v>65</v>
       </c>
@@ -32238,9 +32217,9 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N127" s="63"/>
-      <c r="O127" s="63"/>
-      <c r="P127" s="63"/>
+      <c r="N127" s="48"/>
+      <c r="O127" s="48"/>
+      <c r="P127" s="48"/>
       <c r="Q127" s="19" t="str">
         <f>IF(AND(MIN(D127:K127)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -32254,8 +32233,8 @@
         <v>Pass</v>
       </c>
       <c r="T127" s="29"/>
-      <c r="U127" s="63"/>
-      <c r="V127" s="60"/>
+      <c r="U127" s="48"/>
+      <c r="V127" s="46"/>
       <c r="W127" s="7" t="s">
         <v>65</v>
       </c>
@@ -32269,8 +32248,8 @@
       <c r="AE127" s="25"/>
     </row>
     <row r="128" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="69"/>
-      <c r="B128" s="65" t="s">
+      <c r="A128" s="63"/>
+      <c r="B128" s="47" t="s">
         <v>16</v>
       </c>
       <c r="C128" s="5" t="s">
@@ -32292,9 +32271,9 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N128" s="63"/>
-      <c r="O128" s="63"/>
-      <c r="P128" s="63"/>
+      <c r="N128" s="48"/>
+      <c r="O128" s="48"/>
+      <c r="P128" s="48"/>
       <c r="Q128" s="19" t="e">
         <f t="shared" ref="Q128:Q130" si="28">IF(AND(L128&gt;=20,M128&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -32308,8 +32287,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T128" s="29"/>
-      <c r="U128" s="63"/>
-      <c r="V128" s="65" t="s">
+      <c r="U128" s="48"/>
+      <c r="V128" s="47" t="s">
         <v>16</v>
       </c>
       <c r="W128" s="5" t="s">
@@ -32325,8 +32304,8 @@
       <c r="AE128" s="25"/>
     </row>
     <row r="129" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="69"/>
-      <c r="B129" s="63"/>
+      <c r="A129" s="63"/>
+      <c r="B129" s="48"/>
       <c r="C129" s="5" t="s">
         <v>63</v>
       </c>
@@ -32346,9 +32325,9 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N129" s="63"/>
-      <c r="O129" s="63"/>
-      <c r="P129" s="63"/>
+      <c r="N129" s="48"/>
+      <c r="O129" s="48"/>
+      <c r="P129" s="48"/>
       <c r="Q129" s="19" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
@@ -32362,8 +32341,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T129" s="29"/>
-      <c r="U129" s="63"/>
-      <c r="V129" s="63"/>
+      <c r="U129" s="48"/>
+      <c r="V129" s="48"/>
       <c r="W129" s="5" t="s">
         <v>63</v>
       </c>
@@ -32377,8 +32356,8 @@
       <c r="AE129" s="25"/>
     </row>
     <row r="130" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="69"/>
-      <c r="B130" s="63"/>
+      <c r="A130" s="63"/>
+      <c r="B130" s="48"/>
       <c r="C130" s="7" t="s">
         <v>64</v>
       </c>
@@ -32398,9 +32377,9 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N130" s="63"/>
-      <c r="O130" s="63"/>
-      <c r="P130" s="63"/>
+      <c r="N130" s="48"/>
+      <c r="O130" s="48"/>
+      <c r="P130" s="48"/>
       <c r="Q130" s="19" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
@@ -32414,8 +32393,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T130" s="29"/>
-      <c r="U130" s="63"/>
-      <c r="V130" s="63"/>
+      <c r="U130" s="48"/>
+      <c r="V130" s="48"/>
       <c r="W130" s="7" t="s">
         <v>64</v>
       </c>
@@ -32429,8 +32408,8 @@
       <c r="AE130" s="25"/>
     </row>
     <row r="131" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="69"/>
-      <c r="B131" s="60"/>
+      <c r="A131" s="63"/>
+      <c r="B131" s="46"/>
       <c r="C131" s="7" t="s">
         <v>65</v>
       </c>
@@ -32450,9 +32429,9 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N131" s="63"/>
-      <c r="O131" s="63"/>
-      <c r="P131" s="63"/>
+      <c r="N131" s="48"/>
+      <c r="O131" s="48"/>
+      <c r="P131" s="48"/>
       <c r="Q131" s="19" t="str">
         <f>IF(AND(MIN(D131:K131)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -32466,8 +32445,8 @@
         <v>Pass</v>
       </c>
       <c r="T131" s="29"/>
-      <c r="U131" s="63"/>
-      <c r="V131" s="60"/>
+      <c r="U131" s="48"/>
+      <c r="V131" s="46"/>
       <c r="W131" s="7" t="s">
         <v>65</v>
       </c>
@@ -32481,8 +32460,8 @@
       <c r="AE131" s="25"/>
     </row>
     <row r="132" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="69"/>
-      <c r="B132" s="65" t="s">
+      <c r="A132" s="63"/>
+      <c r="B132" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C132" s="5" t="s">
@@ -32504,9 +32483,9 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N132" s="63"/>
-      <c r="O132" s="63"/>
-      <c r="P132" s="63"/>
+      <c r="N132" s="48"/>
+      <c r="O132" s="48"/>
+      <c r="P132" s="48"/>
       <c r="Q132" s="19" t="e">
         <f t="shared" ref="Q132:Q134" si="29">IF(AND(L132&gt;=20,M132&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -32520,8 +32499,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T132" s="29"/>
-      <c r="U132" s="63"/>
-      <c r="V132" s="65" t="s">
+      <c r="U132" s="48"/>
+      <c r="V132" s="47" t="s">
         <v>17</v>
       </c>
       <c r="W132" s="5" t="s">
@@ -32537,8 +32516,8 @@
       <c r="AE132" s="25"/>
     </row>
     <row r="133" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="69"/>
-      <c r="B133" s="63"/>
+      <c r="A133" s="63"/>
+      <c r="B133" s="48"/>
       <c r="C133" s="5" t="s">
         <v>63</v>
       </c>
@@ -32558,9 +32537,9 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N133" s="63"/>
-      <c r="O133" s="63"/>
-      <c r="P133" s="63"/>
+      <c r="N133" s="48"/>
+      <c r="O133" s="48"/>
+      <c r="P133" s="48"/>
       <c r="Q133" s="19" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
@@ -32574,8 +32553,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T133" s="29"/>
-      <c r="U133" s="63"/>
-      <c r="V133" s="63"/>
+      <c r="U133" s="48"/>
+      <c r="V133" s="48"/>
       <c r="W133" s="5" t="s">
         <v>63</v>
       </c>
@@ -32589,8 +32568,8 @@
       <c r="AE133" s="25"/>
     </row>
     <row r="134" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="69"/>
-      <c r="B134" s="63"/>
+      <c r="A134" s="63"/>
+      <c r="B134" s="48"/>
       <c r="C134" s="7" t="s">
         <v>64</v>
       </c>
@@ -32610,9 +32589,9 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N134" s="63"/>
-      <c r="O134" s="63"/>
-      <c r="P134" s="63"/>
+      <c r="N134" s="48"/>
+      <c r="O134" s="48"/>
+      <c r="P134" s="48"/>
       <c r="Q134" s="19" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
@@ -32626,8 +32605,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T134" s="29"/>
-      <c r="U134" s="63"/>
-      <c r="V134" s="63"/>
+      <c r="U134" s="48"/>
+      <c r="V134" s="48"/>
       <c r="W134" s="7" t="s">
         <v>64</v>
       </c>
@@ -32641,8 +32620,8 @@
       <c r="AE134" s="25"/>
     </row>
     <row r="135" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="69"/>
-      <c r="B135" s="60"/>
+      <c r="A135" s="63"/>
+      <c r="B135" s="46"/>
       <c r="C135" s="7" t="s">
         <v>65</v>
       </c>
@@ -32662,9 +32641,9 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N135" s="60"/>
-      <c r="O135" s="60"/>
-      <c r="P135" s="60"/>
+      <c r="N135" s="46"/>
+      <c r="O135" s="46"/>
+      <c r="P135" s="46"/>
       <c r="Q135" s="19" t="str">
         <f>IF(AND(MIN(D135:K135)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -32678,8 +32657,8 @@
         <v>Pass</v>
       </c>
       <c r="T135" s="29"/>
-      <c r="U135" s="60"/>
-      <c r="V135" s="60"/>
+      <c r="U135" s="46"/>
+      <c r="V135" s="46"/>
       <c r="W135" s="7" t="s">
         <v>65</v>
       </c>
@@ -32693,7 +32672,7 @@
       <c r="AE135" s="25"/>
     </row>
     <row r="136" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="69"/>
+      <c r="A136" s="63"/>
       <c r="B136" s="15"/>
       <c r="C136" s="10"/>
       <c r="D136" s="10"/>
@@ -32718,7 +32697,7 @@
       <c r="X136" s="23"/>
     </row>
     <row r="137" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="69"/>
+      <c r="A137" s="63"/>
       <c r="B137" s="11"/>
       <c r="C137" s="15"/>
       <c r="D137" s="15"/>
@@ -32743,7 +32722,7 @@
       <c r="X137" s="23"/>
     </row>
     <row r="138" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="69"/>
+      <c r="A138" s="63"/>
       <c r="B138" s="11"/>
       <c r="C138" s="15"/>
       <c r="D138" s="15"/>
@@ -32768,7 +32747,7 @@
       <c r="X138" s="23"/>
     </row>
     <row r="139" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="69"/>
+      <c r="A139" s="63"/>
       <c r="B139" s="11"/>
       <c r="C139" s="15"/>
       <c r="D139" s="15"/>
@@ -32793,7 +32772,7 @@
       <c r="X139" s="23"/>
     </row>
     <row r="140" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="69"/>
+      <c r="A140" s="63"/>
       <c r="B140" s="11"/>
       <c r="C140" s="15"/>
       <c r="D140" s="15"/>
@@ -32818,7 +32797,7 @@
       <c r="X140" s="23"/>
     </row>
     <row r="141" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="69"/>
+      <c r="A141" s="63"/>
       <c r="B141" s="11"/>
       <c r="C141" s="15"/>
       <c r="D141" s="15"/>
@@ -32843,7 +32822,7 @@
       <c r="X141" s="23"/>
     </row>
     <row r="142" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="69"/>
+      <c r="A142" s="63"/>
       <c r="B142" s="11"/>
       <c r="C142" s="15"/>
       <c r="D142" s="15"/>
@@ -32868,7 +32847,7 @@
       <c r="X142" s="23"/>
     </row>
     <row r="143" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="69"/>
+      <c r="A143" s="63"/>
       <c r="B143" s="11"/>
       <c r="C143" s="15"/>
       <c r="D143" s="15"/>
@@ -32893,7 +32872,7 @@
       <c r="X143" s="23"/>
     </row>
     <row r="144" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="69"/>
+      <c r="A144" s="63"/>
       <c r="B144" s="11"/>
       <c r="C144" s="15"/>
       <c r="D144" s="15"/>
@@ -32914,108 +32893,108 @@
       <c r="S144" s="22"/>
     </row>
     <row r="145" spans="1:31" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="47" t="s">
+      <c r="A145" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B145" s="48"/>
-      <c r="C145" s="48"/>
-      <c r="D145" s="48"/>
-      <c r="E145" s="48"/>
-      <c r="F145" s="48"/>
-      <c r="G145" s="48"/>
-      <c r="H145" s="48"/>
-      <c r="I145" s="48"/>
-      <c r="J145" s="48"/>
-      <c r="K145" s="48"/>
-      <c r="L145" s="48"/>
-      <c r="M145" s="48"/>
-      <c r="N145" s="48"/>
-      <c r="O145" s="48"/>
-      <c r="P145" s="48"/>
-      <c r="Q145" s="48"/>
-      <c r="R145" s="48"/>
-      <c r="S145" s="48"/>
-      <c r="T145" s="48"/>
-      <c r="U145" s="48"/>
-      <c r="V145" s="48"/>
-      <c r="W145" s="48"/>
-      <c r="X145" s="48"/>
-      <c r="Y145" s="48"/>
-      <c r="Z145" s="48"/>
-      <c r="AA145" s="48"/>
-      <c r="AB145" s="48"/>
-      <c r="AC145" s="48"/>
-      <c r="AD145" s="48"/>
-      <c r="AE145" s="49"/>
+      <c r="B145" s="67"/>
+      <c r="C145" s="67"/>
+      <c r="D145" s="67"/>
+      <c r="E145" s="67"/>
+      <c r="F145" s="67"/>
+      <c r="G145" s="67"/>
+      <c r="H145" s="67"/>
+      <c r="I145" s="67"/>
+      <c r="J145" s="67"/>
+      <c r="K145" s="67"/>
+      <c r="L145" s="67"/>
+      <c r="M145" s="67"/>
+      <c r="N145" s="67"/>
+      <c r="O145" s="67"/>
+      <c r="P145" s="67"/>
+      <c r="Q145" s="67"/>
+      <c r="R145" s="67"/>
+      <c r="S145" s="67"/>
+      <c r="T145" s="67"/>
+      <c r="U145" s="67"/>
+      <c r="V145" s="67"/>
+      <c r="W145" s="67"/>
+      <c r="X145" s="67"/>
+      <c r="Y145" s="67"/>
+      <c r="Z145" s="67"/>
+      <c r="AA145" s="67"/>
+      <c r="AB145" s="67"/>
+      <c r="AC145" s="67"/>
+      <c r="AD145" s="67"/>
+      <c r="AE145" s="68"/>
     </row>
     <row r="146" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="64" t="s">
+      <c r="A146" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B146" s="51" t="s">
+      <c r="B146" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C146" s="59" t="s">
+      <c r="C146" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D146" s="50" t="s">
+      <c r="D146" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="E146" s="50"/>
-      <c r="F146" s="50"/>
-      <c r="G146" s="50"/>
-      <c r="H146" s="50"/>
-      <c r="I146" s="50"/>
-      <c r="J146" s="50"/>
-      <c r="K146" s="50"/>
-      <c r="L146" s="51" t="s">
+      <c r="E146" s="60"/>
+      <c r="F146" s="60"/>
+      <c r="G146" s="60"/>
+      <c r="H146" s="60"/>
+      <c r="I146" s="60"/>
+      <c r="J146" s="60"/>
+      <c r="K146" s="60"/>
+      <c r="L146" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="M146" s="51" t="s">
+      <c r="M146" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="N146" s="51" t="s">
+      <c r="N146" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="O146" s="51" t="s">
+      <c r="O146" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="P146" s="51" t="s">
+      <c r="P146" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Q146" s="64" t="s">
+      <c r="Q146" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="R146" s="64" t="s">
+      <c r="R146" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="S146" s="64" t="s">
+      <c r="S146" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="U146" s="71" t="s">
+      <c r="U146" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="V146" s="67" t="s">
+      <c r="V146" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="W146" s="72" t="s">
+      <c r="W146" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="X146" s="67" t="s">
+      <c r="X146" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="Y146" s="52"/>
-      <c r="Z146" s="52"/>
-      <c r="AA146" s="52"/>
-      <c r="AB146" s="52"/>
-      <c r="AC146" s="52"/>
-      <c r="AD146" s="52"/>
-      <c r="AE146" s="53"/>
+      <c r="Y146" s="69"/>
+      <c r="Z146" s="69"/>
+      <c r="AA146" s="69"/>
+      <c r="AB146" s="69"/>
+      <c r="AC146" s="69"/>
+      <c r="AD146" s="69"/>
+      <c r="AE146" s="70"/>
     </row>
     <row r="147" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="60"/>
-      <c r="B147" s="60"/>
-      <c r="C147" s="60"/>
+      <c r="A147" s="46"/>
+      <c r="B147" s="46"/>
+      <c r="C147" s="46"/>
       <c r="D147" s="4" t="s">
         <v>19</v>
       </c>
@@ -33040,17 +33019,17 @@
       <c r="K147" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L147" s="60"/>
-      <c r="M147" s="60"/>
-      <c r="N147" s="60"/>
-      <c r="O147" s="60"/>
-      <c r="P147" s="60"/>
-      <c r="Q147" s="60"/>
-      <c r="R147" s="60"/>
-      <c r="S147" s="60"/>
-      <c r="U147" s="60"/>
-      <c r="V147" s="60"/>
-      <c r="W147" s="60"/>
+      <c r="L147" s="46"/>
+      <c r="M147" s="46"/>
+      <c r="N147" s="46"/>
+      <c r="O147" s="46"/>
+      <c r="P147" s="46"/>
+      <c r="Q147" s="46"/>
+      <c r="R147" s="46"/>
+      <c r="S147" s="46"/>
+      <c r="U147" s="46"/>
+      <c r="V147" s="46"/>
+      <c r="W147" s="46"/>
       <c r="X147" s="26" t="s">
         <v>19</v>
       </c>
@@ -33077,10 +33056,10 @@
       </c>
     </row>
     <row r="148" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="68" t="s">
+      <c r="A148" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B148" s="65" t="s">
+      <c r="B148" s="47" t="s">
         <v>15</v>
       </c>
       <c r="C148" s="5" t="s">
@@ -33102,13 +33081,13 @@
         <f t="shared" ref="M148:M159" si="31">MIN(D148:K148)/L148</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N148" s="62" t="s">
+      <c r="N148" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="O148" s="62" t="s">
+      <c r="O148" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="P148" s="62" t="s">
+      <c r="P148" s="57" t="s">
         <v>76</v>
       </c>
       <c r="Q148" s="19" t="e">
@@ -33123,10 +33102,10 @@
         <f>IF(AND(L148&gt;=325,M148&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U148" s="65" t="s">
+      <c r="U148" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="V148" s="65" t="s">
+      <c r="V148" s="47" t="s">
         <v>15</v>
       </c>
       <c r="W148" s="5" t="s">
@@ -33142,8 +33121,8 @@
       <c r="AE148" s="20"/>
     </row>
     <row r="149" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="69"/>
-      <c r="B149" s="63"/>
+      <c r="A149" s="63"/>
+      <c r="B149" s="48"/>
       <c r="C149" s="5" t="s">
         <v>63</v>
       </c>
@@ -33163,9 +33142,9 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N149" s="63"/>
-      <c r="O149" s="63"/>
-      <c r="P149" s="63"/>
+      <c r="N149" s="48"/>
+      <c r="O149" s="48"/>
+      <c r="P149" s="48"/>
       <c r="Q149" s="19" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
@@ -33178,8 +33157,8 @@
         <f>IF(AND(L149&gt;=222.8,M149&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U149" s="63"/>
-      <c r="V149" s="63"/>
+      <c r="U149" s="48"/>
+      <c r="V149" s="48"/>
       <c r="W149" s="5" t="s">
         <v>63</v>
       </c>
@@ -33193,8 +33172,8 @@
       <c r="AE149" s="20"/>
     </row>
     <row r="150" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="69"/>
-      <c r="B150" s="63"/>
+      <c r="A150" s="63"/>
+      <c r="B150" s="48"/>
       <c r="C150" s="7" t="s">
         <v>64</v>
       </c>
@@ -33214,9 +33193,9 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N150" s="63"/>
-      <c r="O150" s="63"/>
-      <c r="P150" s="63"/>
+      <c r="N150" s="48"/>
+      <c r="O150" s="48"/>
+      <c r="P150" s="48"/>
       <c r="Q150" s="19" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
@@ -33229,8 +33208,8 @@
         <f>IF(AND(L150&gt;=30),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U150" s="63"/>
-      <c r="V150" s="63"/>
+      <c r="U150" s="48"/>
+      <c r="V150" s="48"/>
       <c r="W150" s="7" t="s">
         <v>64</v>
       </c>
@@ -33244,8 +33223,8 @@
       <c r="AE150" s="20"/>
     </row>
     <row r="151" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="69"/>
-      <c r="B151" s="60"/>
+      <c r="A151" s="63"/>
+      <c r="B151" s="46"/>
       <c r="C151" s="7" t="s">
         <v>65</v>
       </c>
@@ -33265,9 +33244,9 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N151" s="63"/>
-      <c r="O151" s="63"/>
-      <c r="P151" s="63"/>
+      <c r="N151" s="48"/>
+      <c r="O151" s="48"/>
+      <c r="P151" s="48"/>
       <c r="Q151" s="19" t="str">
         <f>IF(AND(MIN(D151:K151)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -33280,8 +33259,8 @@
         <f>IF(AND(MIN(D151:K151)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U151" s="63"/>
-      <c r="V151" s="60"/>
+      <c r="U151" s="48"/>
+      <c r="V151" s="46"/>
       <c r="W151" s="7" t="s">
         <v>65</v>
       </c>
@@ -33295,8 +33274,8 @@
       <c r="AE151" s="20"/>
     </row>
     <row r="152" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="69"/>
-      <c r="B152" s="65" t="s">
+      <c r="A152" s="63"/>
+      <c r="B152" s="47" t="s">
         <v>16</v>
       </c>
       <c r="C152" s="5" t="s">
@@ -33318,9 +33297,9 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N152" s="63"/>
-      <c r="O152" s="63"/>
-      <c r="P152" s="63"/>
+      <c r="N152" s="48"/>
+      <c r="O152" s="48"/>
+      <c r="P152" s="48"/>
       <c r="Q152" s="19" t="e">
         <f t="shared" ref="Q152:Q154" si="33">IF(AND(L152&gt;=20,M152&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -33333,8 +33312,8 @@
         <f>IF(AND(L152&gt;=325,M152&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U152" s="63"/>
-      <c r="V152" s="65" t="s">
+      <c r="U152" s="48"/>
+      <c r="V152" s="47" t="s">
         <v>16</v>
       </c>
       <c r="W152" s="5" t="s">
@@ -33350,8 +33329,8 @@
       <c r="AE152" s="20"/>
     </row>
     <row r="153" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="69"/>
-      <c r="B153" s="63"/>
+      <c r="A153" s="63"/>
+      <c r="B153" s="48"/>
       <c r="C153" s="5" t="s">
         <v>63</v>
       </c>
@@ -33371,9 +33350,9 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N153" s="63"/>
-      <c r="O153" s="63"/>
-      <c r="P153" s="63"/>
+      <c r="N153" s="48"/>
+      <c r="O153" s="48"/>
+      <c r="P153" s="48"/>
       <c r="Q153" s="19" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
@@ -33386,8 +33365,8 @@
         <f>IF(AND(L153&gt;=222.8,M153&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U153" s="63"/>
-      <c r="V153" s="63"/>
+      <c r="U153" s="48"/>
+      <c r="V153" s="48"/>
       <c r="W153" s="5" t="s">
         <v>63</v>
       </c>
@@ -33401,8 +33380,8 @@
       <c r="AE153" s="20"/>
     </row>
     <row r="154" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="69"/>
-      <c r="B154" s="63"/>
+      <c r="A154" s="63"/>
+      <c r="B154" s="48"/>
       <c r="C154" s="7" t="s">
         <v>64</v>
       </c>
@@ -33422,9 +33401,9 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N154" s="63"/>
-      <c r="O154" s="63"/>
-      <c r="P154" s="63"/>
+      <c r="N154" s="48"/>
+      <c r="O154" s="48"/>
+      <c r="P154" s="48"/>
       <c r="Q154" s="19" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
@@ -33437,8 +33416,8 @@
         <f>IF(AND(L154&gt;=30),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U154" s="63"/>
-      <c r="V154" s="63"/>
+      <c r="U154" s="48"/>
+      <c r="V154" s="48"/>
       <c r="W154" s="7" t="s">
         <v>64</v>
       </c>
@@ -33452,8 +33431,8 @@
       <c r="AE154" s="20"/>
     </row>
     <row r="155" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="69"/>
-      <c r="B155" s="60"/>
+      <c r="A155" s="63"/>
+      <c r="B155" s="46"/>
       <c r="C155" s="7" t="s">
         <v>65</v>
       </c>
@@ -33473,9 +33452,9 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N155" s="63"/>
-      <c r="O155" s="63"/>
-      <c r="P155" s="63"/>
+      <c r="N155" s="48"/>
+      <c r="O155" s="48"/>
+      <c r="P155" s="48"/>
       <c r="Q155" s="19" t="str">
         <f>IF(AND(MIN(D155:K155)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -33488,8 +33467,8 @@
         <f>IF(AND(MIN(D155:K155)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U155" s="63"/>
-      <c r="V155" s="60"/>
+      <c r="U155" s="48"/>
+      <c r="V155" s="46"/>
       <c r="W155" s="7" t="s">
         <v>65</v>
       </c>
@@ -33503,8 +33482,8 @@
       <c r="AE155" s="20"/>
     </row>
     <row r="156" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="69"/>
-      <c r="B156" s="65" t="s">
+      <c r="A156" s="63"/>
+      <c r="B156" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C156" s="5" t="s">
@@ -33526,9 +33505,9 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N156" s="63"/>
-      <c r="O156" s="63"/>
-      <c r="P156" s="63"/>
+      <c r="N156" s="48"/>
+      <c r="O156" s="48"/>
+      <c r="P156" s="48"/>
       <c r="Q156" s="19" t="e">
         <f t="shared" ref="Q156:Q158" si="34">IF(AND(L156&gt;=20,M156&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -33541,8 +33520,8 @@
         <f>IF(AND(L156&gt;=325,M156&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U156" s="63"/>
-      <c r="V156" s="65" t="s">
+      <c r="U156" s="48"/>
+      <c r="V156" s="47" t="s">
         <v>17</v>
       </c>
       <c r="W156" s="5" t="s">
@@ -33558,8 +33537,8 @@
       <c r="AE156" s="20"/>
     </row>
     <row r="157" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="69"/>
-      <c r="B157" s="63"/>
+      <c r="A157" s="63"/>
+      <c r="B157" s="48"/>
       <c r="C157" s="5" t="s">
         <v>63</v>
       </c>
@@ -33579,9 +33558,9 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N157" s="63"/>
-      <c r="O157" s="63"/>
-      <c r="P157" s="63"/>
+      <c r="N157" s="48"/>
+      <c r="O157" s="48"/>
+      <c r="P157" s="48"/>
       <c r="Q157" s="19" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
@@ -33594,8 +33573,8 @@
         <f>IF(AND(L157&gt;=222.8,M157&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U157" s="63"/>
-      <c r="V157" s="63"/>
+      <c r="U157" s="48"/>
+      <c r="V157" s="48"/>
       <c r="W157" s="5" t="s">
         <v>63</v>
       </c>
@@ -33609,8 +33588,8 @@
       <c r="AE157" s="20"/>
     </row>
     <row r="158" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="69"/>
-      <c r="B158" s="63"/>
+      <c r="A158" s="63"/>
+      <c r="B158" s="48"/>
       <c r="C158" s="7" t="s">
         <v>64</v>
       </c>
@@ -33630,9 +33609,9 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N158" s="63"/>
-      <c r="O158" s="63"/>
-      <c r="P158" s="63"/>
+      <c r="N158" s="48"/>
+      <c r="O158" s="48"/>
+      <c r="P158" s="48"/>
       <c r="Q158" s="19" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
@@ -33645,8 +33624,8 @@
         <f>IF(AND(L158&gt;=30),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U158" s="63"/>
-      <c r="V158" s="63"/>
+      <c r="U158" s="48"/>
+      <c r="V158" s="48"/>
       <c r="W158" s="7" t="s">
         <v>64</v>
       </c>
@@ -33660,8 +33639,8 @@
       <c r="AE158" s="20"/>
     </row>
     <row r="159" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="69"/>
-      <c r="B159" s="60"/>
+      <c r="A159" s="63"/>
+      <c r="B159" s="46"/>
       <c r="C159" s="7" t="s">
         <v>65</v>
       </c>
@@ -33681,9 +33660,9 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N159" s="60"/>
-      <c r="O159" s="60"/>
-      <c r="P159" s="60"/>
+      <c r="N159" s="46"/>
+      <c r="O159" s="46"/>
+      <c r="P159" s="46"/>
       <c r="Q159" s="19" t="str">
         <f>IF(AND(MIN(D159:K159)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -33696,8 +33675,8 @@
         <f>IF(AND(MIN(D159:K159)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U159" s="60"/>
-      <c r="V159" s="60"/>
+      <c r="U159" s="46"/>
+      <c r="V159" s="46"/>
       <c r="W159" s="7" t="s">
         <v>65</v>
       </c>
@@ -33711,7 +33690,7 @@
       <c r="AE159" s="20"/>
     </row>
     <row r="160" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="69"/>
+      <c r="A160" s="63"/>
       <c r="B160" s="9"/>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
@@ -33736,7 +33715,7 @@
       <c r="X160" s="23"/>
     </row>
     <row r="161" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="69"/>
+      <c r="A161" s="63"/>
       <c r="B161" s="11"/>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
@@ -33761,7 +33740,7 @@
       <c r="X161" s="23"/>
     </row>
     <row r="162" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="69"/>
+      <c r="A162" s="63"/>
       <c r="B162" s="11"/>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
@@ -33786,7 +33765,7 @@
       <c r="X162" s="23"/>
     </row>
     <row r="163" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="69"/>
+      <c r="A163" s="63"/>
       <c r="B163" s="11"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
@@ -33811,7 +33790,7 @@
       <c r="X163" s="23"/>
     </row>
     <row r="164" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="69"/>
+      <c r="A164" s="63"/>
       <c r="B164" s="11"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
@@ -33836,7 +33815,7 @@
       <c r="X164" s="23"/>
     </row>
     <row r="165" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="69"/>
+      <c r="A165" s="63"/>
       <c r="B165" s="11"/>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
@@ -33861,7 +33840,7 @@
       <c r="X165" s="23"/>
     </row>
     <row r="166" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="69"/>
+      <c r="A166" s="63"/>
       <c r="B166" s="11"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
@@ -33886,7 +33865,7 @@
       <c r="X166" s="23"/>
     </row>
     <row r="167" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="69"/>
+      <c r="A167" s="63"/>
       <c r="B167" s="11"/>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
@@ -33911,7 +33890,7 @@
       <c r="X167" s="23"/>
     </row>
     <row r="168" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="69"/>
+      <c r="A168" s="63"/>
       <c r="B168" s="12"/>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
@@ -33932,72 +33911,72 @@
       <c r="S168" s="24"/>
     </row>
     <row r="169" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="69"/>
-      <c r="B169" s="56" t="s">
+      <c r="A169" s="63"/>
+      <c r="B169" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C169" s="61" t="s">
+      <c r="C169" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D169" s="54" t="s">
+      <c r="D169" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="E169" s="55"/>
-      <c r="F169" s="55"/>
-      <c r="G169" s="55"/>
-      <c r="H169" s="55"/>
-      <c r="I169" s="55"/>
-      <c r="J169" s="55"/>
-      <c r="K169" s="55"/>
-      <c r="L169" s="56" t="s">
+      <c r="E169" s="59"/>
+      <c r="F169" s="59"/>
+      <c r="G169" s="59"/>
+      <c r="H169" s="59"/>
+      <c r="I169" s="59"/>
+      <c r="J169" s="59"/>
+      <c r="K169" s="59"/>
+      <c r="L169" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="M169" s="56" t="s">
+      <c r="M169" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="N169" s="51" t="s">
+      <c r="N169" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="O169" s="51" t="s">
+      <c r="O169" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="P169" s="51" t="s">
+      <c r="P169" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Q169" s="64" t="s">
+      <c r="Q169" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="R169" s="64" t="s">
+      <c r="R169" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="S169" s="64" t="s">
+      <c r="S169" s="56" t="s">
         <v>12</v>
       </c>
       <c r="T169" s="28"/>
-      <c r="U169" s="66" t="s">
+      <c r="U169" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="V169" s="56" t="s">
+      <c r="V169" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="W169" s="61" t="s">
+      <c r="W169" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="X169" s="56" t="s">
+      <c r="X169" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="Y169" s="57"/>
-      <c r="Z169" s="57"/>
-      <c r="AA169" s="57"/>
-      <c r="AB169" s="57"/>
-      <c r="AC169" s="57"/>
-      <c r="AD169" s="57"/>
-      <c r="AE169" s="58"/>
+      <c r="Y169" s="64"/>
+      <c r="Z169" s="64"/>
+      <c r="AA169" s="64"/>
+      <c r="AB169" s="64"/>
+      <c r="AC169" s="64"/>
+      <c r="AD169" s="64"/>
+      <c r="AE169" s="65"/>
     </row>
     <row r="170" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="69"/>
-      <c r="B170" s="60"/>
-      <c r="C170" s="60"/>
+      <c r="A170" s="63"/>
+      <c r="B170" s="46"/>
+      <c r="C170" s="46"/>
       <c r="D170" s="4" t="s">
         <v>19</v>
       </c>
@@ -34022,18 +34001,18 @@
       <c r="K170" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L170" s="60"/>
-      <c r="M170" s="60"/>
-      <c r="N170" s="60"/>
-      <c r="O170" s="60"/>
-      <c r="P170" s="60"/>
-      <c r="Q170" s="60"/>
-      <c r="R170" s="60"/>
-      <c r="S170" s="60"/>
+      <c r="L170" s="46"/>
+      <c r="M170" s="46"/>
+      <c r="N170" s="46"/>
+      <c r="O170" s="46"/>
+      <c r="P170" s="46"/>
+      <c r="Q170" s="46"/>
+      <c r="R170" s="46"/>
+      <c r="S170" s="46"/>
       <c r="T170" s="28"/>
-      <c r="U170" s="60"/>
-      <c r="V170" s="60"/>
-      <c r="W170" s="60"/>
+      <c r="U170" s="46"/>
+      <c r="V170" s="46"/>
+      <c r="W170" s="46"/>
       <c r="X170" s="4" t="s">
         <v>19</v>
       </c>
@@ -34060,8 +34039,8 @@
       </c>
     </row>
     <row r="171" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="69"/>
-      <c r="B171" s="65" t="s">
+      <c r="A171" s="63"/>
+      <c r="B171" s="47" t="s">
         <v>15</v>
       </c>
       <c r="C171" s="5" t="s">
@@ -34083,13 +34062,13 @@
         <f t="shared" ref="M171:M182" si="36">MIN(D171:K171)/L171</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N171" s="62" t="s">
+      <c r="N171" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="O171" s="62" t="s">
+      <c r="O171" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="P171" s="62" t="s">
+      <c r="P171" s="57" t="s">
         <v>79</v>
       </c>
       <c r="Q171" s="19" t="e">
@@ -34104,10 +34083,10 @@
         <f>IF(AND(L171&gt;=325,M171&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U171" s="65" t="s">
+      <c r="U171" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="V171" s="65" t="s">
+      <c r="V171" s="47" t="s">
         <v>15</v>
       </c>
       <c r="W171" s="5" t="s">
@@ -34123,8 +34102,8 @@
       <c r="AE171" s="25"/>
     </row>
     <row r="172" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="69"/>
-      <c r="B172" s="63"/>
+      <c r="A172" s="63"/>
+      <c r="B172" s="48"/>
       <c r="C172" s="5" t="s">
         <v>63</v>
       </c>
@@ -34144,9 +34123,9 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N172" s="63"/>
-      <c r="O172" s="63"/>
-      <c r="P172" s="63"/>
+      <c r="N172" s="48"/>
+      <c r="O172" s="48"/>
+      <c r="P172" s="48"/>
       <c r="Q172" s="19" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
@@ -34159,8 +34138,8 @@
         <f>IF(AND(L172&gt;=222.8,M172&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U172" s="63"/>
-      <c r="V172" s="63"/>
+      <c r="U172" s="48"/>
+      <c r="V172" s="48"/>
       <c r="W172" s="5" t="s">
         <v>63</v>
       </c>
@@ -34174,8 +34153,8 @@
       <c r="AE172" s="25"/>
     </row>
     <row r="173" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="69"/>
-      <c r="B173" s="63"/>
+      <c r="A173" s="63"/>
+      <c r="B173" s="48"/>
       <c r="C173" s="7" t="s">
         <v>64</v>
       </c>
@@ -34195,9 +34174,9 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N173" s="63"/>
-      <c r="O173" s="63"/>
-      <c r="P173" s="63"/>
+      <c r="N173" s="48"/>
+      <c r="O173" s="48"/>
+      <c r="P173" s="48"/>
       <c r="Q173" s="19" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
@@ -34210,8 +34189,8 @@
         <f>IF(AND(L173&gt;=20),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U173" s="63"/>
-      <c r="V173" s="63"/>
+      <c r="U173" s="48"/>
+      <c r="V173" s="48"/>
       <c r="W173" s="7" t="s">
         <v>64</v>
       </c>
@@ -34225,8 +34204,8 @@
       <c r="AE173" s="25"/>
     </row>
     <row r="174" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="69"/>
-      <c r="B174" s="60"/>
+      <c r="A174" s="63"/>
+      <c r="B174" s="46"/>
       <c r="C174" s="7" t="s">
         <v>65</v>
       </c>
@@ -34246,9 +34225,9 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N174" s="63"/>
-      <c r="O174" s="63"/>
-      <c r="P174" s="63"/>
+      <c r="N174" s="48"/>
+      <c r="O174" s="48"/>
+      <c r="P174" s="48"/>
       <c r="Q174" s="19" t="str">
         <f>IF(AND(MIN(D174:K174)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -34261,8 +34240,8 @@
         <f>IF(AND(MIN(D174:K174)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U174" s="63"/>
-      <c r="V174" s="60"/>
+      <c r="U174" s="48"/>
+      <c r="V174" s="46"/>
       <c r="W174" s="7" t="s">
         <v>65</v>
       </c>
@@ -34276,8 +34255,8 @@
       <c r="AE174" s="25"/>
     </row>
     <row r="175" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="69"/>
-      <c r="B175" s="65" t="s">
+      <c r="A175" s="63"/>
+      <c r="B175" s="47" t="s">
         <v>16</v>
       </c>
       <c r="C175" s="5" t="s">
@@ -34299,9 +34278,9 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N175" s="63"/>
-      <c r="O175" s="63"/>
-      <c r="P175" s="63"/>
+      <c r="N175" s="48"/>
+      <c r="O175" s="48"/>
+      <c r="P175" s="48"/>
       <c r="Q175" s="19" t="e">
         <f t="shared" ref="Q175:Q177" si="38">IF(AND(L175&gt;=20,M175&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -34314,8 +34293,8 @@
         <f>IF(AND(L175&gt;=325,M175&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U175" s="63"/>
-      <c r="V175" s="65" t="s">
+      <c r="U175" s="48"/>
+      <c r="V175" s="47" t="s">
         <v>16</v>
       </c>
       <c r="W175" s="5" t="s">
@@ -34331,8 +34310,8 @@
       <c r="AE175" s="25"/>
     </row>
     <row r="176" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="69"/>
-      <c r="B176" s="63"/>
+      <c r="A176" s="63"/>
+      <c r="B176" s="48"/>
       <c r="C176" s="5" t="s">
         <v>63</v>
       </c>
@@ -34352,9 +34331,9 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N176" s="63"/>
-      <c r="O176" s="63"/>
-      <c r="P176" s="63"/>
+      <c r="N176" s="48"/>
+      <c r="O176" s="48"/>
+      <c r="P176" s="48"/>
       <c r="Q176" s="19" t="e">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
@@ -34367,8 +34346,8 @@
         <f>IF(AND(L176&gt;=222.8,M176&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U176" s="63"/>
-      <c r="V176" s="63"/>
+      <c r="U176" s="48"/>
+      <c r="V176" s="48"/>
       <c r="W176" s="5" t="s">
         <v>63</v>
       </c>
@@ -34382,8 +34361,8 @@
       <c r="AE176" s="25"/>
     </row>
     <row r="177" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="69"/>
-      <c r="B177" s="63"/>
+      <c r="A177" s="63"/>
+      <c r="B177" s="48"/>
       <c r="C177" s="7" t="s">
         <v>64</v>
       </c>
@@ -34403,9 +34382,9 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N177" s="63"/>
-      <c r="O177" s="63"/>
-      <c r="P177" s="63"/>
+      <c r="N177" s="48"/>
+      <c r="O177" s="48"/>
+      <c r="P177" s="48"/>
       <c r="Q177" s="19" t="e">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
@@ -34418,8 +34397,8 @@
         <f>IF(AND(L177&gt;=20),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U177" s="63"/>
-      <c r="V177" s="63"/>
+      <c r="U177" s="48"/>
+      <c r="V177" s="48"/>
       <c r="W177" s="7" t="s">
         <v>64</v>
       </c>
@@ -34433,8 +34412,8 @@
       <c r="AE177" s="25"/>
     </row>
     <row r="178" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="69"/>
-      <c r="B178" s="60"/>
+      <c r="A178" s="63"/>
+      <c r="B178" s="46"/>
       <c r="C178" s="7" t="s">
         <v>65</v>
       </c>
@@ -34454,9 +34433,9 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N178" s="63"/>
-      <c r="O178" s="63"/>
-      <c r="P178" s="63"/>
+      <c r="N178" s="48"/>
+      <c r="O178" s="48"/>
+      <c r="P178" s="48"/>
       <c r="Q178" s="19" t="str">
         <f>IF(AND(MIN(D178:K178)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -34469,8 +34448,8 @@
         <f>IF(AND(MIN(D178:K178)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U178" s="63"/>
-      <c r="V178" s="60"/>
+      <c r="U178" s="48"/>
+      <c r="V178" s="46"/>
       <c r="W178" s="7" t="s">
         <v>65</v>
       </c>
@@ -34484,8 +34463,8 @@
       <c r="AE178" s="25"/>
     </row>
     <row r="179" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="69"/>
-      <c r="B179" s="65" t="s">
+      <c r="A179" s="63"/>
+      <c r="B179" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C179" s="5" t="s">
@@ -34507,9 +34486,9 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N179" s="63"/>
-      <c r="O179" s="63"/>
-      <c r="P179" s="63"/>
+      <c r="N179" s="48"/>
+      <c r="O179" s="48"/>
+      <c r="P179" s="48"/>
       <c r="Q179" s="19" t="e">
         <f t="shared" ref="Q179:Q181" si="39">IF(AND(L179&gt;=20,M179&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -34522,8 +34501,8 @@
         <f>IF(AND(L179&gt;=325,M179&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U179" s="63"/>
-      <c r="V179" s="65" t="s">
+      <c r="U179" s="48"/>
+      <c r="V179" s="47" t="s">
         <v>17</v>
       </c>
       <c r="W179" s="5" t="s">
@@ -34539,8 +34518,8 @@
       <c r="AE179" s="25"/>
     </row>
     <row r="180" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="69"/>
-      <c r="B180" s="63"/>
+      <c r="A180" s="63"/>
+      <c r="B180" s="48"/>
       <c r="C180" s="5" t="s">
         <v>63</v>
       </c>
@@ -34560,9 +34539,9 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N180" s="63"/>
-      <c r="O180" s="63"/>
-      <c r="P180" s="63"/>
+      <c r="N180" s="48"/>
+      <c r="O180" s="48"/>
+      <c r="P180" s="48"/>
       <c r="Q180" s="19" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
@@ -34575,8 +34554,8 @@
         <f>IF(AND(L180&gt;=222.8,M180&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U180" s="63"/>
-      <c r="V180" s="63"/>
+      <c r="U180" s="48"/>
+      <c r="V180" s="48"/>
       <c r="W180" s="5" t="s">
         <v>63</v>
       </c>
@@ -34590,8 +34569,8 @@
       <c r="AE180" s="25"/>
     </row>
     <row r="181" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="69"/>
-      <c r="B181" s="63"/>
+      <c r="A181" s="63"/>
+      <c r="B181" s="48"/>
       <c r="C181" s="7" t="s">
         <v>64</v>
       </c>
@@ -34611,9 +34590,9 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N181" s="63"/>
-      <c r="O181" s="63"/>
-      <c r="P181" s="63"/>
+      <c r="N181" s="48"/>
+      <c r="O181" s="48"/>
+      <c r="P181" s="48"/>
       <c r="Q181" s="19" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
@@ -34626,8 +34605,8 @@
         <f>IF(AND(L181&gt;=20),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U181" s="63"/>
-      <c r="V181" s="63"/>
+      <c r="U181" s="48"/>
+      <c r="V181" s="48"/>
       <c r="W181" s="7" t="s">
         <v>64</v>
       </c>
@@ -34641,8 +34620,8 @@
       <c r="AE181" s="25"/>
     </row>
     <row r="182" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="69"/>
-      <c r="B182" s="60"/>
+      <c r="A182" s="63"/>
+      <c r="B182" s="46"/>
       <c r="C182" s="7" t="s">
         <v>65</v>
       </c>
@@ -34662,9 +34641,9 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N182" s="60"/>
-      <c r="O182" s="60"/>
-      <c r="P182" s="60"/>
+      <c r="N182" s="46"/>
+      <c r="O182" s="46"/>
+      <c r="P182" s="46"/>
       <c r="Q182" s="19" t="str">
         <f>IF(AND(MIN(D182:K182)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -34677,8 +34656,8 @@
         <f>IF(AND(MIN(D182:K182)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U182" s="60"/>
-      <c r="V182" s="60"/>
+      <c r="U182" s="46"/>
+      <c r="V182" s="46"/>
       <c r="W182" s="7" t="s">
         <v>65</v>
       </c>
@@ -34692,7 +34671,7 @@
       <c r="AE182" s="25"/>
     </row>
     <row r="183" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="69"/>
+      <c r="A183" s="63"/>
       <c r="B183" s="15"/>
       <c r="C183" s="10"/>
       <c r="D183" s="10"/>
@@ -34713,7 +34692,7 @@
       <c r="S183" s="21"/>
     </row>
     <row r="184" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="69"/>
+      <c r="A184" s="63"/>
       <c r="B184" s="11"/>
       <c r="C184" s="15"/>
       <c r="D184" s="15"/>
@@ -34738,7 +34717,7 @@
       <c r="X184" s="23"/>
     </row>
     <row r="185" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="69"/>
+      <c r="A185" s="63"/>
       <c r="B185" s="11"/>
       <c r="C185" s="15"/>
       <c r="D185" s="15"/>
@@ -34763,7 +34742,7 @@
       <c r="X185" s="23"/>
     </row>
     <row r="186" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="69"/>
+      <c r="A186" s="63"/>
       <c r="B186" s="11"/>
       <c r="C186" s="15"/>
       <c r="D186" s="15"/>
@@ -34788,7 +34767,7 @@
       <c r="X186" s="23"/>
     </row>
     <row r="187" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="69"/>
+      <c r="A187" s="63"/>
       <c r="B187" s="11"/>
       <c r="C187" s="15"/>
       <c r="D187" s="15"/>
@@ -34813,7 +34792,7 @@
       <c r="X187" s="23"/>
     </row>
     <row r="188" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="69"/>
+      <c r="A188" s="63"/>
       <c r="B188" s="11"/>
       <c r="C188" s="15"/>
       <c r="D188" s="15"/>
@@ -34838,7 +34817,7 @@
       <c r="X188" s="23"/>
     </row>
     <row r="189" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="69"/>
+      <c r="A189" s="63"/>
       <c r="B189" s="11"/>
       <c r="C189" s="15"/>
       <c r="D189" s="15"/>
@@ -34863,7 +34842,7 @@
       <c r="X189" s="23"/>
     </row>
     <row r="190" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="69"/>
+      <c r="A190" s="63"/>
       <c r="B190" s="11"/>
       <c r="C190" s="15"/>
       <c r="D190" s="15"/>
@@ -34888,7 +34867,7 @@
       <c r="X190" s="23"/>
     </row>
     <row r="191" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="69"/>
+      <c r="A191" s="63"/>
       <c r="B191" s="11"/>
       <c r="C191" s="15"/>
       <c r="D191" s="15"/>
@@ -34913,144 +34892,144 @@
       <c r="X191" s="23"/>
     </row>
     <row r="192" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="47" t="s">
+      <c r="A192" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B192" s="48"/>
-      <c r="C192" s="48"/>
-      <c r="D192" s="48"/>
-      <c r="E192" s="48"/>
-      <c r="F192" s="48"/>
-      <c r="G192" s="48"/>
-      <c r="H192" s="48"/>
-      <c r="I192" s="48"/>
-      <c r="J192" s="48"/>
-      <c r="K192" s="48"/>
-      <c r="L192" s="48"/>
-      <c r="M192" s="48"/>
-      <c r="N192" s="48"/>
-      <c r="O192" s="48"/>
-      <c r="P192" s="48"/>
-      <c r="Q192" s="48"/>
-      <c r="R192" s="48"/>
-      <c r="S192" s="48"/>
-      <c r="T192" s="48"/>
-      <c r="U192" s="48"/>
-      <c r="V192" s="48"/>
-      <c r="W192" s="48"/>
-      <c r="X192" s="48"/>
-      <c r="Y192" s="48"/>
-      <c r="Z192" s="48"/>
-      <c r="AA192" s="48"/>
-      <c r="AB192" s="48"/>
-      <c r="AC192" s="48"/>
-      <c r="AD192" s="48"/>
-      <c r="AE192" s="49"/>
+      <c r="B192" s="67"/>
+      <c r="C192" s="67"/>
+      <c r="D192" s="67"/>
+      <c r="E192" s="67"/>
+      <c r="F192" s="67"/>
+      <c r="G192" s="67"/>
+      <c r="H192" s="67"/>
+      <c r="I192" s="67"/>
+      <c r="J192" s="67"/>
+      <c r="K192" s="67"/>
+      <c r="L192" s="67"/>
+      <c r="M192" s="67"/>
+      <c r="N192" s="67"/>
+      <c r="O192" s="67"/>
+      <c r="P192" s="67"/>
+      <c r="Q192" s="67"/>
+      <c r="R192" s="67"/>
+      <c r="S192" s="67"/>
+      <c r="T192" s="67"/>
+      <c r="U192" s="67"/>
+      <c r="V192" s="67"/>
+      <c r="W192" s="67"/>
+      <c r="X192" s="67"/>
+      <c r="Y192" s="67"/>
+      <c r="Z192" s="67"/>
+      <c r="AA192" s="67"/>
+      <c r="AB192" s="67"/>
+      <c r="AC192" s="67"/>
+      <c r="AD192" s="67"/>
+      <c r="AE192" s="68"/>
     </row>
     <row r="193" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="47" t="s">
+      <c r="A193" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="B193" s="48"/>
-      <c r="C193" s="48"/>
-      <c r="D193" s="48"/>
-      <c r="E193" s="48"/>
-      <c r="F193" s="48"/>
-      <c r="G193" s="48"/>
-      <c r="H193" s="48"/>
-      <c r="I193" s="48"/>
-      <c r="J193" s="48"/>
-      <c r="K193" s="48"/>
-      <c r="L193" s="48"/>
-      <c r="M193" s="48"/>
-      <c r="N193" s="48"/>
-      <c r="O193" s="48"/>
-      <c r="P193" s="48"/>
-      <c r="Q193" s="48"/>
-      <c r="R193" s="48"/>
-      <c r="S193" s="48"/>
-      <c r="T193" s="48"/>
-      <c r="U193" s="48"/>
-      <c r="V193" s="48"/>
-      <c r="W193" s="48"/>
-      <c r="X193" s="48"/>
-      <c r="Y193" s="48"/>
-      <c r="Z193" s="48"/>
-      <c r="AA193" s="48"/>
-      <c r="AB193" s="48"/>
-      <c r="AC193" s="48"/>
-      <c r="AD193" s="48"/>
-      <c r="AE193" s="49"/>
+      <c r="B193" s="67"/>
+      <c r="C193" s="67"/>
+      <c r="D193" s="67"/>
+      <c r="E193" s="67"/>
+      <c r="F193" s="67"/>
+      <c r="G193" s="67"/>
+      <c r="H193" s="67"/>
+      <c r="I193" s="67"/>
+      <c r="J193" s="67"/>
+      <c r="K193" s="67"/>
+      <c r="L193" s="67"/>
+      <c r="M193" s="67"/>
+      <c r="N193" s="67"/>
+      <c r="O193" s="67"/>
+      <c r="P193" s="67"/>
+      <c r="Q193" s="67"/>
+      <c r="R193" s="67"/>
+      <c r="S193" s="67"/>
+      <c r="T193" s="67"/>
+      <c r="U193" s="67"/>
+      <c r="V193" s="67"/>
+      <c r="W193" s="67"/>
+      <c r="X193" s="67"/>
+      <c r="Y193" s="67"/>
+      <c r="Z193" s="67"/>
+      <c r="AA193" s="67"/>
+      <c r="AB193" s="67"/>
+      <c r="AC193" s="67"/>
+      <c r="AD193" s="67"/>
+      <c r="AE193" s="68"/>
     </row>
     <row r="194" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="64" t="s">
+      <c r="A194" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B194" s="51" t="s">
+      <c r="B194" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C194" s="59" t="s">
+      <c r="C194" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D194" s="50" t="s">
+      <c r="D194" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="E194" s="50"/>
-      <c r="F194" s="50"/>
-      <c r="G194" s="50"/>
-      <c r="H194" s="50"/>
-      <c r="I194" s="50"/>
-      <c r="J194" s="50"/>
-      <c r="K194" s="50"/>
-      <c r="L194" s="51" t="s">
+      <c r="E194" s="60"/>
+      <c r="F194" s="60"/>
+      <c r="G194" s="60"/>
+      <c r="H194" s="60"/>
+      <c r="I194" s="60"/>
+      <c r="J194" s="60"/>
+      <c r="K194" s="60"/>
+      <c r="L194" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="M194" s="51" t="s">
+      <c r="M194" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="N194" s="51" t="s">
+      <c r="N194" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="O194" s="51" t="s">
+      <c r="O194" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="P194" s="51" t="s">
+      <c r="P194" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Q194" s="64" t="s">
+      <c r="Q194" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="R194" s="64" t="s">
+      <c r="R194" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="S194" s="64" t="s">
+      <c r="S194" s="56" t="s">
         <v>12</v>
       </c>
       <c r="T194" s="28"/>
-      <c r="U194" s="64" t="s">
+      <c r="U194" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="V194" s="51" t="s">
+      <c r="V194" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="W194" s="59" t="s">
+      <c r="W194" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="X194" s="51" t="s">
+      <c r="X194" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="Y194" s="52"/>
-      <c r="Z194" s="52"/>
-      <c r="AA194" s="52"/>
-      <c r="AB194" s="52"/>
-      <c r="AC194" s="52"/>
-      <c r="AD194" s="52"/>
-      <c r="AE194" s="53"/>
+      <c r="Y194" s="69"/>
+      <c r="Z194" s="69"/>
+      <c r="AA194" s="69"/>
+      <c r="AB194" s="69"/>
+      <c r="AC194" s="69"/>
+      <c r="AD194" s="69"/>
+      <c r="AE194" s="70"/>
     </row>
     <row r="195" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="60"/>
-      <c r="B195" s="60"/>
-      <c r="C195" s="60"/>
+      <c r="A195" s="46"/>
+      <c r="B195" s="46"/>
+      <c r="C195" s="46"/>
       <c r="D195" s="4" t="s">
         <v>19</v>
       </c>
@@ -35075,18 +35054,18 @@
       <c r="K195" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L195" s="60"/>
-      <c r="M195" s="60"/>
-      <c r="N195" s="60"/>
-      <c r="O195" s="60"/>
-      <c r="P195" s="60"/>
-      <c r="Q195" s="60"/>
-      <c r="R195" s="60"/>
-      <c r="S195" s="60"/>
+      <c r="L195" s="46"/>
+      <c r="M195" s="46"/>
+      <c r="N195" s="46"/>
+      <c r="O195" s="46"/>
+      <c r="P195" s="46"/>
+      <c r="Q195" s="46"/>
+      <c r="R195" s="46"/>
+      <c r="S195" s="46"/>
       <c r="T195" s="28"/>
-      <c r="U195" s="60"/>
-      <c r="V195" s="60"/>
-      <c r="W195" s="60"/>
+      <c r="U195" s="46"/>
+      <c r="V195" s="46"/>
+      <c r="W195" s="46"/>
       <c r="X195" s="4" t="s">
         <v>19</v>
       </c>
@@ -35113,10 +35092,10 @@
       </c>
     </row>
     <row r="196" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="65" t="s">
+      <c r="A196" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B196" s="70" t="s">
+      <c r="B196" s="61" t="s">
         <v>31</v>
       </c>
       <c r="C196" s="5" t="s">
@@ -35138,13 +35117,13 @@
         <f t="shared" ref="M196:M211" si="41">MIN(D196:K196)/L196</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N196" s="62" t="s">
+      <c r="N196" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="O196" s="62" t="s">
+      <c r="O196" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="P196" s="62" t="s">
+      <c r="P196" s="57" t="s">
         <v>83</v>
       </c>
       <c r="Q196" s="19" t="e">
@@ -35159,10 +35138,10 @@
         <f>IF(AND(L196&gt;=503.5,M196&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U196" s="65" t="s">
+      <c r="U196" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="V196" s="65" t="s">
+      <c r="V196" s="47" t="s">
         <v>31</v>
       </c>
       <c r="W196" s="5" t="s">
@@ -35178,8 +35157,8 @@
       <c r="AE196" s="20"/>
     </row>
     <row r="197" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="63"/>
-      <c r="B197" s="63"/>
+      <c r="A197" s="48"/>
+      <c r="B197" s="48"/>
       <c r="C197" s="5" t="s">
         <v>85</v>
       </c>
@@ -35199,9 +35178,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N197" s="63"/>
-      <c r="O197" s="63"/>
-      <c r="P197" s="63"/>
+      <c r="N197" s="48"/>
+      <c r="O197" s="48"/>
+      <c r="P197" s="48"/>
       <c r="Q197" s="19" t="e">
         <f t="shared" si="42"/>
         <v>#DIV/0!</v>
@@ -35214,8 +35193,8 @@
         <f>IF(AND(L197&gt;=320,M197&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U197" s="63"/>
-      <c r="V197" s="63"/>
+      <c r="U197" s="48"/>
+      <c r="V197" s="48"/>
       <c r="W197" s="5" t="s">
         <v>85</v>
       </c>
@@ -35229,8 +35208,8 @@
       <c r="AE197" s="20"/>
     </row>
     <row r="198" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="63"/>
-      <c r="B198" s="63"/>
+      <c r="A198" s="48"/>
+      <c r="B198" s="48"/>
       <c r="C198" s="7" t="s">
         <v>86</v>
       </c>
@@ -35250,9 +35229,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N198" s="63"/>
-      <c r="O198" s="63"/>
-      <c r="P198" s="63"/>
+      <c r="N198" s="48"/>
+      <c r="O198" s="48"/>
+      <c r="P198" s="48"/>
       <c r="Q198" s="19" t="e">
         <f t="shared" si="42"/>
         <v>#DIV/0!</v>
@@ -35265,8 +35244,8 @@
         <f>IF(AND(L198&gt;=100),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U198" s="63"/>
-      <c r="V198" s="63"/>
+      <c r="U198" s="48"/>
+      <c r="V198" s="48"/>
       <c r="W198" s="7" t="s">
         <v>86</v>
       </c>
@@ -35280,8 +35259,8 @@
       <c r="AE198" s="20"/>
     </row>
     <row r="199" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="63"/>
-      <c r="B199" s="63"/>
+      <c r="A199" s="48"/>
+      <c r="B199" s="48"/>
       <c r="C199" s="7" t="s">
         <v>87</v>
       </c>
@@ -35301,9 +35280,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N199" s="63"/>
-      <c r="O199" s="63"/>
-      <c r="P199" s="63"/>
+      <c r="N199" s="48"/>
+      <c r="O199" s="48"/>
+      <c r="P199" s="48"/>
       <c r="Q199" s="19" t="str">
         <f>IF(AND(MIN(D199:K199)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -35316,8 +35295,8 @@
         <f>IF(AND(MIN(D199:K199)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U199" s="63"/>
-      <c r="V199" s="60"/>
+      <c r="U199" s="48"/>
+      <c r="V199" s="46"/>
       <c r="W199" s="7" t="s">
         <v>87</v>
       </c>
@@ -35331,8 +35310,8 @@
       <c r="AE199" s="20"/>
     </row>
     <row r="200" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="63"/>
-      <c r="B200" s="70" t="s">
+      <c r="A200" s="48"/>
+      <c r="B200" s="61" t="s">
         <v>32</v>
       </c>
       <c r="C200" s="5" t="s">
@@ -35354,9 +35333,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N200" s="63"/>
-      <c r="O200" s="63"/>
-      <c r="P200" s="63"/>
+      <c r="N200" s="48"/>
+      <c r="O200" s="48"/>
+      <c r="P200" s="48"/>
       <c r="Q200" s="19" t="e">
         <f t="shared" ref="Q200:Q202" si="43">IF(AND(L200&gt;=20,M200&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -35369,8 +35348,8 @@
         <f>IF(AND(L200&gt;=503.5,M200&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U200" s="63"/>
-      <c r="V200" s="65" t="s">
+      <c r="U200" s="48"/>
+      <c r="V200" s="47" t="s">
         <v>32</v>
       </c>
       <c r="W200" s="5" t="s">
@@ -35386,8 +35365,8 @@
       <c r="AE200" s="20"/>
     </row>
     <row r="201" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="63"/>
-      <c r="B201" s="63"/>
+      <c r="A201" s="48"/>
+      <c r="B201" s="48"/>
       <c r="C201" s="5" t="s">
         <v>85</v>
       </c>
@@ -35407,9 +35386,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N201" s="63"/>
-      <c r="O201" s="63"/>
-      <c r="P201" s="63"/>
+      <c r="N201" s="48"/>
+      <c r="O201" s="48"/>
+      <c r="P201" s="48"/>
       <c r="Q201" s="19" t="e">
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
@@ -35422,8 +35401,8 @@
         <f>IF(AND(L201&gt;=320,M201&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U201" s="63"/>
-      <c r="V201" s="63"/>
+      <c r="U201" s="48"/>
+      <c r="V201" s="48"/>
       <c r="W201" s="5" t="s">
         <v>85</v>
       </c>
@@ -35437,8 +35416,8 @@
       <c r="AE201" s="20"/>
     </row>
     <row r="202" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="63"/>
-      <c r="B202" s="63"/>
+      <c r="A202" s="48"/>
+      <c r="B202" s="48"/>
       <c r="C202" s="7" t="s">
         <v>86</v>
       </c>
@@ -35458,9 +35437,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N202" s="63"/>
-      <c r="O202" s="63"/>
-      <c r="P202" s="63"/>
+      <c r="N202" s="48"/>
+      <c r="O202" s="48"/>
+      <c r="P202" s="48"/>
       <c r="Q202" s="19" t="e">
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
@@ -35473,8 +35452,8 @@
         <f>IF(AND(L202&gt;=100),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U202" s="63"/>
-      <c r="V202" s="63"/>
+      <c r="U202" s="48"/>
+      <c r="V202" s="48"/>
       <c r="W202" s="7" t="s">
         <v>86</v>
       </c>
@@ -35488,8 +35467,8 @@
       <c r="AE202" s="20"/>
     </row>
     <row r="203" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="63"/>
-      <c r="B203" s="63"/>
+      <c r="A203" s="48"/>
+      <c r="B203" s="48"/>
       <c r="C203" s="7" t="s">
         <v>87</v>
       </c>
@@ -35509,9 +35488,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N203" s="63"/>
-      <c r="O203" s="63"/>
-      <c r="P203" s="63"/>
+      <c r="N203" s="48"/>
+      <c r="O203" s="48"/>
+      <c r="P203" s="48"/>
       <c r="Q203" s="19" t="str">
         <f>IF(AND(MIN(D203:K203)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -35524,8 +35503,8 @@
         <f>IF(AND(MIN(D203:K203)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U203" s="63"/>
-      <c r="V203" s="60"/>
+      <c r="U203" s="48"/>
+      <c r="V203" s="46"/>
       <c r="W203" s="7" t="s">
         <v>87</v>
       </c>
@@ -35539,8 +35518,8 @@
       <c r="AE203" s="20"/>
     </row>
     <row r="204" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="63"/>
-      <c r="B204" s="70" t="s">
+      <c r="A204" s="48"/>
+      <c r="B204" s="61" t="s">
         <v>33</v>
       </c>
       <c r="C204" s="5" t="s">
@@ -35562,9 +35541,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N204" s="63"/>
-      <c r="O204" s="63"/>
-      <c r="P204" s="63"/>
+      <c r="N204" s="48"/>
+      <c r="O204" s="48"/>
+      <c r="P204" s="48"/>
       <c r="Q204" s="19" t="e">
         <f t="shared" ref="Q204:Q206" si="44">IF(AND(L204&gt;=20,M204&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -35577,8 +35556,8 @@
         <f>IF(AND(L204&gt;=503.5,M204&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U204" s="63"/>
-      <c r="V204" s="65" t="s">
+      <c r="U204" s="48"/>
+      <c r="V204" s="47" t="s">
         <v>33</v>
       </c>
       <c r="W204" s="5" t="s">
@@ -35594,8 +35573,8 @@
       <c r="AE204" s="20"/>
     </row>
     <row r="205" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="63"/>
-      <c r="B205" s="63"/>
+      <c r="A205" s="48"/>
+      <c r="B205" s="48"/>
       <c r="C205" s="5" t="s">
         <v>85</v>
       </c>
@@ -35615,9 +35594,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N205" s="63"/>
-      <c r="O205" s="63"/>
-      <c r="P205" s="63"/>
+      <c r="N205" s="48"/>
+      <c r="O205" s="48"/>
+      <c r="P205" s="48"/>
       <c r="Q205" s="19" t="e">
         <f t="shared" si="44"/>
         <v>#DIV/0!</v>
@@ -35630,8 +35609,8 @@
         <f>IF(AND(L205&gt;=320,M205&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U205" s="63"/>
-      <c r="V205" s="63"/>
+      <c r="U205" s="48"/>
+      <c r="V205" s="48"/>
       <c r="W205" s="5" t="s">
         <v>85</v>
       </c>
@@ -35645,8 +35624,8 @@
       <c r="AE205" s="20"/>
     </row>
     <row r="206" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="63"/>
-      <c r="B206" s="63"/>
+      <c r="A206" s="48"/>
+      <c r="B206" s="48"/>
       <c r="C206" s="7" t="s">
         <v>86</v>
       </c>
@@ -35666,9 +35645,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N206" s="63"/>
-      <c r="O206" s="63"/>
-      <c r="P206" s="63"/>
+      <c r="N206" s="48"/>
+      <c r="O206" s="48"/>
+      <c r="P206" s="48"/>
       <c r="Q206" s="19" t="e">
         <f t="shared" si="44"/>
         <v>#DIV/0!</v>
@@ -35681,8 +35660,8 @@
         <f>IF(AND(L206&gt;=100),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U206" s="63"/>
-      <c r="V206" s="63"/>
+      <c r="U206" s="48"/>
+      <c r="V206" s="48"/>
       <c r="W206" s="7" t="s">
         <v>86</v>
       </c>
@@ -35696,8 +35675,8 @@
       <c r="AE206" s="20"/>
     </row>
     <row r="207" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="63"/>
-      <c r="B207" s="63"/>
+      <c r="A207" s="48"/>
+      <c r="B207" s="48"/>
       <c r="C207" s="7" t="s">
         <v>87</v>
       </c>
@@ -35717,9 +35696,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N207" s="63"/>
-      <c r="O207" s="63"/>
-      <c r="P207" s="63"/>
+      <c r="N207" s="48"/>
+      <c r="O207" s="48"/>
+      <c r="P207" s="48"/>
       <c r="Q207" s="19" t="str">
         <f>IF(AND(MIN(D207:K207)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -35732,8 +35711,8 @@
         <f>IF(AND(MIN(D207:K207)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U207" s="63"/>
-      <c r="V207" s="60"/>
+      <c r="U207" s="48"/>
+      <c r="V207" s="46"/>
       <c r="W207" s="7" t="s">
         <v>87</v>
       </c>
@@ -35747,8 +35726,8 @@
       <c r="AE207" s="20"/>
     </row>
     <row r="208" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="63"/>
-      <c r="B208" s="68" t="s">
+      <c r="A208" s="48"/>
+      <c r="B208" s="62" t="s">
         <v>34</v>
       </c>
       <c r="C208" s="5" t="s">
@@ -35770,9 +35749,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N208" s="63"/>
-      <c r="O208" s="63"/>
-      <c r="P208" s="63"/>
+      <c r="N208" s="48"/>
+      <c r="O208" s="48"/>
+      <c r="P208" s="48"/>
       <c r="Q208" s="19" t="e">
         <f t="shared" ref="Q208:Q210" si="45">IF(AND(L208&gt;=20,M208&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -35785,8 +35764,8 @@
         <f>IF(AND(L208&gt;=503.5,M208&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U208" s="63"/>
-      <c r="V208" s="65" t="s">
+      <c r="U208" s="48"/>
+      <c r="V208" s="47" t="s">
         <v>34</v>
       </c>
       <c r="W208" s="5" t="s">
@@ -35802,8 +35781,8 @@
       <c r="AE208" s="20"/>
     </row>
     <row r="209" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="63"/>
-      <c r="B209" s="69"/>
+      <c r="A209" s="48"/>
+      <c r="B209" s="63"/>
       <c r="C209" s="5" t="s">
         <v>85</v>
       </c>
@@ -35823,9 +35802,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N209" s="63"/>
-      <c r="O209" s="63"/>
-      <c r="P209" s="63"/>
+      <c r="N209" s="48"/>
+      <c r="O209" s="48"/>
+      <c r="P209" s="48"/>
       <c r="Q209" s="19" t="e">
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
@@ -35838,8 +35817,8 @@
         <f>IF(AND(L209&gt;=320,M209&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U209" s="63"/>
-      <c r="V209" s="63"/>
+      <c r="U209" s="48"/>
+      <c r="V209" s="48"/>
       <c r="W209" s="5" t="s">
         <v>85</v>
       </c>
@@ -35853,8 +35832,8 @@
       <c r="AE209" s="20"/>
     </row>
     <row r="210" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="63"/>
-      <c r="B210" s="69"/>
+      <c r="A210" s="48"/>
+      <c r="B210" s="63"/>
       <c r="C210" s="7" t="s">
         <v>86</v>
       </c>
@@ -35874,9 +35853,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N210" s="63"/>
-      <c r="O210" s="63"/>
-      <c r="P210" s="63"/>
+      <c r="N210" s="48"/>
+      <c r="O210" s="48"/>
+      <c r="P210" s="48"/>
       <c r="Q210" s="19" t="e">
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
@@ -35889,8 +35868,8 @@
         <f>IF(AND(L210&gt;=100),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U210" s="63"/>
-      <c r="V210" s="63"/>
+      <c r="U210" s="48"/>
+      <c r="V210" s="48"/>
       <c r="W210" s="7" t="s">
         <v>86</v>
       </c>
@@ -35904,8 +35883,8 @@
       <c r="AE210" s="20"/>
     </row>
     <row r="211" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="63"/>
-      <c r="B211" s="69"/>
+      <c r="A211" s="48"/>
+      <c r="B211" s="63"/>
       <c r="C211" s="7" t="s">
         <v>87</v>
       </c>
@@ -35925,9 +35904,9 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N211" s="60"/>
-      <c r="O211" s="60"/>
-      <c r="P211" s="60"/>
+      <c r="N211" s="46"/>
+      <c r="O211" s="46"/>
+      <c r="P211" s="46"/>
       <c r="Q211" s="19" t="str">
         <f>IF(AND(MIN(D211:K211)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -35940,8 +35919,8 @@
         <f>IF(AND(MIN(D211:K211)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U211" s="60"/>
-      <c r="V211" s="60"/>
+      <c r="U211" s="46"/>
+      <c r="V211" s="46"/>
       <c r="W211" s="7" t="s">
         <v>87</v>
       </c>
@@ -35955,7 +35934,7 @@
       <c r="AE211" s="20"/>
     </row>
     <row r="212" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="63"/>
+      <c r="A212" s="48"/>
       <c r="B212" s="9"/>
       <c r="C212" s="10"/>
       <c r="D212" s="10"/>
@@ -35976,7 +35955,7 @@
       <c r="S212" s="21"/>
     </row>
     <row r="213" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="63"/>
+      <c r="A213" s="48"/>
       <c r="B213" s="11"/>
       <c r="C213" s="9"/>
       <c r="D213" s="9"/>
@@ -36001,7 +35980,7 @@
       <c r="X213" s="23"/>
     </row>
     <row r="214" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="63"/>
+      <c r="A214" s="48"/>
       <c r="B214" s="11"/>
       <c r="C214" s="9"/>
       <c r="D214" s="9"/>
@@ -36026,7 +36005,7 @@
       <c r="X214" s="23"/>
     </row>
     <row r="215" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="63"/>
+      <c r="A215" s="48"/>
       <c r="B215" s="11"/>
       <c r="C215" s="9"/>
       <c r="D215" s="9"/>
@@ -36051,7 +36030,7 @@
       <c r="X215" s="23"/>
     </row>
     <row r="216" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="63"/>
+      <c r="A216" s="48"/>
       <c r="B216" s="11"/>
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
@@ -36076,7 +36055,7 @@
       <c r="X216" s="23"/>
     </row>
     <row r="217" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="63"/>
+      <c r="A217" s="48"/>
       <c r="B217" s="11"/>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
@@ -36101,7 +36080,7 @@
       <c r="X217" s="23"/>
     </row>
     <row r="218" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="63"/>
+      <c r="A218" s="48"/>
       <c r="B218" s="11"/>
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
@@ -36126,7 +36105,7 @@
       <c r="X218" s="23"/>
     </row>
     <row r="219" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="63"/>
+      <c r="A219" s="48"/>
       <c r="B219" s="11"/>
       <c r="C219" s="9"/>
       <c r="D219" s="9"/>
@@ -36151,7 +36130,7 @@
       <c r="X219" s="23"/>
     </row>
     <row r="220" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="63"/>
+      <c r="A220" s="48"/>
       <c r="B220" s="12"/>
       <c r="C220" s="13"/>
       <c r="D220" s="13"/>
@@ -36176,72 +36155,72 @@
       <c r="X220" s="23"/>
     </row>
     <row r="221" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="63"/>
-      <c r="B221" s="56" t="s">
+      <c r="A221" s="48"/>
+      <c r="B221" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C221" s="61" t="s">
+      <c r="C221" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D221" s="54" t="s">
+      <c r="D221" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="E221" s="55"/>
-      <c r="F221" s="55"/>
-      <c r="G221" s="55"/>
-      <c r="H221" s="55"/>
-      <c r="I221" s="55"/>
-      <c r="J221" s="55"/>
-      <c r="K221" s="55"/>
-      <c r="L221" s="56" t="s">
+      <c r="E221" s="59"/>
+      <c r="F221" s="59"/>
+      <c r="G221" s="59"/>
+      <c r="H221" s="59"/>
+      <c r="I221" s="59"/>
+      <c r="J221" s="59"/>
+      <c r="K221" s="59"/>
+      <c r="L221" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="M221" s="56" t="s">
+      <c r="M221" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="N221" s="51" t="s">
+      <c r="N221" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="O221" s="51" t="s">
+      <c r="O221" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="P221" s="51" t="s">
+      <c r="P221" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Q221" s="64" t="s">
+      <c r="Q221" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="R221" s="64" t="s">
+      <c r="R221" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="S221" s="64" t="s">
+      <c r="S221" s="56" t="s">
         <v>12</v>
       </c>
       <c r="T221" s="28"/>
-      <c r="U221" s="66" t="s">
+      <c r="U221" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="V221" s="56" t="s">
+      <c r="V221" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="W221" s="61" t="s">
+      <c r="W221" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="X221" s="56" t="s">
+      <c r="X221" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="Y221" s="57"/>
-      <c r="Z221" s="57"/>
-      <c r="AA221" s="57"/>
-      <c r="AB221" s="57"/>
-      <c r="AC221" s="57"/>
-      <c r="AD221" s="57"/>
-      <c r="AE221" s="58"/>
+      <c r="Y221" s="64"/>
+      <c r="Z221" s="64"/>
+      <c r="AA221" s="64"/>
+      <c r="AB221" s="64"/>
+      <c r="AC221" s="64"/>
+      <c r="AD221" s="64"/>
+      <c r="AE221" s="65"/>
     </row>
     <row r="222" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A222" s="63"/>
-      <c r="B222" s="60"/>
-      <c r="C222" s="60"/>
+      <c r="A222" s="48"/>
+      <c r="B222" s="46"/>
+      <c r="C222" s="46"/>
       <c r="D222" s="4" t="s">
         <v>19</v>
       </c>
@@ -36266,18 +36245,18 @@
       <c r="K222" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L222" s="60"/>
-      <c r="M222" s="60"/>
-      <c r="N222" s="60"/>
-      <c r="O222" s="60"/>
-      <c r="P222" s="60"/>
-      <c r="Q222" s="60"/>
-      <c r="R222" s="60"/>
-      <c r="S222" s="60"/>
+      <c r="L222" s="46"/>
+      <c r="M222" s="46"/>
+      <c r="N222" s="46"/>
+      <c r="O222" s="46"/>
+      <c r="P222" s="46"/>
+      <c r="Q222" s="46"/>
+      <c r="R222" s="46"/>
+      <c r="S222" s="46"/>
       <c r="T222" s="28"/>
-      <c r="U222" s="60"/>
-      <c r="V222" s="60"/>
-      <c r="W222" s="60"/>
+      <c r="U222" s="46"/>
+      <c r="V222" s="46"/>
+      <c r="W222" s="46"/>
       <c r="X222" s="4" t="s">
         <v>19</v>
       </c>
@@ -36304,8 +36283,8 @@
       </c>
     </row>
     <row r="223" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A223" s="63"/>
-      <c r="B223" s="70" t="s">
+      <c r="A223" s="48"/>
+      <c r="B223" s="61" t="s">
         <v>31</v>
       </c>
       <c r="C223" s="5" t="s">
@@ -36327,13 +36306,13 @@
         <f t="shared" ref="M223:M238" si="47">MIN(D223:K223)/L223</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N223" s="62" t="s">
+      <c r="N223" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="O223" s="62" t="s">
+      <c r="O223" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="P223" s="62" t="s">
+      <c r="P223" s="57" t="s">
         <v>83</v>
       </c>
       <c r="Q223" s="19" t="e">
@@ -36348,10 +36327,10 @@
         <f>IF(AND(L223&gt;=475,M223&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U223" s="65" t="s">
+      <c r="U223" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="V223" s="65" t="s">
+      <c r="V223" s="47" t="s">
         <v>31</v>
       </c>
       <c r="W223" s="5" t="s">
@@ -36367,8 +36346,8 @@
       <c r="AE223" s="25"/>
     </row>
     <row r="224" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A224" s="63"/>
-      <c r="B224" s="63"/>
+      <c r="A224" s="48"/>
+      <c r="B224" s="48"/>
       <c r="C224" s="5" t="s">
         <v>85</v>
       </c>
@@ -36388,9 +36367,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N224" s="63"/>
-      <c r="O224" s="63"/>
-      <c r="P224" s="63"/>
+      <c r="N224" s="48"/>
+      <c r="O224" s="48"/>
+      <c r="P224" s="48"/>
       <c r="Q224" s="19" t="e">
         <f t="shared" si="48"/>
         <v>#DIV/0!</v>
@@ -36403,8 +36382,8 @@
         <f>IF(AND(L224&gt;=300,M224&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U224" s="63"/>
-      <c r="V224" s="63"/>
+      <c r="U224" s="48"/>
+      <c r="V224" s="48"/>
       <c r="W224" s="5" t="s">
         <v>85</v>
       </c>
@@ -36418,8 +36397,8 @@
       <c r="AE224" s="25"/>
     </row>
     <row r="225" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A225" s="63"/>
-      <c r="B225" s="63"/>
+      <c r="A225" s="48"/>
+      <c r="B225" s="48"/>
       <c r="C225" s="7" t="s">
         <v>86</v>
       </c>
@@ -36439,9 +36418,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N225" s="63"/>
-      <c r="O225" s="63"/>
-      <c r="P225" s="63"/>
+      <c r="N225" s="48"/>
+      <c r="O225" s="48"/>
+      <c r="P225" s="48"/>
       <c r="Q225" s="19" t="e">
         <f t="shared" si="48"/>
         <v>#DIV/0!</v>
@@ -36454,8 +36433,8 @@
         <f>IF(AND(L225&gt;=95),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U225" s="63"/>
-      <c r="V225" s="63"/>
+      <c r="U225" s="48"/>
+      <c r="V225" s="48"/>
       <c r="W225" s="7" t="s">
         <v>86</v>
       </c>
@@ -36469,8 +36448,8 @@
       <c r="AE225" s="25"/>
     </row>
     <row r="226" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="63"/>
-      <c r="B226" s="63"/>
+      <c r="A226" s="48"/>
+      <c r="B226" s="48"/>
       <c r="C226" s="7" t="s">
         <v>87</v>
       </c>
@@ -36490,9 +36469,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N226" s="63"/>
-      <c r="O226" s="63"/>
-      <c r="P226" s="63"/>
+      <c r="N226" s="48"/>
+      <c r="O226" s="48"/>
+      <c r="P226" s="48"/>
       <c r="Q226" s="19" t="str">
         <f>IF(AND(MIN(D226:K226)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -36505,8 +36484,8 @@
         <f>IF(AND(MIN(D226:K226)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U226" s="63"/>
-      <c r="V226" s="60"/>
+      <c r="U226" s="48"/>
+      <c r="V226" s="46"/>
       <c r="W226" s="7" t="s">
         <v>87</v>
       </c>
@@ -36520,8 +36499,8 @@
       <c r="AE226" s="25"/>
     </row>
     <row r="227" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="63"/>
-      <c r="B227" s="70" t="s">
+      <c r="A227" s="48"/>
+      <c r="B227" s="61" t="s">
         <v>32</v>
       </c>
       <c r="C227" s="5" t="s">
@@ -36543,9 +36522,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N227" s="63"/>
-      <c r="O227" s="63"/>
-      <c r="P227" s="63"/>
+      <c r="N227" s="48"/>
+      <c r="O227" s="48"/>
+      <c r="P227" s="48"/>
       <c r="Q227" s="19" t="e">
         <f t="shared" ref="Q227:Q229" si="49">IF(AND(L227&gt;=20,M227&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -36558,8 +36537,8 @@
         <f>IF(AND(L227&gt;=475,M227&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U227" s="63"/>
-      <c r="V227" s="65" t="s">
+      <c r="U227" s="48"/>
+      <c r="V227" s="47" t="s">
         <v>32</v>
       </c>
       <c r="W227" s="5" t="s">
@@ -36575,8 +36554,8 @@
       <c r="AE227" s="25"/>
     </row>
     <row r="228" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A228" s="63"/>
-      <c r="B228" s="63"/>
+      <c r="A228" s="48"/>
+      <c r="B228" s="48"/>
       <c r="C228" s="5" t="s">
         <v>85</v>
       </c>
@@ -36596,9 +36575,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N228" s="63"/>
-      <c r="O228" s="63"/>
-      <c r="P228" s="63"/>
+      <c r="N228" s="48"/>
+      <c r="O228" s="48"/>
+      <c r="P228" s="48"/>
       <c r="Q228" s="19" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
@@ -36611,8 +36590,8 @@
         <f>IF(AND(L228&gt;=300,M228&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U228" s="63"/>
-      <c r="V228" s="63"/>
+      <c r="U228" s="48"/>
+      <c r="V228" s="48"/>
       <c r="W228" s="5" t="s">
         <v>85</v>
       </c>
@@ -36626,8 +36605,8 @@
       <c r="AE228" s="25"/>
     </row>
     <row r="229" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="63"/>
-      <c r="B229" s="63"/>
+      <c r="A229" s="48"/>
+      <c r="B229" s="48"/>
       <c r="C229" s="7" t="s">
         <v>86</v>
       </c>
@@ -36647,9 +36626,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N229" s="63"/>
-      <c r="O229" s="63"/>
-      <c r="P229" s="63"/>
+      <c r="N229" s="48"/>
+      <c r="O229" s="48"/>
+      <c r="P229" s="48"/>
       <c r="Q229" s="19" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
@@ -36662,8 +36641,8 @@
         <f>IF(AND(L229&gt;=95),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U229" s="63"/>
-      <c r="V229" s="63"/>
+      <c r="U229" s="48"/>
+      <c r="V229" s="48"/>
       <c r="W229" s="7" t="s">
         <v>86</v>
       </c>
@@ -36677,8 +36656,8 @@
       <c r="AE229" s="25"/>
     </row>
     <row r="230" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A230" s="63"/>
-      <c r="B230" s="63"/>
+      <c r="A230" s="48"/>
+      <c r="B230" s="48"/>
       <c r="C230" s="7" t="s">
         <v>87</v>
       </c>
@@ -36698,9 +36677,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N230" s="63"/>
-      <c r="O230" s="63"/>
-      <c r="P230" s="63"/>
+      <c r="N230" s="48"/>
+      <c r="O230" s="48"/>
+      <c r="P230" s="48"/>
       <c r="Q230" s="19" t="str">
         <f>IF(AND(MIN(D230:K230)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -36713,8 +36692,8 @@
         <f>IF(AND(MIN(D230:K230)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U230" s="63"/>
-      <c r="V230" s="60"/>
+      <c r="U230" s="48"/>
+      <c r="V230" s="46"/>
       <c r="W230" s="7" t="s">
         <v>87</v>
       </c>
@@ -36728,8 +36707,8 @@
       <c r="AE230" s="25"/>
     </row>
     <row r="231" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="63"/>
-      <c r="B231" s="70" t="s">
+      <c r="A231" s="48"/>
+      <c r="B231" s="61" t="s">
         <v>33</v>
       </c>
       <c r="C231" s="5" t="s">
@@ -36751,9 +36730,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N231" s="63"/>
-      <c r="O231" s="63"/>
-      <c r="P231" s="63"/>
+      <c r="N231" s="48"/>
+      <c r="O231" s="48"/>
+      <c r="P231" s="48"/>
       <c r="Q231" s="19" t="e">
         <f t="shared" ref="Q231:Q233" si="50">IF(AND(L231&gt;=20,M231&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -36766,8 +36745,8 @@
         <f>IF(AND(L231&gt;=475,M231&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U231" s="63"/>
-      <c r="V231" s="65" t="s">
+      <c r="U231" s="48"/>
+      <c r="V231" s="47" t="s">
         <v>33</v>
       </c>
       <c r="W231" s="5" t="s">
@@ -36783,8 +36762,8 @@
       <c r="AE231" s="25"/>
     </row>
     <row r="232" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="63"/>
-      <c r="B232" s="63"/>
+      <c r="A232" s="48"/>
+      <c r="B232" s="48"/>
       <c r="C232" s="5" t="s">
         <v>85</v>
       </c>
@@ -36804,9 +36783,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N232" s="63"/>
-      <c r="O232" s="63"/>
-      <c r="P232" s="63"/>
+      <c r="N232" s="48"/>
+      <c r="O232" s="48"/>
+      <c r="P232" s="48"/>
       <c r="Q232" s="19" t="e">
         <f t="shared" si="50"/>
         <v>#DIV/0!</v>
@@ -36819,8 +36798,8 @@
         <f>IF(AND(L232&gt;=300,M232&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U232" s="63"/>
-      <c r="V232" s="63"/>
+      <c r="U232" s="48"/>
+      <c r="V232" s="48"/>
       <c r="W232" s="5" t="s">
         <v>85</v>
       </c>
@@ -36834,8 +36813,8 @@
       <c r="AE232" s="25"/>
     </row>
     <row r="233" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="63"/>
-      <c r="B233" s="63"/>
+      <c r="A233" s="48"/>
+      <c r="B233" s="48"/>
       <c r="C233" s="7" t="s">
         <v>86</v>
       </c>
@@ -36855,9 +36834,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N233" s="63"/>
-      <c r="O233" s="63"/>
-      <c r="P233" s="63"/>
+      <c r="N233" s="48"/>
+      <c r="O233" s="48"/>
+      <c r="P233" s="48"/>
       <c r="Q233" s="19" t="e">
         <f t="shared" si="50"/>
         <v>#DIV/0!</v>
@@ -36870,8 +36849,8 @@
         <f>IF(AND(L233&gt;=95),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U233" s="63"/>
-      <c r="V233" s="63"/>
+      <c r="U233" s="48"/>
+      <c r="V233" s="48"/>
       <c r="W233" s="7" t="s">
         <v>86</v>
       </c>
@@ -36885,8 +36864,8 @@
       <c r="AE233" s="25"/>
     </row>
     <row r="234" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A234" s="63"/>
-      <c r="B234" s="63"/>
+      <c r="A234" s="48"/>
+      <c r="B234" s="48"/>
       <c r="C234" s="7" t="s">
         <v>87</v>
       </c>
@@ -36906,9 +36885,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N234" s="63"/>
-      <c r="O234" s="63"/>
-      <c r="P234" s="63"/>
+      <c r="N234" s="48"/>
+      <c r="O234" s="48"/>
+      <c r="P234" s="48"/>
       <c r="Q234" s="19" t="str">
         <f>IF(AND(MIN(D234:K234)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -36921,8 +36900,8 @@
         <f>IF(AND(MIN(D234:K234)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U234" s="63"/>
-      <c r="V234" s="60"/>
+      <c r="U234" s="48"/>
+      <c r="V234" s="46"/>
       <c r="W234" s="7" t="s">
         <v>87</v>
       </c>
@@ -36936,8 +36915,8 @@
       <c r="AE234" s="25"/>
     </row>
     <row r="235" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A235" s="63"/>
-      <c r="B235" s="68" t="s">
+      <c r="A235" s="48"/>
+      <c r="B235" s="62" t="s">
         <v>34</v>
       </c>
       <c r="C235" s="5" t="s">
@@ -36959,9 +36938,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N235" s="63"/>
-      <c r="O235" s="63"/>
-      <c r="P235" s="63"/>
+      <c r="N235" s="48"/>
+      <c r="O235" s="48"/>
+      <c r="P235" s="48"/>
       <c r="Q235" s="19" t="e">
         <f t="shared" ref="Q235:Q237" si="51">IF(AND(L235&gt;=20,M235&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
@@ -36974,8 +36953,8 @@
         <f>IF(AND(L235&gt;=475,M235&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U235" s="63"/>
-      <c r="V235" s="65" t="s">
+      <c r="U235" s="48"/>
+      <c r="V235" s="47" t="s">
         <v>34</v>
       </c>
       <c r="W235" s="5" t="s">
@@ -36991,8 +36970,8 @@
       <c r="AE235" s="25"/>
     </row>
     <row r="236" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A236" s="63"/>
-      <c r="B236" s="69"/>
+      <c r="A236" s="48"/>
+      <c r="B236" s="63"/>
       <c r="C236" s="5" t="s">
         <v>85</v>
       </c>
@@ -37012,9 +36991,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N236" s="63"/>
-      <c r="O236" s="63"/>
-      <c r="P236" s="63"/>
+      <c r="N236" s="48"/>
+      <c r="O236" s="48"/>
+      <c r="P236" s="48"/>
       <c r="Q236" s="19" t="e">
         <f t="shared" si="51"/>
         <v>#DIV/0!</v>
@@ -37027,8 +37006,8 @@
         <f>IF(AND(L236&gt;=300,M236&gt;=0.5),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U236" s="63"/>
-      <c r="V236" s="63"/>
+      <c r="U236" s="48"/>
+      <c r="V236" s="48"/>
       <c r="W236" s="5" t="s">
         <v>85</v>
       </c>
@@ -37042,8 +37021,8 @@
       <c r="AE236" s="25"/>
     </row>
     <row r="237" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A237" s="63"/>
-      <c r="B237" s="69"/>
+      <c r="A237" s="48"/>
+      <c r="B237" s="63"/>
       <c r="C237" s="7" t="s">
         <v>86</v>
       </c>
@@ -37063,9 +37042,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N237" s="63"/>
-      <c r="O237" s="63"/>
-      <c r="P237" s="63"/>
+      <c r="N237" s="48"/>
+      <c r="O237" s="48"/>
+      <c r="P237" s="48"/>
       <c r="Q237" s="19" t="e">
         <f t="shared" si="51"/>
         <v>#DIV/0!</v>
@@ -37078,8 +37057,8 @@
         <f>IF(AND(L237&gt;=95),"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U237" s="63"/>
-      <c r="V237" s="63"/>
+      <c r="U237" s="48"/>
+      <c r="V237" s="48"/>
       <c r="W237" s="7" t="s">
         <v>86</v>
       </c>
@@ -37093,8 +37072,8 @@
       <c r="AE237" s="25"/>
     </row>
     <row r="238" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A238" s="63"/>
-      <c r="B238" s="69"/>
+      <c r="A238" s="48"/>
+      <c r="B238" s="63"/>
       <c r="C238" s="7" t="s">
         <v>87</v>
       </c>
@@ -37114,9 +37093,9 @@
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N238" s="60"/>
-      <c r="O238" s="60"/>
-      <c r="P238" s="60"/>
+      <c r="N238" s="46"/>
+      <c r="O238" s="46"/>
+      <c r="P238" s="46"/>
       <c r="Q238" s="19" t="str">
         <f>IF(AND(MIN(D238:K238)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
@@ -37129,8 +37108,8 @@
         <f>IF(AND(MIN(D238:K238)&gt;=0),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="U238" s="60"/>
-      <c r="V238" s="60"/>
+      <c r="U238" s="46"/>
+      <c r="V238" s="46"/>
       <c r="W238" s="7" t="s">
         <v>87</v>
       </c>
@@ -37144,7 +37123,7 @@
       <c r="AE238" s="25"/>
     </row>
     <row r="239" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A239" s="63"/>
+      <c r="A239" s="48"/>
       <c r="B239" s="9"/>
       <c r="C239" s="10"/>
       <c r="D239" s="10"/>
@@ -37165,7 +37144,7 @@
       <c r="S239" s="21"/>
     </row>
     <row r="240" spans="1:31" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A240" s="63"/>
+      <c r="A240" s="48"/>
       <c r="B240" s="11"/>
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
@@ -37186,7 +37165,7 @@
       <c r="S240" s="22"/>
     </row>
     <row r="241" spans="1:24" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="63"/>
+      <c r="A241" s="48"/>
       <c r="B241" s="11"/>
       <c r="C241" s="9"/>
       <c r="D241" s="9"/>
@@ -37207,7 +37186,7 @@
       <c r="S241" s="22"/>
     </row>
     <row r="242" spans="1:24" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A242" s="63"/>
+      <c r="A242" s="48"/>
       <c r="B242" s="11"/>
       <c r="C242" s="9"/>
       <c r="D242" s="9"/>
@@ -37232,7 +37211,7 @@
       <c r="X242" s="23"/>
     </row>
     <row r="243" spans="1:24" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A243" s="63"/>
+      <c r="A243" s="48"/>
       <c r="B243" s="11"/>
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
@@ -37257,7 +37236,7 @@
       <c r="X243" s="23"/>
     </row>
     <row r="244" spans="1:24" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A244" s="63"/>
+      <c r="A244" s="48"/>
       <c r="B244" s="11"/>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
@@ -37282,7 +37261,7 @@
       <c r="X244" s="23"/>
     </row>
     <row r="245" spans="1:24" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="63"/>
+      <c r="A245" s="48"/>
       <c r="B245" s="11"/>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
@@ -37307,7 +37286,7 @@
       <c r="X245" s="23"/>
     </row>
     <row r="246" spans="1:24" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A246" s="63"/>
+      <c r="A246" s="48"/>
       <c r="B246" s="11"/>
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
@@ -37332,7 +37311,7 @@
       <c r="X246" s="23"/>
     </row>
     <row r="247" spans="1:24" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="60"/>
+      <c r="A247" s="46"/>
       <c r="B247" s="12"/>
       <c r="C247" s="13"/>
       <c r="D247" s="13"/>
@@ -37440,15 +37419,246 @@
     </row>
   </sheetData>
   <mergeCells count="273">
-    <mergeCell ref="V221:V222"/>
-    <mergeCell ref="V223:V226"/>
-    <mergeCell ref="V227:V230"/>
-    <mergeCell ref="V124:V127"/>
-    <mergeCell ref="V128:V131"/>
-    <mergeCell ref="V132:V135"/>
-    <mergeCell ref="V156:V159"/>
-    <mergeCell ref="V169:V170"/>
-    <mergeCell ref="V171:V174"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:AE2"/>
+    <mergeCell ref="A3:AE3"/>
+    <mergeCell ref="A4:AE4"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="X5:AE5"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="X28:AE28"/>
+    <mergeCell ref="A51:AE51"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="P7:P18"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="P30:P41"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="U7:U18"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="U30:U41"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="X52:AE52"/>
+    <mergeCell ref="D75:K75"/>
+    <mergeCell ref="X75:AE75"/>
+    <mergeCell ref="A98:AE98"/>
+    <mergeCell ref="D99:K99"/>
+    <mergeCell ref="X99:AE99"/>
+    <mergeCell ref="D122:K122"/>
+    <mergeCell ref="X122:AE122"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="M99:M100"/>
+    <mergeCell ref="X146:AE146"/>
+    <mergeCell ref="D169:K169"/>
+    <mergeCell ref="X169:AE169"/>
+    <mergeCell ref="A192:AE192"/>
+    <mergeCell ref="A193:AE193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="X194:AE194"/>
+    <mergeCell ref="B175:B178"/>
+    <mergeCell ref="B179:B182"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="P148:P159"/>
+    <mergeCell ref="P169:P170"/>
+    <mergeCell ref="P171:P182"/>
+    <mergeCell ref="P194:P195"/>
+    <mergeCell ref="U148:U159"/>
+    <mergeCell ref="U169:U170"/>
+    <mergeCell ref="U171:U182"/>
+    <mergeCell ref="U194:U195"/>
+    <mergeCell ref="V175:V178"/>
+    <mergeCell ref="V148:V151"/>
+    <mergeCell ref="V152:V155"/>
+    <mergeCell ref="X221:AE221"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A97"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A101:A144"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A148:A191"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="A196:A247"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A145:AE145"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="B128:B131"/>
+    <mergeCell ref="B132:B135"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="B152:B155"/>
+    <mergeCell ref="B156:B159"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="B171:B174"/>
+    <mergeCell ref="B196:B199"/>
+    <mergeCell ref="B200:B203"/>
+    <mergeCell ref="B204:B207"/>
+    <mergeCell ref="B208:B211"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="B223:B226"/>
+    <mergeCell ref="B227:B230"/>
+    <mergeCell ref="B231:B234"/>
+    <mergeCell ref="B235:B238"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="L122:L123"/>
+    <mergeCell ref="L146:L147"/>
+    <mergeCell ref="L169:L170"/>
+    <mergeCell ref="L194:L195"/>
+    <mergeCell ref="L221:L222"/>
+    <mergeCell ref="D221:K221"/>
+    <mergeCell ref="D146:K146"/>
+    <mergeCell ref="D52:K52"/>
+    <mergeCell ref="M122:M123"/>
+    <mergeCell ref="M146:M147"/>
+    <mergeCell ref="M169:M170"/>
+    <mergeCell ref="M194:M195"/>
+    <mergeCell ref="M221:M222"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N18"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="N30:N41"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="N54:N65"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="N77:N88"/>
+    <mergeCell ref="N99:N100"/>
+    <mergeCell ref="N101:N112"/>
+    <mergeCell ref="N122:N123"/>
+    <mergeCell ref="N124:N135"/>
+    <mergeCell ref="N146:N147"/>
+    <mergeCell ref="N148:N159"/>
+    <mergeCell ref="N169:N170"/>
+    <mergeCell ref="N171:N182"/>
+    <mergeCell ref="N194:N195"/>
+    <mergeCell ref="N196:N211"/>
+    <mergeCell ref="N221:N222"/>
+    <mergeCell ref="N223:N238"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="O7:O18"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="O30:O41"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="O54:O65"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="O77:O88"/>
+    <mergeCell ref="O99:O100"/>
+    <mergeCell ref="O101:O112"/>
+    <mergeCell ref="O122:O123"/>
+    <mergeCell ref="O124:O135"/>
+    <mergeCell ref="O146:O147"/>
+    <mergeCell ref="O148:O159"/>
+    <mergeCell ref="O169:O170"/>
+    <mergeCell ref="O171:O182"/>
+    <mergeCell ref="O194:O195"/>
+    <mergeCell ref="O196:O211"/>
+    <mergeCell ref="O221:O222"/>
+    <mergeCell ref="O223:O238"/>
+    <mergeCell ref="P196:P211"/>
+    <mergeCell ref="P221:P222"/>
+    <mergeCell ref="P223:P238"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="Q75:Q76"/>
+    <mergeCell ref="Q99:Q100"/>
+    <mergeCell ref="Q122:Q123"/>
+    <mergeCell ref="Q146:Q147"/>
+    <mergeCell ref="Q169:Q170"/>
+    <mergeCell ref="Q194:Q195"/>
+    <mergeCell ref="Q221:Q222"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="P54:P65"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="P77:P88"/>
+    <mergeCell ref="P99:P100"/>
+    <mergeCell ref="P101:P112"/>
+    <mergeCell ref="P122:P123"/>
+    <mergeCell ref="P124:P135"/>
+    <mergeCell ref="P146:P147"/>
+    <mergeCell ref="R221:R222"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="S75:S76"/>
+    <mergeCell ref="S99:S100"/>
+    <mergeCell ref="S122:S123"/>
+    <mergeCell ref="S146:S147"/>
+    <mergeCell ref="S169:S170"/>
+    <mergeCell ref="S194:S195"/>
+    <mergeCell ref="S221:S222"/>
+    <mergeCell ref="U124:U135"/>
+    <mergeCell ref="U146:U147"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="R75:R76"/>
+    <mergeCell ref="R99:R100"/>
+    <mergeCell ref="R122:R123"/>
+    <mergeCell ref="R146:R147"/>
+    <mergeCell ref="R169:R170"/>
+    <mergeCell ref="R194:R195"/>
+    <mergeCell ref="U52:U53"/>
+    <mergeCell ref="U54:U65"/>
+    <mergeCell ref="U75:U76"/>
+    <mergeCell ref="U77:U88"/>
+    <mergeCell ref="U99:U100"/>
+    <mergeCell ref="U101:U112"/>
+    <mergeCell ref="U122:U123"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="V30:V33"/>
+    <mergeCell ref="V34:V37"/>
+    <mergeCell ref="V38:V41"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="V146:V147"/>
+    <mergeCell ref="V105:V108"/>
+    <mergeCell ref="V109:V112"/>
+    <mergeCell ref="V122:V123"/>
+    <mergeCell ref="V54:V57"/>
+    <mergeCell ref="V58:V61"/>
+    <mergeCell ref="V62:V65"/>
+    <mergeCell ref="V75:V76"/>
+    <mergeCell ref="V77:V80"/>
+    <mergeCell ref="V81:V84"/>
+    <mergeCell ref="V85:V88"/>
+    <mergeCell ref="V99:V100"/>
+    <mergeCell ref="V101:V104"/>
     <mergeCell ref="U196:U211"/>
     <mergeCell ref="U221:U222"/>
     <mergeCell ref="U223:U238"/>
@@ -37473,246 +37683,15 @@
     <mergeCell ref="V7:V10"/>
     <mergeCell ref="V11:V14"/>
     <mergeCell ref="V15:V18"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="V30:V33"/>
-    <mergeCell ref="V34:V37"/>
-    <mergeCell ref="V38:V41"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="V146:V147"/>
-    <mergeCell ref="V105:V108"/>
-    <mergeCell ref="V109:V112"/>
-    <mergeCell ref="V122:V123"/>
-    <mergeCell ref="V54:V57"/>
-    <mergeCell ref="V58:V61"/>
-    <mergeCell ref="V62:V65"/>
-    <mergeCell ref="V75:V76"/>
-    <mergeCell ref="V77:V80"/>
-    <mergeCell ref="V81:V84"/>
-    <mergeCell ref="V85:V88"/>
-    <mergeCell ref="V99:V100"/>
-    <mergeCell ref="V101:V104"/>
-    <mergeCell ref="U124:U135"/>
-    <mergeCell ref="U146:U147"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="R75:R76"/>
-    <mergeCell ref="R99:R100"/>
-    <mergeCell ref="R122:R123"/>
-    <mergeCell ref="R146:R147"/>
-    <mergeCell ref="R169:R170"/>
-    <mergeCell ref="R194:R195"/>
-    <mergeCell ref="U52:U53"/>
-    <mergeCell ref="U54:U65"/>
-    <mergeCell ref="U75:U76"/>
-    <mergeCell ref="U77:U88"/>
-    <mergeCell ref="U99:U100"/>
-    <mergeCell ref="U101:U112"/>
-    <mergeCell ref="U122:U123"/>
-    <mergeCell ref="R221:R222"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="S52:S53"/>
-    <mergeCell ref="S75:S76"/>
-    <mergeCell ref="S99:S100"/>
-    <mergeCell ref="S122:S123"/>
-    <mergeCell ref="S146:S147"/>
-    <mergeCell ref="S169:S170"/>
-    <mergeCell ref="S194:S195"/>
-    <mergeCell ref="S221:S222"/>
-    <mergeCell ref="P196:P211"/>
-    <mergeCell ref="P221:P222"/>
-    <mergeCell ref="P223:P238"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="Q75:Q76"/>
-    <mergeCell ref="Q99:Q100"/>
-    <mergeCell ref="Q122:Q123"/>
-    <mergeCell ref="Q146:Q147"/>
-    <mergeCell ref="Q169:Q170"/>
-    <mergeCell ref="Q194:Q195"/>
-    <mergeCell ref="Q221:Q222"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="P54:P65"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="P77:P88"/>
-    <mergeCell ref="P99:P100"/>
-    <mergeCell ref="P101:P112"/>
-    <mergeCell ref="P122:P123"/>
-    <mergeCell ref="P124:P135"/>
-    <mergeCell ref="P146:P147"/>
-    <mergeCell ref="N223:N238"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="O7:O18"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="O30:O41"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="O54:O65"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="O77:O88"/>
-    <mergeCell ref="O99:O100"/>
-    <mergeCell ref="O101:O112"/>
-    <mergeCell ref="O122:O123"/>
-    <mergeCell ref="O124:O135"/>
-    <mergeCell ref="O146:O147"/>
-    <mergeCell ref="O148:O159"/>
-    <mergeCell ref="O169:O170"/>
-    <mergeCell ref="O171:O182"/>
-    <mergeCell ref="O194:O195"/>
-    <mergeCell ref="O196:O211"/>
-    <mergeCell ref="O221:O222"/>
-    <mergeCell ref="O223:O238"/>
-    <mergeCell ref="M122:M123"/>
-    <mergeCell ref="M146:M147"/>
-    <mergeCell ref="M169:M170"/>
-    <mergeCell ref="M194:M195"/>
-    <mergeCell ref="M221:M222"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N7:N18"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="N30:N41"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="N54:N65"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="N77:N88"/>
-    <mergeCell ref="N99:N100"/>
-    <mergeCell ref="N101:N112"/>
-    <mergeCell ref="N122:N123"/>
-    <mergeCell ref="N124:N135"/>
-    <mergeCell ref="N146:N147"/>
-    <mergeCell ref="N148:N159"/>
-    <mergeCell ref="N169:N170"/>
-    <mergeCell ref="N171:N182"/>
-    <mergeCell ref="N194:N195"/>
-    <mergeCell ref="N196:N211"/>
-    <mergeCell ref="N221:N222"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="L99:L100"/>
-    <mergeCell ref="L122:L123"/>
-    <mergeCell ref="L146:L147"/>
-    <mergeCell ref="L169:L170"/>
-    <mergeCell ref="L194:L195"/>
-    <mergeCell ref="L221:L222"/>
-    <mergeCell ref="D221:K221"/>
-    <mergeCell ref="D146:K146"/>
-    <mergeCell ref="D52:K52"/>
-    <mergeCell ref="B196:B199"/>
-    <mergeCell ref="B200:B203"/>
-    <mergeCell ref="B204:B207"/>
-    <mergeCell ref="B208:B211"/>
-    <mergeCell ref="B221:B222"/>
-    <mergeCell ref="B223:B226"/>
-    <mergeCell ref="B227:B230"/>
-    <mergeCell ref="B231:B234"/>
-    <mergeCell ref="B235:B238"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="B128:B131"/>
-    <mergeCell ref="B132:B135"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="B152:B155"/>
-    <mergeCell ref="B156:B159"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="B171:B174"/>
-    <mergeCell ref="X221:AE221"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A50"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A97"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A101:A144"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A148:A191"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="A196:A247"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A145:AE145"/>
-    <mergeCell ref="X146:AE146"/>
-    <mergeCell ref="D169:K169"/>
-    <mergeCell ref="X169:AE169"/>
-    <mergeCell ref="A192:AE192"/>
-    <mergeCell ref="A193:AE193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="X194:AE194"/>
-    <mergeCell ref="B175:B178"/>
-    <mergeCell ref="B179:B182"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="P148:P159"/>
-    <mergeCell ref="P169:P170"/>
-    <mergeCell ref="P171:P182"/>
-    <mergeCell ref="P194:P195"/>
-    <mergeCell ref="U148:U159"/>
-    <mergeCell ref="U169:U170"/>
-    <mergeCell ref="U171:U182"/>
-    <mergeCell ref="U194:U195"/>
-    <mergeCell ref="V175:V178"/>
-    <mergeCell ref="V148:V151"/>
-    <mergeCell ref="V152:V155"/>
-    <mergeCell ref="X52:AE52"/>
-    <mergeCell ref="D75:K75"/>
-    <mergeCell ref="X75:AE75"/>
-    <mergeCell ref="A98:AE98"/>
-    <mergeCell ref="D99:K99"/>
-    <mergeCell ref="X99:AE99"/>
-    <mergeCell ref="D122:K122"/>
-    <mergeCell ref="X122:AE122"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="M99:M100"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A2:AE2"/>
-    <mergeCell ref="A3:AE3"/>
-    <mergeCell ref="A4:AE4"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="X5:AE5"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="X28:AE28"/>
-    <mergeCell ref="A51:AE51"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="P7:P18"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="P30:P41"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="U7:U18"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="U30:U41"/>
-    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="V221:V222"/>
+    <mergeCell ref="V223:V226"/>
+    <mergeCell ref="V227:V230"/>
+    <mergeCell ref="V124:V127"/>
+    <mergeCell ref="V128:V131"/>
+    <mergeCell ref="V132:V135"/>
+    <mergeCell ref="V156:V159"/>
+    <mergeCell ref="V169:V170"/>
+    <mergeCell ref="V171:V174"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="D7:L9">
